--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e0b76cf1189e8ef/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D054BC-023D-4B7E-8149-F44E394BF1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4939D122-83B0-4E89-9F99-F1836C718D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Turnos" sheetId="4" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="SUCURSALES" sheetId="1" r:id="rId4"/>
+    <sheet name="SUCURSALES" sheetId="1" state="hidden" r:id="rId4"/>
     <sheet name="BANCOS" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="310">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -795,22 +795,22 @@
     <t>SUPER ZOO</t>
   </si>
   <si>
+    <t>COLGRAM</t>
+  </si>
+  <si>
+    <t>LP ARICA</t>
+  </si>
+  <si>
+    <t>LA POLAR</t>
+  </si>
+  <si>
+    <t>SUPER ZOO ARAUCO MAIPU</t>
+  </si>
+  <si>
+    <t>MEGAFRIO</t>
+  </si>
+  <si>
     <t>FASA</t>
-  </si>
-  <si>
-    <t>COLGRAM</t>
-  </si>
-  <si>
-    <t>LP ARICA</t>
-  </si>
-  <si>
-    <t>LA POLAR</t>
-  </si>
-  <si>
-    <t>SUPER ZOO ARAUCO MAIPU</t>
-  </si>
-  <si>
-    <t>MEGAFRIO</t>
   </si>
   <si>
     <t>PC FACTORY</t>
@@ -5473,7 +5473,7 @@
   <dimension ref="A1:U302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15610,17 +15610,17 @@
           </x14:formula1>
           <xm:sqref>O3:O302</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA73CEF9-B3AA-4AFE-A3BD-366BD4A2798E}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$2:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1:S1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB3C8CAF-8FCA-4539-8C12-725764C77B5C}">
           <x14:formula1>
             <xm:f>SUCURSALES!$A$2:$A$202</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA73CEF9-B3AA-4AFE-A3BD-366BD4A2798E}">
-          <x14:formula1>
-            <xm:f>Hoja2!$A$2:$A$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>S1:S1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17333,8 +17333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C201" sqref="C1:C201"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -17379,10 +17379,10 @@
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
         <v>249</v>
@@ -17390,648 +17390,648 @@
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
         <v>253</v>
-      </c>
-      <c r="B7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
         <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
         <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
         <v>249</v>
@@ -18039,43 +18039,43 @@
     </row>
     <row r="64" spans="1:3" ht="15">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15">
       <c r="A66" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>266</v>
@@ -18083,175 +18083,175 @@
     </row>
     <row r="68" spans="1:3" ht="15">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
         <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15">
       <c r="A79" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>254</v>
@@ -18259,263 +18259,263 @@
     </row>
     <row r="84" spans="1:3" ht="15">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="C88" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" t="s">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="B102" t="s">
         <v>62</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15">
       <c r="A103" t="s">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" t="s">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="C107" t="s">
         <v>249</v>
@@ -18523,54 +18523,54 @@
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" t="s">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C109" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="C112" t="s">
         <v>249</v>
@@ -18578,153 +18578,153 @@
     </row>
     <row r="113" spans="1:3" ht="15">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B114" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
         <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C117" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B118" t="s">
         <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15">
       <c r="A119" t="s">
-        <v>86</v>
+        <v>283</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C119" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="B123" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15">
       <c r="A124" t="s">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c r="B124" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15">
       <c r="A126" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C126" t="s">
         <v>254</v>
@@ -18732,57 +18732,57 @@
     </row>
     <row r="127" spans="1:3" ht="15">
       <c r="A127" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C127" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B128" t="s">
         <v>175</v>
       </c>
       <c r="C128" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15">
       <c r="A130" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B130" t="s">
         <v>83</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15">
@@ -18790,194 +18790,194 @@
         <v>144</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="C132" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="B133" t="s">
         <v>208</v>
       </c>
       <c r="C133" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15">
       <c r="A134" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="B134" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="C134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="C135" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15">
       <c r="A136" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="C136" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15">
       <c r="A137" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C137" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15">
       <c r="A139" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="C139" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15">
       <c r="A140" t="s">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C140" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15">
       <c r="A141" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B141" t="s">
         <v>83</v>
       </c>
       <c r="C141" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15">
       <c r="A142" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B142" t="s">
         <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15">
       <c r="A143" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="C143" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="B144" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15">
       <c r="A145" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="C145" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="C147" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15">
       <c r="A148" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="B148" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C148" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15">
       <c r="A149" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="B149" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="C149" t="s">
         <v>249</v>
@@ -18985,150 +18985,150 @@
     </row>
     <row r="150" spans="1:3" ht="15">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C150" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="B151" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C151" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15">
       <c r="A152" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B152" t="s">
         <v>83</v>
       </c>
       <c r="C152" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15">
       <c r="A153" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B153" t="s">
         <v>83</v>
       </c>
       <c r="C153" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15">
       <c r="A154" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B154" t="s">
         <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15">
       <c r="A155" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="B155" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C155" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15">
       <c r="A156" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C156" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15">
       <c r="A157" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B157" t="s">
         <v>83</v>
       </c>
       <c r="C157" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15">
       <c r="A158" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C158" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="C159" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15">
       <c r="A160" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="B160" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="C160" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15">
       <c r="A161" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="B161" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C161" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15">
       <c r="A162" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="B162" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15">
       <c r="A163" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B163" t="s">
         <v>196</v>
@@ -19139,54 +19139,54 @@
     </row>
     <row r="164" spans="1:3" ht="15">
       <c r="A164" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="B164" t="s">
         <v>196</v>
       </c>
       <c r="C164" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15">
       <c r="A165" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="C165" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B166" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C166" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15">
       <c r="A167" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15">
       <c r="A168" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="B168" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C168" t="s">
         <v>249</v>
@@ -19194,117 +19194,117 @@
     </row>
     <row r="169" spans="1:3" ht="15">
       <c r="A169" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C169" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15">
       <c r="A170" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B170" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="C170" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15">
       <c r="A171" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="B171" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15">
       <c r="A172" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C172" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15">
       <c r="A173" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B173" t="s">
         <v>83</v>
       </c>
       <c r="C173" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15">
       <c r="A174" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B174" t="s">
         <v>83</v>
       </c>
       <c r="C174" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15">
       <c r="A175" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B175" t="s">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="C175" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15">
       <c r="A176" t="s">
-        <v>69</v>
+        <v>289</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="C176" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15">
       <c r="A177" t="s">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="B177" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C177" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15">
       <c r="A178" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="B178" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="C178" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B179" t="s">
         <v>208</v>
@@ -19315,164 +19315,164 @@
     </row>
     <row r="180" spans="1:3" ht="15">
       <c r="A180" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="B180" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="C180" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15">
       <c r="A181" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B181" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C181" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15">
       <c r="A182" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B182" t="s">
         <v>83</v>
       </c>
       <c r="C182" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15">
       <c r="A183" t="s">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="B183" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C183" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B184" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C184" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15">
       <c r="A185" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="B185" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C185" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15">
       <c r="A186" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="B186" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="C186" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15">
       <c r="A187" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="B187" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C187" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15">
       <c r="A188" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="C188" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15">
       <c r="A189" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B190" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C190" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15">
       <c r="A191" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B191" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C191" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15">
       <c r="A192" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="B192" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C192" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15">
       <c r="A193" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B193" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="C193" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15">
       <c r="A194" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C194" t="s">
         <v>249</v>
@@ -19480,81 +19480,71 @@
     </row>
     <row r="195" spans="1:3" ht="15">
       <c r="A195" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C195" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="C196" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15">
       <c r="A197" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B197" t="s">
-        <v>274</v>
+        <v>62</v>
       </c>
       <c r="C197" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15">
       <c r="A198" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B198" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="C198" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15">
       <c r="A199" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C199" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="B200" t="s">
         <v>196</v>
       </c>
       <c r="C200" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="15">
-      <c r="A201" t="s">
-        <v>296</v>
-      </c>
-      <c r="B201" t="s">
-        <v>196</v>
-      </c>
-      <c r="C201" t="s">
         <v>248</v>
       </c>
     </row>
+    <row r="201" spans="1:3" ht="15"/>
     <row r="202" spans="1:3" ht="15">
       <c r="B202" s="27"/>
     </row>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e0b76cf1189e8ef/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4939D122-83B0-4E89-9F99-F1836C718D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{607CF071-2968-4616-9FBE-51D6A9BADB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5710" r:id="rId6"/>
+    <pivotCache cacheId="4067" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="340">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -144,447 +144,450 @@
     <t>REEMPLAZO VACACIONES</t>
   </si>
   <si>
+    <t>COLGRAM OPALINE TALCA</t>
+  </si>
+  <si>
+    <t>$25.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre </t>
+  </si>
+  <si>
+    <t>EXTRANJERO</t>
+  </si>
+  <si>
+    <t>BANCO BICE</t>
+  </si>
+  <si>
+    <t>REEMPLAZO LICENCIA MEDICA</t>
+  </si>
+  <si>
+    <t>MOTIVOS</t>
+  </si>
+  <si>
+    <t>REACCIÓN</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>REEMPLAZO DIA LIBRE</t>
+  </si>
+  <si>
+    <t>REEMPLAZO AUSENCIA</t>
+  </si>
+  <si>
+    <t>REEMPLAZO CURSO OS10</t>
+  </si>
+  <si>
+    <t>REEMPLAZO PERMISO SIN GOCE</t>
+  </si>
+  <si>
+    <t>REEMPLAZO PERMISO CON GOCE</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Cuenta de Rut Jefe</t>
+  </si>
+  <si>
+    <t>AMADOR GUILLERMO RUIZ</t>
+  </si>
+  <si>
+    <t>AUTOPLANET PAICAVI</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 195 CONCEPCION</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 527, LAS MONJAS</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 191 COLON / NUEVA IMPERIAL</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 276 J. ALESSANDRI</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 289 BARRO ARANAS</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 466 LOS ANGELES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 643 CONCEPCION</t>
+  </si>
+  <si>
+    <t>IMPERIAL CONCEPCION</t>
+  </si>
+  <si>
+    <t>LA POLAR CONCEPCION</t>
+  </si>
+  <si>
+    <t>LA POLAR CORONEL</t>
+  </si>
+  <si>
+    <t>LA POLAR LOS ANGELES</t>
+  </si>
+  <si>
+    <t>TATTERSALL TALCAHUANO</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO ARAYA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 136 OVALLE</t>
+  </si>
+  <si>
+    <t>LA POLAR COPIAPO</t>
+  </si>
+  <si>
+    <t>LA POLAR COQUIMBO</t>
+  </si>
+  <si>
+    <t>LA POLAR OVALLE</t>
+  </si>
+  <si>
+    <t>FELIPE ESTEBAN SILVA</t>
+  </si>
+  <si>
+    <t>ASEO TARPULIN ESTACION CENTRAL</t>
+  </si>
+  <si>
+    <t>ASEO TARPULIN VITACURA</t>
+  </si>
+  <si>
+    <t>STARBUCKS BANDERA</t>
+  </si>
+  <si>
+    <t>STARBUCKS CALLAO DRUGSTORE</t>
+  </si>
+  <si>
+    <t>STARBUCKS COSTANERA CENTER</t>
+  </si>
+  <si>
+    <t>STARBUCKS ESTACIÓN CENTRAL</t>
+  </si>
+  <si>
+    <t>STARBUCKS LASTARRIA/ TORRE AMUNATEGUI</t>
+  </si>
+  <si>
+    <t>STARBUCKS LYON</t>
+  </si>
+  <si>
+    <t>STARBUCKS MACUL</t>
+  </si>
+  <si>
+    <t>STARBUCKS MAGDALENA</t>
+  </si>
+  <si>
+    <t>STARBUCKS MANUEL MONTT/  LA CONCEPCION</t>
+  </si>
+  <si>
+    <t>STARBUCKS REPÚBLICA</t>
+  </si>
+  <si>
+    <t>FLOR ADRIANA PONCE</t>
+  </si>
+  <si>
+    <t>ADELCO LOBOZA</t>
+  </si>
+  <si>
+    <t>ADELCO LOBOZA PREVENCIÓN DE PERDIDAS</t>
+  </si>
+  <si>
+    <t>GABRIEL EDUARDO PUEBLA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 326 EMILIA TELLES</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 422, PUENTE ALTO</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 462 PORTUGAL URGENCIA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 696, LAS CONDES</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 732 Mall Plaza Egaña</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 748, VITACURA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 755, NVA COSTANERA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 77 FCO. BILBAO</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 791, PUENTE ALTO</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 91, VITACURA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA WALKER MARTINEZ 550</t>
+  </si>
+  <si>
+    <t>F.AHUMADA  534 SIMON BOLIVAR</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 11 KENNEDY</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 15 JUAN MOYA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 201 VICUÑA M</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 203 FCO BILBAO / HOLANDA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 205 FRANCISCO BILBAO URGENCIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 212 SAN DAMIAN URGENCIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 237 JUMBO LA FLORIDA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 272 PROVIDENCIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 282 PROVIDENCIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 284 MACUL</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 285 LA DEHESA 457</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 288 GRAN AVENIDA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 292 LA FLORIDA URGENCIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 336 GRAN AVENIDA 5001 / SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 337 LOS MILITARES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 347 CONSISTORIAL</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 348 ALFREDO SILVA CARVALLO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 35 LA REINA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 351VITACURA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 354 SAN PABLO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 360 RAMON FREIRE / PAJARITO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 374 AGRICOLA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 383 PAUL HARRIS</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 482 GRAN AVENIDA 4293 SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 488 FONTOVA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 58 URGENCIA COLON</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 597 PLAZA EGAÑA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 64 JUMBO AMERICO VESPUCIO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 656 COSTANERA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 659 PLAZA NORTE</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 69 PASEO AHUMADA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 70 MELIPILLA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 718, PEÑALOLEN</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 76 CONCHA Y TORO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 81 RAMON FREIRE URGENCIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 84 PRINCIPE DE GALES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 98 P. VALDIVIA / DIAGONAL</t>
+  </si>
+  <si>
+    <t>F.AHUMADA AHUMADA  710</t>
+  </si>
+  <si>
+    <t>F.AHUMADA AHUMADA 708</t>
+  </si>
+  <si>
+    <t>F.AHUMADA BANDERA 705</t>
+  </si>
+  <si>
+    <t>F.AHUMADA EL BOSQUE 033</t>
+  </si>
+  <si>
+    <t>F.AHUMADA ENRIQUE FOSTER 283</t>
+  </si>
+  <si>
+    <t>F.AHUMADA FROILAN ROA 394</t>
+  </si>
+  <si>
+    <t>F.AHUMADA HUERFANOS 707</t>
+  </si>
+  <si>
+    <t>F.AHUMADA PLAZA OESTE 551</t>
+  </si>
+  <si>
+    <t>F.AHUMADA VITACURA 317</t>
+  </si>
+  <si>
+    <t>SPOT F.AHUMADA 37 ARTURO PRAT</t>
+  </si>
+  <si>
+    <t>GUILLERMO ANDRES SALINAS</t>
+  </si>
+  <si>
+    <t>OFICINA LICENCIAS</t>
+  </si>
+  <si>
+    <t>OFICINA VOLANTES</t>
+  </si>
+  <si>
+    <t>JAVIER MARCOS GUTIERREZ</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 221 PUERTO MONTT</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 304 CASTRO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 368 HOCHSTETTER TEMUCO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 373 SARGENTO ALDEA AYSEN</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 381 ALEMANIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 555 OSORNO</t>
+  </si>
+  <si>
+    <t>IMPERIAL PUERTO MONTT</t>
+  </si>
+  <si>
+    <t>IMPERIAL TEMUCO</t>
+  </si>
+  <si>
+    <t>LA POLAR PUERTO MONTT</t>
+  </si>
+  <si>
+    <t>PC FACTORY TEMUCO</t>
+  </si>
+  <si>
+    <t>TATTERSALL PUERTO MONTT</t>
+  </si>
+  <si>
+    <t>JUAN ENRIQUE YAÑEZ</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 490 QUILLOTA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 699 VALPARAISO MONTT</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 715 LIBERTAD</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 141 AV VALPARAISO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 145 VIÑA DEL MAR</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 159 VILLA ALEMANA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 219 QUILPUE</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 623 CONCON</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 703</t>
+  </si>
+  <si>
+    <t>LA POLAR SAN ANTONIO</t>
+  </si>
+  <si>
+    <t>LA POLAR VALPARAISO</t>
+  </si>
+  <si>
+    <t>LA POLAR VIÑA DEL MAR</t>
+  </si>
+  <si>
+    <t>STARBUCKS LIBERTAD</t>
+  </si>
+  <si>
+    <t>SUPER ZOO LIBERTAD</t>
+  </si>
+  <si>
+    <t>KARINA PAOLA ESPAÑA</t>
+  </si>
+  <si>
+    <t>LA POLAR PUNTA ARENAS</t>
+  </si>
+  <si>
+    <t>MARGARITA ISABEL GONZALEZ</t>
+  </si>
+  <si>
+    <t>AUTO PLANET SAN PABLO</t>
+  </si>
+  <si>
+    <t>AUTOPLANET GABRIELA</t>
+  </si>
+  <si>
+    <t>AUTOPLANET PUENTE ALTO</t>
+  </si>
+  <si>
     <t>COPEC LAMPA</t>
   </si>
   <si>
-    <t>$25.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre </t>
-  </si>
-  <si>
-    <t>EXTRANJERO</t>
-  </si>
-  <si>
-    <t>BANCO BICE</t>
-  </si>
-  <si>
-    <t>REEMPLAZO LICENCIA MEDICA</t>
-  </si>
-  <si>
-    <t>MOTIVOS</t>
-  </si>
-  <si>
-    <t>REACCIÓN</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>REEMPLAZO DIA LIBRE</t>
-  </si>
-  <si>
-    <t>REEMPLAZO AUSENCIA</t>
-  </si>
-  <si>
-    <t>REEMPLAZO CURSO OS10</t>
-  </si>
-  <si>
-    <t>REEMPLAZO PERMISO SIN GOCE</t>
-  </si>
-  <si>
-    <t>REEMPLAZO PERMISO CON GOCE</t>
-  </si>
-  <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>Cuenta de Rut Jefe</t>
-  </si>
-  <si>
-    <t>AMADOR GUILLERMO RUIZ</t>
-  </si>
-  <si>
-    <t>AUTOPLANET PAICAVI</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 195 CONCEPCION</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 527, LAS MONJAS</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 191 COLON / NUEVA IMPERIAL</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 276 J. ALESSANDRI</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 289 BARRO ARANAS</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 466 LOS ANGELES</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 643 CONCEPCION</t>
-  </si>
-  <si>
-    <t>IMPERIAL CONCEPCION</t>
-  </si>
-  <si>
-    <t>LA POLAR CONCEPCION</t>
-  </si>
-  <si>
-    <t>LA POLAR CORONEL</t>
-  </si>
-  <si>
-    <t>LA POLAR LOS ANGELES</t>
-  </si>
-  <si>
-    <t>TATTERSALL TALCAHUANO</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO ARAYA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 136 OVALLE</t>
-  </si>
-  <si>
-    <t>LA POLAR COPIAPO</t>
-  </si>
-  <si>
-    <t>LA POLAR COQUIMBO</t>
-  </si>
-  <si>
-    <t>LA POLAR OVALLE</t>
-  </si>
-  <si>
-    <t>FELIPE ESTEBAN SILVA</t>
-  </si>
-  <si>
-    <t>ASEO TARPULIN ESTACION CENTRAL</t>
-  </si>
-  <si>
-    <t>ASEO TARPULIN VITACURA</t>
-  </si>
-  <si>
-    <t>STARBUCKS BANDERA</t>
-  </si>
-  <si>
-    <t>STARBUCKS CALLAO DRUGSTORE</t>
-  </si>
-  <si>
-    <t>STARBUCKS COSTANERA CENTER</t>
-  </si>
-  <si>
-    <t>STARBUCKS ESTACIÓN CENTRAL</t>
-  </si>
-  <si>
-    <t>STARBUCKS LASTARRIA/ TORRE AMUNATEGUI</t>
-  </si>
-  <si>
-    <t>STARBUCKS LYON</t>
-  </si>
-  <si>
-    <t>STARBUCKS MACUL</t>
-  </si>
-  <si>
-    <t>STARBUCKS MAGDALENA</t>
-  </si>
-  <si>
-    <t>STARBUCKS MANUEL MONTT/  LA CONCEPCION</t>
-  </si>
-  <si>
-    <t>STARBUCKS REPÚBLICA</t>
-  </si>
-  <si>
-    <t>FLOR ADRIANA PONCE</t>
-  </si>
-  <si>
-    <t>ADELCO LOBOZA</t>
-  </si>
-  <si>
-    <t>ADELCO LOBOZA PREVENCIÓN DE PERDIDAS</t>
-  </si>
-  <si>
-    <t>GABRIEL EDUARDO PUEBLA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 326 EMILIA TELLES</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 422, PUENTE ALTO</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 462 PORTUGAL URGENCIA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 696, LAS CONDES</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 732 Mall Plaza Egaña</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 748, VITACURA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 755, NVA COSTANERA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 77 FCO. BILBAO</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 791, PUENTE ALTO</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 91, VITACURA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA WALKER MARTINEZ 550</t>
-  </si>
-  <si>
-    <t>F.AHUMADA  534 SIMON BOLIVAR</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 11 KENNEDY</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 15 JUAN MOYA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 201 VICUÑA M</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 203 FCO BILBAO / HOLANDA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 205 FRANCISCO BILBAO URGENCIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 212 SAN DAMIAN URGENCIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 237 JUMBO LA FLORIDA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 272 PROVIDENCIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 282 PROVIDENCIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 284 MACUL</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 285 LA DEHESA 457</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 288 GRAN AVENIDA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 292 LA FLORIDA URGENCIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 336 GRAN AVENIDA 5001 / SAN MIGUEL</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 337 LOS MILITARES</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 347 CONSISTORIAL</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 348 ALFREDO SILVA CARVALLO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 35 LA REINA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 351VITACURA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 354 SAN PABLO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 360 RAMON FREIRE / PAJARITO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 374 AGRICOLA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 383 PAUL HARRIS</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 482 GRAN AVENIDA 4293 SAN MIGUEL</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 488 FONTOVA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 58 URGENCIA COLON</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 597 PLAZA EGAÑA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 64 JUMBO AMERICO VESPUCIO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 656 COSTANERA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 659 PLAZA NORTE</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 69 PASEO AHUMADA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 70 MELIPILLA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 718, PEÑALOLEN</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 76 CONCHA Y TORO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 81 RAMON FREIRE URGENCIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 84 PRINCIPE DE GALES</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 98 P. VALDIVIA / DIAGONAL</t>
-  </si>
-  <si>
-    <t>F.AHUMADA AHUMADA  710</t>
-  </si>
-  <si>
-    <t>F.AHUMADA AHUMADA 708</t>
-  </si>
-  <si>
-    <t>F.AHUMADA BANDERA 705</t>
-  </si>
-  <si>
-    <t>F.AHUMADA EL BOSQUE 033</t>
-  </si>
-  <si>
-    <t>F.AHUMADA ENRIQUE FOSTER 283</t>
-  </si>
-  <si>
-    <t>F.AHUMADA FROILAN ROA 394</t>
-  </si>
-  <si>
-    <t>F.AHUMADA HUERFANOS 707</t>
-  </si>
-  <si>
-    <t>F.AHUMADA PLAZA OESTE 551</t>
-  </si>
-  <si>
-    <t>F.AHUMADA VITACURA 317</t>
-  </si>
-  <si>
-    <t>SPOT F.AHUMADA 37 ARTURO PRAT</t>
-  </si>
-  <si>
-    <t>GUILLERMO ANDRES SALINAS</t>
-  </si>
-  <si>
-    <t>OFICINA LICENCIAS</t>
-  </si>
-  <si>
-    <t>OFICINA VOLANTES</t>
-  </si>
-  <si>
-    <t>JAVIER MARCOS GUTIERREZ</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 221 PUERTO MONTT</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 304 CASTRO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 368 HOCHSTETTER TEMUCO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 373 SARGENTO ALDEA AYSEN</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 381 ALEMANIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 555 OSORNO</t>
-  </si>
-  <si>
-    <t>IMPERIAL PUERTO MONTT</t>
-  </si>
-  <si>
-    <t>IMPERIAL TEMUCO</t>
-  </si>
-  <si>
-    <t>LA POLAR PUERTO MONTT</t>
-  </si>
-  <si>
-    <t>PC FACTORY TEMUCO</t>
-  </si>
-  <si>
-    <t>TATTERSALL PUERTO MONTT</t>
-  </si>
-  <si>
-    <t>JUAN ENRIQUE YAÑEZ</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 490 QUILLOTA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 699 VALPARAISO MONTT</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 715 LIBERTAD</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 141 AV VALPARAISO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 145 VIÑA DEL MAR</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 159 VILLA ALEMANA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 219 QUILPUE</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 623 CONCON</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 703</t>
-  </si>
-  <si>
-    <t>LA POLAR SAN ANTONIO</t>
-  </si>
-  <si>
-    <t>LA POLAR VALPARAISO</t>
-  </si>
-  <si>
-    <t>LA POLAR VIÑA DEL MAR</t>
-  </si>
-  <si>
-    <t>STARBUCKS LIBERTAD</t>
-  </si>
-  <si>
-    <t>SUPER ZOO LIBERTAD</t>
-  </si>
-  <si>
-    <t>KARINA PAOLA ESPAÑA</t>
-  </si>
-  <si>
-    <t>LA POLAR PUNTA ARENAS</t>
-  </si>
-  <si>
-    <t>MARGARITA ISABEL GONZALEZ</t>
-  </si>
-  <si>
-    <t>AUTO PLANET SAN PABLO</t>
-  </si>
-  <si>
-    <t>AUTOPLANET GABRIELA</t>
-  </si>
-  <si>
-    <t>AUTOPLANET PUENTE ALTO</t>
-  </si>
-  <si>
     <t>COPEC SAN FCO MOSTAZAL ORIENTE</t>
   </si>
   <si>
@@ -690,9 +693,6 @@
     <t>COLGRAM IRARRAZAVAL</t>
   </si>
   <si>
-    <t>COLGRAM OPALINE TALCA</t>
-  </si>
-  <si>
     <t>CONDOMINIO SANTA CRUZ</t>
   </si>
   <si>
@@ -789,154 +789,244 @@
     <t>Nombre Centro Costo 1</t>
   </si>
   <si>
+    <t>ADELCO</t>
+  </si>
+  <si>
+    <t>ADR ALTO HOSPICIO</t>
+  </si>
+  <si>
+    <t>ADR</t>
+  </si>
+  <si>
+    <t>ADR ANTOFAGASTA</t>
+  </si>
+  <si>
+    <t>ADR ARICA</t>
+  </si>
+  <si>
+    <t>ADR CAÑETE</t>
+  </si>
+  <si>
+    <t>ADR CASTRO</t>
+  </si>
+  <si>
+    <t>ADR CONCEPCION</t>
+  </si>
+  <si>
+    <t>ADR COYHAIQUE</t>
+  </si>
+  <si>
+    <t>LUIS MARCELO MOLINA</t>
+  </si>
+  <si>
+    <t>ADR ILLAPEL</t>
+  </si>
+  <si>
+    <t>ADR IQUIQUE</t>
+  </si>
+  <si>
+    <t>ADR LINARES</t>
+  </si>
+  <si>
+    <t>ADR OVALLE</t>
+  </si>
+  <si>
+    <t>ADR TOCOPILLA</t>
+  </si>
+  <si>
+    <t>ADR VALLENAR I</t>
+  </si>
+  <si>
+    <t>ADR VALLENAR II</t>
+  </si>
+  <si>
+    <t>ADR VALPARAISO</t>
+  </si>
+  <si>
+    <t>JUAN ENRIQUE YANEZ</t>
+  </si>
+  <si>
+    <t>ADR VIÑA DEL MAR</t>
+  </si>
+  <si>
+    <t>MARIA DEL PILAR VEGA</t>
+  </si>
+  <si>
+    <t>TARPULIN</t>
+  </si>
+  <si>
+    <t>AUTOPLANET BUIN</t>
+  </si>
+  <si>
+    <t>AUTOPLANET</t>
+  </si>
+  <si>
+    <t>AUTOPLANET CONCEPCION PRAT</t>
+  </si>
+  <si>
+    <t>AUTOPLANET CORONEL</t>
+  </si>
+  <si>
+    <t>AUTOPLANET GRAN AVENIDA P30</t>
+  </si>
+  <si>
+    <t>AUTOPLANET GRAN AVENIDA P40</t>
+  </si>
+  <si>
+    <t>AUTOPLANET LA FLORIDA</t>
+  </si>
+  <si>
+    <t>AUTOPLANET MAIPU</t>
+  </si>
+  <si>
+    <t>AUTOPLANET QUILICURA</t>
+  </si>
+  <si>
+    <t>AUTOPLANET QUINTA NORMAL</t>
+  </si>
+  <si>
+    <t>AUTOPLANET RECOLETA</t>
+  </si>
+  <si>
+    <t>AUTOPLANET SAN PABLO</t>
+  </si>
+  <si>
+    <t>AUTOPLANET TALCAHUANO</t>
+  </si>
+  <si>
+    <t>AUTOPLANET VALPARAISO</t>
+  </si>
+  <si>
+    <t>COLLOKY</t>
+  </si>
+  <si>
+    <t>COLGRAM COLLOKY AHUMADA</t>
+  </si>
+  <si>
+    <t>COLGRAM COLLOKY RANCAGUA</t>
+  </si>
+  <si>
+    <t>COLGRAM ZOLKAN BUENAVENTURA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO</t>
+  </si>
+  <si>
+    <t>COPEC ANTOFAGASTA</t>
+  </si>
+  <si>
     <t>COPEC</t>
   </si>
   <si>
+    <t>COPEC COSTANERA</t>
+  </si>
+  <si>
+    <t>COPEC SAN FCO MOSTAZAL PONIENTE</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 08, LAS CONDES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 134 CORDOVEZ</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 280 SAN PEDRO</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 572, PEÑALOLEN</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 670</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 734, ANTOFAGASTA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 300 LOS TRAPENSES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 320 ALEMANIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 367 PTO NATALES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 470 SAN VICENTE TAGUA TAGUA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 480, LINARES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 492 VICTORIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 533 RAMIREZ</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 567, LA SERENA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 622 LOS PABLOS</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 681, COPIAPO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 758, COQUIMBO</t>
+  </si>
+  <si>
+    <t>IMPERIAL</t>
+  </si>
+  <si>
+    <t>ITALFRENO</t>
+  </si>
+  <si>
+    <t>LA POLAR</t>
+  </si>
+  <si>
+    <t>LIMONADA</t>
+  </si>
+  <si>
+    <t>LOS TRAPENSES DECATHLON</t>
+  </si>
+  <si>
+    <t>DECATHLON</t>
+  </si>
+  <si>
+    <t>LP ARICA</t>
+  </si>
+  <si>
+    <t>MEGAFRIO</t>
+  </si>
+  <si>
+    <t>PC FACTORY</t>
+  </si>
+  <si>
+    <t>PORTAL LA DEHESA, DECATHLON</t>
+  </si>
+  <si>
+    <t>RECETARIO MAGISTRAL</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
     <t>SUPER ZOO</t>
   </si>
   <si>
-    <t>COLGRAM</t>
-  </si>
-  <si>
-    <t>LP ARICA</t>
-  </si>
-  <si>
-    <t>LA POLAR</t>
+    <t>SUPER ZOO ANTOFAGASTA</t>
   </si>
   <si>
     <t>SUPER ZOO ARAUCO MAIPU</t>
   </si>
   <si>
-    <t>MEGAFRIO</t>
-  </si>
-  <si>
-    <t>FASA</t>
-  </si>
-  <si>
-    <t>PC FACTORY</t>
-  </si>
-  <si>
-    <t>COPEC COSTANERA</t>
-  </si>
-  <si>
-    <t>IMPERIAL</t>
-  </si>
-  <si>
-    <t>ADR CASTRO</t>
-  </si>
-  <si>
-    <t>ADR VALPARAISO</t>
-  </si>
-  <si>
-    <t>COPEC SAN FCO MOSTAZAL PONIENTE</t>
+    <t>SUPER ZOO P. FONTOVA</t>
   </si>
   <si>
     <t>TATTERSALL</t>
-  </si>
-  <si>
-    <t>LUIS MOLINA</t>
-  </si>
-  <si>
-    <t>ADR ARICA</t>
-  </si>
-  <si>
-    <t>ADELCO</t>
-  </si>
-  <si>
-    <t>AUTOPLANET</t>
-  </si>
-  <si>
-    <t>STARBUCKS</t>
-  </si>
-  <si>
-    <t>ADR LINARES</t>
-  </si>
-  <si>
-    <t>ITALFRENO</t>
-  </si>
-  <si>
-    <t>ADR COYHAIQUE</t>
-  </si>
-  <si>
-    <t>SUPER ZOO P. FONTOVA</t>
-  </si>
-  <si>
-    <t>ADR IQUIQUE</t>
-  </si>
-  <si>
-    <t>ADR VALLENAR I</t>
-  </si>
-  <si>
-    <t>ADR CAÑETE</t>
-  </si>
-  <si>
-    <t>PILAR VEGA</t>
-  </si>
-  <si>
-    <t>SERVICIOS ASEO METROPOLITANA</t>
-  </si>
-  <si>
-    <t>ADR ANTOFAGASTA</t>
-  </si>
-  <si>
-    <t>ADR OVALLE</t>
-  </si>
-  <si>
-    <t>TIENDAS LIMONADA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 681, COPIAPO</t>
-  </si>
-  <si>
-    <t>COLGRAM COLLOKY AHUMADA</t>
-  </si>
-  <si>
-    <t>ADR CONCEPCION</t>
-  </si>
-  <si>
-    <t>ADR ILLAPEL</t>
-  </si>
-  <si>
-    <t>COPEC ANTOFAGASTA</t>
-  </si>
-  <si>
-    <t>ADR ALTO HOSPICIO</t>
-  </si>
-  <si>
-    <t>AUTOPLANET SAN PABLO</t>
-  </si>
-  <si>
-    <t>ADR VALLENAR II</t>
-  </si>
-  <si>
-    <t>ADR CALAMA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 480, LINARES</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 572, PEÑALOLEN</t>
-  </si>
-  <si>
-    <t>ADR TOCOPILLA</t>
-  </si>
-  <si>
-    <t>ADR VIÑA DEL MAR</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 758, COQUIMBO</t>
-  </si>
-  <si>
-    <t>PORTAL LA DEHESA, DECATHLON</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 567, LA SERENA</t>
-  </si>
-  <si>
-    <t>AUTOPLANET RECOLETA</t>
-  </si>
-  <si>
-    <t>SUPER ZOO ANTOFAGASTA</t>
   </si>
   <si>
     <t>ID</t>
@@ -1279,9 +1369,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4351,7 +4441,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="5710" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="4067" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5473,7 +5563,7 @@
   <dimension ref="A1:U302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5507,16 +5597,16 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="29"/>
       <c r="O1" s="21" t="s">
         <v>1</v>
@@ -5732,11 +5822,11 @@
       </c>
       <c r="D5" s="10" t="str">
         <f>VLOOKUP(C5,SUCURSALES!A:C,3,FALSE)</f>
-        <v>COPEC</v>
+        <v>COLLOKY</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>VLOOKUP(C5,SUCURSALES!A:B,2,FALSE)</f>
-        <v>MARGARITA ISABEL GONZALEZ</v>
+        <v>MARIA SOLEDAD PONCE</v>
       </c>
       <c r="F5" s="12">
         <v>45693</v>
@@ -15618,7 +15708,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB3C8CAF-8FCA-4539-8C12-725764C77B5C}">
           <x14:formula1>
-            <xm:f>SUCURSALES!$A$2:$A$202</xm:f>
+            <xm:f>SUCURSALES!$A$2:$A$211</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -16796,7 +16886,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -16804,7 +16894,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -16812,7 +16902,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -16820,7 +16910,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -16828,7 +16918,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -16836,7 +16926,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -16844,7 +16934,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -16852,7 +16942,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -16860,7 +16950,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -16868,7 +16958,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -16876,7 +16966,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -16884,7 +16974,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -16892,7 +16982,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -16900,7 +16990,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -16908,7 +16998,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -16916,7 +17006,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -16924,7 +17014,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -16932,7 +17022,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -16940,7 +17030,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B154">
         <v>11</v>
@@ -16948,7 +17038,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -16956,7 +17046,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -16964,7 +17054,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -16972,7 +17062,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -16980,7 +17070,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -16988,7 +17078,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -16996,7 +17086,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -17004,7 +17094,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -17012,7 +17102,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -17020,7 +17110,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -17028,7 +17118,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -17036,7 +17126,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B166">
         <v>33</v>
@@ -17044,7 +17134,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -17052,7 +17142,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -17060,7 +17150,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -17068,7 +17158,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -17076,7 +17166,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -17084,7 +17174,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="3" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -17331,10 +17421,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C394"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C560"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A574" sqref="A574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -17345,44 +17436,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="15" hidden="1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="15" hidden="1">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>249</v>
@@ -17393,2983 +17484,3228 @@
         <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" hidden="1">
+      <c r="A7" t="s">
         <v>252</v>
       </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" hidden="1">
+      <c r="A8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" t="s">
-        <v>210</v>
-      </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="15" hidden="1">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" hidden="1">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" hidden="1">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" hidden="1">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" hidden="1">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" hidden="1">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" hidden="1">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" hidden="1">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" hidden="1">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" hidden="1">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" hidden="1">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" hidden="1">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" hidden="1">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" hidden="1">
+      <c r="A24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" hidden="1">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" t="s">
         <v>175</v>
       </c>
-      <c r="C23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>262</v>
-      </c>
       <c r="C25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" hidden="1">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" hidden="1">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" hidden="1">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" hidden="1">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" hidden="1">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" hidden="1">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" hidden="1">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" hidden="1">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" hidden="1">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" hidden="1">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
         <v>175</v>
       </c>
       <c r="C35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" hidden="1">
+      <c r="A36" t="s">
+        <v>281</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" hidden="1">
+      <c r="A37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15">
-      <c r="A36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15">
-      <c r="A37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" t="s">
-        <v>208</v>
-      </c>
       <c r="C37" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" hidden="1">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" hidden="1">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" hidden="1">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" hidden="1">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" hidden="1">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" hidden="1">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" hidden="1">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" hidden="1">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" hidden="1">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" hidden="1">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
       <c r="A48" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" hidden="1">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" hidden="1">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" hidden="1">
+      <c r="A51" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" hidden="1">
+      <c r="A52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="C49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15">
-      <c r="A50" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15">
-      <c r="A51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15">
-      <c r="A52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B52" t="s">
-        <v>146</v>
-      </c>
       <c r="C52" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" hidden="1">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" hidden="1">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" hidden="1">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" hidden="1">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" hidden="1">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" hidden="1">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" hidden="1">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" hidden="1">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" hidden="1">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" hidden="1">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="C63" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" hidden="1">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" hidden="1">
+      <c r="A65" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" t="s">
         <v>83</v>
       </c>
-      <c r="C64" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15">
-      <c r="A65" t="s">
-        <v>230</v>
-      </c>
-      <c r="B65" t="s">
-        <v>208</v>
-      </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" hidden="1">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" hidden="1">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" hidden="1">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="C69" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" hidden="1">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" hidden="1">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="C70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15">
-      <c r="A71" t="s">
-        <v>147</v>
-      </c>
-      <c r="B71" t="s">
-        <v>146</v>
-      </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" hidden="1">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
         <v>83</v>
       </c>
-      <c r="C72" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15">
-      <c r="A73" t="s">
-        <v>271</v>
-      </c>
-      <c r="B73" t="s">
-        <v>196</v>
-      </c>
       <c r="C73" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" hidden="1">
       <c r="A74" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" hidden="1">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" hidden="1">
       <c r="A76" t="s">
-        <v>272</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" hidden="1">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" hidden="1">
       <c r="A78" t="s">
-        <v>273</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" hidden="1">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" hidden="1">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15">
       <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" hidden="1">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" hidden="1">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" hidden="1">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" hidden="1">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" hidden="1">
+      <c r="A86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" hidden="1">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" hidden="1">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" hidden="1">
+      <c r="A89" t="s">
         <v>101</v>
-      </c>
-      <c r="B81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15">
-      <c r="A82" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15">
-      <c r="A83" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15">
-      <c r="A84" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15">
-      <c r="A85" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15">
-      <c r="A86" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15">
-      <c r="A87" t="s">
-        <v>233</v>
-      </c>
-      <c r="B87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C87" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15">
-      <c r="A88" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" t="s">
-        <v>274</v>
-      </c>
-      <c r="C88" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15">
-      <c r="A89" t="s">
-        <v>105</v>
       </c>
       <c r="B89" t="s">
         <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" hidden="1">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" hidden="1">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" hidden="1">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" hidden="1">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" hidden="1">
+      <c r="A94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" t="s">
         <v>48</v>
       </c>
-      <c r="C91" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15">
-      <c r="A92" t="s">
-        <v>207</v>
-      </c>
-      <c r="B92" t="s">
-        <v>196</v>
-      </c>
-      <c r="C92" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15">
-      <c r="A93" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15">
-      <c r="A94" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" hidden="1">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
         <v>83</v>
       </c>
-      <c r="C94" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15">
-      <c r="A95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B95" t="s">
-        <v>80</v>
-      </c>
       <c r="C95" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" hidden="1">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C96" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" hidden="1">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" hidden="1">
       <c r="A98" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" hidden="1">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="B99" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C99" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" hidden="1">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="B100" t="s">
         <v>83</v>
       </c>
       <c r="C100" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" hidden="1">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" hidden="1">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" hidden="1">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" hidden="1">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" hidden="1">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" hidden="1">
       <c r="A106" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
         <v>83</v>
       </c>
       <c r="C106" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" hidden="1">
       <c r="A107" t="s">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" hidden="1">
       <c r="A109" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" hidden="1">
       <c r="A110" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="B110" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" hidden="1">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B111" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" hidden="1">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" hidden="1">
       <c r="A113" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" hidden="1">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
         <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" hidden="1">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C115" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" hidden="1">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" hidden="1">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="C117" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" hidden="1">
       <c r="A118" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
         <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" hidden="1">
       <c r="A119" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" hidden="1">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="B120" t="s">
         <v>83</v>
       </c>
       <c r="C120" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15">
       <c r="A121" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="B121" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="C121" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" hidden="1">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="B122" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C122" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" hidden="1">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="B123" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" hidden="1">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
         <v>83</v>
       </c>
-      <c r="C123" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15">
-      <c r="A124" t="s">
-        <v>284</v>
-      </c>
-      <c r="B124" t="s">
-        <v>196</v>
-      </c>
       <c r="C124" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" hidden="1">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C125" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" hidden="1">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="B126" t="s">
         <v>83</v>
       </c>
       <c r="C126" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" hidden="1">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="C127" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" hidden="1">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="C128" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" hidden="1">
       <c r="A129" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" hidden="1">
       <c r="A130" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B130" t="s">
         <v>83</v>
       </c>
       <c r="C130" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" hidden="1">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="B131" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C131" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" hidden="1">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C132" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" hidden="1">
       <c r="A133" t="s">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C133" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" hidden="1">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B134" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" hidden="1">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="C135" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" hidden="1">
       <c r="A136" t="s">
-        <v>286</v>
+        <v>129</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C136" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" hidden="1">
       <c r="A137" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C137" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" hidden="1">
       <c r="A138" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="B138" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C138" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" hidden="1">
       <c r="A139" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="B139" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C139" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" hidden="1">
       <c r="A140" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
         <v>83</v>
       </c>
       <c r="C140" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" hidden="1">
       <c r="A141" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
         <v>83</v>
       </c>
       <c r="C141" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" hidden="1">
       <c r="A142" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" hidden="1">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C143" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15">
       <c r="A144" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="B144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" hidden="1">
+      <c r="A145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" t="s">
         <v>48</v>
       </c>
-      <c r="C144" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15">
-      <c r="A145" t="s">
-        <v>162</v>
-      </c>
-      <c r="B145" t="s">
-        <v>158</v>
-      </c>
       <c r="C145" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" hidden="1">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="C146" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" hidden="1">
       <c r="A147" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B147" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C147" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" hidden="1">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
         <v>83</v>
       </c>
       <c r="C148" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" hidden="1">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B149" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C149" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" hidden="1">
       <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" hidden="1">
+      <c r="A151" t="s">
         <v>219</v>
       </c>
-      <c r="B150" t="s">
-        <v>208</v>
-      </c>
-      <c r="C150" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15">
-      <c r="A151" t="s">
-        <v>95</v>
-      </c>
       <c r="B151" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="C151" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" hidden="1">
       <c r="A152" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C152" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15">
       <c r="A153" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="B153" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="C153" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15">
       <c r="A154" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="B154" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" hidden="1">
+      <c r="A155" t="s">
+        <v>58</v>
+      </c>
+      <c r="B155" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" hidden="1">
+      <c r="A156" t="s">
+        <v>64</v>
+      </c>
+      <c r="B156" t="s">
+        <v>62</v>
+      </c>
+      <c r="C156" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" hidden="1">
+      <c r="A157" t="s">
+        <v>65</v>
+      </c>
+      <c r="B157" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" hidden="1">
+      <c r="A158" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" t="s">
+        <v>62</v>
+      </c>
+      <c r="C158" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" hidden="1">
+      <c r="A159" t="s">
+        <v>195</v>
+      </c>
+      <c r="B159" t="s">
+        <v>189</v>
+      </c>
+      <c r="C159" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" hidden="1">
+      <c r="A160" t="s">
+        <v>66</v>
+      </c>
+      <c r="B160" t="s">
+        <v>62</v>
+      </c>
+      <c r="C160" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" hidden="1">
+      <c r="A161" t="s">
+        <v>155</v>
+      </c>
+      <c r="B161" t="s">
         <v>83</v>
       </c>
-      <c r="C154" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15">
-      <c r="A155" t="s">
-        <v>217</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="C161" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" hidden="1">
+      <c r="A162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" t="s">
+        <v>256</v>
+      </c>
+      <c r="C162" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" hidden="1">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" t="s">
+        <v>265</v>
+      </c>
+      <c r="C163" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" hidden="1">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>265</v>
+      </c>
+      <c r="C164" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" hidden="1">
+      <c r="A165" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165" t="s">
         <v>175</v>
       </c>
-      <c r="C155" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15">
-      <c r="A156" t="s">
-        <v>132</v>
-      </c>
-      <c r="B156" t="s">
-        <v>83</v>
-      </c>
-      <c r="C156" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15">
-      <c r="A157" t="s">
-        <v>127</v>
-      </c>
-      <c r="B157" t="s">
-        <v>83</v>
-      </c>
-      <c r="C157" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15">
-      <c r="A158" t="s">
-        <v>177</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="C165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" hidden="1">
+      <c r="A166" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" t="s">
         <v>175</v>
       </c>
-      <c r="C158" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15">
-      <c r="A159" t="s">
-        <v>70</v>
-      </c>
-      <c r="B159" t="s">
-        <v>67</v>
-      </c>
-      <c r="C159" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15">
-      <c r="A160" t="s">
-        <v>144</v>
-      </c>
-      <c r="B160" t="s">
-        <v>143</v>
-      </c>
-      <c r="C160" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="15">
-      <c r="A161" t="s">
-        <v>63</v>
-      </c>
-      <c r="B161" t="s">
-        <v>62</v>
-      </c>
-      <c r="C161" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="15">
-      <c r="A162" t="s">
-        <v>205</v>
-      </c>
-      <c r="B162" t="s">
-        <v>196</v>
-      </c>
-      <c r="C162" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="15">
-      <c r="A163" t="s">
-        <v>206</v>
-      </c>
-      <c r="B163" t="s">
-        <v>196</v>
-      </c>
-      <c r="C163" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="15">
-      <c r="A164" t="s">
-        <v>283</v>
-      </c>
-      <c r="B164" t="s">
-        <v>196</v>
-      </c>
-      <c r="C164" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="15">
-      <c r="A165" t="s">
-        <v>169</v>
-      </c>
-      <c r="B165" t="s">
-        <v>143</v>
-      </c>
-      <c r="C165" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="15">
-      <c r="A166" t="s">
-        <v>144</v>
-      </c>
-      <c r="B166" t="s">
-        <v>158</v>
-      </c>
       <c r="C166" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" hidden="1">
       <c r="A167" t="s">
-        <v>288</v>
+        <v>184</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C167" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" hidden="1">
       <c r="A168" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="B168" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="C168" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15">
       <c r="A169" t="s">
-        <v>181</v>
+        <v>316</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C169" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" hidden="1">
       <c r="A170" t="s">
         <v>185</v>
       </c>
       <c r="B170" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="C170" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" hidden="1">
       <c r="A171" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="B171" t="s">
         <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" hidden="1">
       <c r="A172" t="s">
+        <v>187</v>
+      </c>
+      <c r="B172" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" hidden="1">
+      <c r="A173" t="s">
+        <v>229</v>
+      </c>
+      <c r="B173" t="s">
+        <v>209</v>
+      </c>
+      <c r="C173" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" hidden="1">
+      <c r="A174" t="s">
+        <v>230</v>
+      </c>
+      <c r="B174" t="s">
+        <v>209</v>
+      </c>
+      <c r="C174" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" hidden="1">
+      <c r="A175" t="s">
+        <v>231</v>
+      </c>
+      <c r="B175" t="s">
+        <v>209</v>
+      </c>
+      <c r="C175" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" hidden="1">
+      <c r="A176" t="s">
+        <v>232</v>
+      </c>
+      <c r="B176" t="s">
+        <v>209</v>
+      </c>
+      <c r="C176" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" hidden="1">
+      <c r="A177" t="s">
+        <v>156</v>
+      </c>
+      <c r="B177" t="s">
+        <v>83</v>
+      </c>
+      <c r="C177" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" hidden="1">
+      <c r="A178" t="s">
+        <v>319</v>
+      </c>
+      <c r="B178" t="s">
+        <v>267</v>
+      </c>
+      <c r="C178" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" hidden="1">
+      <c r="A179" t="s">
+        <v>320</v>
+      </c>
+      <c r="B179" t="s">
+        <v>83</v>
+      </c>
+      <c r="C179" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" hidden="1">
+      <c r="A180" t="s">
         <v>142</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B180" t="s">
         <v>83</v>
       </c>
-      <c r="C172" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15">
-      <c r="A173" t="s">
-        <v>119</v>
-      </c>
-      <c r="B173" t="s">
-        <v>83</v>
-      </c>
-      <c r="C173" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="15">
-      <c r="A174" t="s">
-        <v>91</v>
-      </c>
-      <c r="B174" t="s">
-        <v>83</v>
-      </c>
-      <c r="C174" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15">
-      <c r="A175" t="s">
-        <v>69</v>
-      </c>
-      <c r="B175" t="s">
-        <v>274</v>
-      </c>
-      <c r="C175" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15">
-      <c r="A176" t="s">
-        <v>289</v>
-      </c>
-      <c r="B176" t="s">
-        <v>83</v>
-      </c>
-      <c r="C176" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15">
-      <c r="A177" t="s">
-        <v>53</v>
-      </c>
-      <c r="B177" t="s">
-        <v>48</v>
-      </c>
-      <c r="C177" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15">
-      <c r="A178" t="s">
-        <v>235</v>
-      </c>
-      <c r="B178" t="s">
-        <v>208</v>
-      </c>
-      <c r="C178" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15">
-      <c r="A179" t="s">
-        <v>240</v>
-      </c>
-      <c r="B179" t="s">
-        <v>208</v>
-      </c>
-      <c r="C179" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15">
-      <c r="A180" t="s">
-        <v>78</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" hidden="1">
+      <c r="A181" t="s">
+        <v>70</v>
+      </c>
+      <c r="B181" t="s">
         <v>67</v>
       </c>
-      <c r="C180" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15">
-      <c r="A181" t="s">
-        <v>118</v>
-      </c>
-      <c r="B181" t="s">
-        <v>83</v>
-      </c>
       <c r="C181" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" hidden="1">
       <c r="A182" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="B182" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C182" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" hidden="1">
       <c r="A183" t="s">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="B183" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="C183" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" hidden="1">
+      <c r="A184" t="s">
+        <v>73</v>
+      </c>
+      <c r="B184" t="s">
+        <v>67</v>
+      </c>
+      <c r="C184" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" hidden="1">
+      <c r="A185" t="s">
+        <v>74</v>
+      </c>
+      <c r="B185" t="s">
+        <v>67</v>
+      </c>
+      <c r="C185" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" hidden="1">
+      <c r="A186" t="s">
+        <v>171</v>
+      </c>
+      <c r="B186" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="15">
-      <c r="A184" t="s">
-        <v>290</v>
-      </c>
-      <c r="B184" t="s">
-        <v>196</v>
-      </c>
-      <c r="C184" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="15">
-      <c r="A185" t="s">
-        <v>231</v>
-      </c>
-      <c r="B185" t="s">
-        <v>208</v>
-      </c>
-      <c r="C185" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15">
-      <c r="A186" t="s">
-        <v>291</v>
-      </c>
-      <c r="B186" t="s">
-        <v>158</v>
-      </c>
       <c r="C186" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" hidden="1">
       <c r="A187" t="s">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="B187" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" hidden="1">
       <c r="A188" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B188" t="s">
         <v>67</v>
       </c>
       <c r="C188" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" hidden="1">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="C189" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" hidden="1">
       <c r="A190" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="B190" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="C190" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" hidden="1">
       <c r="A191" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="B191" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C191" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" hidden="1">
       <c r="A192" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="B192" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C192" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" hidden="1">
       <c r="A193" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C193" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15">
       <c r="A194" t="s">
-        <v>214</v>
+        <v>323</v>
       </c>
       <c r="B194" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" hidden="1">
+      <c r="A195" t="s">
+        <v>324</v>
+      </c>
+      <c r="B195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C195" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" hidden="1">
+      <c r="A196" t="s">
+        <v>235</v>
+      </c>
+      <c r="B196" t="s">
+        <v>209</v>
+      </c>
+      <c r="C196" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" hidden="1">
+      <c r="A197" t="s">
+        <v>236</v>
+      </c>
+      <c r="B197" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" hidden="1">
+      <c r="A198" t="s">
+        <v>237</v>
+      </c>
+      <c r="B198" t="s">
+        <v>209</v>
+      </c>
+      <c r="C198" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" hidden="1">
+      <c r="A199" t="s">
+        <v>172</v>
+      </c>
+      <c r="B199" t="s">
+        <v>209</v>
+      </c>
+      <c r="C199" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" hidden="1">
+      <c r="A200" t="s">
+        <v>325</v>
+      </c>
+      <c r="B200" t="s">
+        <v>209</v>
+      </c>
+      <c r="C200" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" hidden="1">
+      <c r="A201" t="s">
+        <v>238</v>
+      </c>
+      <c r="B201" t="s">
+        <v>209</v>
+      </c>
+      <c r="C201" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" hidden="1">
+      <c r="A202" t="s">
+        <v>239</v>
+      </c>
+      <c r="B202" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" hidden="1">
+      <c r="A203" t="s">
+        <v>240</v>
+      </c>
+      <c r="B203" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" hidden="1">
+      <c r="A204" t="s">
+        <v>241</v>
+      </c>
+      <c r="B204" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>197</v>
+      </c>
+      <c r="C205" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>197</v>
+      </c>
+      <c r="C206" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" hidden="1">
+      <c r="A207" t="s">
         <v>188</v>
       </c>
-      <c r="C194" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="15">
-      <c r="A195" t="s">
-        <v>292</v>
-      </c>
-      <c r="B195" t="s">
-        <v>62</v>
-      </c>
-      <c r="C195" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="15">
-      <c r="A196" t="s">
-        <v>293</v>
-      </c>
-      <c r="B196" t="s">
-        <v>274</v>
-      </c>
-      <c r="C196" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="15">
-      <c r="A197" t="s">
-        <v>294</v>
-      </c>
-      <c r="B197" t="s">
-        <v>62</v>
-      </c>
-      <c r="C197" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="15">
-      <c r="A198" t="s">
-        <v>295</v>
-      </c>
-      <c r="B198" t="s">
+      <c r="B207" t="s">
         <v>175</v>
       </c>
-      <c r="C198" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15">
-      <c r="A199" t="s">
+      <c r="C207" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" hidden="1">
+      <c r="A208" t="s">
+        <v>157</v>
+      </c>
+      <c r="B208" t="s">
+        <v>83</v>
+      </c>
+      <c r="C208" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
         <v>197</v>
       </c>
-      <c r="B199" t="s">
-        <v>196</v>
-      </c>
-      <c r="C199" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="15">
-      <c r="A200" t="s">
-        <v>296</v>
-      </c>
-      <c r="B200" t="s">
-        <v>196</v>
-      </c>
-      <c r="C200" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="15"/>
-    <row r="202" spans="1:3" ht="15">
-      <c r="B202" s="27"/>
-    </row>
-    <row r="203" spans="1:3" ht="15">
-      <c r="A203" s="24"/>
-      <c r="B203" s="27"/>
-    </row>
-    <row r="204" spans="1:3" ht="15">
-      <c r="A204" s="24"/>
-      <c r="B204" s="27"/>
-    </row>
-    <row r="205" spans="1:3" ht="15">
-      <c r="A205" s="24"/>
-      <c r="B205" s="27"/>
-    </row>
-    <row r="206" spans="1:3" ht="15">
-      <c r="A206" s="24"/>
-      <c r="B206" s="27"/>
-    </row>
-    <row r="207" spans="1:3" ht="15">
-      <c r="A207" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B207" s="27"/>
-    </row>
-    <row r="208" spans="1:3" ht="15">
-      <c r="A208" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B208" s="27"/>
-    </row>
-    <row r="209" spans="1:2" ht="15">
-      <c r="A209" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B209" s="27"/>
-    </row>
-    <row r="210" spans="1:2" ht="15">
-      <c r="A210" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B210" s="27"/>
-    </row>
-    <row r="211" spans="1:2" ht="15">
-      <c r="A211" s="24"/>
-      <c r="B211" s="27"/>
-    </row>
-    <row r="212" spans="1:2" ht="15">
+      <c r="C209" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" hidden="1">
+      <c r="A210" t="s">
+        <v>61</v>
+      </c>
+      <c r="B210" t="s">
+        <v>48</v>
+      </c>
+      <c r="C210" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211" t="s">
+        <v>197</v>
+      </c>
+      <c r="C211" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" hidden="1">
       <c r="A212" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B212" s="27"/>
     </row>
-    <row r="213" spans="1:2" ht="15">
+    <row r="213" spans="1:3" ht="15" hidden="1">
       <c r="A213" s="24"/>
       <c r="B213" s="27"/>
     </row>
-    <row r="214" spans="1:2" ht="15">
+    <row r="214" spans="1:3" ht="15" hidden="1">
       <c r="A214" s="24"/>
       <c r="B214" s="27"/>
     </row>
-    <row r="215" spans="1:2" ht="15">
+    <row r="215" spans="1:3" ht="15" hidden="1">
       <c r="A215" s="24"/>
       <c r="B215" s="27"/>
     </row>
-    <row r="216" spans="1:2" ht="15">
+    <row r="216" spans="1:3" ht="15" hidden="1">
       <c r="A216" s="24"/>
       <c r="B216" s="27"/>
     </row>
-    <row r="217" spans="1:2" ht="15">
+    <row r="217" spans="1:3" ht="15" hidden="1">
       <c r="A217" s="24"/>
       <c r="B217" s="27"/>
     </row>
-    <row r="218" spans="1:2" ht="15">
+    <row r="218" spans="1:3" ht="15" hidden="1">
       <c r="A218" s="24"/>
       <c r="B218" s="27"/>
     </row>
-    <row r="219" spans="1:2" ht="15">
+    <row r="219" spans="1:3" ht="15" hidden="1">
       <c r="A219" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B219" s="27"/>
     </row>
-    <row r="220" spans="1:2" ht="15">
+    <row r="220" spans="1:3" ht="15" hidden="1">
       <c r="A220" s="24"/>
       <c r="B220" s="27"/>
     </row>
-    <row r="221" spans="1:2" ht="15">
+    <row r="221" spans="1:3" ht="15" hidden="1">
       <c r="A221" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B221" s="27"/>
     </row>
-    <row r="222" spans="1:2" ht="15">
+    <row r="222" spans="1:3" ht="15" hidden="1">
       <c r="A222" s="24"/>
       <c r="B222" s="27"/>
     </row>
-    <row r="223" spans="1:2" ht="15">
+    <row r="223" spans="1:3" ht="15" hidden="1">
       <c r="A223" s="24"/>
       <c r="B223" s="27"/>
     </row>
-    <row r="224" spans="1:2" ht="15">
+    <row r="224" spans="1:3" ht="15" hidden="1">
       <c r="A224" s="24"/>
       <c r="B224" s="27"/>
     </row>
-    <row r="225" spans="1:2" ht="15">
+    <row r="225" spans="1:2" ht="15" hidden="1">
       <c r="A225" s="24"/>
       <c r="B225" s="27"/>
     </row>
-    <row r="226" spans="1:2" ht="15">
+    <row r="226" spans="1:2" ht="15" hidden="1">
       <c r="A226" s="24"/>
       <c r="B226" s="27"/>
     </row>
-    <row r="227" spans="1:2" ht="15">
+    <row r="227" spans="1:2" ht="15" hidden="1">
       <c r="A227" s="24"/>
       <c r="B227" s="27"/>
     </row>
-    <row r="228" spans="1:2" ht="15">
+    <row r="228" spans="1:2" ht="15" hidden="1">
       <c r="A228" s="24"/>
       <c r="B228" s="27"/>
     </row>
-    <row r="229" spans="1:2" ht="15">
+    <row r="229" spans="1:2" ht="15" hidden="1">
       <c r="A229" s="24"/>
       <c r="B229" s="27"/>
     </row>
-    <row r="230" spans="1:2" ht="15">
+    <row r="230" spans="1:2" ht="15" hidden="1">
       <c r="A230" s="24"/>
       <c r="B230" s="27"/>
     </row>
-    <row r="231" spans="1:2" ht="15">
+    <row r="231" spans="1:2" ht="15" hidden="1">
       <c r="A231" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B231" s="27"/>
     </row>
-    <row r="232" spans="1:2" ht="15">
+    <row r="232" spans="1:2" ht="15" hidden="1">
       <c r="A232" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B232" s="27"/>
     </row>
-    <row r="233" spans="1:2" ht="15">
+    <row r="233" spans="1:2" ht="15" hidden="1">
       <c r="A233" s="24"/>
       <c r="B233" s="27"/>
     </row>
-    <row r="234" spans="1:2" ht="15">
+    <row r="234" spans="1:2" ht="15" hidden="1">
       <c r="A234" s="24"/>
       <c r="B234" s="27"/>
     </row>
-    <row r="235" spans="1:2" ht="15">
+    <row r="235" spans="1:2" ht="15" hidden="1">
       <c r="A235" s="24"/>
       <c r="B235" s="27"/>
     </row>
-    <row r="236" spans="1:2" ht="15">
+    <row r="236" spans="1:2" ht="15" hidden="1">
       <c r="A236" s="24"/>
       <c r="B236" s="27"/>
     </row>
-    <row r="237" spans="1:2" ht="15">
+    <row r="237" spans="1:2" ht="15" hidden="1">
       <c r="A237" s="24"/>
       <c r="B237" s="27"/>
     </row>
-    <row r="238" spans="1:2" ht="15">
+    <row r="238" spans="1:2" ht="15" hidden="1">
       <c r="A238" s="24"/>
       <c r="B238" s="27"/>
     </row>
-    <row r="239" spans="1:2" ht="15">
+    <row r="239" spans="1:2" ht="15" hidden="1">
       <c r="A239" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B239" s="27"/>
     </row>
-    <row r="240" spans="1:2" ht="15">
+    <row r="240" spans="1:2" ht="15" hidden="1">
       <c r="A240" s="24"/>
       <c r="B240" s="27"/>
     </row>
-    <row r="241" spans="1:2" ht="15">
+    <row r="241" spans="1:2" ht="15" hidden="1">
       <c r="A241" s="24"/>
       <c r="B241" s="27"/>
     </row>
-    <row r="242" spans="1:2" ht="15">
+    <row r="242" spans="1:2" ht="15" hidden="1">
       <c r="A242" s="24"/>
       <c r="B242" s="27"/>
     </row>
-    <row r="243" spans="1:2" ht="15">
+    <row r="243" spans="1:2" ht="15" hidden="1">
       <c r="A243" s="24"/>
       <c r="B243" s="27"/>
     </row>
-    <row r="244" spans="1:2" ht="15">
+    <row r="244" spans="1:2" ht="15" hidden="1">
       <c r="A244" s="24"/>
       <c r="B244" s="27"/>
     </row>
-    <row r="245" spans="1:2" ht="15">
+    <row r="245" spans="1:2" ht="15" hidden="1">
       <c r="A245" s="24"/>
       <c r="B245" s="27"/>
     </row>
-    <row r="246" spans="1:2" ht="15">
+    <row r="246" spans="1:2" ht="15" hidden="1">
       <c r="A246" s="24"/>
       <c r="B246" s="27"/>
     </row>
-    <row r="247" spans="1:2" ht="15">
+    <row r="247" spans="1:2" ht="15" hidden="1">
       <c r="A247" s="24"/>
       <c r="B247" s="27"/>
     </row>
-    <row r="248" spans="1:2" ht="15">
+    <row r="248" spans="1:2" ht="15" hidden="1">
       <c r="A248" s="24"/>
       <c r="B248" s="27"/>
     </row>
-    <row r="249" spans="1:2" ht="15">
+    <row r="249" spans="1:2" ht="15" hidden="1">
       <c r="A249" s="24"/>
       <c r="B249" s="27"/>
     </row>
-    <row r="250" spans="1:2" ht="15">
+    <row r="250" spans="1:2" ht="15" hidden="1">
       <c r="A250" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B250" s="27"/>
     </row>
-    <row r="251" spans="1:2" ht="15">
+    <row r="251" spans="1:2" ht="15" hidden="1">
       <c r="A251" s="24"/>
       <c r="B251" s="27"/>
     </row>
-    <row r="252" spans="1:2" ht="15">
+    <row r="252" spans="1:2" ht="15" hidden="1">
       <c r="A252" s="24"/>
       <c r="B252" s="27"/>
     </row>
-    <row r="253" spans="1:2" ht="15">
+    <row r="253" spans="1:2" ht="15" hidden="1">
       <c r="A253" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B253" s="27"/>
     </row>
-    <row r="254" spans="1:2" ht="15">
+    <row r="254" spans="1:2" ht="15" hidden="1">
       <c r="A254" s="24"/>
       <c r="B254" s="27"/>
     </row>
-    <row r="255" spans="1:2" ht="15">
+    <row r="255" spans="1:2" ht="15" hidden="1">
       <c r="A255" s="24"/>
       <c r="B255" s="27"/>
     </row>
-    <row r="256" spans="1:2" ht="15">
+    <row r="256" spans="1:2" ht="15" hidden="1">
       <c r="A256" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B256" s="27"/>
     </row>
-    <row r="257" spans="1:2" ht="15">
+    <row r="257" spans="1:2" ht="15" hidden="1">
       <c r="A257" s="24"/>
       <c r="B257" s="27"/>
     </row>
-    <row r="258" spans="1:2" ht="15">
+    <row r="258" spans="1:2" ht="15" hidden="1">
       <c r="A258" s="24"/>
       <c r="B258" s="27"/>
     </row>
-    <row r="259" spans="1:2" ht="15">
+    <row r="259" spans="1:2" ht="15" hidden="1">
       <c r="A259" s="24"/>
       <c r="B259" s="27"/>
     </row>
-    <row r="260" spans="1:2" ht="15">
+    <row r="260" spans="1:2" ht="15" hidden="1">
       <c r="A260" s="24"/>
       <c r="B260" s="28"/>
     </row>
-    <row r="261" spans="1:2" ht="15">
+    <row r="261" spans="1:2" ht="15" hidden="1">
       <c r="A261" s="24"/>
       <c r="B261" s="27"/>
     </row>
-    <row r="262" spans="1:2" ht="15">
+    <row r="262" spans="1:2" ht="15" hidden="1">
       <c r="A262" s="24"/>
       <c r="B262" s="27"/>
     </row>
-    <row r="263" spans="1:2" ht="15">
+    <row r="263" spans="1:2" ht="15" hidden="1">
       <c r="A263" s="24"/>
       <c r="B263" s="27"/>
     </row>
-    <row r="264" spans="1:2" ht="15">
+    <row r="264" spans="1:2" ht="15" hidden="1">
       <c r="A264" s="24"/>
       <c r="B264" s="27"/>
     </row>
-    <row r="265" spans="1:2" ht="15">
+    <row r="265" spans="1:2" ht="15" hidden="1">
       <c r="A265" s="24"/>
       <c r="B265" s="27"/>
     </row>
-    <row r="266" spans="1:2" ht="15">
+    <row r="266" spans="1:2" ht="15" hidden="1">
       <c r="A266" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B266" s="27"/>
     </row>
-    <row r="267" spans="1:2" ht="15">
+    <row r="267" spans="1:2" ht="15" hidden="1">
       <c r="A267" s="24"/>
       <c r="B267" s="27"/>
     </row>
-    <row r="268" spans="1:2" ht="15">
+    <row r="268" spans="1:2" ht="15" hidden="1">
       <c r="A268" s="24"/>
       <c r="B268" s="27"/>
     </row>
-    <row r="269" spans="1:2" ht="15">
+    <row r="269" spans="1:2" ht="15" hidden="1">
       <c r="A269" s="24"/>
       <c r="B269" s="27"/>
     </row>
-    <row r="270" spans="1:2" ht="15">
+    <row r="270" spans="1:2" ht="15" hidden="1">
       <c r="A270" s="24"/>
       <c r="B270" s="27"/>
     </row>
-    <row r="271" spans="1:2" ht="15">
+    <row r="271" spans="1:2" ht="15" hidden="1">
       <c r="A271" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B271" s="27"/>
     </row>
-    <row r="272" spans="1:2" ht="15">
+    <row r="272" spans="1:2" ht="15" hidden="1">
       <c r="A272" s="24"/>
       <c r="B272" s="27"/>
     </row>
-    <row r="273" spans="1:2" ht="15">
+    <row r="273" spans="1:2" ht="15" hidden="1">
       <c r="A273" s="24"/>
       <c r="B273" s="27"/>
     </row>
-    <row r="274" spans="1:2" ht="15">
+    <row r="274" spans="1:2" ht="15" hidden="1">
       <c r="A274" s="24"/>
       <c r="B274" s="27"/>
     </row>
-    <row r="275" spans="1:2" ht="15">
+    <row r="275" spans="1:2" ht="15" hidden="1">
       <c r="A275" s="24"/>
       <c r="B275" s="27"/>
     </row>
-    <row r="276" spans="1:2" ht="15">
+    <row r="276" spans="1:2" ht="15" hidden="1">
       <c r="A276" s="24"/>
       <c r="B276" s="27"/>
     </row>
-    <row r="277" spans="1:2" ht="15">
+    <row r="277" spans="1:2" ht="15" hidden="1">
       <c r="A277" s="24"/>
       <c r="B277" s="27"/>
     </row>
-    <row r="278" spans="1:2" ht="15">
+    <row r="278" spans="1:2" ht="15" hidden="1">
       <c r="A278" s="24"/>
       <c r="B278" s="27"/>
     </row>
-    <row r="279" spans="1:2" ht="15">
+    <row r="279" spans="1:2" ht="15" hidden="1">
       <c r="A279" s="24"/>
       <c r="B279" s="27"/>
     </row>
-    <row r="280" spans="1:2" ht="15">
+    <row r="280" spans="1:2" ht="15" hidden="1">
       <c r="A280" s="24"/>
       <c r="B280" s="27"/>
     </row>
-    <row r="281" spans="1:2" ht="15">
+    <row r="281" spans="1:2" ht="15" hidden="1">
       <c r="A281" s="24"/>
       <c r="B281" s="27"/>
     </row>
-    <row r="282" spans="1:2" ht="15">
+    <row r="282" spans="1:2" ht="15" hidden="1">
       <c r="A282" s="24"/>
       <c r="B282" s="27"/>
     </row>
-    <row r="283" spans="1:2" ht="15">
+    <row r="283" spans="1:2" ht="15" hidden="1">
       <c r="A283" s="24"/>
       <c r="B283" s="27"/>
     </row>
-    <row r="284" spans="1:2" ht="15">
+    <row r="284" spans="1:2" ht="15" hidden="1">
       <c r="A284" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B284" s="27"/>
     </row>
-    <row r="285" spans="1:2" ht="15">
+    <row r="285" spans="1:2" ht="15" hidden="1">
       <c r="A285" s="24"/>
       <c r="B285" s="27"/>
     </row>
-    <row r="286" spans="1:2" ht="15">
+    <row r="286" spans="1:2" ht="15" hidden="1">
       <c r="A286" s="24"/>
       <c r="B286" s="27"/>
     </row>
-    <row r="287" spans="1:2" ht="15">
+    <row r="287" spans="1:2" ht="15" hidden="1">
       <c r="A287" s="24"/>
       <c r="B287" s="27"/>
     </row>
-    <row r="288" spans="1:2" ht="15">
+    <row r="288" spans="1:2" ht="15" hidden="1">
       <c r="A288" s="24"/>
       <c r="B288" s="27"/>
     </row>
-    <row r="289" spans="1:2" ht="15">
+    <row r="289" spans="1:2" ht="15" hidden="1">
       <c r="A289" s="24"/>
       <c r="B289" s="27"/>
     </row>
-    <row r="290" spans="1:2" ht="15">
+    <row r="290" spans="1:2" ht="15" hidden="1">
       <c r="A290" s="24"/>
       <c r="B290" s="27"/>
     </row>
-    <row r="291" spans="1:2" ht="15">
+    <row r="291" spans="1:2" ht="15" hidden="1">
       <c r="A291" s="24"/>
       <c r="B291" s="27"/>
     </row>
-    <row r="292" spans="1:2" ht="15">
+    <row r="292" spans="1:2" ht="15" hidden="1">
       <c r="A292" s="24"/>
       <c r="B292" s="27"/>
     </row>
-    <row r="293" spans="1:2" ht="15">
+    <row r="293" spans="1:2" ht="15" hidden="1">
       <c r="A293" s="24"/>
       <c r="B293" s="27"/>
     </row>
-    <row r="294" spans="1:2" ht="15">
+    <row r="294" spans="1:2" ht="15" hidden="1">
       <c r="A294" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B294" s="27"/>
     </row>
-    <row r="295" spans="1:2" ht="15">
+    <row r="295" spans="1:2" ht="15" hidden="1">
       <c r="A295" s="24"/>
       <c r="B295" s="27"/>
     </row>
-    <row r="296" spans="1:2" ht="15">
+    <row r="296" spans="1:2" ht="15" hidden="1">
       <c r="A296" s="24"/>
       <c r="B296" s="27"/>
     </row>
-    <row r="297" spans="1:2" ht="15">
+    <row r="297" spans="1:2" ht="15" hidden="1">
       <c r="A297" s="24"/>
       <c r="B297" s="27"/>
     </row>
-    <row r="298" spans="1:2" ht="15">
+    <row r="298" spans="1:2" ht="15" hidden="1">
       <c r="A298" s="24"/>
       <c r="B298" s="27"/>
     </row>
-    <row r="299" spans="1:2" ht="15">
+    <row r="299" spans="1:2" ht="15" hidden="1">
       <c r="A299" s="24"/>
       <c r="B299" s="27"/>
     </row>
-    <row r="300" spans="1:2" ht="15">
+    <row r="300" spans="1:2" ht="15" hidden="1">
       <c r="A300" s="24"/>
       <c r="B300" s="27"/>
     </row>
-    <row r="301" spans="1:2" ht="15">
+    <row r="301" spans="1:2" ht="15" hidden="1">
       <c r="A301" s="24"/>
       <c r="B301" s="27"/>
     </row>
-    <row r="302" spans="1:2" ht="15">
+    <row r="302" spans="1:2" ht="15" hidden="1">
       <c r="A302" s="24"/>
       <c r="B302" s="27"/>
     </row>
-    <row r="303" spans="1:2" ht="15">
+    <row r="303" spans="1:2" ht="15" hidden="1">
       <c r="A303" s="24"/>
       <c r="B303" s="27"/>
     </row>
-    <row r="304" spans="1:2" ht="15">
+    <row r="304" spans="1:2" ht="15" hidden="1">
       <c r="A304" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B304" s="27"/>
     </row>
-    <row r="305" spans="1:2" ht="15">
+    <row r="305" spans="1:2" ht="15" hidden="1">
       <c r="A305" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B305" s="27"/>
     </row>
-    <row r="306" spans="1:2" ht="15">
+    <row r="306" spans="1:2" ht="15" hidden="1">
       <c r="A306" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B306" s="27"/>
     </row>
-    <row r="307" spans="1:2" ht="15">
+    <row r="307" spans="1:2" ht="15" hidden="1">
       <c r="A307" s="24"/>
       <c r="B307" s="27"/>
     </row>
-    <row r="308" spans="1:2" ht="15">
+    <row r="308" spans="1:2" ht="15" hidden="1">
       <c r="A308" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B308" s="27"/>
     </row>
-    <row r="309" spans="1:2" ht="15">
+    <row r="309" spans="1:2" ht="15" hidden="1">
       <c r="A309" s="24"/>
       <c r="B309" s="27"/>
     </row>
-    <row r="310" spans="1:2" ht="15">
+    <row r="310" spans="1:2" ht="15" hidden="1">
       <c r="A310" s="24"/>
       <c r="B310" s="27"/>
     </row>
-    <row r="311" spans="1:2" ht="15">
+    <row r="311" spans="1:2" ht="15" hidden="1">
       <c r="A311" s="24"/>
       <c r="B311" s="27"/>
     </row>
-    <row r="312" spans="1:2" ht="15">
+    <row r="312" spans="1:2" ht="15" hidden="1">
       <c r="A312" s="24"/>
       <c r="B312" s="27"/>
     </row>
-    <row r="313" spans="1:2" ht="15">
+    <row r="313" spans="1:2" ht="15" hidden="1">
       <c r="A313" s="24"/>
       <c r="B313" s="27"/>
     </row>
-    <row r="314" spans="1:2" ht="15">
+    <row r="314" spans="1:2" ht="15" hidden="1">
       <c r="A314" s="24"/>
       <c r="B314" s="27"/>
     </row>
-    <row r="315" spans="1:2" ht="15">
+    <row r="315" spans="1:2" ht="15" hidden="1">
       <c r="A315" s="24"/>
       <c r="B315" s="27"/>
     </row>
-    <row r="316" spans="1:2" ht="15">
+    <row r="316" spans="1:2" ht="15" hidden="1">
       <c r="A316" s="24"/>
       <c r="B316" s="27"/>
     </row>
-    <row r="317" spans="1:2" ht="15">
+    <row r="317" spans="1:2" ht="15" hidden="1">
       <c r="A317" s="24"/>
       <c r="B317" s="27"/>
     </row>
-    <row r="318" spans="1:2" ht="15">
+    <row r="318" spans="1:2" ht="15" hidden="1">
       <c r="A318" s="24"/>
       <c r="B318" s="27"/>
     </row>
-    <row r="319" spans="1:2" ht="15">
+    <row r="319" spans="1:2" ht="15" hidden="1">
       <c r="A319" s="24"/>
       <c r="B319" s="27"/>
     </row>
-    <row r="320" spans="1:2" ht="15">
+    <row r="320" spans="1:2" ht="15" hidden="1">
       <c r="A320" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B320" s="27"/>
     </row>
-    <row r="321" spans="1:2" ht="15">
+    <row r="321" spans="1:2" ht="15" hidden="1">
       <c r="A321" s="24"/>
       <c r="B321" s="27"/>
     </row>
-    <row r="322" spans="1:2" ht="15">
+    <row r="322" spans="1:2" ht="15" hidden="1">
       <c r="A322" s="24"/>
       <c r="B322" s="27"/>
     </row>
-    <row r="323" spans="1:2" ht="15">
+    <row r="323" spans="1:2" ht="15" hidden="1">
       <c r="A323" s="24"/>
       <c r="B323" s="27"/>
     </row>
-    <row r="324" spans="1:2" ht="15">
+    <row r="324" spans="1:2" ht="15" hidden="1">
       <c r="A324" s="24"/>
       <c r="B324" s="27"/>
     </row>
-    <row r="325" spans="1:2" ht="15">
+    <row r="325" spans="1:2" ht="15" hidden="1">
       <c r="A325" s="24"/>
       <c r="B325" s="27"/>
     </row>
-    <row r="326" spans="1:2" ht="15">
+    <row r="326" spans="1:2" ht="15" hidden="1">
       <c r="A326" s="24"/>
       <c r="B326" s="27"/>
     </row>
-    <row r="327" spans="1:2" ht="15">
+    <row r="327" spans="1:2" ht="15" hidden="1">
       <c r="A327" s="24"/>
       <c r="B327" s="27"/>
     </row>
-    <row r="328" spans="1:2" ht="15">
+    <row r="328" spans="1:2" ht="15" hidden="1">
       <c r="A328" s="24"/>
       <c r="B328" s="27"/>
     </row>
-    <row r="329" spans="1:2" ht="15">
+    <row r="329" spans="1:2" ht="15" hidden="1">
       <c r="A329" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B329" s="27"/>
     </row>
-    <row r="330" spans="1:2" ht="15">
+    <row r="330" spans="1:2" ht="15" hidden="1">
       <c r="A330" s="24"/>
       <c r="B330" s="27"/>
     </row>
-    <row r="331" spans="1:2" ht="15">
+    <row r="331" spans="1:2" ht="15" hidden="1">
       <c r="A331" s="24"/>
       <c r="B331" s="27"/>
     </row>
-    <row r="332" spans="1:2" ht="15">
+    <row r="332" spans="1:2" ht="15" hidden="1">
       <c r="A332" s="24"/>
       <c r="B332" s="27"/>
     </row>
-    <row r="333" spans="1:2" ht="15">
+    <row r="333" spans="1:2" ht="15" hidden="1">
       <c r="A333" s="24"/>
       <c r="B333" s="27"/>
     </row>
-    <row r="334" spans="1:2" ht="15">
+    <row r="334" spans="1:2" ht="15" hidden="1">
       <c r="A334" s="24"/>
       <c r="B334" s="27"/>
     </row>
-    <row r="335" spans="1:2" ht="15">
+    <row r="335" spans="1:2" ht="15" hidden="1">
       <c r="A335" s="24"/>
       <c r="B335" s="27"/>
     </row>
-    <row r="336" spans="1:2" ht="15">
+    <row r="336" spans="1:2" ht="15" hidden="1">
       <c r="A336" s="24"/>
       <c r="B336" s="27"/>
     </row>
-    <row r="337" spans="1:2" ht="15">
+    <row r="337" spans="1:2" ht="15" hidden="1">
       <c r="A337" s="24"/>
       <c r="B337" s="27"/>
     </row>
-    <row r="338" spans="1:2" ht="15">
+    <row r="338" spans="1:2" ht="15" hidden="1">
       <c r="A338" s="24"/>
       <c r="B338" s="27"/>
     </row>
-    <row r="339" spans="1:2" ht="15">
+    <row r="339" spans="1:2" ht="15" hidden="1">
       <c r="A339" s="24"/>
       <c r="B339" s="27"/>
     </row>
-    <row r="340" spans="1:2" ht="15">
+    <row r="340" spans="1:2" ht="15" hidden="1">
       <c r="A340" s="24"/>
       <c r="B340" s="27"/>
     </row>
-    <row r="341" spans="1:2" ht="15">
+    <row r="341" spans="1:2" ht="15" hidden="1">
       <c r="A341" s="24"/>
       <c r="B341" s="27"/>
     </row>
-    <row r="342" spans="1:2" ht="15">
+    <row r="342" spans="1:2" ht="15" hidden="1">
       <c r="A342" s="24"/>
       <c r="B342" s="27"/>
     </row>
-    <row r="343" spans="1:2" ht="15">
+    <row r="343" spans="1:2" ht="15" hidden="1">
       <c r="A343" s="24"/>
       <c r="B343" s="27"/>
     </row>
-    <row r="344" spans="1:2" ht="15">
+    <row r="344" spans="1:2" ht="15" hidden="1">
       <c r="A344" s="24"/>
       <c r="B344" s="27"/>
     </row>
-    <row r="345" spans="1:2" ht="15">
+    <row r="345" spans="1:2" ht="15" hidden="1">
       <c r="A345" s="24"/>
       <c r="B345" s="27"/>
     </row>
-    <row r="346" spans="1:2" ht="15">
+    <row r="346" spans="1:2" ht="15" hidden="1">
       <c r="A346" s="24"/>
       <c r="B346" s="27"/>
     </row>
-    <row r="347" spans="1:2" ht="15">
+    <row r="347" spans="1:2" ht="15" hidden="1">
       <c r="A347" s="24"/>
       <c r="B347" s="27"/>
     </row>
-    <row r="348" spans="1:2" ht="15">
+    <row r="348" spans="1:2" ht="15" hidden="1">
       <c r="A348" s="24"/>
       <c r="B348" s="27"/>
     </row>
-    <row r="349" spans="1:2" ht="15">
+    <row r="349" spans="1:2" ht="15" hidden="1">
       <c r="A349" s="24"/>
       <c r="B349" s="27"/>
     </row>
-    <row r="350" spans="1:2" ht="15">
+    <row r="350" spans="1:2" ht="15" hidden="1">
       <c r="A350" s="24"/>
       <c r="B350" s="27"/>
     </row>
-    <row r="351" spans="1:2" ht="15">
+    <row r="351" spans="1:2" ht="15" hidden="1">
       <c r="A351" s="24"/>
       <c r="B351" s="27"/>
     </row>
-    <row r="352" spans="1:2" ht="15">
+    <row r="352" spans="1:2" ht="15" hidden="1">
       <c r="A352" s="24"/>
       <c r="B352" s="27"/>
     </row>
-    <row r="353" spans="1:2" ht="15">
+    <row r="353" spans="1:2" ht="15" hidden="1">
       <c r="A353" s="24"/>
       <c r="B353" s="27"/>
     </row>
-    <row r="354" spans="1:2" ht="15">
+    <row r="354" spans="1:2" ht="15" hidden="1">
       <c r="A354" s="24"/>
       <c r="B354" s="27"/>
     </row>
-    <row r="355" spans="1:2" ht="15">
+    <row r="355" spans="1:2" ht="15" hidden="1">
       <c r="A355" s="24"/>
       <c r="B355" s="27"/>
     </row>
-    <row r="356" spans="1:2" ht="15">
+    <row r="356" spans="1:2" ht="15" hidden="1">
       <c r="A356" s="24"/>
       <c r="B356" s="27"/>
     </row>
-    <row r="357" spans="1:2" ht="15">
+    <row r="357" spans="1:2" ht="15" hidden="1">
       <c r="A357" s="24"/>
       <c r="B357" s="27"/>
     </row>
-    <row r="358" spans="1:2" ht="15">
+    <row r="358" spans="1:2" ht="15" hidden="1">
       <c r="A358" s="24"/>
       <c r="B358" s="27"/>
     </row>
-    <row r="359" spans="1:2" ht="15">
+    <row r="359" spans="1:2" ht="15" hidden="1">
       <c r="A359" s="24"/>
       <c r="B359" s="27"/>
     </row>
-    <row r="360" spans="1:2" ht="15">
+    <row r="360" spans="1:2" ht="15" hidden="1">
       <c r="A360" s="24"/>
       <c r="B360" s="27"/>
     </row>
-    <row r="361" spans="1:2" ht="15">
+    <row r="361" spans="1:2" ht="15" hidden="1">
       <c r="A361" s="24"/>
       <c r="B361" s="27"/>
     </row>
-    <row r="362" spans="1:2" ht="15">
+    <row r="362" spans="1:2" ht="15" hidden="1">
       <c r="A362" s="24"/>
       <c r="B362" s="27"/>
     </row>
-    <row r="363" spans="1:2" ht="15">
+    <row r="363" spans="1:2" ht="15" hidden="1">
       <c r="A363" s="24"/>
       <c r="B363" s="27"/>
     </row>
-    <row r="364" spans="1:2" ht="15">
+    <row r="364" spans="1:2" ht="15" hidden="1">
       <c r="A364" s="24"/>
       <c r="B364" s="27"/>
     </row>
-    <row r="365" spans="1:2" ht="15">
+    <row r="365" spans="1:2" ht="15" hidden="1">
       <c r="A365" s="24"/>
       <c r="B365" s="27"/>
     </row>
-    <row r="366" spans="1:2" ht="15">
+    <row r="366" spans="1:2" ht="15" hidden="1">
       <c r="A366" s="24"/>
       <c r="B366" s="27"/>
     </row>
-    <row r="367" spans="1:2" ht="15">
+    <row r="367" spans="1:2" ht="15" hidden="1">
       <c r="A367" s="24"/>
       <c r="B367" s="27"/>
     </row>
-    <row r="368" spans="1:2" ht="15">
+    <row r="368" spans="1:2" ht="15" hidden="1">
       <c r="A368" s="24"/>
       <c r="B368" s="27"/>
     </row>
-    <row r="369" spans="1:2" ht="15">
+    <row r="369" spans="1:2" ht="15" hidden="1">
       <c r="A369" s="24"/>
       <c r="B369" s="27"/>
     </row>
-    <row r="370" spans="1:2" ht="15">
+    <row r="370" spans="1:2" ht="15" hidden="1">
       <c r="A370" s="24"/>
       <c r="B370" s="27"/>
     </row>
-    <row r="371" spans="1:2" ht="15">
+    <row r="371" spans="1:2" ht="15" hidden="1">
       <c r="A371" s="24"/>
       <c r="B371" s="27"/>
     </row>
-    <row r="372" spans="1:2" ht="15">
+    <row r="372" spans="1:2" ht="15" hidden="1">
       <c r="A372" s="24"/>
       <c r="B372" s="27"/>
     </row>
-    <row r="373" spans="1:2" ht="15">
+    <row r="373" spans="1:2" ht="15" hidden="1">
       <c r="A373" s="24"/>
       <c r="B373" s="27"/>
     </row>
-    <row r="374" spans="1:2" ht="15">
+    <row r="374" spans="1:2" ht="15" hidden="1">
       <c r="A374" s="24"/>
       <c r="B374" s="27"/>
     </row>
-    <row r="375" spans="1:2" ht="15">
+    <row r="375" spans="1:2" ht="15" hidden="1">
       <c r="A375" s="24"/>
       <c r="B375" s="27"/>
     </row>
-    <row r="376" spans="1:2" ht="15">
+    <row r="376" spans="1:2" ht="15" hidden="1">
       <c r="A376" s="24"/>
       <c r="B376" s="27"/>
     </row>
-    <row r="377" spans="1:2" ht="15">
+    <row r="377" spans="1:2" ht="15" hidden="1">
       <c r="A377" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B377" s="27"/>
     </row>
-    <row r="378" spans="1:2" ht="15">
+    <row r="378" spans="1:2" ht="15" hidden="1">
       <c r="A378" s="24"/>
       <c r="B378" s="27"/>
     </row>
-    <row r="379" spans="1:2" ht="15">
+    <row r="379" spans="1:2" ht="15" hidden="1">
       <c r="A379" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B379" s="27"/>
     </row>
-    <row r="380" spans="1:2" ht="15">
+    <row r="380" spans="1:2" ht="15" hidden="1">
       <c r="A380" s="24"/>
       <c r="B380" s="27"/>
     </row>
-    <row r="381" spans="1:2" ht="15">
+    <row r="381" spans="1:2" ht="15" hidden="1">
       <c r="A381" s="24"/>
       <c r="B381" s="27"/>
     </row>
-    <row r="382" spans="1:2" ht="15">
+    <row r="382" spans="1:2" ht="15" hidden="1">
       <c r="A382" s="24"/>
       <c r="B382" s="27"/>
     </row>
-    <row r="383" spans="1:2" ht="15">
+    <row r="383" spans="1:2" ht="15" hidden="1">
       <c r="A383" s="24"/>
       <c r="B383" s="27"/>
     </row>
-    <row r="384" spans="1:2" ht="15">
+    <row r="384" spans="1:2" ht="15" hidden="1">
       <c r="A384" s="24"/>
       <c r="B384" s="27"/>
     </row>
-    <row r="385" spans="1:2" ht="15">
+    <row r="385" spans="1:2" ht="15" hidden="1">
       <c r="A385" s="24"/>
       <c r="B385" s="27"/>
     </row>
-    <row r="386" spans="1:2" ht="15">
+    <row r="386" spans="1:2" ht="15" hidden="1">
       <c r="A386" s="24"/>
       <c r="B386" s="27"/>
     </row>
-    <row r="387" spans="1:2" ht="15">
+    <row r="387" spans="1:2" ht="15" hidden="1">
       <c r="A387" s="24"/>
       <c r="B387" s="27"/>
     </row>
-    <row r="388" spans="1:2" ht="15">
+    <row r="388" spans="1:2" ht="15" hidden="1">
       <c r="A388" s="24"/>
       <c r="B388" s="27"/>
     </row>
-    <row r="389" spans="1:2" ht="15">
+    <row r="389" spans="1:2" ht="15" hidden="1">
       <c r="A389" s="24"/>
       <c r="B389" s="27"/>
     </row>
-    <row r="390" spans="1:2" ht="15">
+    <row r="390" spans="1:2" ht="15" hidden="1">
       <c r="A390" s="24"/>
       <c r="B390" s="27"/>
     </row>
-    <row r="391" spans="1:2" ht="15">
+    <row r="391" spans="1:2" ht="15" hidden="1">
       <c r="A391" s="24"/>
       <c r="B391" s="27"/>
     </row>
-    <row r="392" spans="1:2" ht="15">
+    <row r="392" spans="1:2" ht="15" hidden="1">
       <c r="A392" s="24"/>
       <c r="B392" s="27"/>
     </row>
-    <row r="393" spans="1:2" ht="15">
+    <row r="393" spans="1:2" ht="15" hidden="1">
       <c r="A393" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B393" s="27"/>
     </row>
-    <row r="394" spans="1:2" ht="15">
+    <row r="394" spans="1:2" ht="15" hidden="1">
       <c r="A394" s="24"/>
       <c r="B394" s="27"/>
     </row>
+    <row r="395" spans="1:2" hidden="1"/>
+    <row r="396" spans="1:2" hidden="1"/>
+    <row r="397" spans="1:2" hidden="1"/>
+    <row r="398" spans="1:2" hidden="1"/>
+    <row r="399" spans="1:2" hidden="1"/>
+    <row r="400" spans="1:2" hidden="1"/>
+    <row r="401" hidden="1"/>
+    <row r="402" hidden="1"/>
+    <row r="403" hidden="1"/>
+    <row r="404" hidden="1"/>
+    <row r="405" hidden="1"/>
+    <row r="406" hidden="1"/>
+    <row r="407" hidden="1"/>
+    <row r="408" hidden="1"/>
+    <row r="409" hidden="1"/>
+    <row r="410" hidden="1"/>
+    <row r="411" hidden="1"/>
+    <row r="412" hidden="1"/>
+    <row r="413" hidden="1"/>
+    <row r="414" hidden="1"/>
+    <row r="415" hidden="1"/>
+    <row r="416" hidden="1"/>
+    <row r="417" hidden="1"/>
+    <row r="418" hidden="1"/>
+    <row r="419" hidden="1"/>
+    <row r="420" hidden="1"/>
+    <row r="421" hidden="1"/>
+    <row r="422" hidden="1"/>
+    <row r="423" hidden="1"/>
+    <row r="424" hidden="1"/>
+    <row r="425" hidden="1"/>
+    <row r="426" hidden="1"/>
+    <row r="427" hidden="1"/>
+    <row r="428" hidden="1"/>
+    <row r="429" hidden="1"/>
+    <row r="430" hidden="1"/>
+    <row r="431" hidden="1"/>
+    <row r="432" hidden="1"/>
+    <row r="433" hidden="1"/>
+    <row r="434" hidden="1"/>
+    <row r="435" hidden="1"/>
+    <row r="436" hidden="1"/>
+    <row r="437" hidden="1"/>
+    <row r="438" hidden="1"/>
+    <row r="439" hidden="1"/>
+    <row r="440" hidden="1"/>
+    <row r="441" hidden="1"/>
+    <row r="442" hidden="1"/>
+    <row r="443" hidden="1"/>
+    <row r="444" hidden="1"/>
+    <row r="445" hidden="1"/>
+    <row r="446" hidden="1"/>
+    <row r="447" hidden="1"/>
+    <row r="448" hidden="1"/>
+    <row r="449" hidden="1"/>
+    <row r="450" hidden="1"/>
+    <row r="451" hidden="1"/>
+    <row r="452" hidden="1"/>
+    <row r="453" hidden="1"/>
+    <row r="454" hidden="1"/>
+    <row r="455" hidden="1"/>
+    <row r="456" hidden="1"/>
+    <row r="457" hidden="1"/>
+    <row r="458" hidden="1"/>
+    <row r="459" hidden="1"/>
+    <row r="460" hidden="1"/>
+    <row r="461" hidden="1"/>
+    <row r="462" hidden="1"/>
+    <row r="463" hidden="1"/>
+    <row r="464" hidden="1"/>
+    <row r="465" hidden="1"/>
+    <row r="466" hidden="1"/>
+    <row r="467" hidden="1"/>
+    <row r="468" hidden="1"/>
+    <row r="469" hidden="1"/>
+    <row r="470" hidden="1"/>
+    <row r="471" hidden="1"/>
+    <row r="472" hidden="1"/>
+    <row r="473" hidden="1"/>
+    <row r="474" hidden="1"/>
+    <row r="475" hidden="1"/>
+    <row r="476" hidden="1"/>
+    <row r="477" hidden="1"/>
+    <row r="478" hidden="1"/>
+    <row r="479" hidden="1"/>
+    <row r="480" hidden="1"/>
+    <row r="481" hidden="1"/>
+    <row r="482" hidden="1"/>
+    <row r="483" hidden="1"/>
+    <row r="484" hidden="1"/>
+    <row r="485" hidden="1"/>
+    <row r="486" hidden="1"/>
+    <row r="487" hidden="1"/>
+    <row r="488" hidden="1"/>
+    <row r="489" hidden="1"/>
+    <row r="490" hidden="1"/>
+    <row r="491" hidden="1"/>
+    <row r="492" hidden="1"/>
+    <row r="493" hidden="1"/>
+    <row r="494" hidden="1"/>
+    <row r="495" hidden="1"/>
+    <row r="496" hidden="1"/>
+    <row r="497" hidden="1"/>
+    <row r="498" hidden="1"/>
+    <row r="499" hidden="1"/>
+    <row r="500" hidden="1"/>
+    <row r="501" hidden="1"/>
+    <row r="502" hidden="1"/>
+    <row r="503" hidden="1"/>
+    <row r="504" hidden="1"/>
+    <row r="505" hidden="1"/>
+    <row r="506" hidden="1"/>
+    <row r="507" hidden="1"/>
+    <row r="508" hidden="1"/>
+    <row r="509" hidden="1"/>
+    <row r="510" hidden="1"/>
+    <row r="511" hidden="1"/>
+    <row r="512" hidden="1"/>
+    <row r="513" hidden="1"/>
+    <row r="514" hidden="1"/>
+    <row r="515" hidden="1"/>
+    <row r="516" hidden="1"/>
+    <row r="517" hidden="1"/>
+    <row r="518" hidden="1"/>
+    <row r="519" hidden="1"/>
+    <row r="520" hidden="1"/>
+    <row r="521" hidden="1"/>
+    <row r="522" hidden="1"/>
+    <row r="523" hidden="1"/>
+    <row r="524" hidden="1"/>
+    <row r="525" hidden="1"/>
+    <row r="526" hidden="1"/>
+    <row r="527" hidden="1"/>
+    <row r="528" hidden="1"/>
+    <row r="529" hidden="1"/>
+    <row r="530" hidden="1"/>
+    <row r="531" hidden="1"/>
+    <row r="532" hidden="1"/>
+    <row r="533" hidden="1"/>
+    <row r="534" hidden="1"/>
+    <row r="535" hidden="1"/>
+    <row r="536" hidden="1"/>
+    <row r="537" hidden="1"/>
+    <row r="538" hidden="1"/>
+    <row r="539" hidden="1"/>
+    <row r="540" hidden="1"/>
+    <row r="541" hidden="1"/>
+    <row r="542" hidden="1"/>
+    <row r="543" hidden="1"/>
+    <row r="544" hidden="1"/>
+    <row r="545" hidden="1"/>
+    <row r="546" hidden="1"/>
+    <row r="547" hidden="1"/>
+    <row r="548" hidden="1"/>
+    <row r="549" hidden="1"/>
+    <row r="550" hidden="1"/>
+    <row r="551" hidden="1"/>
+    <row r="552" hidden="1"/>
+    <row r="553" hidden="1"/>
+    <row r="554" hidden="1"/>
+    <row r="555" hidden="1"/>
+    <row r="556" hidden="1"/>
+    <row r="557" hidden="1"/>
+    <row r="558" hidden="1"/>
+    <row r="559" hidden="1"/>
+    <row r="560" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A1:C560" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C560" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="9.167.047-K"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20389,7 +20725,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -20408,7 +20744,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -20416,7 +20752,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -20432,7 +20768,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -20448,7 +20784,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -20456,7 +20792,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -20464,7 +20800,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -20472,7 +20808,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -20480,7 +20816,7 @@
         <v>504</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -20488,7 +20824,7 @@
         <v>672</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20496,7 +20832,7 @@
         <v>875</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -20504,7 +20840,7 @@
         <v>743</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20512,7 +20848,7 @@
         <v>730</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29019"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e0b76cf1189e8ef/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{607CF071-2968-4616-9FBE-51D6A9BADB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE854ED-C0F0-466F-8F9C-27DCC81C03E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="4067" r:id="rId6"/>
+    <pivotCache cacheId="18499" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="342">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -1027,6 +1027,12 @@
   </si>
   <si>
     <t>TATTERSALL</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 526 MAIPU</t>
+  </si>
+  <si>
+    <t>SPOT F.AHUMADA 511 LOS ANDES</t>
   </si>
   <si>
     <t>ID</t>
@@ -1072,7 +1078,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1102,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1308,7 +1320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1372,6 +1384,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4441,7 +4454,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="4067" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="18499" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5562,7 +5575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4B14FA-1BFE-4EC8-A345-326833D53FAF}">
   <dimension ref="A1:U302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -17421,11 +17434,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C560"/>
+  <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A574" sqref="A574"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -17446,7 +17458,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" hidden="1">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -17457,7 +17469,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" hidden="1">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -17501,7 +17513,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" hidden="1">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -17512,7 +17524,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" hidden="1">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -17523,7 +17535,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" hidden="1">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -17534,7 +17546,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" hidden="1">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -17545,7 +17557,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" hidden="1">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -17567,7 +17579,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" hidden="1">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" t="s">
         <v>259</v>
       </c>
@@ -17578,7 +17590,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" hidden="1">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -17600,7 +17612,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" hidden="1">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -17611,7 +17623,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" hidden="1">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" t="s">
         <v>263</v>
       </c>
@@ -17622,7 +17634,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" hidden="1">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
         <v>264</v>
       </c>
@@ -17633,7 +17645,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" hidden="1">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -17644,7 +17656,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" hidden="1">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -17655,7 +17667,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" hidden="1">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -17666,7 +17678,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" hidden="1">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" t="s">
         <v>269</v>
       </c>
@@ -17677,7 +17689,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" hidden="1">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" t="s">
         <v>271</v>
       </c>
@@ -17688,7 +17700,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" hidden="1">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" t="s">
         <v>272</v>
       </c>
@@ -17699,7 +17711,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" hidden="1">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -17710,7 +17722,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" hidden="1">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -17721,7 +17733,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" hidden="1">
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" t="s">
         <v>274</v>
       </c>
@@ -17732,7 +17744,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" hidden="1">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
         <v>275</v>
       </c>
@@ -17743,7 +17755,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" hidden="1">
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -17754,7 +17766,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" hidden="1">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -17765,7 +17777,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" hidden="1">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -17776,7 +17788,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" hidden="1">
+    <row r="32" spans="1:3" ht="15">
       <c r="A32" t="s">
         <v>277</v>
       </c>
@@ -17787,7 +17799,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" hidden="1">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
         <v>278</v>
       </c>
@@ -17798,7 +17810,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" hidden="1">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" t="s">
         <v>279</v>
       </c>
@@ -17809,7 +17821,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" hidden="1">
+    <row r="35" spans="1:3" ht="15">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -17820,7 +17832,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" hidden="1">
+    <row r="36" spans="1:3" ht="15">
       <c r="A36" t="s">
         <v>281</v>
       </c>
@@ -17831,7 +17843,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" hidden="1">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -17842,7 +17854,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" hidden="1">
+    <row r="38" spans="1:3" ht="15">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -17853,7 +17865,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" hidden="1">
+    <row r="39" spans="1:3" ht="15">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -17864,7 +17876,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" hidden="1">
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" t="s">
         <v>284</v>
       </c>
@@ -17875,7 +17887,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" hidden="1">
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" t="s">
         <v>285</v>
       </c>
@@ -17886,7 +17898,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" hidden="1">
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -17897,7 +17909,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" hidden="1">
+    <row r="43" spans="1:3" ht="15">
       <c r="A43" t="s">
         <v>213</v>
       </c>
@@ -17908,7 +17920,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" hidden="1">
+    <row r="44" spans="1:3" ht="15">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -17919,7 +17931,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" hidden="1">
+    <row r="45" spans="1:3" ht="15">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -17930,7 +17942,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" hidden="1">
+    <row r="46" spans="1:3" ht="15">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -17941,7 +17953,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" hidden="1">
+    <row r="47" spans="1:3" ht="15">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -17963,7 +17975,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" hidden="1">
+    <row r="49" spans="1:3" ht="15">
       <c r="A49" t="s">
         <v>290</v>
       </c>
@@ -17974,7 +17986,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" hidden="1">
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -17985,7 +17997,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" hidden="1">
+    <row r="51" spans="1:3" ht="15">
       <c r="A51" t="s">
         <v>291</v>
       </c>
@@ -17996,7 +18008,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" hidden="1">
+    <row r="52" spans="1:3" ht="15">
       <c r="A52" t="s">
         <v>292</v>
       </c>
@@ -18018,7 +18030,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" hidden="1">
+    <row r="54" spans="1:3" ht="15">
       <c r="A54" t="s">
         <v>294</v>
       </c>
@@ -18029,7 +18041,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" hidden="1">
+    <row r="55" spans="1:3" ht="15">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -18040,7 +18052,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" hidden="1">
+    <row r="56" spans="1:3" ht="15">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -18051,7 +18063,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" hidden="1">
+    <row r="57" spans="1:3" ht="15">
       <c r="A57" t="s">
         <v>295</v>
       </c>
@@ -18062,7 +18074,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" hidden="1">
+    <row r="58" spans="1:3" ht="15">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -18073,7 +18085,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" hidden="1">
+    <row r="59" spans="1:3" ht="15">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -18084,7 +18096,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" hidden="1">
+    <row r="60" spans="1:3" ht="15">
       <c r="A60" t="s">
         <v>192</v>
       </c>
@@ -18095,7 +18107,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" hidden="1">
+    <row r="61" spans="1:3" ht="15">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -18106,7 +18118,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" hidden="1">
+    <row r="62" spans="1:3" ht="15">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -18117,7 +18129,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" hidden="1">
+    <row r="63" spans="1:3" ht="15">
       <c r="A63" t="s">
         <v>159</v>
       </c>
@@ -18128,7 +18140,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" hidden="1">
+    <row r="64" spans="1:3" ht="15">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -18139,7 +18151,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" hidden="1">
+    <row r="65" spans="1:3" ht="15">
       <c r="A65" t="s">
         <v>296</v>
       </c>
@@ -18161,7 +18173,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" hidden="1">
+    <row r="67" spans="1:3" ht="15">
       <c r="A67" t="s">
         <v>297</v>
       </c>
@@ -18172,7 +18184,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" hidden="1">
+    <row r="68" spans="1:3" ht="15">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -18183,7 +18195,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" hidden="1">
+    <row r="69" spans="1:3" ht="15">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -18194,7 +18206,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" hidden="1">
+    <row r="70" spans="1:3" ht="15">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -18205,7 +18217,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" hidden="1">
+    <row r="71" spans="1:3" ht="15">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -18227,7 +18239,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" hidden="1">
+    <row r="73" spans="1:3" ht="15">
       <c r="A73" t="s">
         <v>89</v>
       </c>
@@ -18238,7 +18250,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" hidden="1">
+    <row r="74" spans="1:3" ht="15">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -18249,7 +18261,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" hidden="1">
+    <row r="75" spans="1:3" ht="15">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -18260,7 +18272,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" hidden="1">
+    <row r="76" spans="1:3" ht="15">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -18271,7 +18283,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" hidden="1">
+    <row r="77" spans="1:3" ht="15">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -18282,7 +18294,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" hidden="1">
+    <row r="78" spans="1:3" ht="15">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -18293,7 +18305,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" hidden="1">
+    <row r="79" spans="1:3" ht="15">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -18304,7 +18316,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" hidden="1">
+    <row r="80" spans="1:3" ht="15">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -18326,7 +18338,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" hidden="1">
+    <row r="82" spans="1:3" ht="15">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -18337,7 +18349,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" hidden="1">
+    <row r="83" spans="1:3" ht="15">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -18348,7 +18360,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" hidden="1">
+    <row r="84" spans="1:3" ht="15">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -18359,7 +18371,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" hidden="1">
+    <row r="85" spans="1:3" ht="15">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -18370,7 +18382,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15" hidden="1">
+    <row r="86" spans="1:3" ht="15">
       <c r="A86" t="s">
         <v>52</v>
       </c>
@@ -18381,7 +18393,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" hidden="1">
+    <row r="87" spans="1:3" ht="15">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -18392,7 +18404,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" hidden="1">
+    <row r="88" spans="1:3" ht="15">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -18403,7 +18415,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" hidden="1">
+    <row r="89" spans="1:3" ht="15">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -18414,7 +18426,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" hidden="1">
+    <row r="90" spans="1:3" ht="15">
       <c r="A90" t="s">
         <v>165</v>
       </c>
@@ -18425,7 +18437,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" hidden="1">
+    <row r="91" spans="1:3" ht="15">
       <c r="A91" t="s">
         <v>147</v>
       </c>
@@ -18436,7 +18448,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" hidden="1">
+    <row r="92" spans="1:3" ht="15">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -18447,7 +18459,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" hidden="1">
+    <row r="93" spans="1:3" ht="15">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -18458,7 +18470,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" hidden="1">
+    <row r="94" spans="1:3" ht="15">
       <c r="A94" t="s">
         <v>53</v>
       </c>
@@ -18469,7 +18481,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" hidden="1">
+    <row r="95" spans="1:3" ht="15">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -18480,7 +18492,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" hidden="1">
+    <row r="96" spans="1:3" ht="15">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -18491,7 +18503,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" hidden="1">
+    <row r="97" spans="1:3" ht="15">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -18502,7 +18514,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" hidden="1">
+    <row r="98" spans="1:3" ht="15">
       <c r="A98" t="s">
         <v>299</v>
       </c>
@@ -18513,7 +18525,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" hidden="1">
+    <row r="99" spans="1:3" ht="15">
       <c r="A99" t="s">
         <v>148</v>
       </c>
@@ -18524,7 +18536,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" hidden="1">
+    <row r="100" spans="1:3" ht="15">
       <c r="A100" t="s">
         <v>300</v>
       </c>
@@ -18535,7 +18547,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" hidden="1">
+    <row r="101" spans="1:3" ht="15">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -18546,7 +18558,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" hidden="1">
+    <row r="102" spans="1:3" ht="15">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -18557,7 +18569,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" hidden="1">
+    <row r="103" spans="1:3" ht="15">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -18568,7 +18580,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" hidden="1">
+    <row r="104" spans="1:3" ht="15">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -18579,7 +18591,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" hidden="1">
+    <row r="105" spans="1:3" ht="15">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -18590,7 +18602,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" hidden="1">
+    <row r="106" spans="1:3" ht="15">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -18601,7 +18613,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" hidden="1">
+    <row r="107" spans="1:3" ht="15">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -18623,7 +18635,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" hidden="1">
+    <row r="109" spans="1:3" ht="15">
       <c r="A109" t="s">
         <v>301</v>
       </c>
@@ -18634,7 +18646,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" hidden="1">
+    <row r="110" spans="1:3" ht="15">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -18645,7 +18657,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" hidden="1">
+    <row r="111" spans="1:3" ht="15">
       <c r="A111" t="s">
         <v>150</v>
       </c>
@@ -18656,7 +18668,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" hidden="1">
+    <row r="112" spans="1:3" ht="15">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -18667,7 +18679,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" hidden="1">
+    <row r="113" spans="1:3" ht="15">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -18678,7 +18690,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15" hidden="1">
+    <row r="114" spans="1:3" ht="15">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -18689,7 +18701,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15" hidden="1">
+    <row r="115" spans="1:3" ht="15">
       <c r="A115" t="s">
         <v>55</v>
       </c>
@@ -18700,7 +18712,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15" hidden="1">
+    <row r="116" spans="1:3" ht="15">
       <c r="A116" t="s">
         <v>302</v>
       </c>
@@ -18711,7 +18723,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15" hidden="1">
+    <row r="117" spans="1:3" ht="15">
       <c r="A117" t="s">
         <v>303</v>
       </c>
@@ -18722,7 +18734,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15" hidden="1">
+    <row r="118" spans="1:3" ht="15">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -18733,7 +18745,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" hidden="1">
+    <row r="119" spans="1:3" ht="15">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -18744,7 +18756,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" hidden="1">
+    <row r="120" spans="1:3" ht="15">
       <c r="A120" t="s">
         <v>304</v>
       </c>
@@ -18766,7 +18778,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" hidden="1">
+    <row r="122" spans="1:3" ht="15">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -18777,7 +18789,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" hidden="1">
+    <row r="123" spans="1:3" ht="15">
       <c r="A123" t="s">
         <v>306</v>
       </c>
@@ -18788,7 +18800,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" hidden="1">
+    <row r="124" spans="1:3" ht="15">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -18799,7 +18811,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" hidden="1">
+    <row r="125" spans="1:3" ht="15">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -18810,7 +18822,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" hidden="1">
+    <row r="126" spans="1:3" ht="15">
       <c r="A126" t="s">
         <v>307</v>
       </c>
@@ -18821,7 +18833,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" hidden="1">
+    <row r="127" spans="1:3" ht="15">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -18832,7 +18844,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15" hidden="1">
+    <row r="128" spans="1:3" ht="15">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -18843,7 +18855,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" hidden="1">
+    <row r="129" spans="1:3" ht="15">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -18854,7 +18866,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15" hidden="1">
+    <row r="130" spans="1:3" ht="15">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -18865,7 +18877,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15" hidden="1">
+    <row r="131" spans="1:3" ht="15">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -18876,7 +18888,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15" hidden="1">
+    <row r="132" spans="1:3" ht="15">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -18887,7 +18899,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15" hidden="1">
+    <row r="133" spans="1:3" ht="15">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -18898,7 +18910,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" hidden="1">
+    <row r="134" spans="1:3" ht="15">
       <c r="A134" t="s">
         <v>128</v>
       </c>
@@ -18909,7 +18921,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15" hidden="1">
+    <row r="135" spans="1:3" ht="15">
       <c r="A135" t="s">
         <v>309</v>
       </c>
@@ -18920,7 +18932,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15" hidden="1">
+    <row r="136" spans="1:3" ht="15">
       <c r="A136" t="s">
         <v>129</v>
       </c>
@@ -18931,7 +18943,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15" hidden="1">
+    <row r="137" spans="1:3" ht="15">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -18942,7 +18954,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15" hidden="1">
+    <row r="138" spans="1:3" ht="15">
       <c r="A138" t="s">
         <v>131</v>
       </c>
@@ -18953,7 +18965,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15" hidden="1">
+    <row r="139" spans="1:3" ht="15">
       <c r="A139" t="s">
         <v>132</v>
       </c>
@@ -18964,7 +18976,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15" hidden="1">
+    <row r="140" spans="1:3" ht="15">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -18975,7 +18987,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15" hidden="1">
+    <row r="141" spans="1:3" ht="15">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -18986,7 +18998,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15" hidden="1">
+    <row r="142" spans="1:3" ht="15">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -18997,7 +19009,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15" hidden="1">
+    <row r="143" spans="1:3" ht="15">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -19019,7 +19031,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15" hidden="1">
+    <row r="145" spans="1:3" ht="15">
       <c r="A145" t="s">
         <v>57</v>
       </c>
@@ -19030,7 +19042,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15" hidden="1">
+    <row r="146" spans="1:3" ht="15">
       <c r="A146" t="s">
         <v>216</v>
       </c>
@@ -19041,7 +19053,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15" hidden="1">
+    <row r="147" spans="1:3" ht="15">
       <c r="A147" t="s">
         <v>217</v>
       </c>
@@ -19052,7 +19064,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15" hidden="1">
+    <row r="148" spans="1:3" ht="15">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -19063,7 +19075,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15" hidden="1">
+    <row r="149" spans="1:3" ht="15">
       <c r="A149" t="s">
         <v>218</v>
       </c>
@@ -19074,7 +19086,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" hidden="1">
+    <row r="150" spans="1:3" ht="15">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -19085,7 +19097,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15" hidden="1">
+    <row r="151" spans="1:3" ht="15">
       <c r="A151" t="s">
         <v>219</v>
       </c>
@@ -19096,7 +19108,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15" hidden="1">
+    <row r="152" spans="1:3" ht="15">
       <c r="A152" t="s">
         <v>181</v>
       </c>
@@ -19129,7 +19141,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15" hidden="1">
+    <row r="155" spans="1:3" ht="15">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -19140,7 +19152,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15" hidden="1">
+    <row r="156" spans="1:3" ht="15">
       <c r="A156" t="s">
         <v>64</v>
       </c>
@@ -19151,7 +19163,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15" hidden="1">
+    <row r="157" spans="1:3" ht="15">
       <c r="A157" t="s">
         <v>65</v>
       </c>
@@ -19162,7 +19174,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15" hidden="1">
+    <row r="158" spans="1:3" ht="15">
       <c r="A158" t="s">
         <v>22</v>
       </c>
@@ -19173,7 +19185,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15" hidden="1">
+    <row r="159" spans="1:3" ht="15">
       <c r="A159" t="s">
         <v>195</v>
       </c>
@@ -19184,7 +19196,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15" hidden="1">
+    <row r="160" spans="1:3" ht="15">
       <c r="A160" t="s">
         <v>66</v>
       </c>
@@ -19195,7 +19207,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" hidden="1">
+    <row r="161" spans="1:3" ht="15">
       <c r="A161" t="s">
         <v>155</v>
       </c>
@@ -19206,7 +19218,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15" hidden="1">
+    <row r="162" spans="1:3" ht="15">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -19217,7 +19229,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15" hidden="1">
+    <row r="163" spans="1:3" ht="15">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -19228,7 +19240,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15" hidden="1">
+    <row r="164" spans="1:3" ht="15">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -19239,7 +19251,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15" hidden="1">
+    <row r="165" spans="1:3" ht="15">
       <c r="A165" t="s">
         <v>182</v>
       </c>
@@ -19250,7 +19262,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15" hidden="1">
+    <row r="166" spans="1:3" ht="15">
       <c r="A166" t="s">
         <v>183</v>
       </c>
@@ -19261,7 +19273,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15" hidden="1">
+    <row r="167" spans="1:3" ht="15">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -19272,7 +19284,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15" hidden="1">
+    <row r="168" spans="1:3" ht="15">
       <c r="A168" t="s">
         <v>314</v>
       </c>
@@ -19294,7 +19306,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15" hidden="1">
+    <row r="170" spans="1:3" ht="15">
       <c r="A170" t="s">
         <v>185</v>
       </c>
@@ -19305,7 +19317,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15" hidden="1">
+    <row r="171" spans="1:3" ht="15">
       <c r="A171" t="s">
         <v>186</v>
       </c>
@@ -19316,7 +19328,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15" hidden="1">
+    <row r="172" spans="1:3" ht="15">
       <c r="A172" t="s">
         <v>187</v>
       </c>
@@ -19327,7 +19339,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15" hidden="1">
+    <row r="173" spans="1:3" ht="15">
       <c r="A173" t="s">
         <v>229</v>
       </c>
@@ -19338,7 +19350,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15" hidden="1">
+    <row r="174" spans="1:3" ht="15">
       <c r="A174" t="s">
         <v>230</v>
       </c>
@@ -19349,7 +19361,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15" hidden="1">
+    <row r="175" spans="1:3" ht="15">
       <c r="A175" t="s">
         <v>231</v>
       </c>
@@ -19360,7 +19372,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15" hidden="1">
+    <row r="176" spans="1:3" ht="15">
       <c r="A176" t="s">
         <v>232</v>
       </c>
@@ -19371,7 +19383,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" hidden="1">
+    <row r="177" spans="1:3" ht="15">
       <c r="A177" t="s">
         <v>156</v>
       </c>
@@ -19382,7 +19394,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15" hidden="1">
+    <row r="178" spans="1:3" ht="15">
       <c r="A178" t="s">
         <v>319</v>
       </c>
@@ -19393,7 +19405,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15" hidden="1">
+    <row r="179" spans="1:3" ht="15">
       <c r="A179" t="s">
         <v>320</v>
       </c>
@@ -19404,7 +19416,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15" hidden="1">
+    <row r="180" spans="1:3" ht="15">
       <c r="A180" t="s">
         <v>142</v>
       </c>
@@ -19415,7 +19427,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15" hidden="1">
+    <row r="181" spans="1:3" ht="15">
       <c r="A181" t="s">
         <v>70</v>
       </c>
@@ -19426,7 +19438,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15" hidden="1">
+    <row r="182" spans="1:3" ht="15">
       <c r="A182" t="s">
         <v>71</v>
       </c>
@@ -19437,7 +19449,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15" hidden="1">
+    <row r="183" spans="1:3" ht="15">
       <c r="A183" t="s">
         <v>72</v>
       </c>
@@ -19448,7 +19460,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15" hidden="1">
+    <row r="184" spans="1:3" ht="15">
       <c r="A184" t="s">
         <v>73</v>
       </c>
@@ -19459,7 +19471,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15" hidden="1">
+    <row r="185" spans="1:3" ht="15">
       <c r="A185" t="s">
         <v>74</v>
       </c>
@@ -19470,7 +19482,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15" hidden="1">
+    <row r="186" spans="1:3" ht="15">
       <c r="A186" t="s">
         <v>171</v>
       </c>
@@ -19481,7 +19493,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15" hidden="1">
+    <row r="187" spans="1:3" ht="15">
       <c r="A187" t="s">
         <v>75</v>
       </c>
@@ -19492,7 +19504,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15" hidden="1">
+    <row r="188" spans="1:3" ht="15">
       <c r="A188" t="s">
         <v>76</v>
       </c>
@@ -19503,7 +19515,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15" hidden="1">
+    <row r="189" spans="1:3" ht="15">
       <c r="A189" t="s">
         <v>77</v>
       </c>
@@ -19514,7 +19526,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15" hidden="1">
+    <row r="190" spans="1:3" ht="15">
       <c r="A190" t="s">
         <v>78</v>
       </c>
@@ -19525,7 +19537,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15" hidden="1">
+    <row r="191" spans="1:3" ht="15">
       <c r="A191" t="s">
         <v>79</v>
       </c>
@@ -19536,7 +19548,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15" hidden="1">
+    <row r="192" spans="1:3" ht="15">
       <c r="A192" t="s">
         <v>233</v>
       </c>
@@ -19547,7 +19559,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15" hidden="1">
+    <row r="193" spans="1:3" ht="15">
       <c r="A193" t="s">
         <v>234</v>
       </c>
@@ -19569,7 +19581,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15" hidden="1">
+    <row r="195" spans="1:3" ht="15">
       <c r="A195" t="s">
         <v>324</v>
       </c>
@@ -19580,7 +19592,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" hidden="1">
+    <row r="196" spans="1:3" ht="15">
       <c r="A196" t="s">
         <v>235</v>
       </c>
@@ -19591,7 +19603,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" hidden="1">
+    <row r="197" spans="1:3" ht="15">
       <c r="A197" t="s">
         <v>236</v>
       </c>
@@ -19602,7 +19614,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" hidden="1">
+    <row r="198" spans="1:3" ht="15">
       <c r="A198" t="s">
         <v>237</v>
       </c>
@@ -19613,7 +19625,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" hidden="1">
+    <row r="199" spans="1:3" ht="15">
       <c r="A199" t="s">
         <v>172</v>
       </c>
@@ -19624,7 +19636,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15" hidden="1">
+    <row r="200" spans="1:3" ht="15">
       <c r="A200" t="s">
         <v>325</v>
       </c>
@@ -19635,7 +19647,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15" hidden="1">
+    <row r="201" spans="1:3" ht="15">
       <c r="A201" t="s">
         <v>238</v>
       </c>
@@ -19646,7 +19658,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15" hidden="1">
+    <row r="202" spans="1:3" ht="15">
       <c r="A202" t="s">
         <v>239</v>
       </c>
@@ -19657,7 +19669,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15" hidden="1">
+    <row r="203" spans="1:3" ht="15">
       <c r="A203" t="s">
         <v>240</v>
       </c>
@@ -19668,7 +19680,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" hidden="1">
+    <row r="204" spans="1:3" ht="15">
       <c r="A204" t="s">
         <v>241</v>
       </c>
@@ -19701,7 +19713,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15" hidden="1">
+    <row r="207" spans="1:3" ht="15">
       <c r="A207" t="s">
         <v>188</v>
       </c>
@@ -19712,7 +19724,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" hidden="1">
+    <row r="208" spans="1:3" ht="15">
       <c r="A208" t="s">
         <v>157</v>
       </c>
@@ -19734,7 +19746,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15" hidden="1">
+    <row r="210" spans="1:3" ht="15">
       <c r="A210" t="s">
         <v>61</v>
       </c>
@@ -19756,956 +19768,796 @@
         <v>326</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15" hidden="1">
-      <c r="A212" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B212" s="27"/>
-    </row>
-    <row r="213" spans="1:3" ht="15" hidden="1">
-      <c r="A213" s="24"/>
-      <c r="B213" s="27"/>
-    </row>
-    <row r="214" spans="1:3" ht="15" hidden="1">
+    <row r="212" spans="1:3" ht="15">
+      <c r="A212" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B212" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C212" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15">
+      <c r="A213" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B213" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C213" s="34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15">
       <c r="A214" s="24"/>
       <c r="B214" s="27"/>
     </row>
-    <row r="215" spans="1:3" ht="15" hidden="1">
+    <row r="215" spans="1:3" ht="15">
       <c r="A215" s="24"/>
       <c r="B215" s="27"/>
     </row>
-    <row r="216" spans="1:3" ht="15" hidden="1">
+    <row r="216" spans="1:3" ht="15">
       <c r="A216" s="24"/>
       <c r="B216" s="27"/>
     </row>
-    <row r="217" spans="1:3" ht="15" hidden="1">
+    <row r="217" spans="1:3" ht="15">
       <c r="A217" s="24"/>
       <c r="B217" s="27"/>
     </row>
-    <row r="218" spans="1:3" ht="15" hidden="1">
+    <row r="218" spans="1:3" ht="15">
       <c r="A218" s="24"/>
       <c r="B218" s="27"/>
     </row>
-    <row r="219" spans="1:3" ht="15" hidden="1">
+    <row r="219" spans="1:3" ht="15">
       <c r="A219" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B219" s="27"/>
     </row>
-    <row r="220" spans="1:3" ht="15" hidden="1">
+    <row r="220" spans="1:3" ht="15">
       <c r="A220" s="24"/>
       <c r="B220" s="27"/>
     </row>
-    <row r="221" spans="1:3" ht="15" hidden="1">
+    <row r="221" spans="1:3" ht="15">
       <c r="A221" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B221" s="27"/>
     </row>
-    <row r="222" spans="1:3" ht="15" hidden="1">
+    <row r="222" spans="1:3" ht="15">
       <c r="A222" s="24"/>
       <c r="B222" s="27"/>
     </row>
-    <row r="223" spans="1:3" ht="15" hidden="1">
+    <row r="223" spans="1:3" ht="15">
       <c r="A223" s="24"/>
       <c r="B223" s="27"/>
     </row>
-    <row r="224" spans="1:3" ht="15" hidden="1">
+    <row r="224" spans="1:3" ht="15">
       <c r="A224" s="24"/>
       <c r="B224" s="27"/>
     </row>
-    <row r="225" spans="1:2" ht="15" hidden="1">
+    <row r="225" spans="1:2" ht="15">
       <c r="A225" s="24"/>
       <c r="B225" s="27"/>
     </row>
-    <row r="226" spans="1:2" ht="15" hidden="1">
+    <row r="226" spans="1:2" ht="15">
       <c r="A226" s="24"/>
       <c r="B226" s="27"/>
     </row>
-    <row r="227" spans="1:2" ht="15" hidden="1">
+    <row r="227" spans="1:2" ht="15">
       <c r="A227" s="24"/>
       <c r="B227" s="27"/>
     </row>
-    <row r="228" spans="1:2" ht="15" hidden="1">
+    <row r="228" spans="1:2" ht="15">
       <c r="A228" s="24"/>
       <c r="B228" s="27"/>
     </row>
-    <row r="229" spans="1:2" ht="15" hidden="1">
+    <row r="229" spans="1:2" ht="15">
       <c r="A229" s="24"/>
       <c r="B229" s="27"/>
     </row>
-    <row r="230" spans="1:2" ht="15" hidden="1">
+    <row r="230" spans="1:2" ht="15">
       <c r="A230" s="24"/>
       <c r="B230" s="27"/>
     </row>
-    <row r="231" spans="1:2" ht="15" hidden="1">
+    <row r="231" spans="1:2" ht="15">
       <c r="A231" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B231" s="27"/>
     </row>
-    <row r="232" spans="1:2" ht="15" hidden="1">
+    <row r="232" spans="1:2" ht="15">
       <c r="A232" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B232" s="27"/>
     </row>
-    <row r="233" spans="1:2" ht="15" hidden="1">
+    <row r="233" spans="1:2" ht="15">
       <c r="A233" s="24"/>
       <c r="B233" s="27"/>
     </row>
-    <row r="234" spans="1:2" ht="15" hidden="1">
+    <row r="234" spans="1:2" ht="15">
       <c r="A234" s="24"/>
       <c r="B234" s="27"/>
     </row>
-    <row r="235" spans="1:2" ht="15" hidden="1">
+    <row r="235" spans="1:2" ht="15">
       <c r="A235" s="24"/>
       <c r="B235" s="27"/>
     </row>
-    <row r="236" spans="1:2" ht="15" hidden="1">
+    <row r="236" spans="1:2" ht="15">
       <c r="A236" s="24"/>
       <c r="B236" s="27"/>
     </row>
-    <row r="237" spans="1:2" ht="15" hidden="1">
+    <row r="237" spans="1:2" ht="15">
       <c r="A237" s="24"/>
       <c r="B237" s="27"/>
     </row>
-    <row r="238" spans="1:2" ht="15" hidden="1">
+    <row r="238" spans="1:2" ht="15">
       <c r="A238" s="24"/>
       <c r="B238" s="27"/>
     </row>
-    <row r="239" spans="1:2" ht="15" hidden="1">
+    <row r="239" spans="1:2" ht="15">
       <c r="A239" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B239" s="27"/>
     </row>
-    <row r="240" spans="1:2" ht="15" hidden="1">
+    <row r="240" spans="1:2" ht="15">
       <c r="A240" s="24"/>
       <c r="B240" s="27"/>
     </row>
-    <row r="241" spans="1:2" ht="15" hidden="1">
+    <row r="241" spans="1:2" ht="15">
       <c r="A241" s="24"/>
       <c r="B241" s="27"/>
     </row>
-    <row r="242" spans="1:2" ht="15" hidden="1">
+    <row r="242" spans="1:2" ht="15">
       <c r="A242" s="24"/>
       <c r="B242" s="27"/>
     </row>
-    <row r="243" spans="1:2" ht="15" hidden="1">
+    <row r="243" spans="1:2" ht="15">
       <c r="A243" s="24"/>
       <c r="B243" s="27"/>
     </row>
-    <row r="244" spans="1:2" ht="15" hidden="1">
+    <row r="244" spans="1:2" ht="15">
       <c r="A244" s="24"/>
       <c r="B244" s="27"/>
     </row>
-    <row r="245" spans="1:2" ht="15" hidden="1">
+    <row r="245" spans="1:2" ht="15">
       <c r="A245" s="24"/>
       <c r="B245" s="27"/>
     </row>
-    <row r="246" spans="1:2" ht="15" hidden="1">
+    <row r="246" spans="1:2" ht="15">
       <c r="A246" s="24"/>
       <c r="B246" s="27"/>
     </row>
-    <row r="247" spans="1:2" ht="15" hidden="1">
+    <row r="247" spans="1:2" ht="15">
       <c r="A247" s="24"/>
       <c r="B247" s="27"/>
     </row>
-    <row r="248" spans="1:2" ht="15" hidden="1">
+    <row r="248" spans="1:2" ht="15">
       <c r="A248" s="24"/>
       <c r="B248" s="27"/>
     </row>
-    <row r="249" spans="1:2" ht="15" hidden="1">
+    <row r="249" spans="1:2" ht="15">
       <c r="A249" s="24"/>
       <c r="B249" s="27"/>
     </row>
-    <row r="250" spans="1:2" ht="15" hidden="1">
+    <row r="250" spans="1:2" ht="15">
       <c r="A250" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B250" s="27"/>
     </row>
-    <row r="251" spans="1:2" ht="15" hidden="1">
+    <row r="251" spans="1:2" ht="15">
       <c r="A251" s="24"/>
       <c r="B251" s="27"/>
     </row>
-    <row r="252" spans="1:2" ht="15" hidden="1">
+    <row r="252" spans="1:2" ht="15">
       <c r="A252" s="24"/>
       <c r="B252" s="27"/>
     </row>
-    <row r="253" spans="1:2" ht="15" hidden="1">
+    <row r="253" spans="1:2" ht="15">
       <c r="A253" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B253" s="27"/>
     </row>
-    <row r="254" spans="1:2" ht="15" hidden="1">
+    <row r="254" spans="1:2" ht="15">
       <c r="A254" s="24"/>
       <c r="B254" s="27"/>
     </row>
-    <row r="255" spans="1:2" ht="15" hidden="1">
+    <row r="255" spans="1:2" ht="15">
       <c r="A255" s="24"/>
       <c r="B255" s="27"/>
     </row>
-    <row r="256" spans="1:2" ht="15" hidden="1">
+    <row r="256" spans="1:2" ht="15">
       <c r="A256" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B256" s="27"/>
     </row>
-    <row r="257" spans="1:2" ht="15" hidden="1">
+    <row r="257" spans="1:2" ht="15">
       <c r="A257" s="24"/>
       <c r="B257" s="27"/>
     </row>
-    <row r="258" spans="1:2" ht="15" hidden="1">
+    <row r="258" spans="1:2" ht="15">
       <c r="A258" s="24"/>
       <c r="B258" s="27"/>
     </row>
-    <row r="259" spans="1:2" ht="15" hidden="1">
+    <row r="259" spans="1:2" ht="15">
       <c r="A259" s="24"/>
       <c r="B259" s="27"/>
     </row>
-    <row r="260" spans="1:2" ht="15" hidden="1">
+    <row r="260" spans="1:2" ht="15">
       <c r="A260" s="24"/>
       <c r="B260" s="28"/>
     </row>
-    <row r="261" spans="1:2" ht="15" hidden="1">
+    <row r="261" spans="1:2" ht="15">
       <c r="A261" s="24"/>
       <c r="B261" s="27"/>
     </row>
-    <row r="262" spans="1:2" ht="15" hidden="1">
+    <row r="262" spans="1:2" ht="15">
       <c r="A262" s="24"/>
       <c r="B262" s="27"/>
     </row>
-    <row r="263" spans="1:2" ht="15" hidden="1">
+    <row r="263" spans="1:2" ht="15">
       <c r="A263" s="24"/>
       <c r="B263" s="27"/>
     </row>
-    <row r="264" spans="1:2" ht="15" hidden="1">
+    <row r="264" spans="1:2" ht="15">
       <c r="A264" s="24"/>
       <c r="B264" s="27"/>
     </row>
-    <row r="265" spans="1:2" ht="15" hidden="1">
+    <row r="265" spans="1:2" ht="15">
       <c r="A265" s="24"/>
       <c r="B265" s="27"/>
     </row>
-    <row r="266" spans="1:2" ht="15" hidden="1">
+    <row r="266" spans="1:2" ht="15">
       <c r="A266" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B266" s="27"/>
     </row>
-    <row r="267" spans="1:2" ht="15" hidden="1">
+    <row r="267" spans="1:2" ht="15">
       <c r="A267" s="24"/>
       <c r="B267" s="27"/>
     </row>
-    <row r="268" spans="1:2" ht="15" hidden="1">
+    <row r="268" spans="1:2" ht="15">
       <c r="A268" s="24"/>
       <c r="B268" s="27"/>
     </row>
-    <row r="269" spans="1:2" ht="15" hidden="1">
+    <row r="269" spans="1:2" ht="15">
       <c r="A269" s="24"/>
       <c r="B269" s="27"/>
     </row>
-    <row r="270" spans="1:2" ht="15" hidden="1">
+    <row r="270" spans="1:2" ht="15">
       <c r="A270" s="24"/>
       <c r="B270" s="27"/>
     </row>
-    <row r="271" spans="1:2" ht="15" hidden="1">
+    <row r="271" spans="1:2" ht="15">
       <c r="A271" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B271" s="27"/>
     </row>
-    <row r="272" spans="1:2" ht="15" hidden="1">
+    <row r="272" spans="1:2" ht="15">
       <c r="A272" s="24"/>
       <c r="B272" s="27"/>
     </row>
-    <row r="273" spans="1:2" ht="15" hidden="1">
+    <row r="273" spans="1:2" ht="15">
       <c r="A273" s="24"/>
       <c r="B273" s="27"/>
     </row>
-    <row r="274" spans="1:2" ht="15" hidden="1">
+    <row r="274" spans="1:2" ht="15">
       <c r="A274" s="24"/>
       <c r="B274" s="27"/>
     </row>
-    <row r="275" spans="1:2" ht="15" hidden="1">
+    <row r="275" spans="1:2" ht="15">
       <c r="A275" s="24"/>
       <c r="B275" s="27"/>
     </row>
-    <row r="276" spans="1:2" ht="15" hidden="1">
+    <row r="276" spans="1:2" ht="15">
       <c r="A276" s="24"/>
       <c r="B276" s="27"/>
     </row>
-    <row r="277" spans="1:2" ht="15" hidden="1">
+    <row r="277" spans="1:2" ht="15">
       <c r="A277" s="24"/>
       <c r="B277" s="27"/>
     </row>
-    <row r="278" spans="1:2" ht="15" hidden="1">
+    <row r="278" spans="1:2" ht="15">
       <c r="A278" s="24"/>
       <c r="B278" s="27"/>
     </row>
-    <row r="279" spans="1:2" ht="15" hidden="1">
+    <row r="279" spans="1:2" ht="15">
       <c r="A279" s="24"/>
       <c r="B279" s="27"/>
     </row>
-    <row r="280" spans="1:2" ht="15" hidden="1">
+    <row r="280" spans="1:2" ht="15">
       <c r="A280" s="24"/>
       <c r="B280" s="27"/>
     </row>
-    <row r="281" spans="1:2" ht="15" hidden="1">
+    <row r="281" spans="1:2" ht="15">
       <c r="A281" s="24"/>
       <c r="B281" s="27"/>
     </row>
-    <row r="282" spans="1:2" ht="15" hidden="1">
+    <row r="282" spans="1:2" ht="15">
       <c r="A282" s="24"/>
       <c r="B282" s="27"/>
     </row>
-    <row r="283" spans="1:2" ht="15" hidden="1">
+    <row r="283" spans="1:2" ht="15">
       <c r="A283" s="24"/>
       <c r="B283" s="27"/>
     </row>
-    <row r="284" spans="1:2" ht="15" hidden="1">
+    <row r="284" spans="1:2" ht="15">
       <c r="A284" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B284" s="27"/>
     </row>
-    <row r="285" spans="1:2" ht="15" hidden="1">
+    <row r="285" spans="1:2" ht="15">
       <c r="A285" s="24"/>
       <c r="B285" s="27"/>
     </row>
-    <row r="286" spans="1:2" ht="15" hidden="1">
+    <row r="286" spans="1:2" ht="15">
       <c r="A286" s="24"/>
       <c r="B286" s="27"/>
     </row>
-    <row r="287" spans="1:2" ht="15" hidden="1">
+    <row r="287" spans="1:2" ht="15">
       <c r="A287" s="24"/>
       <c r="B287" s="27"/>
     </row>
-    <row r="288" spans="1:2" ht="15" hidden="1">
+    <row r="288" spans="1:2" ht="15">
       <c r="A288" s="24"/>
       <c r="B288" s="27"/>
     </row>
-    <row r="289" spans="1:2" ht="15" hidden="1">
+    <row r="289" spans="1:2" ht="15">
       <c r="A289" s="24"/>
       <c r="B289" s="27"/>
     </row>
-    <row r="290" spans="1:2" ht="15" hidden="1">
+    <row r="290" spans="1:2" ht="15">
       <c r="A290" s="24"/>
       <c r="B290" s="27"/>
     </row>
-    <row r="291" spans="1:2" ht="15" hidden="1">
+    <row r="291" spans="1:2" ht="15">
       <c r="A291" s="24"/>
       <c r="B291" s="27"/>
     </row>
-    <row r="292" spans="1:2" ht="15" hidden="1">
+    <row r="292" spans="1:2" ht="15">
       <c r="A292" s="24"/>
       <c r="B292" s="27"/>
     </row>
-    <row r="293" spans="1:2" ht="15" hidden="1">
+    <row r="293" spans="1:2" ht="15">
       <c r="A293" s="24"/>
       <c r="B293" s="27"/>
     </row>
-    <row r="294" spans="1:2" ht="15" hidden="1">
+    <row r="294" spans="1:2" ht="15">
       <c r="A294" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B294" s="27"/>
     </row>
-    <row r="295" spans="1:2" ht="15" hidden="1">
+    <row r="295" spans="1:2" ht="15">
       <c r="A295" s="24"/>
       <c r="B295" s="27"/>
     </row>
-    <row r="296" spans="1:2" ht="15" hidden="1">
+    <row r="296" spans="1:2" ht="15">
       <c r="A296" s="24"/>
       <c r="B296" s="27"/>
     </row>
-    <row r="297" spans="1:2" ht="15" hidden="1">
+    <row r="297" spans="1:2" ht="15">
       <c r="A297" s="24"/>
       <c r="B297" s="27"/>
     </row>
-    <row r="298" spans="1:2" ht="15" hidden="1">
+    <row r="298" spans="1:2" ht="15">
       <c r="A298" s="24"/>
       <c r="B298" s="27"/>
     </row>
-    <row r="299" spans="1:2" ht="15" hidden="1">
+    <row r="299" spans="1:2" ht="15">
       <c r="A299" s="24"/>
       <c r="B299" s="27"/>
     </row>
-    <row r="300" spans="1:2" ht="15" hidden="1">
+    <row r="300" spans="1:2" ht="15">
       <c r="A300" s="24"/>
       <c r="B300" s="27"/>
     </row>
-    <row r="301" spans="1:2" ht="15" hidden="1">
+    <row r="301" spans="1:2" ht="15">
       <c r="A301" s="24"/>
       <c r="B301" s="27"/>
     </row>
-    <row r="302" spans="1:2" ht="15" hidden="1">
+    <row r="302" spans="1:2" ht="15">
       <c r="A302" s="24"/>
       <c r="B302" s="27"/>
     </row>
-    <row r="303" spans="1:2" ht="15" hidden="1">
+    <row r="303" spans="1:2" ht="15">
       <c r="A303" s="24"/>
       <c r="B303" s="27"/>
     </row>
-    <row r="304" spans="1:2" ht="15" hidden="1">
+    <row r="304" spans="1:2" ht="15">
       <c r="A304" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B304" s="27"/>
     </row>
-    <row r="305" spans="1:2" ht="15" hidden="1">
+    <row r="305" spans="1:2" ht="15">
       <c r="A305" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B305" s="27"/>
     </row>
-    <row r="306" spans="1:2" ht="15" hidden="1">
+    <row r="306" spans="1:2" ht="15">
       <c r="A306" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B306" s="27"/>
     </row>
-    <row r="307" spans="1:2" ht="15" hidden="1">
+    <row r="307" spans="1:2" ht="15">
       <c r="A307" s="24"/>
       <c r="B307" s="27"/>
     </row>
-    <row r="308" spans="1:2" ht="15" hidden="1">
+    <row r="308" spans="1:2" ht="15">
       <c r="A308" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B308" s="27"/>
     </row>
-    <row r="309" spans="1:2" ht="15" hidden="1">
+    <row r="309" spans="1:2" ht="15">
       <c r="A309" s="24"/>
       <c r="B309" s="27"/>
     </row>
-    <row r="310" spans="1:2" ht="15" hidden="1">
+    <row r="310" spans="1:2" ht="15">
       <c r="A310" s="24"/>
       <c r="B310" s="27"/>
     </row>
-    <row r="311" spans="1:2" ht="15" hidden="1">
+    <row r="311" spans="1:2" ht="15">
       <c r="A311" s="24"/>
       <c r="B311" s="27"/>
     </row>
-    <row r="312" spans="1:2" ht="15" hidden="1">
+    <row r="312" spans="1:2" ht="15">
       <c r="A312" s="24"/>
       <c r="B312" s="27"/>
     </row>
-    <row r="313" spans="1:2" ht="15" hidden="1">
+    <row r="313" spans="1:2" ht="15">
       <c r="A313" s="24"/>
       <c r="B313" s="27"/>
     </row>
-    <row r="314" spans="1:2" ht="15" hidden="1">
+    <row r="314" spans="1:2" ht="15">
       <c r="A314" s="24"/>
       <c r="B314" s="27"/>
     </row>
-    <row r="315" spans="1:2" ht="15" hidden="1">
+    <row r="315" spans="1:2" ht="15">
       <c r="A315" s="24"/>
       <c r="B315" s="27"/>
     </row>
-    <row r="316" spans="1:2" ht="15" hidden="1">
+    <row r="316" spans="1:2" ht="15">
       <c r="A316" s="24"/>
       <c r="B316" s="27"/>
     </row>
-    <row r="317" spans="1:2" ht="15" hidden="1">
+    <row r="317" spans="1:2" ht="15">
       <c r="A317" s="24"/>
       <c r="B317" s="27"/>
     </row>
-    <row r="318" spans="1:2" ht="15" hidden="1">
+    <row r="318" spans="1:2" ht="15">
       <c r="A318" s="24"/>
       <c r="B318" s="27"/>
     </row>
-    <row r="319" spans="1:2" ht="15" hidden="1">
+    <row r="319" spans="1:2" ht="15">
       <c r="A319" s="24"/>
       <c r="B319" s="27"/>
     </row>
-    <row r="320" spans="1:2" ht="15" hidden="1">
+    <row r="320" spans="1:2" ht="15">
       <c r="A320" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B320" s="27"/>
     </row>
-    <row r="321" spans="1:2" ht="15" hidden="1">
+    <row r="321" spans="1:2" ht="15">
       <c r="A321" s="24"/>
       <c r="B321" s="27"/>
     </row>
-    <row r="322" spans="1:2" ht="15" hidden="1">
+    <row r="322" spans="1:2" ht="15">
       <c r="A322" s="24"/>
       <c r="B322" s="27"/>
     </row>
-    <row r="323" spans="1:2" ht="15" hidden="1">
+    <row r="323" spans="1:2" ht="15">
       <c r="A323" s="24"/>
       <c r="B323" s="27"/>
     </row>
-    <row r="324" spans="1:2" ht="15" hidden="1">
+    <row r="324" spans="1:2" ht="15">
       <c r="A324" s="24"/>
       <c r="B324" s="27"/>
     </row>
-    <row r="325" spans="1:2" ht="15" hidden="1">
+    <row r="325" spans="1:2" ht="15">
       <c r="A325" s="24"/>
       <c r="B325" s="27"/>
     </row>
-    <row r="326" spans="1:2" ht="15" hidden="1">
+    <row r="326" spans="1:2" ht="15">
       <c r="A326" s="24"/>
       <c r="B326" s="27"/>
     </row>
-    <row r="327" spans="1:2" ht="15" hidden="1">
+    <row r="327" spans="1:2" ht="15">
       <c r="A327" s="24"/>
       <c r="B327" s="27"/>
     </row>
-    <row r="328" spans="1:2" ht="15" hidden="1">
+    <row r="328" spans="1:2" ht="15">
       <c r="A328" s="24"/>
       <c r="B328" s="27"/>
     </row>
-    <row r="329" spans="1:2" ht="15" hidden="1">
+    <row r="329" spans="1:2" ht="15">
       <c r="A329" s="26" t="b">
         <v>0</v>
       </c>
       <c r="B329" s="27"/>
     </row>
-    <row r="330" spans="1:2" ht="15" hidden="1">
+    <row r="330" spans="1:2" ht="15">
       <c r="A330" s="24"/>
       <c r="B330" s="27"/>
     </row>
-    <row r="331" spans="1:2" ht="15" hidden="1">
+    <row r="331" spans="1:2" ht="15">
       <c r="A331" s="24"/>
       <c r="B331" s="27"/>
     </row>
-    <row r="332" spans="1:2" ht="15" hidden="1">
+    <row r="332" spans="1:2" ht="15">
       <c r="A332" s="24"/>
       <c r="B332" s="27"/>
     </row>
-    <row r="333" spans="1:2" ht="15" hidden="1">
+    <row r="333" spans="1:2" ht="15">
       <c r="A333" s="24"/>
       <c r="B333" s="27"/>
     </row>
-    <row r="334" spans="1:2" ht="15" hidden="1">
+    <row r="334" spans="1:2" ht="15">
       <c r="A334" s="24"/>
       <c r="B334" s="27"/>
     </row>
-    <row r="335" spans="1:2" ht="15" hidden="1">
+    <row r="335" spans="1:2" ht="15">
       <c r="A335" s="24"/>
       <c r="B335" s="27"/>
     </row>
-    <row r="336" spans="1:2" ht="15" hidden="1">
+    <row r="336" spans="1:2" ht="15">
       <c r="A336" s="24"/>
       <c r="B336" s="27"/>
     </row>
-    <row r="337" spans="1:2" ht="15" hidden="1">
+    <row r="337" spans="1:2" ht="15">
       <c r="A337" s="24"/>
       <c r="B337" s="27"/>
     </row>
-    <row r="338" spans="1:2" ht="15" hidden="1">
+    <row r="338" spans="1:2" ht="15">
       <c r="A338" s="24"/>
       <c r="B338" s="27"/>
     </row>
-    <row r="339" spans="1:2" ht="15" hidden="1">
+    <row r="339" spans="1:2" ht="15">
       <c r="A339" s="24"/>
       <c r="B339" s="27"/>
     </row>
-    <row r="340" spans="1:2" ht="15" hidden="1">
+    <row r="340" spans="1:2" ht="15">
       <c r="A340" s="24"/>
       <c r="B340" s="27"/>
     </row>
-    <row r="341" spans="1:2" ht="15" hidden="1">
+    <row r="341" spans="1:2" ht="15">
       <c r="A341" s="24"/>
       <c r="B341" s="27"/>
     </row>
-    <row r="342" spans="1:2" ht="15" hidden="1">
+    <row r="342" spans="1:2" ht="15">
       <c r="A342" s="24"/>
       <c r="B342" s="27"/>
     </row>
-    <row r="343" spans="1:2" ht="15" hidden="1">
+    <row r="343" spans="1:2" ht="15">
       <c r="A343" s="24"/>
       <c r="B343" s="27"/>
     </row>
-    <row r="344" spans="1:2" ht="15" hidden="1">
+    <row r="344" spans="1:2" ht="15">
       <c r="A344" s="24"/>
       <c r="B344" s="27"/>
     </row>
-    <row r="345" spans="1:2" ht="15" hidden="1">
+    <row r="345" spans="1:2" ht="15">
       <c r="A345" s="24"/>
       <c r="B345" s="27"/>
     </row>
-    <row r="346" spans="1:2" ht="15" hidden="1">
+    <row r="346" spans="1:2" ht="15">
       <c r="A346" s="24"/>
       <c r="B346" s="27"/>
     </row>
-    <row r="347" spans="1:2" ht="15" hidden="1">
+    <row r="347" spans="1:2" ht="15">
       <c r="A347" s="24"/>
       <c r="B347" s="27"/>
     </row>
-    <row r="348" spans="1:2" ht="15" hidden="1">
+    <row r="348" spans="1:2" ht="15">
       <c r="A348" s="24"/>
       <c r="B348" s="27"/>
     </row>
-    <row r="349" spans="1:2" ht="15" hidden="1">
+    <row r="349" spans="1:2" ht="15">
       <c r="A349" s="24"/>
       <c r="B349" s="27"/>
     </row>
-    <row r="350" spans="1:2" ht="15" hidden="1">
+    <row r="350" spans="1:2" ht="15">
       <c r="A350" s="24"/>
       <c r="B350" s="27"/>
     </row>
-    <row r="351" spans="1:2" ht="15" hidden="1">
+    <row r="351" spans="1:2" ht="15">
       <c r="A351" s="24"/>
       <c r="B351" s="27"/>
     </row>
-    <row r="352" spans="1:2" ht="15" hidden="1">
+    <row r="352" spans="1:2" ht="15">
       <c r="A352" s="24"/>
       <c r="B352" s="27"/>
     </row>
-    <row r="353" spans="1:2" ht="15" hidden="1">
+    <row r="353" spans="1:2" ht="15">
       <c r="A353" s="24"/>
       <c r="B353" s="27"/>
     </row>
-    <row r="354" spans="1:2" ht="15" hidden="1">
+    <row r="354" spans="1:2" ht="15">
       <c r="A354" s="24"/>
       <c r="B354" s="27"/>
     </row>
-    <row r="355" spans="1:2" ht="15" hidden="1">
+    <row r="355" spans="1:2" ht="15">
       <c r="A355" s="24"/>
       <c r="B355" s="27"/>
     </row>
-    <row r="356" spans="1:2" ht="15" hidden="1">
+    <row r="356" spans="1:2" ht="15">
       <c r="A356" s="24"/>
       <c r="B356" s="27"/>
     </row>
-    <row r="357" spans="1:2" ht="15" hidden="1">
+    <row r="357" spans="1:2" ht="15">
       <c r="A357" s="24"/>
       <c r="B357" s="27"/>
     </row>
-    <row r="358" spans="1:2" ht="15" hidden="1">
+    <row r="358" spans="1:2" ht="15">
       <c r="A358" s="24"/>
       <c r="B358" s="27"/>
     </row>
-    <row r="359" spans="1:2" ht="15" hidden="1">
+    <row r="359" spans="1:2" ht="15">
       <c r="A359" s="24"/>
       <c r="B359" s="27"/>
     </row>
-    <row r="360" spans="1:2" ht="15" hidden="1">
+    <row r="360" spans="1:2" ht="15">
       <c r="A360" s="24"/>
       <c r="B360" s="27"/>
     </row>
-    <row r="361" spans="1:2" ht="15" hidden="1">
+    <row r="361" spans="1:2" ht="15">
       <c r="A361" s="24"/>
       <c r="B361" s="27"/>
     </row>
-    <row r="362" spans="1:2" ht="15" hidden="1">
+    <row r="362" spans="1:2" ht="15">
       <c r="A362" s="24"/>
       <c r="B362" s="27"/>
     </row>
-    <row r="363" spans="1:2" ht="15" hidden="1">
+    <row r="363" spans="1:2" ht="15">
       <c r="A363" s="24"/>
       <c r="B363" s="27"/>
     </row>
-    <row r="364" spans="1:2" ht="15" hidden="1">
+    <row r="364" spans="1:2" ht="15">
       <c r="A364" s="24"/>
       <c r="B364" s="27"/>
     </row>
-    <row r="365" spans="1:2" ht="15" hidden="1">
+    <row r="365" spans="1:2" ht="15">
       <c r="A365" s="24"/>
       <c r="B365" s="27"/>
     </row>
-    <row r="366" spans="1:2" ht="15" hidden="1">
+    <row r="366" spans="1:2" ht="15">
       <c r="A366" s="24"/>
       <c r="B366" s="27"/>
     </row>
-    <row r="367" spans="1:2" ht="15" hidden="1">
+    <row r="367" spans="1:2" ht="15">
       <c r="A367" s="24"/>
       <c r="B367" s="27"/>
     </row>
-    <row r="368" spans="1:2" ht="15" hidden="1">
+    <row r="368" spans="1:2" ht="15">
       <c r="A368" s="24"/>
       <c r="B368" s="27"/>
     </row>
-    <row r="369" spans="1:2" ht="15" hidden="1">
+    <row r="369" spans="1:2" ht="15">
       <c r="A369" s="24"/>
       <c r="B369" s="27"/>
     </row>
-    <row r="370" spans="1:2" ht="15" hidden="1">
+    <row r="370" spans="1:2" ht="15">
       <c r="A370" s="24"/>
       <c r="B370" s="27"/>
     </row>
-    <row r="371" spans="1:2" ht="15" hidden="1">
+    <row r="371" spans="1:2" ht="15">
       <c r="A371" s="24"/>
       <c r="B371" s="27"/>
     </row>
-    <row r="372" spans="1:2" ht="15" hidden="1">
+    <row r="372" spans="1:2" ht="15">
       <c r="A372" s="24"/>
       <c r="B372" s="27"/>
     </row>
-    <row r="373" spans="1:2" ht="15" hidden="1">
+    <row r="373" spans="1:2" ht="15">
       <c r="A373" s="24"/>
       <c r="B373" s="27"/>
     </row>
-    <row r="374" spans="1:2" ht="15" hidden="1">
+    <row r="374" spans="1:2" ht="15">
       <c r="A374" s="24"/>
       <c r="B374" s="27"/>
     </row>
-    <row r="375" spans="1:2" ht="15" hidden="1">
+    <row r="375" spans="1:2" ht="15">
       <c r="A375" s="24"/>
       <c r="B375" s="27"/>
     </row>
-    <row r="376" spans="1:2" ht="15" hidden="1">
+    <row r="376" spans="1:2" ht="15">
       <c r="A376" s="24"/>
       <c r="B376" s="27"/>
     </row>
-    <row r="377" spans="1:2" ht="15" hidden="1">
+    <row r="377" spans="1:2" ht="15">
       <c r="A377" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B377" s="27"/>
     </row>
-    <row r="378" spans="1:2" ht="15" hidden="1">
+    <row r="378" spans="1:2" ht="15">
       <c r="A378" s="24"/>
       <c r="B378" s="27"/>
     </row>
-    <row r="379" spans="1:2" ht="15" hidden="1">
+    <row r="379" spans="1:2" ht="15">
       <c r="A379" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B379" s="27"/>
     </row>
-    <row r="380" spans="1:2" ht="15" hidden="1">
+    <row r="380" spans="1:2" ht="15">
       <c r="A380" s="24"/>
       <c r="B380" s="27"/>
     </row>
-    <row r="381" spans="1:2" ht="15" hidden="1">
+    <row r="381" spans="1:2" ht="15">
       <c r="A381" s="24"/>
       <c r="B381" s="27"/>
     </row>
-    <row r="382" spans="1:2" ht="15" hidden="1">
+    <row r="382" spans="1:2" ht="15">
       <c r="A382" s="24"/>
       <c r="B382" s="27"/>
     </row>
-    <row r="383" spans="1:2" ht="15" hidden="1">
+    <row r="383" spans="1:2" ht="15">
       <c r="A383" s="24"/>
       <c r="B383" s="27"/>
     </row>
-    <row r="384" spans="1:2" ht="15" hidden="1">
+    <row r="384" spans="1:2" ht="15">
       <c r="A384" s="24"/>
       <c r="B384" s="27"/>
     </row>
-    <row r="385" spans="1:2" ht="15" hidden="1">
+    <row r="385" spans="1:2" ht="15">
       <c r="A385" s="24"/>
       <c r="B385" s="27"/>
     </row>
-    <row r="386" spans="1:2" ht="15" hidden="1">
+    <row r="386" spans="1:2" ht="15">
       <c r="A386" s="24"/>
       <c r="B386" s="27"/>
     </row>
-    <row r="387" spans="1:2" ht="15" hidden="1">
+    <row r="387" spans="1:2" ht="15">
       <c r="A387" s="24"/>
       <c r="B387" s="27"/>
     </row>
-    <row r="388" spans="1:2" ht="15" hidden="1">
+    <row r="388" spans="1:2" ht="15">
       <c r="A388" s="24"/>
       <c r="B388" s="27"/>
     </row>
-    <row r="389" spans="1:2" ht="15" hidden="1">
+    <row r="389" spans="1:2" ht="15">
       <c r="A389" s="24"/>
       <c r="B389" s="27"/>
     </row>
-    <row r="390" spans="1:2" ht="15" hidden="1">
+    <row r="390" spans="1:2" ht="15">
       <c r="A390" s="24"/>
       <c r="B390" s="27"/>
     </row>
-    <row r="391" spans="1:2" ht="15" hidden="1">
+    <row r="391" spans="1:2" ht="15">
       <c r="A391" s="24"/>
       <c r="B391" s="27"/>
     </row>
-    <row r="392" spans="1:2" ht="15" hidden="1">
+    <row r="392" spans="1:2" ht="15">
       <c r="A392" s="24"/>
       <c r="B392" s="27"/>
     </row>
-    <row r="393" spans="1:2" ht="15" hidden="1">
+    <row r="393" spans="1:2" ht="15">
       <c r="A393" s="25" t="b">
         <v>0</v>
       </c>
       <c r="B393" s="27"/>
     </row>
-    <row r="394" spans="1:2" ht="15" hidden="1">
+    <row r="394" spans="1:2" ht="15">
       <c r="A394" s="24"/>
       <c r="B394" s="27"/>
     </row>
-    <row r="395" spans="1:2" hidden="1"/>
-    <row r="396" spans="1:2" hidden="1"/>
-    <row r="397" spans="1:2" hidden="1"/>
-    <row r="398" spans="1:2" hidden="1"/>
-    <row r="399" spans="1:2" hidden="1"/>
-    <row r="400" spans="1:2" hidden="1"/>
-    <row r="401" hidden="1"/>
-    <row r="402" hidden="1"/>
-    <row r="403" hidden="1"/>
-    <row r="404" hidden="1"/>
-    <row r="405" hidden="1"/>
-    <row r="406" hidden="1"/>
-    <row r="407" hidden="1"/>
-    <row r="408" hidden="1"/>
-    <row r="409" hidden="1"/>
-    <row r="410" hidden="1"/>
-    <row r="411" hidden="1"/>
-    <row r="412" hidden="1"/>
-    <row r="413" hidden="1"/>
-    <row r="414" hidden="1"/>
-    <row r="415" hidden="1"/>
-    <row r="416" hidden="1"/>
-    <row r="417" hidden="1"/>
-    <row r="418" hidden="1"/>
-    <row r="419" hidden="1"/>
-    <row r="420" hidden="1"/>
-    <row r="421" hidden="1"/>
-    <row r="422" hidden="1"/>
-    <row r="423" hidden="1"/>
-    <row r="424" hidden="1"/>
-    <row r="425" hidden="1"/>
-    <row r="426" hidden="1"/>
-    <row r="427" hidden="1"/>
-    <row r="428" hidden="1"/>
-    <row r="429" hidden="1"/>
-    <row r="430" hidden="1"/>
-    <row r="431" hidden="1"/>
-    <row r="432" hidden="1"/>
-    <row r="433" hidden="1"/>
-    <row r="434" hidden="1"/>
-    <row r="435" hidden="1"/>
-    <row r="436" hidden="1"/>
-    <row r="437" hidden="1"/>
-    <row r="438" hidden="1"/>
-    <row r="439" hidden="1"/>
-    <row r="440" hidden="1"/>
-    <row r="441" hidden="1"/>
-    <row r="442" hidden="1"/>
-    <row r="443" hidden="1"/>
-    <row r="444" hidden="1"/>
-    <row r="445" hidden="1"/>
-    <row r="446" hidden="1"/>
-    <row r="447" hidden="1"/>
-    <row r="448" hidden="1"/>
-    <row r="449" hidden="1"/>
-    <row r="450" hidden="1"/>
-    <row r="451" hidden="1"/>
-    <row r="452" hidden="1"/>
-    <row r="453" hidden="1"/>
-    <row r="454" hidden="1"/>
-    <row r="455" hidden="1"/>
-    <row r="456" hidden="1"/>
-    <row r="457" hidden="1"/>
-    <row r="458" hidden="1"/>
-    <row r="459" hidden="1"/>
-    <row r="460" hidden="1"/>
-    <row r="461" hidden="1"/>
-    <row r="462" hidden="1"/>
-    <row r="463" hidden="1"/>
-    <row r="464" hidden="1"/>
-    <row r="465" hidden="1"/>
-    <row r="466" hidden="1"/>
-    <row r="467" hidden="1"/>
-    <row r="468" hidden="1"/>
-    <row r="469" hidden="1"/>
-    <row r="470" hidden="1"/>
-    <row r="471" hidden="1"/>
-    <row r="472" hidden="1"/>
-    <row r="473" hidden="1"/>
-    <row r="474" hidden="1"/>
-    <row r="475" hidden="1"/>
-    <row r="476" hidden="1"/>
-    <row r="477" hidden="1"/>
-    <row r="478" hidden="1"/>
-    <row r="479" hidden="1"/>
-    <row r="480" hidden="1"/>
-    <row r="481" hidden="1"/>
-    <row r="482" hidden="1"/>
-    <row r="483" hidden="1"/>
-    <row r="484" hidden="1"/>
-    <row r="485" hidden="1"/>
-    <row r="486" hidden="1"/>
-    <row r="487" hidden="1"/>
-    <row r="488" hidden="1"/>
-    <row r="489" hidden="1"/>
-    <row r="490" hidden="1"/>
-    <row r="491" hidden="1"/>
-    <row r="492" hidden="1"/>
-    <row r="493" hidden="1"/>
-    <row r="494" hidden="1"/>
-    <row r="495" hidden="1"/>
-    <row r="496" hidden="1"/>
-    <row r="497" hidden="1"/>
-    <row r="498" hidden="1"/>
-    <row r="499" hidden="1"/>
-    <row r="500" hidden="1"/>
-    <row r="501" hidden="1"/>
-    <row r="502" hidden="1"/>
-    <row r="503" hidden="1"/>
-    <row r="504" hidden="1"/>
-    <row r="505" hidden="1"/>
-    <row r="506" hidden="1"/>
-    <row r="507" hidden="1"/>
-    <row r="508" hidden="1"/>
-    <row r="509" hidden="1"/>
-    <row r="510" hidden="1"/>
-    <row r="511" hidden="1"/>
-    <row r="512" hidden="1"/>
-    <row r="513" hidden="1"/>
-    <row r="514" hidden="1"/>
-    <row r="515" hidden="1"/>
-    <row r="516" hidden="1"/>
-    <row r="517" hidden="1"/>
-    <row r="518" hidden="1"/>
-    <row r="519" hidden="1"/>
-    <row r="520" hidden="1"/>
-    <row r="521" hidden="1"/>
-    <row r="522" hidden="1"/>
-    <row r="523" hidden="1"/>
-    <row r="524" hidden="1"/>
-    <row r="525" hidden="1"/>
-    <row r="526" hidden="1"/>
-    <row r="527" hidden="1"/>
-    <row r="528" hidden="1"/>
-    <row r="529" hidden="1"/>
-    <row r="530" hidden="1"/>
-    <row r="531" hidden="1"/>
-    <row r="532" hidden="1"/>
-    <row r="533" hidden="1"/>
-    <row r="534" hidden="1"/>
-    <row r="535" hidden="1"/>
-    <row r="536" hidden="1"/>
-    <row r="537" hidden="1"/>
-    <row r="538" hidden="1"/>
-    <row r="539" hidden="1"/>
-    <row r="540" hidden="1"/>
-    <row r="541" hidden="1"/>
-    <row r="542" hidden="1"/>
-    <row r="543" hidden="1"/>
-    <row r="544" hidden="1"/>
-    <row r="545" hidden="1"/>
-    <row r="546" hidden="1"/>
-    <row r="547" hidden="1"/>
-    <row r="548" hidden="1"/>
-    <row r="549" hidden="1"/>
-    <row r="550" hidden="1"/>
-    <row r="551" hidden="1"/>
-    <row r="552" hidden="1"/>
-    <row r="553" hidden="1"/>
-    <row r="554" hidden="1"/>
-    <row r="555" hidden="1"/>
-    <row r="556" hidden="1"/>
-    <row r="557" hidden="1"/>
-    <row r="558" hidden="1"/>
-    <row r="559" hidden="1"/>
-    <row r="560" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A1:C560" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="9.167.047-K"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C560" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20725,7 +20577,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -20744,7 +20596,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -20752,7 +20604,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -20768,7 +20620,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -20784,7 +20636,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -20792,7 +20644,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -20800,7 +20652,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -20808,7 +20660,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -20816,7 +20668,7 @@
         <v>504</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -20824,7 +20676,7 @@
         <v>672</v>
       </c>
       <c r="B13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20832,7 +20684,7 @@
         <v>875</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -20840,7 +20692,7 @@
         <v>743</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20848,7 +20700,7 @@
         <v>730</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e0b76cf1189e8ef/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE854ED-C0F0-466F-8F9C-27DCC81C03E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8EF921-09FF-4478-B108-135CD0DFE908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="18499" r:id="rId6"/>
+    <pivotCache cacheId="7831" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="342">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -162,6 +162,9 @@
     <t>REEMPLAZO LICENCIA MEDICA</t>
   </si>
   <si>
+    <t>TATTERSALL ENEA</t>
+  </si>
+  <si>
     <t>MOTIVOS</t>
   </si>
   <si>
@@ -610,9 +613,6 @@
   </si>
   <si>
     <t>MEGAFRIO CONGELADOS</t>
-  </si>
-  <si>
-    <t>TATTERSALL ENEA</t>
   </si>
   <si>
     <t>MARIA SOLEDAD PONCE</t>
@@ -1382,9 +1382,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4454,7 +4454,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="18499" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="7831" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5576,7 +5576,7 @@
   <dimension ref="A1:U302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5610,16 +5610,16 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="29"/>
       <c r="O1" s="21" t="s">
         <v>1</v>
@@ -5895,14 +5895,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10" t="e">
+      <c r="C6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f>VLOOKUP(C6,SUCURSALES!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="10" t="e">
+        <v>TATTERSALL</v>
+      </c>
+      <c r="E6" s="10" t="str">
         <f>VLOOKUP(C6,SUCURSALES!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>MARGARITA ISABEL GONZALEZ</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -15721,7 +15723,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB3C8CAF-8FCA-4539-8C12-725764C77B5C}">
           <x14:formula1>
-            <xm:f>SUCURSALES!$A$2:$A$211</xm:f>
+            <xm:f>SUCURSALES!$A$2:$A$214</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -15746,12 +15748,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -15776,7 +15778,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -15791,27 +15793,27 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -15835,15 +15837,15 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -15851,7 +15853,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15859,7 +15861,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -15867,7 +15869,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15875,7 +15877,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -15883,7 +15885,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -15891,7 +15893,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -15899,7 +15901,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -15907,7 +15909,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -15915,7 +15917,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -15923,7 +15925,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -15931,7 +15933,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -15939,7 +15941,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -15947,7 +15949,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -15955,7 +15957,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -15963,7 +15965,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -15971,7 +15973,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -15979,7 +15981,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -15995,7 +15997,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -16003,7 +16005,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -16011,7 +16013,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -16019,7 +16021,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -16027,7 +16029,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -16035,7 +16037,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -16043,7 +16045,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -16051,7 +16053,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -16059,7 +16061,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -16067,7 +16069,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -16075,7 +16077,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -16083,7 +16085,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -16091,7 +16093,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -16099,7 +16101,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -16107,7 +16109,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -16115,7 +16117,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -16123,7 +16125,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -16131,7 +16133,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>59</v>
@@ -16139,7 +16141,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -16147,7 +16149,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -16155,7 +16157,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -16163,7 +16165,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -16171,7 +16173,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -16179,7 +16181,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -16187,7 +16189,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -16195,7 +16197,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -16203,7 +16205,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -16211,7 +16213,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -16219,7 +16221,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -16227,7 +16229,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -16235,7 +16237,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -16243,7 +16245,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -16251,7 +16253,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -16259,7 +16261,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -16267,7 +16269,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -16275,7 +16277,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -16283,7 +16285,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -16291,7 +16293,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -16299,7 +16301,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -16307,7 +16309,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -16315,7 +16317,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -16323,7 +16325,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -16331,7 +16333,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -16339,7 +16341,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -16347,7 +16349,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -16355,7 +16357,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -16363,7 +16365,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -16371,7 +16373,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -16379,7 +16381,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -16387,7 +16389,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -16395,7 +16397,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -16403,7 +16405,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -16411,7 +16413,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -16419,7 +16421,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -16427,7 +16429,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -16435,7 +16437,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -16443,7 +16445,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -16451,7 +16453,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -16459,7 +16461,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -16467,7 +16469,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -16475,7 +16477,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -16483,7 +16485,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -16491,7 +16493,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -16499,7 +16501,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -16507,7 +16509,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -16515,7 +16517,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -16523,7 +16525,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -16531,7 +16533,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -16539,7 +16541,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -16547,7 +16549,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -16555,7 +16557,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -16563,7 +16565,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -16571,7 +16573,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -16579,7 +16581,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -16587,7 +16589,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -16595,7 +16597,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -16603,7 +16605,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -16611,7 +16613,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -16619,7 +16621,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -16627,7 +16629,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -16635,7 +16637,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B103">
         <v>11</v>
@@ -16643,7 +16645,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -16651,7 +16653,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -16659,7 +16661,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -16667,7 +16669,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -16675,7 +16677,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -16683,7 +16685,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -16691,7 +16693,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -16699,7 +16701,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -16707,7 +16709,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -16715,7 +16717,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -16723,7 +16725,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -16731,7 +16733,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B115">
         <v>14</v>
@@ -16739,7 +16741,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -16747,7 +16749,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -16755,7 +16757,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -16763,7 +16765,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -16771,7 +16773,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -16779,7 +16781,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -16787,7 +16789,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -16795,7 +16797,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -16803,7 +16805,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -16811,7 +16813,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -16819,7 +16821,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -16827,7 +16829,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -16835,7 +16837,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -16843,7 +16845,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -16851,7 +16853,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -16859,7 +16861,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -16867,7 +16869,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B132">
         <v>13</v>
@@ -16875,7 +16877,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -16883,7 +16885,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -16891,7 +16893,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -16899,7 +16901,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -16907,7 +16909,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -16915,7 +16917,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -16923,7 +16925,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -16931,7 +16933,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -16939,7 +16941,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -16947,7 +16949,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -16955,7 +16957,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -16963,7 +16965,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -16971,7 +16973,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="3" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -17436,8 +17438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="C214" sqref="A59:C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -17460,10 +17462,10 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>247</v>
@@ -17471,10 +17473,10 @@
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>247</v>
@@ -17518,7 +17520,7 @@
         <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>249</v>
@@ -17529,7 +17531,7 @@
         <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>249</v>
@@ -17540,7 +17542,7 @@
         <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>249</v>
@@ -17562,7 +17564,7 @@
         <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>249</v>
@@ -17595,7 +17597,7 @@
         <v>260</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>249</v>
@@ -17617,7 +17619,7 @@
         <v>262</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>249</v>
@@ -17628,7 +17630,7 @@
         <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>249</v>
@@ -17658,7 +17660,7 @@
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>267</v>
@@ -17669,7 +17671,7 @@
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>267</v>
@@ -17683,7 +17685,7 @@
         <v>269</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
         <v>270</v>
@@ -17694,7 +17696,7 @@
         <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>270</v>
@@ -17705,7 +17707,7 @@
         <v>272</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>270</v>
@@ -17713,10 +17715,10 @@
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
         <v>270</v>
@@ -17727,7 +17729,7 @@
         <v>273</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
         <v>270</v>
@@ -17738,7 +17740,7 @@
         <v>274</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C27" t="s">
         <v>270</v>
@@ -17749,7 +17751,7 @@
         <v>275</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
         <v>270</v>
@@ -17760,7 +17762,7 @@
         <v>276</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
         <v>270</v>
@@ -17768,10 +17770,10 @@
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>270</v>
@@ -17779,10 +17781,10 @@
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
         <v>270</v>
@@ -17793,7 +17795,7 @@
         <v>277</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
         <v>270</v>
@@ -17804,7 +17806,7 @@
         <v>278</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
         <v>270</v>
@@ -17815,7 +17817,7 @@
         <v>279</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C34" t="s">
         <v>270</v>
@@ -17826,7 +17828,7 @@
         <v>280</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
         <v>270</v>
@@ -17837,7 +17839,7 @@
         <v>281</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>270</v>
@@ -17980,7 +17982,7 @@
         <v>290</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
         <v>289</v>
@@ -17988,10 +17990,10 @@
     </row>
     <row r="50" spans="1:3" ht="15">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
         <v>289</v>
@@ -18002,7 +18004,7 @@
         <v>291</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
         <v>289</v>
@@ -18013,7 +18015,7 @@
         <v>292</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
         <v>293</v>
@@ -18035,7 +18037,7 @@
         <v>294</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>293</v>
@@ -18043,10 +18045,10 @@
     </row>
     <row r="55" spans="1:3" ht="15">
       <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
         <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>62</v>
       </c>
       <c r="C55" t="s">
         <v>293</v>
@@ -18054,10 +18056,10 @@
     </row>
     <row r="56" spans="1:3" ht="15">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
         <v>293</v>
@@ -18068,7 +18070,7 @@
         <v>295</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
         <v>293</v>
@@ -18087,10 +18089,10 @@
     </row>
     <row r="59" spans="1:3" ht="15">
       <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
         <v>84</v>
-      </c>
-      <c r="B59" t="s">
-        <v>83</v>
       </c>
       <c r="C59" t="s">
         <v>293</v>
@@ -18109,10 +18111,10 @@
     </row>
     <row r="61" spans="1:3" ht="15">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
         <v>293</v>
@@ -18120,10 +18122,10 @@
     </row>
     <row r="62" spans="1:3" ht="15">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
         <v>293</v>
@@ -18131,7 +18133,7 @@
     </row>
     <row r="63" spans="1:3" ht="15">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
         <v>265</v>
@@ -18142,10 +18144,10 @@
     </row>
     <row r="64" spans="1:3" ht="15">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
         <v>293</v>
@@ -18156,7 +18158,7 @@
         <v>296</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
         <v>293</v>
@@ -18178,7 +18180,7 @@
         <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
         <v>293</v>
@@ -18186,10 +18188,10 @@
     </row>
     <row r="68" spans="1:3" ht="15">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
         <v>293</v>
@@ -18197,7 +18199,7 @@
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
         <v>265</v>
@@ -18208,7 +18210,7 @@
     </row>
     <row r="70" spans="1:3" ht="15">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
         <v>265</v>
@@ -18219,10 +18221,10 @@
     </row>
     <row r="71" spans="1:3" ht="15">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
         <v>293</v>
@@ -18241,10 +18243,10 @@
     </row>
     <row r="73" spans="1:3" ht="15">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
         <v>293</v>
@@ -18252,10 +18254,10 @@
     </row>
     <row r="74" spans="1:3" ht="15">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
         <v>293</v>
@@ -18263,10 +18265,10 @@
     </row>
     <row r="75" spans="1:3" ht="15">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
         <v>293</v>
@@ -18274,10 +18276,10 @@
     </row>
     <row r="76" spans="1:3" ht="15">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>293</v>
@@ -18285,10 +18287,10 @@
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
         <v>293</v>
@@ -18296,10 +18298,10 @@
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
         <v>293</v>
@@ -18307,10 +18309,10 @@
     </row>
     <row r="79" spans="1:3" ht="15">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
         <v>293</v>
@@ -18318,10 +18320,10 @@
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
         <v>293</v>
@@ -18340,7 +18342,7 @@
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
         <v>265</v>
@@ -18351,7 +18353,7 @@
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
         <v>265</v>
@@ -18362,10 +18364,10 @@
     </row>
     <row r="84" spans="1:3" ht="15">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
         <v>293</v>
@@ -18373,7 +18375,7 @@
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
         <v>265</v>
@@ -18384,10 +18386,10 @@
     </row>
     <row r="86" spans="1:3" ht="15">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
         <v>293</v>
@@ -18395,10 +18397,10 @@
     </row>
     <row r="87" spans="1:3" ht="15">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
         <v>293</v>
@@ -18406,10 +18408,10 @@
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
         <v>293</v>
@@ -18417,10 +18419,10 @@
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
         <v>293</v>
@@ -18428,7 +18430,7 @@
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
         <v>265</v>
@@ -18439,10 +18441,10 @@
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
         <v>293</v>
@@ -18450,10 +18452,10 @@
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s">
         <v>293</v>
@@ -18461,10 +18463,10 @@
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
         <v>293</v>
@@ -18472,10 +18474,10 @@
     </row>
     <row r="94" spans="1:3" ht="15">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C94" t="s">
         <v>293</v>
@@ -18483,10 +18485,10 @@
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s">
         <v>293</v>
@@ -18494,10 +18496,10 @@
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C96" t="s">
         <v>293</v>
@@ -18505,10 +18507,10 @@
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
         <v>293</v>
@@ -18519,7 +18521,7 @@
         <v>299</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C98" t="s">
         <v>293</v>
@@ -18527,10 +18529,10 @@
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C99" t="s">
         <v>293</v>
@@ -18541,7 +18543,7 @@
         <v>300</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C100" t="s">
         <v>293</v>
@@ -18549,10 +18551,10 @@
     </row>
     <row r="101" spans="1:3" ht="15">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C101" t="s">
         <v>293</v>
@@ -18560,10 +18562,10 @@
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
         <v>293</v>
@@ -18571,10 +18573,10 @@
     </row>
     <row r="103" spans="1:3" ht="15">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C103" t="s">
         <v>293</v>
@@ -18582,10 +18584,10 @@
     </row>
     <row r="104" spans="1:3" ht="15">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C104" t="s">
         <v>293</v>
@@ -18593,10 +18595,10 @@
     </row>
     <row r="105" spans="1:3" ht="15">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C105" t="s">
         <v>293</v>
@@ -18604,10 +18606,10 @@
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C106" t="s">
         <v>293</v>
@@ -18615,10 +18617,10 @@
     </row>
     <row r="107" spans="1:3" ht="15">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C107" t="s">
         <v>293</v>
@@ -18648,10 +18650,10 @@
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C110" t="s">
         <v>293</v>
@@ -18659,10 +18661,10 @@
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C111" t="s">
         <v>293</v>
@@ -18670,10 +18672,10 @@
     </row>
     <row r="112" spans="1:3" ht="15">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C112" t="s">
         <v>293</v>
@@ -18681,10 +18683,10 @@
     </row>
     <row r="113" spans="1:3" ht="15">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C113" t="s">
         <v>293</v>
@@ -18692,10 +18694,10 @@
     </row>
     <row r="114" spans="1:3" ht="15">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C114" t="s">
         <v>293</v>
@@ -18703,10 +18705,10 @@
     </row>
     <row r="115" spans="1:3" ht="15">
       <c r="A115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C115" t="s">
         <v>293</v>
@@ -18736,10 +18738,10 @@
     </row>
     <row r="118" spans="1:3" ht="15">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C118" t="s">
         <v>293</v>
@@ -18747,10 +18749,10 @@
     </row>
     <row r="119" spans="1:3" ht="15">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
         <v>293</v>
@@ -18761,7 +18763,7 @@
         <v>304</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C120" t="s">
         <v>293</v>
@@ -18780,10 +18782,10 @@
     </row>
     <row r="122" spans="1:3" ht="15">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C122" t="s">
         <v>293</v>
@@ -18794,7 +18796,7 @@
         <v>306</v>
       </c>
       <c r="B123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C123" t="s">
         <v>293</v>
@@ -18802,10 +18804,10 @@
     </row>
     <row r="124" spans="1:3" ht="15">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C124" t="s">
         <v>293</v>
@@ -18813,10 +18815,10 @@
     </row>
     <row r="125" spans="1:3" ht="15">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C125" t="s">
         <v>293</v>
@@ -18827,7 +18829,7 @@
         <v>307</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C126" t="s">
         <v>293</v>
@@ -18835,7 +18837,7 @@
     </row>
     <row r="127" spans="1:3" ht="15">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B127" t="s">
         <v>265</v>
@@ -18846,10 +18848,10 @@
     </row>
     <row r="128" spans="1:3" ht="15">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C128" t="s">
         <v>293</v>
@@ -18857,10 +18859,10 @@
     </row>
     <row r="129" spans="1:3" ht="15">
       <c r="A129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s">
         <v>293</v>
@@ -18868,10 +18870,10 @@
     </row>
     <row r="130" spans="1:3" ht="15">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C130" t="s">
         <v>293</v>
@@ -18882,7 +18884,7 @@
         <v>308</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C131" t="s">
         <v>293</v>
@@ -18890,10 +18892,10 @@
     </row>
     <row r="132" spans="1:3" ht="15">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C132" t="s">
         <v>293</v>
@@ -18901,10 +18903,10 @@
     </row>
     <row r="133" spans="1:3" ht="15">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C133" t="s">
         <v>293</v>
@@ -18912,10 +18914,10 @@
     </row>
     <row r="134" spans="1:3" ht="15">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C134" t="s">
         <v>293</v>
@@ -18926,7 +18928,7 @@
         <v>309</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
         <v>293</v>
@@ -18934,10 +18936,10 @@
     </row>
     <row r="136" spans="1:3" ht="15">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C136" t="s">
         <v>293</v>
@@ -18945,10 +18947,10 @@
     </row>
     <row r="137" spans="1:3" ht="15">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C137" t="s">
         <v>293</v>
@@ -18956,10 +18958,10 @@
     </row>
     <row r="138" spans="1:3" ht="15">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C138" t="s">
         <v>293</v>
@@ -18967,10 +18969,10 @@
     </row>
     <row r="139" spans="1:3" ht="15">
       <c r="A139" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C139" t="s">
         <v>293</v>
@@ -18978,10 +18980,10 @@
     </row>
     <row r="140" spans="1:3" ht="15">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C140" t="s">
         <v>293</v>
@@ -18989,10 +18991,10 @@
     </row>
     <row r="141" spans="1:3" ht="15">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C141" t="s">
         <v>293</v>
@@ -19000,10 +19002,10 @@
     </row>
     <row r="142" spans="1:3" ht="15">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C142" t="s">
         <v>293</v>
@@ -19011,10 +19013,10 @@
     </row>
     <row r="143" spans="1:3" ht="15">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C143" t="s">
         <v>293</v>
@@ -19033,10 +19035,10 @@
     </row>
     <row r="145" spans="1:3" ht="15">
       <c r="A145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C145" t="s">
         <v>310</v>
@@ -19066,10 +19068,10 @@
     </row>
     <row r="148" spans="1:3" ht="15">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
         <v>310</v>
@@ -19088,10 +19090,10 @@
     </row>
     <row r="150" spans="1:3" ht="15">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C150" t="s">
         <v>310</v>
@@ -19110,10 +19112,10 @@
     </row>
     <row r="152" spans="1:3" ht="15">
       <c r="A152" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B152" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C152" t="s">
         <v>311</v>
@@ -19143,10 +19145,10 @@
     </row>
     <row r="155" spans="1:3" ht="15">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C155" t="s">
         <v>312</v>
@@ -19154,10 +19156,10 @@
     </row>
     <row r="156" spans="1:3" ht="15">
       <c r="A156" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B156" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C156" t="s">
         <v>312</v>
@@ -19165,10 +19167,10 @@
     </row>
     <row r="157" spans="1:3" ht="15">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C157" t="s">
         <v>312</v>
@@ -19179,7 +19181,7 @@
         <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C158" t="s">
         <v>312</v>
@@ -19198,10 +19200,10 @@
     </row>
     <row r="160" spans="1:3" ht="15">
       <c r="A160" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C160" t="s">
         <v>312</v>
@@ -19209,10 +19211,10 @@
     </row>
     <row r="161" spans="1:3" ht="15">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B161" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C161" t="s">
         <v>312</v>
@@ -19220,7 +19222,7 @@
     </row>
     <row r="162" spans="1:3" ht="15">
       <c r="A162" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B162" t="s">
         <v>256</v>
@@ -19231,7 +19233,7 @@
     </row>
     <row r="163" spans="1:3" ht="15">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B163" t="s">
         <v>265</v>
@@ -19242,7 +19244,7 @@
     </row>
     <row r="164" spans="1:3" ht="15">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B164" t="s">
         <v>265</v>
@@ -19253,10 +19255,10 @@
     </row>
     <row r="165" spans="1:3" ht="15">
       <c r="A165" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C165" t="s">
         <v>313</v>
@@ -19264,10 +19266,10 @@
     </row>
     <row r="166" spans="1:3" ht="15">
       <c r="A166" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C166" t="s">
         <v>313</v>
@@ -19275,10 +19277,10 @@
     </row>
     <row r="167" spans="1:3" ht="15">
       <c r="A167" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C167" t="s">
         <v>313</v>
@@ -19308,10 +19310,10 @@
     </row>
     <row r="170" spans="1:3" ht="15">
       <c r="A170" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B170" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C170" t="s">
         <v>317</v>
@@ -19319,10 +19321,10 @@
     </row>
     <row r="171" spans="1:3" ht="15">
       <c r="A171" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
         <v>317</v>
@@ -19330,10 +19332,10 @@
     </row>
     <row r="172" spans="1:3" ht="15">
       <c r="A172" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
         <v>317</v>
@@ -19385,10 +19387,10 @@
     </row>
     <row r="177" spans="1:3" ht="15">
       <c r="A177" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B177" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C177" t="s">
         <v>318</v>
@@ -19410,7 +19412,7 @@
         <v>320</v>
       </c>
       <c r="B179" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C179" t="s">
         <v>293</v>
@@ -19418,10 +19420,10 @@
     </row>
     <row r="180" spans="1:3" ht="15">
       <c r="A180" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B180" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C180" t="s">
         <v>293</v>
@@ -19429,10 +19431,10 @@
     </row>
     <row r="181" spans="1:3" ht="15">
       <c r="A181" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B181" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C181" t="s">
         <v>321</v>
@@ -19440,10 +19442,10 @@
     </row>
     <row r="182" spans="1:3" ht="15">
       <c r="A182" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B182" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C182" t="s">
         <v>321</v>
@@ -19451,10 +19453,10 @@
     </row>
     <row r="183" spans="1:3" ht="15">
       <c r="A183" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B183" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C183" t="s">
         <v>321</v>
@@ -19462,10 +19464,10 @@
     </row>
     <row r="184" spans="1:3" ht="15">
       <c r="A184" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C184" t="s">
         <v>321</v>
@@ -19473,10 +19475,10 @@
     </row>
     <row r="185" spans="1:3" ht="15">
       <c r="A185" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B185" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C185" t="s">
         <v>321</v>
@@ -19484,7 +19486,7 @@
     </row>
     <row r="186" spans="1:3" ht="15">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B186" t="s">
         <v>265</v>
@@ -19495,10 +19497,10 @@
     </row>
     <row r="187" spans="1:3" ht="15">
       <c r="A187" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B187" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C187" t="s">
         <v>321</v>
@@ -19506,10 +19508,10 @@
     </row>
     <row r="188" spans="1:3" ht="15">
       <c r="A188" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C188" t="s">
         <v>321</v>
@@ -19517,10 +19519,10 @@
     </row>
     <row r="189" spans="1:3" ht="15">
       <c r="A189" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B189" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C189" t="s">
         <v>321</v>
@@ -19528,10 +19530,10 @@
     </row>
     <row r="190" spans="1:3" ht="15">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B190" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C190" t="s">
         <v>321</v>
@@ -19539,10 +19541,10 @@
     </row>
     <row r="191" spans="1:3" ht="15">
       <c r="A191" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B191" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C191" t="s">
         <v>321</v>
@@ -19627,7 +19629,7 @@
     </row>
     <row r="199" spans="1:3" ht="15">
       <c r="A199" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B199" t="s">
         <v>209</v>
@@ -19715,10 +19717,10 @@
     </row>
     <row r="207" spans="1:3" ht="15">
       <c r="A207" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="B207" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C207" t="s">
         <v>326</v>
@@ -19726,10 +19728,10 @@
     </row>
     <row r="208" spans="1:3" ht="15">
       <c r="A208" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B208" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C208" t="s">
         <v>326</v>
@@ -19748,10 +19750,10 @@
     </row>
     <row r="210" spans="1:3" ht="15">
       <c r="A210" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C210" t="s">
         <v>326</v>
@@ -19772,8 +19774,8 @@
       <c r="A212" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="B212" s="34" t="s">
-        <v>83</v>
+      <c r="B212" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="C212" t="s">
         <v>293</v>
@@ -19783,15 +19785,17 @@
       <c r="A213" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="B213" s="34" t="s">
+      <c r="B213" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C213" s="34" t="s">
+      <c r="C213" s="32" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15">
-      <c r="A214" s="24"/>
+      <c r="A214" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="B214" s="27"/>
     </row>
     <row r="215" spans="1:3" ht="15">

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e0b76cf1189e8ef/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fnort\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8EF921-09FF-4478-B108-135CD0DFE908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830378F0-2CA4-4ED5-9762-2C220DF3C50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnos" sheetId="4" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="BANCOS" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SUCURSALES!$A$1:$C$560</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SUCURSALES!$A$1:$C$224</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="7831" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="344">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -990,9 +990,6 @@
     <t>LIMONADA</t>
   </si>
   <si>
-    <t>LOS TRAPENSES DECATHLON</t>
-  </si>
-  <si>
     <t>DECATHLON</t>
   </si>
   <si>
@@ -1005,9 +1002,6 @@
     <t>PC FACTORY</t>
   </si>
   <si>
-    <t>PORTAL LA DEHESA, DECATHLON</t>
-  </si>
-  <si>
     <t>RECETARIO MAGISTRAL</t>
   </si>
   <si>
@@ -1072,13 +1066,25 @@
   </si>
   <si>
     <t>TENPO</t>
+  </si>
+  <si>
+    <t>DECATHLON LOS TRAPENSES</t>
+  </si>
+  <si>
+    <t>DECATHLON PORTAL LA DEHESA</t>
+  </si>
+  <si>
+    <t>LOS CRISTALES CALAMA</t>
+  </si>
+  <si>
+    <t>TECNOFAST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1329,7 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1345,22 +1351,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -1368,23 +1384,10 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4454,7 +4457,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="7831" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5575,52 +5578,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4B14FA-1BFE-4EC8-A345-326833D53FAF}">
   <dimension ref="A1:U302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="27.42578125" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.7265625" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="12" max="12" width="23.453125" customWidth="1"/>
+    <col min="13" max="13" width="21.453125" customWidth="1"/>
+    <col min="14" max="14" width="29.54296875" customWidth="1"/>
+    <col min="15" max="15" width="19.81640625" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" customWidth="1"/>
+    <col min="17" max="17" width="27.453125" customWidth="1"/>
+    <col min="18" max="18" width="31.1796875" customWidth="1"/>
     <col min="19" max="19" width="30" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.54296875" customWidth="1"/>
+    <col min="21" max="21" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="29"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="27"/>
       <c r="O1" s="21" t="s">
         <v>1</v>
       </c>
@@ -5630,7 +5633,7 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="76.5" customHeight="1">
+    <row r="2" spans="1:21" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -5714,10 +5717,10 @@
       <c r="F3" s="12">
         <v>45691</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="28">
         <v>0.40625</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <v>0.82291666666666663</v>
       </c>
       <c r="I3" s="11">
@@ -5760,7 +5763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -5779,10 +5782,10 @@
       <c r="F4" s="12">
         <v>45694</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="28">
         <v>0.40625</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="28">
         <v>0.82291666666666663</v>
       </c>
       <c r="I4" s="11">
@@ -5825,7 +5828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -5844,10 +5847,10 @@
       <c r="F5" s="12">
         <v>45693</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="28">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="28">
         <v>0.75</v>
       </c>
       <c r="I5" s="11">
@@ -5890,7 +5893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -5991,7 +5994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -6189,7 +6192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -6387,7 +6390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -6519,7 +6522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -6552,7 +6555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -6618,7 +6621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -6849,7 +6852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -6882,7 +6885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -6948,7 +6951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -6981,7 +6984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -7014,7 +7017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -7113,7 +7116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -7179,7 +7182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -7245,7 +7248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -7278,7 +7281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -7311,7 +7314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -7509,7 +7512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>53</v>
       </c>
@@ -7542,7 +7545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -7575,7 +7578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <v>55</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -7641,7 +7644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>57</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>58</v>
       </c>
@@ -7707,7 +7710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>60</v>
       </c>
@@ -7773,7 +7776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>61</v>
       </c>
@@ -7806,7 +7809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -7839,7 +7842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
         <v>64</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>65</v>
       </c>
@@ -7938,7 +7941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>69</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>71</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <v>73</v>
       </c>
@@ -8202,7 +8205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="10">
         <v>74</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
         <v>75</v>
       </c>
@@ -8268,7 +8271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
         <v>76</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="10">
         <v>77</v>
       </c>
@@ -8334,7 +8337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
         <v>78</v>
       </c>
@@ -8367,7 +8370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="10">
         <v>79</v>
       </c>
@@ -8400,7 +8403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="10">
         <v>80</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="10">
         <v>81</v>
       </c>
@@ -8466,7 +8469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="10">
         <v>82</v>
       </c>
@@ -8499,7 +8502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="10">
         <v>83</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="10">
         <v>84</v>
       </c>
@@ -8565,7 +8568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="10">
         <v>85</v>
       </c>
@@ -8598,7 +8601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="10">
         <v>86</v>
       </c>
@@ -8631,7 +8634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="10">
         <v>87</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="10">
         <v>88</v>
       </c>
@@ -8697,7 +8700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="10">
         <v>89</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="10">
         <v>90</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="10">
         <v>91</v>
       </c>
@@ -8796,7 +8799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="10">
         <v>92</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="10">
         <v>93</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="10">
         <v>94</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="10">
         <v>95</v>
       </c>
@@ -8928,7 +8931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>96</v>
       </c>
@@ -8961,7 +8964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="10">
         <v>97</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="10">
         <v>98</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="10">
         <v>99</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="10">
         <v>100</v>
       </c>
@@ -9093,7 +9096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="10">
         <v>101</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="10">
         <v>102</v>
       </c>
@@ -9159,7 +9162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="10">
         <v>103</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="10">
         <v>104</v>
       </c>
@@ -9225,7 +9228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>105</v>
       </c>
@@ -9258,7 +9261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="10">
         <v>106</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="10">
         <v>107</v>
       </c>
@@ -9324,7 +9327,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="10">
         <v>108</v>
       </c>
@@ -9357,7 +9360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>109</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="10">
         <v>110</v>
       </c>
@@ -9423,7 +9426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="10">
         <v>111</v>
       </c>
@@ -9456,7 +9459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="10">
         <v>112</v>
       </c>
@@ -9489,7 +9492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="10">
         <v>113</v>
       </c>
@@ -9522,7 +9525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="10">
         <v>114</v>
       </c>
@@ -9555,7 +9558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="10">
         <v>115</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="10">
         <v>116</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="10">
         <v>117</v>
       </c>
@@ -9654,7 +9657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="10">
         <v>118</v>
       </c>
@@ -9687,7 +9690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="10">
         <v>119</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="10">
         <v>120</v>
       </c>
@@ -9753,7 +9756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="10">
         <v>121</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="10">
         <v>122</v>
       </c>
@@ -9819,7 +9822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="10">
         <v>123</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="10">
         <v>124</v>
       </c>
@@ -9885,7 +9888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="10">
         <v>125</v>
       </c>
@@ -9918,7 +9921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="10">
         <v>126</v>
       </c>
@@ -9951,7 +9954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="10">
         <v>127</v>
       </c>
@@ -9984,7 +9987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="10">
         <v>128</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="10">
         <v>129</v>
       </c>
@@ -10050,7 +10053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="10">
         <v>130</v>
       </c>
@@ -10083,7 +10086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="10">
         <v>131</v>
       </c>
@@ -10116,7 +10119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="10">
         <v>132</v>
       </c>
@@ -10149,7 +10152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="10">
         <v>133</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="10">
         <v>134</v>
       </c>
@@ -10215,7 +10218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="10">
         <v>135</v>
       </c>
@@ -10248,7 +10251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="10">
         <v>136</v>
       </c>
@@ -10281,7 +10284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="10">
         <v>137</v>
       </c>
@@ -10314,7 +10317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="10">
         <v>138</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="10">
         <v>139</v>
       </c>
@@ -10380,7 +10383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="10">
         <v>140</v>
       </c>
@@ -10413,7 +10416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="10">
         <v>141</v>
       </c>
@@ -10446,7 +10449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="10">
         <v>142</v>
       </c>
@@ -10479,7 +10482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" s="10">
         <v>143</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" s="10">
         <v>144</v>
       </c>
@@ -10545,7 +10548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" s="10">
         <v>145</v>
       </c>
@@ -10578,7 +10581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" s="10">
         <v>146</v>
       </c>
@@ -10611,7 +10614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" s="10">
         <v>147</v>
       </c>
@@ -10644,7 +10647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" s="10">
         <v>148</v>
       </c>
@@ -10677,7 +10680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="10">
         <v>149</v>
       </c>
@@ -10710,7 +10713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" s="10">
         <v>150</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" s="10">
         <v>151</v>
       </c>
@@ -10776,7 +10779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" s="10">
         <v>152</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" s="10">
         <v>153</v>
       </c>
@@ -10842,7 +10845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" s="10">
         <v>154</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" s="10">
         <v>155</v>
       </c>
@@ -10908,7 +10911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" s="10">
         <v>156</v>
       </c>
@@ -10941,7 +10944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" s="10">
         <v>157</v>
       </c>
@@ -10974,7 +10977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" s="10">
         <v>158</v>
       </c>
@@ -11007,7 +11010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" s="10">
         <v>159</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" s="10">
         <v>160</v>
       </c>
@@ -11073,7 +11076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" s="10">
         <v>161</v>
       </c>
@@ -11106,7 +11109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" s="10">
         <v>162</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165" s="10">
         <v>163</v>
       </c>
@@ -11172,7 +11175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" s="10">
         <v>164</v>
       </c>
@@ -11205,7 +11208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" s="10">
         <v>165</v>
       </c>
@@ -11238,7 +11241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" s="10">
         <v>166</v>
       </c>
@@ -11271,7 +11274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" s="10">
         <v>167</v>
       </c>
@@ -11304,7 +11307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" s="10">
         <v>168</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" s="10">
         <v>169</v>
       </c>
@@ -11370,7 +11373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" s="10">
         <v>170</v>
       </c>
@@ -11403,7 +11406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" s="10">
         <v>171</v>
       </c>
@@ -11436,7 +11439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" s="10">
         <v>172</v>
       </c>
@@ -11469,7 +11472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" s="10">
         <v>173</v>
       </c>
@@ -11502,7 +11505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" s="10">
         <v>174</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" s="10">
         <v>175</v>
       </c>
@@ -11568,7 +11571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" s="10">
         <v>176</v>
       </c>
@@ -11601,7 +11604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" s="10">
         <v>177</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" s="10">
         <v>178</v>
       </c>
@@ -11667,7 +11670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" s="10">
         <v>179</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" s="10">
         <v>180</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" s="10">
         <v>181</v>
       </c>
@@ -11766,7 +11769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" s="10">
         <v>182</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" s="10">
         <v>183</v>
       </c>
@@ -11832,7 +11835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" s="10">
         <v>184</v>
       </c>
@@ -11865,7 +11868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" s="10">
         <v>185</v>
       </c>
@@ -11898,7 +11901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" s="10">
         <v>186</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" s="10">
         <v>187</v>
       </c>
@@ -11964,7 +11967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" s="10">
         <v>188</v>
       </c>
@@ -11997,7 +12000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" s="10">
         <v>189</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" s="10">
         <v>190</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" s="10">
         <v>191</v>
       </c>
@@ -12096,7 +12099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" s="10">
         <v>192</v>
       </c>
@@ -12129,7 +12132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" s="10">
         <v>193</v>
       </c>
@@ -12162,7 +12165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" s="10">
         <v>194</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197" s="10">
         <v>195</v>
       </c>
@@ -12228,7 +12231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" s="10">
         <v>196</v>
       </c>
@@ -12261,7 +12264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199" s="10">
         <v>197</v>
       </c>
@@ -12294,7 +12297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200" s="10">
         <v>198</v>
       </c>
@@ -12327,7 +12330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201" s="10">
         <v>199</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202" s="10">
         <v>200</v>
       </c>
@@ -12393,7 +12396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203" s="10">
         <v>201</v>
       </c>
@@ -12426,7 +12429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204" s="10">
         <v>202</v>
       </c>
@@ -12459,7 +12462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205" s="10">
         <v>203</v>
       </c>
@@ -12492,7 +12495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206" s="10">
         <v>204</v>
       </c>
@@ -12525,7 +12528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207" s="10">
         <v>205</v>
       </c>
@@ -12558,7 +12561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208" s="10">
         <v>206</v>
       </c>
@@ -12591,7 +12594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209" s="10">
         <v>207</v>
       </c>
@@ -12624,7 +12627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210" s="10">
         <v>208</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211" s="10">
         <v>209</v>
       </c>
@@ -12690,7 +12693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212" s="10">
         <v>210</v>
       </c>
@@ -12723,7 +12726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213" s="10">
         <v>211</v>
       </c>
@@ -12756,7 +12759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214" s="10">
         <v>212</v>
       </c>
@@ -12789,7 +12792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215" s="10">
         <v>213</v>
       </c>
@@ -12822,7 +12825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216" s="10">
         <v>214</v>
       </c>
@@ -12855,7 +12858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217" s="10">
         <v>215</v>
       </c>
@@ -12888,7 +12891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218" s="10">
         <v>216</v>
       </c>
@@ -12921,7 +12924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219" s="10">
         <v>217</v>
       </c>
@@ -12954,7 +12957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220" s="10">
         <v>218</v>
       </c>
@@ -12987,7 +12990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221" s="10">
         <v>219</v>
       </c>
@@ -13020,7 +13023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222" s="10">
         <v>220</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223" s="10">
         <v>221</v>
       </c>
@@ -13086,7 +13089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224" s="10">
         <v>222</v>
       </c>
@@ -13119,7 +13122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225" s="10">
         <v>223</v>
       </c>
@@ -13152,7 +13155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226" s="10">
         <v>224</v>
       </c>
@@ -13185,7 +13188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227" s="10">
         <v>225</v>
       </c>
@@ -13218,7 +13221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228" s="10">
         <v>226</v>
       </c>
@@ -13251,7 +13254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229" s="10">
         <v>227</v>
       </c>
@@ -13284,7 +13287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230" s="10">
         <v>228</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" s="10">
         <v>229</v>
       </c>
@@ -13350,7 +13353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232" s="10">
         <v>230</v>
       </c>
@@ -13383,7 +13386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233" s="10">
         <v>231</v>
       </c>
@@ -13416,7 +13419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" s="10">
         <v>232</v>
       </c>
@@ -13449,7 +13452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235" s="10">
         <v>233</v>
       </c>
@@ -13482,7 +13485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" s="10">
         <v>234</v>
       </c>
@@ -13515,7 +13518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237" s="10">
         <v>235</v>
       </c>
@@ -13548,7 +13551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" s="10">
         <v>236</v>
       </c>
@@ -13581,7 +13584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239" s="10">
         <v>237</v>
       </c>
@@ -13614,7 +13617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240" s="10">
         <v>238</v>
       </c>
@@ -13647,7 +13650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241" s="10">
         <v>239</v>
       </c>
@@ -13680,7 +13683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242" s="10">
         <v>240</v>
       </c>
@@ -13713,7 +13716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243" s="10">
         <v>241</v>
       </c>
@@ -13746,7 +13749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244" s="10">
         <v>242</v>
       </c>
@@ -13779,7 +13782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245" s="10">
         <v>243</v>
       </c>
@@ -13812,7 +13815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246" s="10">
         <v>244</v>
       </c>
@@ -13845,7 +13848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247" s="10">
         <v>245</v>
       </c>
@@ -13878,7 +13881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248" s="10">
         <v>246</v>
       </c>
@@ -13911,7 +13914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249" s="10">
         <v>247</v>
       </c>
@@ -13944,7 +13947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250" s="10">
         <v>248</v>
       </c>
@@ -13977,7 +13980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251" s="10">
         <v>249</v>
       </c>
@@ -14010,7 +14013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252" s="10">
         <v>250</v>
       </c>
@@ -14043,7 +14046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253" s="10">
         <v>251</v>
       </c>
@@ -14076,7 +14079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254" s="10">
         <v>252</v>
       </c>
@@ -14109,7 +14112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255" s="10">
         <v>253</v>
       </c>
@@ -14142,7 +14145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256" s="10">
         <v>254</v>
       </c>
@@ -14175,7 +14178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" s="10">
         <v>255</v>
       </c>
@@ -14208,7 +14211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" s="10">
         <v>256</v>
       </c>
@@ -14241,7 +14244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" s="10">
         <v>257</v>
       </c>
@@ -14274,7 +14277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" s="10">
         <v>258</v>
       </c>
@@ -14307,7 +14310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261" s="10">
         <v>259</v>
       </c>
@@ -14340,7 +14343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" s="10">
         <v>260</v>
       </c>
@@ -14373,7 +14376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" s="10">
         <v>261</v>
       </c>
@@ -14406,7 +14409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" s="10">
         <v>262</v>
       </c>
@@ -14439,7 +14442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" s="10">
         <v>263</v>
       </c>
@@ -14472,7 +14475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" s="10">
         <v>264</v>
       </c>
@@ -14505,7 +14508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" s="10">
         <v>265</v>
       </c>
@@ -14538,7 +14541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" s="10">
         <v>266</v>
       </c>
@@ -14571,7 +14574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" s="10">
         <v>267</v>
       </c>
@@ -14604,7 +14607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" s="10">
         <v>268</v>
       </c>
@@ -14637,7 +14640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" s="10">
         <v>269</v>
       </c>
@@ -14670,7 +14673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" s="10">
         <v>270</v>
       </c>
@@ -14703,7 +14706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" s="10">
         <v>271</v>
       </c>
@@ -14736,7 +14739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" s="10">
         <v>272</v>
       </c>
@@ -14769,7 +14772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" s="10">
         <v>273</v>
       </c>
@@ -14802,7 +14805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" s="10">
         <v>274</v>
       </c>
@@ -14835,7 +14838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" s="10">
         <v>275</v>
       </c>
@@ -14868,7 +14871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" s="10">
         <v>276</v>
       </c>
@@ -14901,7 +14904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" s="10">
         <v>277</v>
       </c>
@@ -14934,7 +14937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" s="10">
         <v>278</v>
       </c>
@@ -14967,7 +14970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" s="10">
         <v>279</v>
       </c>
@@ -15000,7 +15003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" s="10">
         <v>280</v>
       </c>
@@ -15033,7 +15036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" s="10">
         <v>281</v>
       </c>
@@ -15066,7 +15069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" s="10">
         <v>282</v>
       </c>
@@ -15099,7 +15102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" s="10">
         <v>283</v>
       </c>
@@ -15132,7 +15135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" s="10">
         <v>284</v>
       </c>
@@ -15165,7 +15168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" s="10">
         <v>285</v>
       </c>
@@ -15198,7 +15201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" s="10">
         <v>286</v>
       </c>
@@ -15231,7 +15234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" s="10">
         <v>287</v>
       </c>
@@ -15264,7 +15267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" s="10">
         <v>288</v>
       </c>
@@ -15297,7 +15300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" s="10">
         <v>289</v>
       </c>
@@ -15330,7 +15333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" s="10">
         <v>290</v>
       </c>
@@ -15363,7 +15366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293" s="10">
         <v>291</v>
       </c>
@@ -15396,7 +15399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" s="10">
         <v>292</v>
       </c>
@@ -15429,7 +15432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295" s="10">
         <v>293</v>
       </c>
@@ -15462,7 +15465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296" s="10">
         <v>294</v>
       </c>
@@ -15495,7 +15498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297" s="10">
         <v>295</v>
       </c>
@@ -15528,7 +15531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298" s="10">
         <v>296</v>
       </c>
@@ -15561,7 +15564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299" s="10">
         <v>297</v>
       </c>
@@ -15594,7 +15597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" s="10">
         <v>298</v>
       </c>
@@ -15627,7 +15630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" s="10">
         <v>299</v>
       </c>
@@ -15660,7 +15663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302" s="10">
         <v>300</v>
       </c>
@@ -15708,7 +15711,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66657E74-EC18-4C85-84E9-F63B0FD848CF}">
           <x14:formula1>
             <xm:f>BANCOS!$B$2:$B$16</xm:f>
@@ -15725,7 +15728,13 @@
           <x14:formula1>
             <xm:f>SUCURSALES!$A$2:$A$214</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C1048576</xm:sqref>
+          <xm:sqref>C4:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B3D9E0C-3B6C-40E5-956A-0FDC914F2EE3}">
+          <x14:formula1>
+            <xm:f>SUCURSALES!$A$2:$A$215</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15741,77 +15750,77 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -15829,13 +15838,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -15843,7 +15852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -15851,7 +15860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -15859,7 +15868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -15867,7 +15876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -15875,7 +15884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -15883,7 +15892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -15891,7 +15900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -15899,7 +15908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
@@ -15907,7 +15916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -15915,7 +15924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -15923,7 +15932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
@@ -15931,7 +15940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
@@ -15939,7 +15948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -15947,7 +15956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
@@ -15955,7 +15964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -15963,7 +15972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -15971,7 +15980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -15979,7 +15988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
@@ -15987,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -15995,7 +16004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
@@ -16003,7 +16012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -16011,7 +16020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
@@ -16019,7 +16028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
@@ -16027,7 +16036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>71</v>
       </c>
@@ -16035,7 +16044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
@@ -16043,7 +16052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -16051,7 +16060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
@@ -16059,7 +16068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>75</v>
       </c>
@@ -16067,7 +16076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>76</v>
       </c>
@@ -16075,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
@@ -16083,7 +16092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
@@ -16091,7 +16100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>79</v>
       </c>
@@ -16099,7 +16108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -16107,7 +16116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
@@ -16115,7 +16124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
@@ -16123,7 +16132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
@@ -16131,7 +16140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -16139,7 +16148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -16147,7 +16156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -16155,7 +16164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>87</v>
       </c>
@@ -16163,7 +16172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>88</v>
       </c>
@@ -16171,7 +16180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
@@ -16179,7 +16188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
@@ -16187,7 +16196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
@@ -16195,7 +16204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
@@ -16203,7 +16212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>93</v>
       </c>
@@ -16211,7 +16220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>94</v>
       </c>
@@ -16219,7 +16228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>95</v>
       </c>
@@ -16227,7 +16236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
@@ -16235,7 +16244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>97</v>
       </c>
@@ -16243,7 +16252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
@@ -16251,7 +16260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>99</v>
       </c>
@@ -16259,7 +16268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>100</v>
       </c>
@@ -16267,7 +16276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>101</v>
       </c>
@@ -16275,7 +16284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>102</v>
       </c>
@@ -16283,7 +16292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>103</v>
       </c>
@@ -16291,7 +16300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>104</v>
       </c>
@@ -16299,7 +16308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>105</v>
       </c>
@@ -16307,7 +16316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>106</v>
       </c>
@@ -16315,7 +16324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>107</v>
       </c>
@@ -16323,7 +16332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>108</v>
       </c>
@@ -16331,7 +16340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>109</v>
       </c>
@@ -16339,7 +16348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>110</v>
       </c>
@@ -16347,7 +16356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>111</v>
       </c>
@@ -16355,7 +16364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>112</v>
       </c>
@@ -16363,7 +16372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>113</v>
       </c>
@@ -16371,7 +16380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>114</v>
       </c>
@@ -16379,7 +16388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>115</v>
       </c>
@@ -16387,7 +16396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>116</v>
       </c>
@@ -16395,7 +16404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>117</v>
       </c>
@@ -16403,7 +16412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>118</v>
       </c>
@@ -16411,7 +16420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>119</v>
       </c>
@@ -16419,7 +16428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>120</v>
       </c>
@@ -16427,7 +16436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>121</v>
       </c>
@@ -16435,7 +16444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>122</v>
       </c>
@@ -16443,7 +16452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>123</v>
       </c>
@@ -16451,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>124</v>
       </c>
@@ -16459,7 +16468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>125</v>
       </c>
@@ -16467,7 +16476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>126</v>
       </c>
@@ -16475,7 +16484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>127</v>
       </c>
@@ -16483,7 +16492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>128</v>
       </c>
@@ -16491,7 +16500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>129</v>
       </c>
@@ -16499,7 +16508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>130</v>
       </c>
@@ -16507,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>131</v>
       </c>
@@ -16515,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>132</v>
       </c>
@@ -16523,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>133</v>
       </c>
@@ -16531,7 +16540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>134</v>
       </c>
@@ -16539,7 +16548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>135</v>
       </c>
@@ -16547,7 +16556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>136</v>
       </c>
@@ -16555,7 +16564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>137</v>
       </c>
@@ -16563,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>138</v>
       </c>
@@ -16571,7 +16580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>139</v>
       </c>
@@ -16579,7 +16588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>140</v>
       </c>
@@ -16587,7 +16596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>141</v>
       </c>
@@ -16595,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>142</v>
       </c>
@@ -16603,7 +16612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>143</v>
       </c>
@@ -16611,7 +16620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>144</v>
       </c>
@@ -16619,7 +16628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>145</v>
       </c>
@@ -16627,7 +16636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>146</v>
       </c>
@@ -16635,7 +16644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>147</v>
       </c>
@@ -16643,7 +16652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>148</v>
       </c>
@@ -16651,7 +16660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>149</v>
       </c>
@@ -16659,7 +16668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>150</v>
       </c>
@@ -16667,7 +16676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>151</v>
       </c>
@@ -16675,7 +16684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>152</v>
       </c>
@@ -16683,7 +16692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>153</v>
       </c>
@@ -16691,7 +16700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>154</v>
       </c>
@@ -16699,7 +16708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>155</v>
       </c>
@@ -16707,7 +16716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>156</v>
       </c>
@@ -16715,7 +16724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>157</v>
       </c>
@@ -16723,7 +16732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>158</v>
       </c>
@@ -16731,7 +16740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>159</v>
       </c>
@@ -16739,7 +16748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>160</v>
       </c>
@@ -16747,7 +16756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>161</v>
       </c>
@@ -16755,7 +16764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>162</v>
       </c>
@@ -16763,7 +16772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>163</v>
       </c>
@@ -16771,7 +16780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>164</v>
       </c>
@@ -16779,7 +16788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>165</v>
       </c>
@@ -16787,7 +16796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>166</v>
       </c>
@@ -16795,7 +16804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>167</v>
       </c>
@@ -16803,7 +16812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>168</v>
       </c>
@@ -16811,7 +16820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>169</v>
       </c>
@@ -16819,7 +16828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>170</v>
       </c>
@@ -16827,7 +16836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>171</v>
       </c>
@@ -16835,7 +16844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>172</v>
       </c>
@@ -16843,7 +16852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>173</v>
       </c>
@@ -16851,7 +16860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>174</v>
       </c>
@@ -16859,7 +16868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>175</v>
       </c>
@@ -16867,7 +16876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>176</v>
       </c>
@@ -16875,7 +16884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>177</v>
       </c>
@@ -16883,7 +16892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>178</v>
       </c>
@@ -16891,7 +16900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>179</v>
       </c>
@@ -16899,7 +16908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>180</v>
       </c>
@@ -16907,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>181</v>
       </c>
@@ -16915,7 +16924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>182</v>
       </c>
@@ -16923,7 +16932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>183</v>
       </c>
@@ -16931,7 +16940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>184</v>
       </c>
@@ -16939,7 +16948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>185</v>
       </c>
@@ -16947,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>186</v>
       </c>
@@ -16955,7 +16964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>187</v>
       </c>
@@ -16963,7 +16972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>188</v>
       </c>
@@ -16971,7 +16980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>38</v>
       </c>
@@ -16979,7 +16988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>189</v>
       </c>
@@ -16987,7 +16996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>190</v>
       </c>
@@ -16995,7 +17004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>191</v>
       </c>
@@ -17003,7 +17012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>192</v>
       </c>
@@ -17011,7 +17020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>193</v>
       </c>
@@ -17019,7 +17028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>194</v>
       </c>
@@ -17027,7 +17036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>195</v>
       </c>
@@ -17035,7 +17044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>196</v>
       </c>
@@ -17043,7 +17052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>197</v>
       </c>
@@ -17051,7 +17060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>198</v>
       </c>
@@ -17059,7 +17068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>199</v>
       </c>
@@ -17067,7 +17076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>200</v>
       </c>
@@ -17075,7 +17084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>201</v>
       </c>
@@ -17083,7 +17092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>202</v>
       </c>
@@ -17091,7 +17100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>203</v>
       </c>
@@ -17099,7 +17108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>204</v>
       </c>
@@ -17107,7 +17116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>205</v>
       </c>
@@ -17115,7 +17124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>206</v>
       </c>
@@ -17123,7 +17132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>207</v>
       </c>
@@ -17131,7 +17140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>208</v>
       </c>
@@ -17139,7 +17148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>209</v>
       </c>
@@ -17147,7 +17156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>210</v>
       </c>
@@ -17155,7 +17164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>211</v>
       </c>
@@ -17163,7 +17172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>212</v>
       </c>
@@ -17171,7 +17180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>213</v>
       </c>
@@ -17179,7 +17188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>214</v>
       </c>
@@ -17187,7 +17196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>32</v>
       </c>
@@ -17195,7 +17204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>215</v>
       </c>
@@ -17203,7 +17212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>216</v>
       </c>
@@ -17211,7 +17220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>217</v>
       </c>
@@ -17219,7 +17228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>218</v>
       </c>
@@ -17227,7 +17236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>219</v>
       </c>
@@ -17235,7 +17244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>220</v>
       </c>
@@ -17243,7 +17252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>221</v>
       </c>
@@ -17251,7 +17260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>222</v>
       </c>
@@ -17259,7 +17268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>223</v>
       </c>
@@ -17267,7 +17276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>224</v>
       </c>
@@ -17275,7 +17284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>225</v>
       </c>
@@ -17283,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>226</v>
       </c>
@@ -17291,7 +17300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>227</v>
       </c>
@@ -17299,7 +17308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>228</v>
       </c>
@@ -17307,7 +17316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>229</v>
       </c>
@@ -17315,7 +17324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>230</v>
       </c>
@@ -17323,7 +17332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>231</v>
       </c>
@@ -17331,7 +17340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>232</v>
       </c>
@@ -17339,7 +17348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>233</v>
       </c>
@@ -17347,7 +17356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>234</v>
       </c>
@@ -17355,7 +17364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>235</v>
       </c>
@@ -17363,7 +17372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>236</v>
       </c>
@@ -17371,7 +17380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>237</v>
       </c>
@@ -17379,7 +17388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>238</v>
       </c>
@@ -17387,7 +17396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>239</v>
       </c>
@@ -17395,7 +17404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>240</v>
       </c>
@@ -17403,7 +17412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>241</v>
       </c>
@@ -17411,17 +17420,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>243</v>
       </c>
@@ -17436,31 +17445,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C394"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C214" sqref="A59:C214"/>
-    </sheetView>
+    <sheetView topLeftCell="A196" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -17471,7 +17478,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -17482,7 +17489,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>248</v>
       </c>
@@ -17493,7 +17500,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -17504,7 +17511,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -17515,7 +17522,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -17526,7 +17533,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -17537,7 +17544,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -17548,7 +17555,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -17559,7 +17566,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -17570,7 +17577,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -17581,7 +17588,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>259</v>
       </c>
@@ -17592,7 +17599,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -17603,7 +17610,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>261</v>
       </c>
@@ -17614,7 +17621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -17625,7 +17632,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>263</v>
       </c>
@@ -17636,7 +17643,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>264</v>
       </c>
@@ -17647,7 +17654,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -17658,7 +17665,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -17669,7 +17676,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -17680,7 +17687,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>269</v>
       </c>
@@ -17691,7 +17698,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>271</v>
       </c>
@@ -17702,7 +17709,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>272</v>
       </c>
@@ -17713,7 +17720,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -17724,7 +17731,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -17735,7 +17742,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>274</v>
       </c>
@@ -17746,7 +17753,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>275</v>
       </c>
@@ -17757,7 +17764,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -17768,7 +17775,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -17779,7 +17786,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -17790,7 +17797,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>277</v>
       </c>
@@ -17801,7 +17808,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>278</v>
       </c>
@@ -17812,7 +17819,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>279</v>
       </c>
@@ -17823,7 +17830,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -17834,7 +17841,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>281</v>
       </c>
@@ -17845,7 +17852,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -17856,7 +17863,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -17867,7 +17874,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -17878,7 +17885,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>284</v>
       </c>
@@ -17889,7 +17896,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>285</v>
       </c>
@@ -17900,7 +17907,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -17911,7 +17918,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>213</v>
       </c>
@@ -17922,7 +17929,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -17933,7 +17940,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -17944,7 +17951,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -17955,7 +17962,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -17966,7 +17973,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>288</v>
       </c>
@@ -17977,7 +17984,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>290</v>
       </c>
@@ -17988,7 +17995,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>180</v>
       </c>
@@ -17999,7 +18006,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>291</v>
       </c>
@@ -18010,97 +18017,97 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>292</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>84</v>
-      </c>
-      <c r="C52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15">
-      <c r="A53" t="s">
-        <v>198</v>
-      </c>
-      <c r="B53" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
-      <c r="A54" t="s">
-        <v>294</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>295</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B60" t="s">
         <v>189</v>
@@ -18109,9 +18116,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
@@ -18120,64 +18127,64 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>160</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B67" t="s">
         <v>84</v>
@@ -18186,64 +18193,64 @@
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="C72" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
         <v>84</v>
@@ -18252,20 +18259,20 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
@@ -18274,9 +18281,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
@@ -18285,9 +18292,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
@@ -18296,9 +18303,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
         <v>84</v>
@@ -18307,9 +18314,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
@@ -18318,9 +18325,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
@@ -18329,53 +18336,53 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="C84" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
         <v>265</v>
@@ -18384,42 +18391,42 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="C87" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
         <v>84</v>
@@ -18428,20 +18435,20 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
         <v>84</v>
@@ -18450,20 +18457,20 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="C92" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
         <v>84</v>
@@ -18472,20 +18479,20 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
         <v>84</v>
@@ -18494,20 +18501,20 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
         <v>84</v>
@@ -18516,9 +18523,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
         <v>84</v>
@@ -18527,9 +18534,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
         <v>84</v>
@@ -18538,9 +18545,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
         <v>84</v>
@@ -18549,9 +18556,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
         <v>84</v>
@@ -18560,9 +18567,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
         <v>84</v>
@@ -18571,9 +18578,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
         <v>84</v>
@@ -18582,9 +18589,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
         <v>84</v>
@@ -18593,9 +18600,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
         <v>84</v>
@@ -18604,9 +18611,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
         <v>84</v>
@@ -18615,9 +18622,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B107" t="s">
         <v>84</v>
@@ -18626,53 +18633,53 @@
         <v>293</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>301</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B110" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="C111" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
         <v>84</v>
@@ -18681,9 +18688,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
         <v>84</v>
@@ -18692,9 +18699,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
         <v>84</v>
@@ -18703,64 +18710,64 @@
         <v>293</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C115" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>302</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c r="C116" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>303</v>
+        <v>56</v>
       </c>
       <c r="B117" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="C118" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="C119" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
         <v>84</v>
@@ -18769,20 +18776,20 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>305</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="C121" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="B122" t="s">
         <v>84</v>
@@ -18791,31 +18798,31 @@
         <v>293</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15">
-      <c r="A123" t="s">
-        <v>306</v>
-      </c>
-      <c r="B123" t="s">
-        <v>63</v>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="C123" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="B124" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="C124" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
         <v>84</v>
@@ -18824,31 +18831,31 @@
         <v>293</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="C127" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B128" t="s">
         <v>84</v>
@@ -18857,53 +18864,53 @@
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>57</v>
+        <v>307</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C129" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="B130" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="C130" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C131" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="B132" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B133" t="s">
         <v>84</v>
@@ -18912,31 +18919,31 @@
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="B134" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C135" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B136" t="s">
         <v>84</v>
@@ -18945,9 +18952,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
         <v>84</v>
@@ -18956,20 +18963,20 @@
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="B138" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C138" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B139" t="s">
         <v>84</v>
@@ -18978,9 +18985,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B140" t="s">
         <v>84</v>
@@ -18989,9 +18996,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B141" t="s">
         <v>84</v>
@@ -19000,9 +19007,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B142" t="s">
         <v>84</v>
@@ -19011,9 +19018,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B143" t="s">
         <v>84</v>
@@ -19022,64 +19029,64 @@
         <v>293</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="C144" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" t="s">
+        <v>197</v>
+      </c>
+      <c r="C147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>58</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B148" t="s">
         <v>49</v>
-      </c>
-      <c r="C145" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15">
-      <c r="A146" t="s">
-        <v>216</v>
-      </c>
-      <c r="B146" t="s">
-        <v>209</v>
-      </c>
-      <c r="C146" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15">
-      <c r="A147" t="s">
-        <v>217</v>
-      </c>
-      <c r="B147" t="s">
-        <v>209</v>
-      </c>
-      <c r="C147" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15">
-      <c r="A148" t="s">
-        <v>154</v>
-      </c>
-      <c r="B148" t="s">
-        <v>84</v>
       </c>
       <c r="C148" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
         <v>209</v>
@@ -19088,119 +19095,119 @@
         <v>310</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="B150" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c r="C151" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>218</v>
+      </c>
+      <c r="B152" t="s">
+        <v>209</v>
+      </c>
+      <c r="C152" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>219</v>
+      </c>
+      <c r="B154" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>182</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B155" t="s">
         <v>176</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C155" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15">
-      <c r="A153" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>203</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B156" t="s">
         <v>197</v>
-      </c>
-      <c r="C153" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15">
-      <c r="A154" t="s">
-        <v>204</v>
-      </c>
-      <c r="B154" t="s">
-        <v>197</v>
-      </c>
-      <c r="C154" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15">
-      <c r="A155" t="s">
-        <v>59</v>
-      </c>
-      <c r="B155" t="s">
-        <v>49</v>
-      </c>
-      <c r="C155" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15">
-      <c r="A156" t="s">
-        <v>65</v>
-      </c>
-      <c r="B156" t="s">
-        <v>63</v>
       </c>
       <c r="C156" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="B157" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="C157" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B158" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C158" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="C159" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B160" t="s">
         <v>63</v>
@@ -19209,1359 +19216,648 @@
         <v>312</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C161" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="C162" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="B163" t="s">
-        <v>265</v>
+        <v>63</v>
       </c>
       <c r="C163" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B164" t="s">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="C164" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165" t="s">
+        <v>256</v>
+      </c>
+      <c r="C165" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>265</v>
+      </c>
+      <c r="C166" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" t="s">
+        <v>265</v>
+      </c>
+      <c r="C167" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>183</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B168" t="s">
         <v>176</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C168" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15">
-      <c r="A166" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>184</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B169" t="s">
         <v>176</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C169" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15">
-      <c r="A167" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>185</v>
-      </c>
-      <c r="B167" t="s">
-        <v>176</v>
-      </c>
-      <c r="C167" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="15">
-      <c r="A168" t="s">
-        <v>314</v>
-      </c>
-      <c r="B168" t="s">
-        <v>267</v>
-      </c>
-      <c r="C168" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15">
-      <c r="A169" t="s">
-        <v>316</v>
-      </c>
-      <c r="B169" t="s">
-        <v>197</v>
-      </c>
-      <c r="C169" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15">
-      <c r="A170" t="s">
-        <v>186</v>
       </c>
       <c r="B170" t="s">
         <v>176</v>
       </c>
       <c r="C170" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15">
-      <c r="A171" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C171" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>315</v>
+      </c>
+      <c r="B172" t="s">
+        <v>197</v>
+      </c>
+      <c r="C172" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>186</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>187</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B174" t="s">
         <v>176</v>
       </c>
-      <c r="C171" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="15">
-      <c r="A172" t="s">
+      <c r="C174" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>188</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B175" t="s">
         <v>176</v>
       </c>
-      <c r="C172" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15">
-      <c r="A173" t="s">
+      <c r="C175" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>229</v>
-      </c>
-      <c r="B173" t="s">
-        <v>209</v>
-      </c>
-      <c r="C173" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="15">
-      <c r="A174" t="s">
-        <v>230</v>
-      </c>
-      <c r="B174" t="s">
-        <v>209</v>
-      </c>
-      <c r="C174" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15">
-      <c r="A175" t="s">
-        <v>231</v>
-      </c>
-      <c r="B175" t="s">
-        <v>209</v>
-      </c>
-      <c r="C175" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15">
-      <c r="A176" t="s">
-        <v>232</v>
       </c>
       <c r="B176" t="s">
         <v>209</v>
       </c>
       <c r="C176" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>230</v>
+      </c>
+      <c r="B177" t="s">
+        <v>209</v>
+      </c>
+      <c r="C177" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>231</v>
+      </c>
+      <c r="B178" t="s">
+        <v>209</v>
+      </c>
+      <c r="C178" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>232</v>
+      </c>
+      <c r="B179" t="s">
+        <v>209</v>
+      </c>
+      <c r="C179" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>157</v>
-      </c>
-      <c r="B177" t="s">
-        <v>84</v>
-      </c>
-      <c r="C177" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15">
-      <c r="A178" t="s">
-        <v>319</v>
-      </c>
-      <c r="B178" t="s">
-        <v>267</v>
-      </c>
-      <c r="C178" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15">
-      <c r="A179" t="s">
-        <v>320</v>
-      </c>
-      <c r="B179" t="s">
-        <v>84</v>
-      </c>
-      <c r="C179" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15">
-      <c r="A180" t="s">
-        <v>143</v>
       </c>
       <c r="B180" t="s">
         <v>84</v>
       </c>
       <c r="C180" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>318</v>
+      </c>
+      <c r="B181" t="s">
+        <v>84</v>
+      </c>
+      <c r="C181" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15">
-      <c r="A181" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B182" s="35"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>143</v>
+      </c>
+      <c r="B183" t="s">
+        <v>84</v>
+      </c>
+      <c r="C183" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>71</v>
-      </c>
-      <c r="B181" t="s">
-        <v>68</v>
-      </c>
-      <c r="C181" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15">
-      <c r="A182" t="s">
-        <v>72</v>
-      </c>
-      <c r="B182" t="s">
-        <v>68</v>
-      </c>
-      <c r="C182" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15">
-      <c r="A183" t="s">
-        <v>73</v>
-      </c>
-      <c r="B183" t="s">
-        <v>68</v>
-      </c>
-      <c r="C183" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15">
-      <c r="A184" t="s">
-        <v>74</v>
-      </c>
-      <c r="B184" t="s">
-        <v>68</v>
-      </c>
-      <c r="C184" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="15">
-      <c r="A185" t="s">
-        <v>75</v>
       </c>
       <c r="B185" t="s">
         <v>68</v>
       </c>
       <c r="C185" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="B186" t="s">
-        <v>265</v>
+        <v>68</v>
       </c>
       <c r="C186" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B187" t="s">
         <v>68</v>
       </c>
       <c r="C187" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B188" t="s">
         <v>68</v>
       </c>
       <c r="C188" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B189" t="s">
         <v>68</v>
       </c>
       <c r="C189" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="B190" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="C190" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B191" t="s">
         <v>68</v>
       </c>
       <c r="C191" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>77</v>
+      </c>
+      <c r="B192" t="s">
+        <v>68</v>
+      </c>
+      <c r="C192" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>78</v>
+      </c>
+      <c r="B193" t="s">
+        <v>68</v>
+      </c>
+      <c r="C193" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>79</v>
+      </c>
+      <c r="B194" t="s">
+        <v>68</v>
+      </c>
+      <c r="C194" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>80</v>
+      </c>
+      <c r="B195" t="s">
+        <v>68</v>
+      </c>
+      <c r="C195" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>233</v>
-      </c>
-      <c r="B192" t="s">
-        <v>209</v>
-      </c>
-      <c r="C192" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="15">
-      <c r="A193" t="s">
-        <v>234</v>
-      </c>
-      <c r="B193" t="s">
-        <v>209</v>
-      </c>
-      <c r="C193" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15">
-      <c r="A194" t="s">
-        <v>323</v>
-      </c>
-      <c r="B194" t="s">
-        <v>197</v>
-      </c>
-      <c r="C194" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="15">
-      <c r="A195" t="s">
-        <v>324</v>
-      </c>
-      <c r="B195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C195" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="15">
-      <c r="A196" t="s">
-        <v>235</v>
       </c>
       <c r="B196" t="s">
         <v>209</v>
       </c>
       <c r="C196" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B197" t="s">
         <v>209</v>
       </c>
       <c r="C197" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>321</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="15">
-      <c r="A198" t="s">
-        <v>237</v>
-      </c>
-      <c r="B198" t="s">
-        <v>209</v>
-      </c>
-      <c r="C198" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15">
-      <c r="A199" t="s">
-        <v>173</v>
       </c>
       <c r="B199" t="s">
         <v>209</v>
       </c>
       <c r="C199" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="B200" t="s">
         <v>209</v>
       </c>
       <c r="C200" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B201" t="s">
         <v>209</v>
       </c>
       <c r="C201" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B202" t="s">
         <v>209</v>
       </c>
       <c r="C202" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="B203" t="s">
         <v>209</v>
       </c>
       <c r="C203" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="B204" t="s">
         <v>209</v>
       </c>
       <c r="C204" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>238</v>
+      </c>
+      <c r="B205" t="s">
+        <v>209</v>
+      </c>
+      <c r="C205" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>239</v>
+      </c>
+      <c r="B206" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>240</v>
+      </c>
+      <c r="B207" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>241</v>
+      </c>
+      <c r="B208" t="s">
+        <v>209</v>
+      </c>
+      <c r="C208" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>205</v>
-      </c>
-      <c r="B205" t="s">
-        <v>197</v>
-      </c>
-      <c r="C205" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="15">
-      <c r="A206" t="s">
-        <v>206</v>
-      </c>
-      <c r="B206" t="s">
-        <v>197</v>
-      </c>
-      <c r="C206" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="15">
-      <c r="A207" t="s">
-        <v>38</v>
-      </c>
-      <c r="B207" t="s">
-        <v>176</v>
-      </c>
-      <c r="C207" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="15">
-      <c r="A208" t="s">
-        <v>158</v>
-      </c>
-      <c r="B208" t="s">
-        <v>84</v>
-      </c>
-      <c r="C208" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="15">
-      <c r="A209" t="s">
-        <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>197</v>
       </c>
       <c r="C209" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
+        <v>206</v>
+      </c>
+      <c r="B210" t="s">
+        <v>197</v>
+      </c>
+      <c r="C210" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>38</v>
+      </c>
+      <c r="B211" t="s">
+        <v>176</v>
+      </c>
+      <c r="C211" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B212" t="s">
+        <v>84</v>
+      </c>
+      <c r="C212" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B213" t="s">
+        <v>197</v>
+      </c>
+      <c r="C213" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B214" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C210" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="15">
-      <c r="A211" t="s">
+      <c r="C214" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B215" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C211" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="15">
-      <c r="A212" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B212" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C212" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="15">
-      <c r="A213" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="B213" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C213" s="32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="15">
-      <c r="A214" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B214" s="27"/>
-    </row>
-    <row r="215" spans="1:3" ht="15">
-      <c r="A215" s="24"/>
-      <c r="B215" s="27"/>
-    </row>
-    <row r="216" spans="1:3" ht="15">
+      <c r="C215" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="24"/>
-      <c r="B216" s="27"/>
-    </row>
-    <row r="217" spans="1:3" ht="15">
+      <c r="B216" s="25"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="24"/>
-      <c r="B217" s="27"/>
-    </row>
-    <row r="218" spans="1:3" ht="15">
+      <c r="B217" s="25"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="24"/>
-      <c r="B218" s="27"/>
-    </row>
-    <row r="219" spans="1:3" ht="15">
-      <c r="A219" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B219" s="27"/>
-    </row>
-    <row r="220" spans="1:3" ht="15">
+      <c r="B218" s="25"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="24"/>
+      <c r="B219" s="25"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="24"/>
-      <c r="B220" s="27"/>
-    </row>
-    <row r="221" spans="1:3" ht="15">
-      <c r="A221" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B221" s="27"/>
-    </row>
-    <row r="222" spans="1:3" ht="15">
+      <c r="B220" s="25"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="24"/>
+      <c r="B221" s="25"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="24"/>
-      <c r="B222" s="27"/>
-    </row>
-    <row r="223" spans="1:3" ht="15">
+      <c r="B222" s="25"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="24"/>
-      <c r="B223" s="27"/>
-    </row>
-    <row r="224" spans="1:3" ht="15">
+      <c r="B223" s="25"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="24"/>
-      <c r="B224" s="27"/>
-    </row>
-    <row r="225" spans="1:2" ht="15">
-      <c r="A225" s="24"/>
-      <c r="B225" s="27"/>
-    </row>
-    <row r="226" spans="1:2" ht="15">
-      <c r="A226" s="24"/>
-      <c r="B226" s="27"/>
-    </row>
-    <row r="227" spans="1:2" ht="15">
-      <c r="A227" s="24"/>
-      <c r="B227" s="27"/>
-    </row>
-    <row r="228" spans="1:2" ht="15">
-      <c r="A228" s="24"/>
-      <c r="B228" s="27"/>
-    </row>
-    <row r="229" spans="1:2" ht="15">
-      <c r="A229" s="24"/>
-      <c r="B229" s="27"/>
-    </row>
-    <row r="230" spans="1:2" ht="15">
-      <c r="A230" s="24"/>
-      <c r="B230" s="27"/>
-    </row>
-    <row r="231" spans="1:2" ht="15">
-      <c r="A231" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B231" s="27"/>
-    </row>
-    <row r="232" spans="1:2" ht="15">
-      <c r="A232" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B232" s="27"/>
-    </row>
-    <row r="233" spans="1:2" ht="15">
-      <c r="A233" s="24"/>
-      <c r="B233" s="27"/>
-    </row>
-    <row r="234" spans="1:2" ht="15">
-      <c r="A234" s="24"/>
-      <c r="B234" s="27"/>
-    </row>
-    <row r="235" spans="1:2" ht="15">
-      <c r="A235" s="24"/>
-      <c r="B235" s="27"/>
-    </row>
-    <row r="236" spans="1:2" ht="15">
-      <c r="A236" s="24"/>
-      <c r="B236" s="27"/>
-    </row>
-    <row r="237" spans="1:2" ht="15">
-      <c r="A237" s="24"/>
-      <c r="B237" s="27"/>
-    </row>
-    <row r="238" spans="1:2" ht="15">
-      <c r="A238" s="24"/>
-      <c r="B238" s="27"/>
-    </row>
-    <row r="239" spans="1:2" ht="15">
-      <c r="A239" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B239" s="27"/>
-    </row>
-    <row r="240" spans="1:2" ht="15">
-      <c r="A240" s="24"/>
-      <c r="B240" s="27"/>
-    </row>
-    <row r="241" spans="1:2" ht="15">
-      <c r="A241" s="24"/>
-      <c r="B241" s="27"/>
-    </row>
-    <row r="242" spans="1:2" ht="15">
-      <c r="A242" s="24"/>
-      <c r="B242" s="27"/>
-    </row>
-    <row r="243" spans="1:2" ht="15">
-      <c r="A243" s="24"/>
-      <c r="B243" s="27"/>
-    </row>
-    <row r="244" spans="1:2" ht="15">
-      <c r="A244" s="24"/>
-      <c r="B244" s="27"/>
-    </row>
-    <row r="245" spans="1:2" ht="15">
-      <c r="A245" s="24"/>
-      <c r="B245" s="27"/>
-    </row>
-    <row r="246" spans="1:2" ht="15">
-      <c r="A246" s="24"/>
-      <c r="B246" s="27"/>
-    </row>
-    <row r="247" spans="1:2" ht="15">
-      <c r="A247" s="24"/>
-      <c r="B247" s="27"/>
-    </row>
-    <row r="248" spans="1:2" ht="15">
-      <c r="A248" s="24"/>
-      <c r="B248" s="27"/>
-    </row>
-    <row r="249" spans="1:2" ht="15">
-      <c r="A249" s="24"/>
-      <c r="B249" s="27"/>
-    </row>
-    <row r="250" spans="1:2" ht="15">
-      <c r="A250" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B250" s="27"/>
-    </row>
-    <row r="251" spans="1:2" ht="15">
-      <c r="A251" s="24"/>
-      <c r="B251" s="27"/>
-    </row>
-    <row r="252" spans="1:2" ht="15">
-      <c r="A252" s="24"/>
-      <c r="B252" s="27"/>
-    </row>
-    <row r="253" spans="1:2" ht="15">
-      <c r="A253" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B253" s="27"/>
-    </row>
-    <row r="254" spans="1:2" ht="15">
-      <c r="A254" s="24"/>
-      <c r="B254" s="27"/>
-    </row>
-    <row r="255" spans="1:2" ht="15">
-      <c r="A255" s="24"/>
-      <c r="B255" s="27"/>
-    </row>
-    <row r="256" spans="1:2" ht="15">
-      <c r="A256" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B256" s="27"/>
-    </row>
-    <row r="257" spans="1:2" ht="15">
-      <c r="A257" s="24"/>
-      <c r="B257" s="27"/>
-    </row>
-    <row r="258" spans="1:2" ht="15">
-      <c r="A258" s="24"/>
-      <c r="B258" s="27"/>
-    </row>
-    <row r="259" spans="1:2" ht="15">
-      <c r="A259" s="24"/>
-      <c r="B259" s="27"/>
-    </row>
-    <row r="260" spans="1:2" ht="15">
-      <c r="A260" s="24"/>
-      <c r="B260" s="28"/>
-    </row>
-    <row r="261" spans="1:2" ht="15">
-      <c r="A261" s="24"/>
-      <c r="B261" s="27"/>
-    </row>
-    <row r="262" spans="1:2" ht="15">
-      <c r="A262" s="24"/>
-      <c r="B262" s="27"/>
-    </row>
-    <row r="263" spans="1:2" ht="15">
-      <c r="A263" s="24"/>
-      <c r="B263" s="27"/>
-    </row>
-    <row r="264" spans="1:2" ht="15">
-      <c r="A264" s="24"/>
-      <c r="B264" s="27"/>
-    </row>
-    <row r="265" spans="1:2" ht="15">
-      <c r="A265" s="24"/>
-      <c r="B265" s="27"/>
-    </row>
-    <row r="266" spans="1:2" ht="15">
-      <c r="A266" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B266" s="27"/>
-    </row>
-    <row r="267" spans="1:2" ht="15">
-      <c r="A267" s="24"/>
-      <c r="B267" s="27"/>
-    </row>
-    <row r="268" spans="1:2" ht="15">
-      <c r="A268" s="24"/>
-      <c r="B268" s="27"/>
-    </row>
-    <row r="269" spans="1:2" ht="15">
-      <c r="A269" s="24"/>
-      <c r="B269" s="27"/>
-    </row>
-    <row r="270" spans="1:2" ht="15">
-      <c r="A270" s="24"/>
-      <c r="B270" s="27"/>
-    </row>
-    <row r="271" spans="1:2" ht="15">
-      <c r="A271" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B271" s="27"/>
-    </row>
-    <row r="272" spans="1:2" ht="15">
-      <c r="A272" s="24"/>
-      <c r="B272" s="27"/>
-    </row>
-    <row r="273" spans="1:2" ht="15">
-      <c r="A273" s="24"/>
-      <c r="B273" s="27"/>
-    </row>
-    <row r="274" spans="1:2" ht="15">
-      <c r="A274" s="24"/>
-      <c r="B274" s="27"/>
-    </row>
-    <row r="275" spans="1:2" ht="15">
-      <c r="A275" s="24"/>
-      <c r="B275" s="27"/>
-    </row>
-    <row r="276" spans="1:2" ht="15">
-      <c r="A276" s="24"/>
-      <c r="B276" s="27"/>
-    </row>
-    <row r="277" spans="1:2" ht="15">
-      <c r="A277" s="24"/>
-      <c r="B277" s="27"/>
-    </row>
-    <row r="278" spans="1:2" ht="15">
-      <c r="A278" s="24"/>
-      <c r="B278" s="27"/>
-    </row>
-    <row r="279" spans="1:2" ht="15">
-      <c r="A279" s="24"/>
-      <c r="B279" s="27"/>
-    </row>
-    <row r="280" spans="1:2" ht="15">
-      <c r="A280" s="24"/>
-      <c r="B280" s="27"/>
-    </row>
-    <row r="281" spans="1:2" ht="15">
-      <c r="A281" s="24"/>
-      <c r="B281" s="27"/>
-    </row>
-    <row r="282" spans="1:2" ht="15">
-      <c r="A282" s="24"/>
-      <c r="B282" s="27"/>
-    </row>
-    <row r="283" spans="1:2" ht="15">
-      <c r="A283" s="24"/>
-      <c r="B283" s="27"/>
-    </row>
-    <row r="284" spans="1:2" ht="15">
-      <c r="A284" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B284" s="27"/>
-    </row>
-    <row r="285" spans="1:2" ht="15">
-      <c r="A285" s="24"/>
-      <c r="B285" s="27"/>
-    </row>
-    <row r="286" spans="1:2" ht="15">
-      <c r="A286" s="24"/>
-      <c r="B286" s="27"/>
-    </row>
-    <row r="287" spans="1:2" ht="15">
-      <c r="A287" s="24"/>
-      <c r="B287" s="27"/>
-    </row>
-    <row r="288" spans="1:2" ht="15">
-      <c r="A288" s="24"/>
-      <c r="B288" s="27"/>
-    </row>
-    <row r="289" spans="1:2" ht="15">
-      <c r="A289" s="24"/>
-      <c r="B289" s="27"/>
-    </row>
-    <row r="290" spans="1:2" ht="15">
-      <c r="A290" s="24"/>
-      <c r="B290" s="27"/>
-    </row>
-    <row r="291" spans="1:2" ht="15">
-      <c r="A291" s="24"/>
-      <c r="B291" s="27"/>
-    </row>
-    <row r="292" spans="1:2" ht="15">
-      <c r="A292" s="24"/>
-      <c r="B292" s="27"/>
-    </row>
-    <row r="293" spans="1:2" ht="15">
-      <c r="A293" s="24"/>
-      <c r="B293" s="27"/>
-    </row>
-    <row r="294" spans="1:2" ht="15">
-      <c r="A294" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B294" s="27"/>
-    </row>
-    <row r="295" spans="1:2" ht="15">
-      <c r="A295" s="24"/>
-      <c r="B295" s="27"/>
-    </row>
-    <row r="296" spans="1:2" ht="15">
-      <c r="A296" s="24"/>
-      <c r="B296" s="27"/>
-    </row>
-    <row r="297" spans="1:2" ht="15">
-      <c r="A297" s="24"/>
-      <c r="B297" s="27"/>
-    </row>
-    <row r="298" spans="1:2" ht="15">
-      <c r="A298" s="24"/>
-      <c r="B298" s="27"/>
-    </row>
-    <row r="299" spans="1:2" ht="15">
-      <c r="A299" s="24"/>
-      <c r="B299" s="27"/>
-    </row>
-    <row r="300" spans="1:2" ht="15">
-      <c r="A300" s="24"/>
-      <c r="B300" s="27"/>
-    </row>
-    <row r="301" spans="1:2" ht="15">
-      <c r="A301" s="24"/>
-      <c r="B301" s="27"/>
-    </row>
-    <row r="302" spans="1:2" ht="15">
-      <c r="A302" s="24"/>
-      <c r="B302" s="27"/>
-    </row>
-    <row r="303" spans="1:2" ht="15">
-      <c r="A303" s="24"/>
-      <c r="B303" s="27"/>
-    </row>
-    <row r="304" spans="1:2" ht="15">
-      <c r="A304" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B304" s="27"/>
-    </row>
-    <row r="305" spans="1:2" ht="15">
-      <c r="A305" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B305" s="27"/>
-    </row>
-    <row r="306" spans="1:2" ht="15">
-      <c r="A306" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B306" s="27"/>
-    </row>
-    <row r="307" spans="1:2" ht="15">
-      <c r="A307" s="24"/>
-      <c r="B307" s="27"/>
-    </row>
-    <row r="308" spans="1:2" ht="15">
-      <c r="A308" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B308" s="27"/>
-    </row>
-    <row r="309" spans="1:2" ht="15">
-      <c r="A309" s="24"/>
-      <c r="B309" s="27"/>
-    </row>
-    <row r="310" spans="1:2" ht="15">
-      <c r="A310" s="24"/>
-      <c r="B310" s="27"/>
-    </row>
-    <row r="311" spans="1:2" ht="15">
-      <c r="A311" s="24"/>
-      <c r="B311" s="27"/>
-    </row>
-    <row r="312" spans="1:2" ht="15">
-      <c r="A312" s="24"/>
-      <c r="B312" s="27"/>
-    </row>
-    <row r="313" spans="1:2" ht="15">
-      <c r="A313" s="24"/>
-      <c r="B313" s="27"/>
-    </row>
-    <row r="314" spans="1:2" ht="15">
-      <c r="A314" s="24"/>
-      <c r="B314" s="27"/>
-    </row>
-    <row r="315" spans="1:2" ht="15">
-      <c r="A315" s="24"/>
-      <c r="B315" s="27"/>
-    </row>
-    <row r="316" spans="1:2" ht="15">
-      <c r="A316" s="24"/>
-      <c r="B316" s="27"/>
-    </row>
-    <row r="317" spans="1:2" ht="15">
-      <c r="A317" s="24"/>
-      <c r="B317" s="27"/>
-    </row>
-    <row r="318" spans="1:2" ht="15">
-      <c r="A318" s="24"/>
-      <c r="B318" s="27"/>
-    </row>
-    <row r="319" spans="1:2" ht="15">
-      <c r="A319" s="24"/>
-      <c r="B319" s="27"/>
-    </row>
-    <row r="320" spans="1:2" ht="15">
-      <c r="A320" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B320" s="27"/>
-    </row>
-    <row r="321" spans="1:2" ht="15">
-      <c r="A321" s="24"/>
-      <c r="B321" s="27"/>
-    </row>
-    <row r="322" spans="1:2" ht="15">
-      <c r="A322" s="24"/>
-      <c r="B322" s="27"/>
-    </row>
-    <row r="323" spans="1:2" ht="15">
-      <c r="A323" s="24"/>
-      <c r="B323" s="27"/>
-    </row>
-    <row r="324" spans="1:2" ht="15">
-      <c r="A324" s="24"/>
-      <c r="B324" s="27"/>
-    </row>
-    <row r="325" spans="1:2" ht="15">
-      <c r="A325" s="24"/>
-      <c r="B325" s="27"/>
-    </row>
-    <row r="326" spans="1:2" ht="15">
-      <c r="A326" s="24"/>
-      <c r="B326" s="27"/>
-    </row>
-    <row r="327" spans="1:2" ht="15">
-      <c r="A327" s="24"/>
-      <c r="B327" s="27"/>
-    </row>
-    <row r="328" spans="1:2" ht="15">
-      <c r="A328" s="24"/>
-      <c r="B328" s="27"/>
-    </row>
-    <row r="329" spans="1:2" ht="15">
-      <c r="A329" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B329" s="27"/>
-    </row>
-    <row r="330" spans="1:2" ht="15">
-      <c r="A330" s="24"/>
-      <c r="B330" s="27"/>
-    </row>
-    <row r="331" spans="1:2" ht="15">
-      <c r="A331" s="24"/>
-      <c r="B331" s="27"/>
-    </row>
-    <row r="332" spans="1:2" ht="15">
-      <c r="A332" s="24"/>
-      <c r="B332" s="27"/>
-    </row>
-    <row r="333" spans="1:2" ht="15">
-      <c r="A333" s="24"/>
-      <c r="B333" s="27"/>
-    </row>
-    <row r="334" spans="1:2" ht="15">
-      <c r="A334" s="24"/>
-      <c r="B334" s="27"/>
-    </row>
-    <row r="335" spans="1:2" ht="15">
-      <c r="A335" s="24"/>
-      <c r="B335" s="27"/>
-    </row>
-    <row r="336" spans="1:2" ht="15">
-      <c r="A336" s="24"/>
-      <c r="B336" s="27"/>
-    </row>
-    <row r="337" spans="1:2" ht="15">
-      <c r="A337" s="24"/>
-      <c r="B337" s="27"/>
-    </row>
-    <row r="338" spans="1:2" ht="15">
-      <c r="A338" s="24"/>
-      <c r="B338" s="27"/>
-    </row>
-    <row r="339" spans="1:2" ht="15">
-      <c r="A339" s="24"/>
-      <c r="B339" s="27"/>
-    </row>
-    <row r="340" spans="1:2" ht="15">
-      <c r="A340" s="24"/>
-      <c r="B340" s="27"/>
-    </row>
-    <row r="341" spans="1:2" ht="15">
-      <c r="A341" s="24"/>
-      <c r="B341" s="27"/>
-    </row>
-    <row r="342" spans="1:2" ht="15">
-      <c r="A342" s="24"/>
-      <c r="B342" s="27"/>
-    </row>
-    <row r="343" spans="1:2" ht="15">
-      <c r="A343" s="24"/>
-      <c r="B343" s="27"/>
-    </row>
-    <row r="344" spans="1:2" ht="15">
-      <c r="A344" s="24"/>
-      <c r="B344" s="27"/>
-    </row>
-    <row r="345" spans="1:2" ht="15">
-      <c r="A345" s="24"/>
-      <c r="B345" s="27"/>
-    </row>
-    <row r="346" spans="1:2" ht="15">
-      <c r="A346" s="24"/>
-      <c r="B346" s="27"/>
-    </row>
-    <row r="347" spans="1:2" ht="15">
-      <c r="A347" s="24"/>
-      <c r="B347" s="27"/>
-    </row>
-    <row r="348" spans="1:2" ht="15">
-      <c r="A348" s="24"/>
-      <c r="B348" s="27"/>
-    </row>
-    <row r="349" spans="1:2" ht="15">
-      <c r="A349" s="24"/>
-      <c r="B349" s="27"/>
-    </row>
-    <row r="350" spans="1:2" ht="15">
-      <c r="A350" s="24"/>
-      <c r="B350" s="27"/>
-    </row>
-    <row r="351" spans="1:2" ht="15">
-      <c r="A351" s="24"/>
-      <c r="B351" s="27"/>
-    </row>
-    <row r="352" spans="1:2" ht="15">
-      <c r="A352" s="24"/>
-      <c r="B352" s="27"/>
-    </row>
-    <row r="353" spans="1:2" ht="15">
-      <c r="A353" s="24"/>
-      <c r="B353" s="27"/>
-    </row>
-    <row r="354" spans="1:2" ht="15">
-      <c r="A354" s="24"/>
-      <c r="B354" s="27"/>
-    </row>
-    <row r="355" spans="1:2" ht="15">
-      <c r="A355" s="24"/>
-      <c r="B355" s="27"/>
-    </row>
-    <row r="356" spans="1:2" ht="15">
-      <c r="A356" s="24"/>
-      <c r="B356" s="27"/>
-    </row>
-    <row r="357" spans="1:2" ht="15">
-      <c r="A357" s="24"/>
-      <c r="B357" s="27"/>
-    </row>
-    <row r="358" spans="1:2" ht="15">
-      <c r="A358" s="24"/>
-      <c r="B358" s="27"/>
-    </row>
-    <row r="359" spans="1:2" ht="15">
-      <c r="A359" s="24"/>
-      <c r="B359" s="27"/>
-    </row>
-    <row r="360" spans="1:2" ht="15">
-      <c r="A360" s="24"/>
-      <c r="B360" s="27"/>
-    </row>
-    <row r="361" spans="1:2" ht="15">
-      <c r="A361" s="24"/>
-      <c r="B361" s="27"/>
-    </row>
-    <row r="362" spans="1:2" ht="15">
-      <c r="A362" s="24"/>
-      <c r="B362" s="27"/>
-    </row>
-    <row r="363" spans="1:2" ht="15">
-      <c r="A363" s="24"/>
-      <c r="B363" s="27"/>
-    </row>
-    <row r="364" spans="1:2" ht="15">
-      <c r="A364" s="24"/>
-      <c r="B364" s="27"/>
-    </row>
-    <row r="365" spans="1:2" ht="15">
-      <c r="A365" s="24"/>
-      <c r="B365" s="27"/>
-    </row>
-    <row r="366" spans="1:2" ht="15">
-      <c r="A366" s="24"/>
-      <c r="B366" s="27"/>
-    </row>
-    <row r="367" spans="1:2" ht="15">
-      <c r="A367" s="24"/>
-      <c r="B367" s="27"/>
-    </row>
-    <row r="368" spans="1:2" ht="15">
-      <c r="A368" s="24"/>
-      <c r="B368" s="27"/>
-    </row>
-    <row r="369" spans="1:2" ht="15">
-      <c r="A369" s="24"/>
-      <c r="B369" s="27"/>
-    </row>
-    <row r="370" spans="1:2" ht="15">
-      <c r="A370" s="24"/>
-      <c r="B370" s="27"/>
-    </row>
-    <row r="371" spans="1:2" ht="15">
-      <c r="A371" s="24"/>
-      <c r="B371" s="27"/>
-    </row>
-    <row r="372" spans="1:2" ht="15">
-      <c r="A372" s="24"/>
-      <c r="B372" s="27"/>
-    </row>
-    <row r="373" spans="1:2" ht="15">
-      <c r="A373" s="24"/>
-      <c r="B373" s="27"/>
-    </row>
-    <row r="374" spans="1:2" ht="15">
-      <c r="A374" s="24"/>
-      <c r="B374" s="27"/>
-    </row>
-    <row r="375" spans="1:2" ht="15">
-      <c r="A375" s="24"/>
-      <c r="B375" s="27"/>
-    </row>
-    <row r="376" spans="1:2" ht="15">
-      <c r="A376" s="24"/>
-      <c r="B376" s="27"/>
-    </row>
-    <row r="377" spans="1:2" ht="15">
-      <c r="A377" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B377" s="27"/>
-    </row>
-    <row r="378" spans="1:2" ht="15">
-      <c r="A378" s="24"/>
-      <c r="B378" s="27"/>
-    </row>
-    <row r="379" spans="1:2" ht="15">
-      <c r="A379" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B379" s="27"/>
-    </row>
-    <row r="380" spans="1:2" ht="15">
-      <c r="A380" s="24"/>
-      <c r="B380" s="27"/>
-    </row>
-    <row r="381" spans="1:2" ht="15">
-      <c r="A381" s="24"/>
-      <c r="B381" s="27"/>
-    </row>
-    <row r="382" spans="1:2" ht="15">
-      <c r="A382" s="24"/>
-      <c r="B382" s="27"/>
-    </row>
-    <row r="383" spans="1:2" ht="15">
-      <c r="A383" s="24"/>
-      <c r="B383" s="27"/>
-    </row>
-    <row r="384" spans="1:2" ht="15">
-      <c r="A384" s="24"/>
-      <c r="B384" s="27"/>
-    </row>
-    <row r="385" spans="1:2" ht="15">
-      <c r="A385" s="24"/>
-      <c r="B385" s="27"/>
-    </row>
-    <row r="386" spans="1:2" ht="15">
-      <c r="A386" s="24"/>
-      <c r="B386" s="27"/>
-    </row>
-    <row r="387" spans="1:2" ht="15">
-      <c r="A387" s="24"/>
-      <c r="B387" s="27"/>
-    </row>
-    <row r="388" spans="1:2" ht="15">
-      <c r="A388" s="24"/>
-      <c r="B388" s="27"/>
-    </row>
-    <row r="389" spans="1:2" ht="15">
-      <c r="A389" s="24"/>
-      <c r="B389" s="27"/>
-    </row>
-    <row r="390" spans="1:2" ht="15">
-      <c r="A390" s="24"/>
-      <c r="B390" s="27"/>
-    </row>
-    <row r="391" spans="1:2" ht="15">
-      <c r="A391" s="24"/>
-      <c r="B391" s="27"/>
-    </row>
-    <row r="392" spans="1:2" ht="15">
-      <c r="A392" s="24"/>
-      <c r="B392" s="27"/>
-    </row>
-    <row r="393" spans="1:2" ht="15">
-      <c r="A393" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B393" s="27"/>
-    </row>
-    <row r="394" spans="1:2" ht="15">
-      <c r="A394" s="24"/>
-      <c r="B394" s="27"/>
+      <c r="B224" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C560" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C224" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C224">
+      <sortCondition ref="A1:A224"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20574,20 +19870,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20595,23 +19891,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>14</v>
       </c>
@@ -20619,15 +19915,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>28</v>
       </c>
@@ -20635,76 +19931,76 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>504</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>672</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>875</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>743</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>730</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fnort\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efeno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830378F0-2CA4-4ED5-9762-2C220DF3C50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D549D63-5162-4CDF-B7D3-9346C908F4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Turnos" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="18" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="348">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -1078,6 +1078,18 @@
   </si>
   <si>
     <t>TECNOFAST</t>
+  </si>
+  <si>
+    <t>CLUB DE POLO VITACURA</t>
+  </si>
+  <si>
+    <t>CLUB DE POLO LO RECABARREN</t>
+  </si>
+  <si>
+    <t>CLUB DE POLO COLINA</t>
+  </si>
+  <si>
+    <t>CLUB DE POLO</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1374,9 +1386,7 @@
     <xf numFmtId="20" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -1384,9 +1394,14 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4457,7 +4472,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5579,50 +5594,50 @@
   <dimension ref="A1:U302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="5" max="5" width="32.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" customWidth="1"/>
-    <col min="12" max="12" width="23.453125" customWidth="1"/>
-    <col min="13" max="13" width="21.453125" customWidth="1"/>
-    <col min="14" max="14" width="29.54296875" customWidth="1"/>
-    <col min="15" max="15" width="19.81640625" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" customWidth="1"/>
-    <col min="17" max="17" width="27.453125" customWidth="1"/>
-    <col min="18" max="18" width="31.1796875" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" customWidth="1"/>
+    <col min="14" max="14" width="29.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" customWidth="1"/>
+    <col min="17" max="17" width="27.44140625" customWidth="1"/>
+    <col min="18" max="18" width="31.21875" customWidth="1"/>
     <col min="19" max="19" width="30" customWidth="1"/>
-    <col min="20" max="20" width="21.54296875" customWidth="1"/>
-    <col min="21" max="21" width="18.7265625" customWidth="1"/>
+    <col min="20" max="20" width="21.5546875" customWidth="1"/>
+    <col min="21" max="21" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="27"/>
       <c r="O1" s="21" t="s">
         <v>1</v>
@@ -5633,7 +5648,7 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5698,7 +5713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -5763,7 +5778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -5828,21 +5843,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10" t="str">
         <f>VLOOKUP(C5,SUCURSALES!A:C,3,FALSE)</f>
-        <v>COLLOKY</v>
+        <v>LA POLAR</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>VLOOKUP(C5,SUCURSALES!A:B,2,FALSE)</f>
-        <v>MARIA SOLEDAD PONCE</v>
+        <v>CARLOS ALBERTO ARAYA</v>
       </c>
       <c r="F5" s="12">
         <v>45693</v>
@@ -5893,21 +5908,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D6" s="10" t="str">
         <f>VLOOKUP(C6,SUCURSALES!A:C,3,FALSE)</f>
-        <v>TATTERSALL</v>
+        <v>LA POLAR</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>VLOOKUP(C6,SUCURSALES!A:B,2,FALSE)</f>
-        <v>MARGARITA ISABEL GONZALEZ</v>
+        <v>CARLOS ALBERTO ARAYA</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -5928,19 +5943,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="e">
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10" t="str">
         <f>VLOOKUP(C7,SUCURSALES!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="10" t="e">
+        <v>LA POLAR</v>
+      </c>
+      <c r="E7" s="10" t="str">
         <f>VLOOKUP(C7,SUCURSALES!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>CARLOS ALBERTO ARAYA</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -5961,19 +5978,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="e">
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10" t="str">
         <f>VLOOKUP(C8,SUCURSALES!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="10" t="e">
+        <v>LA POLAR</v>
+      </c>
+      <c r="E8" s="10" t="str">
         <f>VLOOKUP(C8,SUCURSALES!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>CARLOS ALBERTO ARAYA</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -5994,19 +6013,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="e">
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="str">
         <f>VLOOKUP(C9,SUCURSALES!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="10" t="e">
+        <v>LA POLAR</v>
+      </c>
+      <c r="E9" s="10" t="str">
         <f>VLOOKUP(C9,SUCURSALES!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>CARLOS ALBERTO ARAYA</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -6027,7 +6048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -6060,7 +6081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -6093,7 +6114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -6126,7 +6147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -6159,7 +6180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -6192,7 +6213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -6225,7 +6246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -6258,7 +6279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -6291,7 +6312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -6324,7 +6345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -6357,7 +6378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -6390,7 +6411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -6423,7 +6444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -6456,7 +6477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -6489,7 +6510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -6522,7 +6543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -6555,7 +6576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -6588,7 +6609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -6621,7 +6642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -6654,7 +6675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -6687,7 +6708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -6720,7 +6741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -6753,7 +6774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -6786,7 +6807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -6819,7 +6840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -6852,7 +6873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -6885,7 +6906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -6918,7 +6939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -6951,7 +6972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -6984,7 +7005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -7017,7 +7038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -7050,7 +7071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -7083,7 +7104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -7116,7 +7137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -7149,7 +7170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -7182,7 +7203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -7215,7 +7236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -7248,7 +7269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -7281,7 +7302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -7314,7 +7335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -7347,7 +7368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -7380,7 +7401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -7413,7 +7434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -7446,7 +7467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -7479,7 +7500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -7512,7 +7533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>53</v>
       </c>
@@ -7545,7 +7566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -7578,7 +7599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>55</v>
       </c>
@@ -7611,7 +7632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -7644,7 +7665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>57</v>
       </c>
@@ -7677,7 +7698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>58</v>
       </c>
@@ -7710,7 +7731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -7743,7 +7764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>60</v>
       </c>
@@ -7776,7 +7797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>61</v>
       </c>
@@ -7809,7 +7830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -7842,7 +7863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -7875,7 +7896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>64</v>
       </c>
@@ -7908,7 +7929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>65</v>
       </c>
@@ -7941,7 +7962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -7974,7 +7995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -8007,7 +8028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -8040,7 +8061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>69</v>
       </c>
@@ -8073,7 +8094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -8106,7 +8127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>71</v>
       </c>
@@ -8139,7 +8160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -8172,7 +8193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>73</v>
       </c>
@@ -8205,7 +8226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>74</v>
       </c>
@@ -8238,7 +8259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>75</v>
       </c>
@@ -8271,7 +8292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>76</v>
       </c>
@@ -8304,7 +8325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>77</v>
       </c>
@@ -8337,7 +8358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>78</v>
       </c>
@@ -8370,7 +8391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>79</v>
       </c>
@@ -8403,7 +8424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>80</v>
       </c>
@@ -8436,7 +8457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>81</v>
       </c>
@@ -8469,7 +8490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>82</v>
       </c>
@@ -8502,7 +8523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>83</v>
       </c>
@@ -8535,7 +8556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>84</v>
       </c>
@@ -8568,7 +8589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>85</v>
       </c>
@@ -8601,7 +8622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>86</v>
       </c>
@@ -8634,7 +8655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>87</v>
       </c>
@@ -8667,7 +8688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>88</v>
       </c>
@@ -8700,7 +8721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>89</v>
       </c>
@@ -8733,7 +8754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>90</v>
       </c>
@@ -8766,7 +8787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>91</v>
       </c>
@@ -8799,7 +8820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>92</v>
       </c>
@@ -8832,7 +8853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>93</v>
       </c>
@@ -8865,7 +8886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>94</v>
       </c>
@@ -8898,7 +8919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>95</v>
       </c>
@@ -8931,7 +8952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>96</v>
       </c>
@@ -8964,7 +8985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>97</v>
       </c>
@@ -8997,7 +9018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>98</v>
       </c>
@@ -9030,7 +9051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>99</v>
       </c>
@@ -9063,7 +9084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>100</v>
       </c>
@@ -9096,7 +9117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>101</v>
       </c>
@@ -9129,7 +9150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>102</v>
       </c>
@@ -9162,7 +9183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>103</v>
       </c>
@@ -9195,7 +9216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>104</v>
       </c>
@@ -9228,7 +9249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>105</v>
       </c>
@@ -9261,7 +9282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>106</v>
       </c>
@@ -9294,7 +9315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>107</v>
       </c>
@@ -9327,7 +9348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>108</v>
       </c>
@@ -9360,7 +9381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>109</v>
       </c>
@@ -9393,7 +9414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>110</v>
       </c>
@@ -9426,7 +9447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>111</v>
       </c>
@@ -9459,7 +9480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>112</v>
       </c>
@@ -9492,7 +9513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>113</v>
       </c>
@@ -9525,7 +9546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>114</v>
       </c>
@@ -9558,7 +9579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>115</v>
       </c>
@@ -9591,7 +9612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>116</v>
       </c>
@@ -9624,7 +9645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>117</v>
       </c>
@@ -9657,7 +9678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>118</v>
       </c>
@@ -9690,7 +9711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>119</v>
       </c>
@@ -9723,7 +9744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>120</v>
       </c>
@@ -9756,7 +9777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>121</v>
       </c>
@@ -9789,7 +9810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>122</v>
       </c>
@@ -9822,7 +9843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>123</v>
       </c>
@@ -9855,7 +9876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>124</v>
       </c>
@@ -9888,7 +9909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>125</v>
       </c>
@@ -9921,7 +9942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="10">
         <v>126</v>
       </c>
@@ -9954,7 +9975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>127</v>
       </c>
@@ -9987,7 +10008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="10">
         <v>128</v>
       </c>
@@ -10020,7 +10041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <v>129</v>
       </c>
@@ -10053,7 +10074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="10">
         <v>130</v>
       </c>
@@ -10086,7 +10107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>131</v>
       </c>
@@ -10119,7 +10140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="10">
         <v>132</v>
       </c>
@@ -10152,7 +10173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
         <v>133</v>
       </c>
@@ -10185,7 +10206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
         <v>134</v>
       </c>
@@ -10218,7 +10239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="10">
         <v>135</v>
       </c>
@@ -10251,7 +10272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="10">
         <v>136</v>
       </c>
@@ -10284,7 +10305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="10">
         <v>137</v>
       </c>
@@ -10317,7 +10338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="10">
         <v>138</v>
       </c>
@@ -10350,7 +10371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="10">
         <v>139</v>
       </c>
@@ -10383,7 +10404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="10">
         <v>140</v>
       </c>
@@ -10416,7 +10437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="10">
         <v>141</v>
       </c>
@@ -10449,7 +10470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="10">
         <v>142</v>
       </c>
@@ -10482,7 +10503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="10">
         <v>143</v>
       </c>
@@ -10515,7 +10536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="10">
         <v>144</v>
       </c>
@@ -10548,7 +10569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
         <v>145</v>
       </c>
@@ -10581,7 +10602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
         <v>146</v>
       </c>
@@ -10614,7 +10635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>147</v>
       </c>
@@ -10647,7 +10668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>148</v>
       </c>
@@ -10680,7 +10701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>149</v>
       </c>
@@ -10713,7 +10734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>150</v>
       </c>
@@ -10746,7 +10767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>151</v>
       </c>
@@ -10779,7 +10800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="10">
         <v>152</v>
       </c>
@@ -10812,7 +10833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
         <v>153</v>
       </c>
@@ -10845,7 +10866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="10">
         <v>154</v>
       </c>
@@ -10878,7 +10899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
         <v>155</v>
       </c>
@@ -10911,7 +10932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="10">
         <v>156</v>
       </c>
@@ -10944,7 +10965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="10">
         <v>157</v>
       </c>
@@ -10977,7 +10998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="10">
         <v>158</v>
       </c>
@@ -11010,7 +11031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <v>159</v>
       </c>
@@ -11043,7 +11064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
         <v>160</v>
       </c>
@@ -11076,7 +11097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
         <v>161</v>
       </c>
@@ -11109,7 +11130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="10">
         <v>162</v>
       </c>
@@ -11142,7 +11163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="10">
         <v>163</v>
       </c>
@@ -11175,7 +11196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
         <v>164</v>
       </c>
@@ -11208,7 +11229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
         <v>165</v>
       </c>
@@ -11241,7 +11262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <v>166</v>
       </c>
@@ -11274,7 +11295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <v>167</v>
       </c>
@@ -11307,7 +11328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <v>168</v>
       </c>
@@ -11340,7 +11361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <v>169</v>
       </c>
@@ -11373,7 +11394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
         <v>170</v>
       </c>
@@ -11406,7 +11427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
         <v>171</v>
       </c>
@@ -11439,7 +11460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <v>172</v>
       </c>
@@ -11472,7 +11493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
         <v>173</v>
       </c>
@@ -11505,7 +11526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="10">
         <v>174</v>
       </c>
@@ -11538,7 +11559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="10">
         <v>175</v>
       </c>
@@ -11571,7 +11592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <v>176</v>
       </c>
@@ -11604,7 +11625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>177</v>
       </c>
@@ -11637,7 +11658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
         <v>178</v>
       </c>
@@ -11670,7 +11691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
         <v>179</v>
       </c>
@@ -11703,7 +11724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
         <v>180</v>
       </c>
@@ -11736,7 +11757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
         <v>181</v>
       </c>
@@ -11769,7 +11790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
         <v>182</v>
       </c>
@@ -11802,7 +11823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
         <v>183</v>
       </c>
@@ -11835,7 +11856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>184</v>
       </c>
@@ -11868,7 +11889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>185</v>
       </c>
@@ -11901,7 +11922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
         <v>186</v>
       </c>
@@ -11934,7 +11955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
         <v>187</v>
       </c>
@@ -11967,7 +11988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
         <v>188</v>
       </c>
@@ -12000,7 +12021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="10">
         <v>189</v>
       </c>
@@ -12033,7 +12054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
         <v>190</v>
       </c>
@@ -12066,7 +12087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="10">
         <v>191</v>
       </c>
@@ -12099,7 +12120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="10">
         <v>192</v>
       </c>
@@ -12132,7 +12153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="10">
         <v>193</v>
       </c>
@@ -12165,7 +12186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="10">
         <v>194</v>
       </c>
@@ -12198,7 +12219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="10">
         <v>195</v>
       </c>
@@ -12231,7 +12252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="10">
         <v>196</v>
       </c>
@@ -12264,7 +12285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" s="10">
         <v>197</v>
       </c>
@@ -12297,7 +12318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
         <v>198</v>
       </c>
@@ -12330,7 +12351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
         <v>199</v>
       </c>
@@ -12363,7 +12384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
         <v>200</v>
       </c>
@@ -12396,7 +12417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
         <v>201</v>
       </c>
@@ -12429,7 +12450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" s="10">
         <v>202</v>
       </c>
@@ -12462,7 +12483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" s="10">
         <v>203</v>
       </c>
@@ -12495,7 +12516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
         <v>204</v>
       </c>
@@ -12528,7 +12549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="10">
         <v>205</v>
       </c>
@@ -12561,7 +12582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="10">
         <v>206</v>
       </c>
@@ -12594,7 +12615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" s="10">
         <v>207</v>
       </c>
@@ -12627,7 +12648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
         <v>208</v>
       </c>
@@ -12660,7 +12681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
         <v>209</v>
       </c>
@@ -12693,7 +12714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" s="10">
         <v>210</v>
       </c>
@@ -12726,7 +12747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
         <v>211</v>
       </c>
@@ -12759,7 +12780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
         <v>212</v>
       </c>
@@ -12792,7 +12813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" s="10">
         <v>213</v>
       </c>
@@ -12825,7 +12846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="10">
         <v>214</v>
       </c>
@@ -12858,7 +12879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
         <v>215</v>
       </c>
@@ -12891,7 +12912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" s="10">
         <v>216</v>
       </c>
@@ -12924,7 +12945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" s="10">
         <v>217</v>
       </c>
@@ -12957,7 +12978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" s="10">
         <v>218</v>
       </c>
@@ -12990,7 +13011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" s="10">
         <v>219</v>
       </c>
@@ -13023,7 +13044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" s="10">
         <v>220</v>
       </c>
@@ -13056,7 +13077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" s="10">
         <v>221</v>
       </c>
@@ -13089,7 +13110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" s="10">
         <v>222</v>
       </c>
@@ -13122,7 +13143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" s="10">
         <v>223</v>
       </c>
@@ -13155,7 +13176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" s="10">
         <v>224</v>
       </c>
@@ -13188,7 +13209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" s="10">
         <v>225</v>
       </c>
@@ -13221,7 +13242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" s="10">
         <v>226</v>
       </c>
@@ -13254,7 +13275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" s="10">
         <v>227</v>
       </c>
@@ -13287,7 +13308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" s="10">
         <v>228</v>
       </c>
@@ -13320,7 +13341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" s="10">
         <v>229</v>
       </c>
@@ -13353,7 +13374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" s="10">
         <v>230</v>
       </c>
@@ -13386,7 +13407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
         <v>231</v>
       </c>
@@ -13419,7 +13440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" s="10">
         <v>232</v>
       </c>
@@ -13452,7 +13473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" s="10">
         <v>233</v>
       </c>
@@ -13485,7 +13506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" s="10">
         <v>234</v>
       </c>
@@ -13518,7 +13539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
         <v>235</v>
       </c>
@@ -13551,7 +13572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
         <v>236</v>
       </c>
@@ -13584,7 +13605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" s="10">
         <v>237</v>
       </c>
@@ -13617,7 +13638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" s="10">
         <v>238</v>
       </c>
@@ -13650,7 +13671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" s="10">
         <v>239</v>
       </c>
@@ -13683,7 +13704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" s="10">
         <v>240</v>
       </c>
@@ -13716,7 +13737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
         <v>241</v>
       </c>
@@ -13749,7 +13770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" s="10">
         <v>242</v>
       </c>
@@ -13782,7 +13803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" s="10">
         <v>243</v>
       </c>
@@ -13815,7 +13836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" s="10">
         <v>244</v>
       </c>
@@ -13848,7 +13869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" s="10">
         <v>245</v>
       </c>
@@ -13881,7 +13902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" s="10">
         <v>246</v>
       </c>
@@ -13914,7 +13935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" s="10">
         <v>247</v>
       </c>
@@ -13947,7 +13968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" s="10">
         <v>248</v>
       </c>
@@ -13980,7 +14001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" s="10">
         <v>249</v>
       </c>
@@ -14013,7 +14034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" s="10">
         <v>250</v>
       </c>
@@ -14046,7 +14067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" s="10">
         <v>251</v>
       </c>
@@ -14079,7 +14100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" s="10">
         <v>252</v>
       </c>
@@ -14112,7 +14133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" s="10">
         <v>253</v>
       </c>
@@ -14145,7 +14166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" s="10">
         <v>254</v>
       </c>
@@ -14178,7 +14199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <v>255</v>
       </c>
@@ -14211,7 +14232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" s="10">
         <v>256</v>
       </c>
@@ -14244,7 +14265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" s="10">
         <v>257</v>
       </c>
@@ -14277,7 +14298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" s="10">
         <v>258</v>
       </c>
@@ -14310,7 +14331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" s="10">
         <v>259</v>
       </c>
@@ -14343,7 +14364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" s="10">
         <v>260</v>
       </c>
@@ -14376,7 +14397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" s="10">
         <v>261</v>
       </c>
@@ -14409,7 +14430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" s="10">
         <v>262</v>
       </c>
@@ -14442,7 +14463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" s="10">
         <v>263</v>
       </c>
@@ -14475,7 +14496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" s="10">
         <v>264</v>
       </c>
@@ -14508,7 +14529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" s="10">
         <v>265</v>
       </c>
@@ -14541,7 +14562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" s="10">
         <v>266</v>
       </c>
@@ -14574,7 +14595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" s="10">
         <v>267</v>
       </c>
@@ -14607,7 +14628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" s="10">
         <v>268</v>
       </c>
@@ -14640,7 +14661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" s="10">
         <v>269</v>
       </c>
@@ -14673,7 +14694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" s="10">
         <v>270</v>
       </c>
@@ -14706,7 +14727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" s="10">
         <v>271</v>
       </c>
@@ -14739,7 +14760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" s="10">
         <v>272</v>
       </c>
@@ -14772,7 +14793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" s="10">
         <v>273</v>
       </c>
@@ -14805,7 +14826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" s="10">
         <v>274</v>
       </c>
@@ -14838,7 +14859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" s="10">
         <v>275</v>
       </c>
@@ -14871,7 +14892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278" s="10">
         <v>276</v>
       </c>
@@ -14904,7 +14925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279" s="10">
         <v>277</v>
       </c>
@@ -14937,7 +14958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280" s="10">
         <v>278</v>
       </c>
@@ -14970,7 +14991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" s="10">
         <v>279</v>
       </c>
@@ -15003,7 +15024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" s="10">
         <v>280</v>
       </c>
@@ -15036,7 +15057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" s="10">
         <v>281</v>
       </c>
@@ -15069,7 +15090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" s="10">
         <v>282</v>
       </c>
@@ -15102,7 +15123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" s="10">
         <v>283</v>
       </c>
@@ -15135,7 +15156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286" s="10">
         <v>284</v>
       </c>
@@ -15168,7 +15189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" s="10">
         <v>285</v>
       </c>
@@ -15201,7 +15222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" s="10">
         <v>286</v>
       </c>
@@ -15234,7 +15255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" s="10">
         <v>287</v>
       </c>
@@ -15267,7 +15288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" s="10">
         <v>288</v>
       </c>
@@ -15300,7 +15321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" s="10">
         <v>289</v>
       </c>
@@ -15333,7 +15354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" s="10">
         <v>290</v>
       </c>
@@ -15366,7 +15387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" s="10">
         <v>291</v>
       </c>
@@ -15399,7 +15420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" s="10">
         <v>292</v>
       </c>
@@ -15432,7 +15453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" s="10">
         <v>293</v>
       </c>
@@ -15465,7 +15486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" s="10">
         <v>294</v>
       </c>
@@ -15498,7 +15519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" s="10">
         <v>295</v>
       </c>
@@ -15531,7 +15552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" s="10">
         <v>296</v>
       </c>
@@ -15564,7 +15585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" s="10">
         <v>297</v>
       </c>
@@ -15597,7 +15618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" s="10">
         <v>298</v>
       </c>
@@ -15630,7 +15651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" s="10">
         <v>299</v>
       </c>
@@ -15663,7 +15684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" s="10">
         <v>300</v>
       </c>
@@ -15728,13 +15749,13 @@
           <x14:formula1>
             <xm:f>SUCURSALES!$A$2:$A$214</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C1048576</xm:sqref>
+          <xm:sqref>C10:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B3D9E0C-3B6C-40E5-956A-0FDC914F2EE3}">
           <x14:formula1>
-            <xm:f>SUCURSALES!$A$2:$A$215</xm:f>
+            <xm:f>SUCURSALES!$A$2:$A$218</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>C3:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15750,77 +15771,77 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -15838,13 +15859,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -15852,7 +15873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -15860,7 +15881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -15868,7 +15889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -15876,7 +15897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -15884,7 +15905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -15892,7 +15913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -15900,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
@@ -15908,7 +15929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
@@ -15916,7 +15937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -15924,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -15932,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
@@ -15940,7 +15961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
@@ -15948,7 +15969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -15956,7 +15977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
@@ -15964,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -15972,7 +15993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -15980,7 +16001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -15988,7 +16009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
@@ -15996,7 +16017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -16004,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>67</v>
       </c>
@@ -16012,7 +16033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -16020,7 +16041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
@@ -16028,7 +16049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
@@ -16036,7 +16057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>71</v>
       </c>
@@ -16044,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
@@ -16052,7 +16073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -16060,7 +16081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
@@ -16068,7 +16089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>75</v>
       </c>
@@ -16076,7 +16097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>76</v>
       </c>
@@ -16084,7 +16105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
@@ -16092,7 +16113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
@@ -16100,7 +16121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>79</v>
       </c>
@@ -16108,7 +16129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -16116,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
@@ -16124,7 +16145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
@@ -16132,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
@@ -16140,7 +16161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -16148,7 +16169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -16156,7 +16177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
@@ -16164,7 +16185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>87</v>
       </c>
@@ -16172,7 +16193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>88</v>
       </c>
@@ -16180,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
@@ -16188,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
@@ -16196,7 +16217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
@@ -16204,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
@@ -16212,7 +16233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>93</v>
       </c>
@@ -16220,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>94</v>
       </c>
@@ -16228,7 +16249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>95</v>
       </c>
@@ -16236,7 +16257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
@@ -16244,7 +16265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>97</v>
       </c>
@@ -16252,7 +16273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
@@ -16260,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>99</v>
       </c>
@@ -16268,7 +16289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>100</v>
       </c>
@@ -16276,7 +16297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>101</v>
       </c>
@@ -16284,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>102</v>
       </c>
@@ -16292,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>103</v>
       </c>
@@ -16300,7 +16321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>104</v>
       </c>
@@ -16308,7 +16329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>105</v>
       </c>
@@ -16316,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>106</v>
       </c>
@@ -16324,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>107</v>
       </c>
@@ -16332,7 +16353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>108</v>
       </c>
@@ -16340,7 +16361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>109</v>
       </c>
@@ -16348,7 +16369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>110</v>
       </c>
@@ -16356,7 +16377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>111</v>
       </c>
@@ -16364,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>112</v>
       </c>
@@ -16372,7 +16393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>113</v>
       </c>
@@ -16380,7 +16401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>114</v>
       </c>
@@ -16388,7 +16409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>115</v>
       </c>
@@ -16396,7 +16417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>116</v>
       </c>
@@ -16404,7 +16425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>117</v>
       </c>
@@ -16412,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>118</v>
       </c>
@@ -16420,7 +16441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>119</v>
       </c>
@@ -16428,7 +16449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>120</v>
       </c>
@@ -16436,7 +16457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>121</v>
       </c>
@@ -16444,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>122</v>
       </c>
@@ -16452,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>123</v>
       </c>
@@ -16460,7 +16481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>124</v>
       </c>
@@ -16468,7 +16489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>125</v>
       </c>
@@ -16476,7 +16497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>126</v>
       </c>
@@ -16484,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>127</v>
       </c>
@@ -16492,7 +16513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>128</v>
       </c>
@@ -16500,7 +16521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>129</v>
       </c>
@@ -16508,7 +16529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>130</v>
       </c>
@@ -16516,7 +16537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>131</v>
       </c>
@@ -16524,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>132</v>
       </c>
@@ -16532,7 +16553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>133</v>
       </c>
@@ -16540,7 +16561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>134</v>
       </c>
@@ -16548,7 +16569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>135</v>
       </c>
@@ -16556,7 +16577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>136</v>
       </c>
@@ -16564,7 +16585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>137</v>
       </c>
@@ -16572,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>138</v>
       </c>
@@ -16580,7 +16601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>139</v>
       </c>
@@ -16588,7 +16609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>140</v>
       </c>
@@ -16596,7 +16617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>141</v>
       </c>
@@ -16604,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>142</v>
       </c>
@@ -16612,7 +16633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>143</v>
       </c>
@@ -16620,7 +16641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>144</v>
       </c>
@@ -16628,7 +16649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>145</v>
       </c>
@@ -16636,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>146</v>
       </c>
@@ -16644,7 +16665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>147</v>
       </c>
@@ -16652,7 +16673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>148</v>
       </c>
@@ -16660,7 +16681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>149</v>
       </c>
@@ -16668,7 +16689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>150</v>
       </c>
@@ -16676,7 +16697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>151</v>
       </c>
@@ -16684,7 +16705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>152</v>
       </c>
@@ -16692,7 +16713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>153</v>
       </c>
@@ -16700,7 +16721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>154</v>
       </c>
@@ -16708,7 +16729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>155</v>
       </c>
@@ -16716,7 +16737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>156</v>
       </c>
@@ -16724,7 +16745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>157</v>
       </c>
@@ -16732,7 +16753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>158</v>
       </c>
@@ -16740,7 +16761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>159</v>
       </c>
@@ -16748,7 +16769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>160</v>
       </c>
@@ -16756,7 +16777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>161</v>
       </c>
@@ -16764,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>162</v>
       </c>
@@ -16772,7 +16793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>163</v>
       </c>
@@ -16780,7 +16801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>164</v>
       </c>
@@ -16788,7 +16809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>165</v>
       </c>
@@ -16796,7 +16817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>166</v>
       </c>
@@ -16804,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>167</v>
       </c>
@@ -16812,7 +16833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>168</v>
       </c>
@@ -16820,7 +16841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>169</v>
       </c>
@@ -16828,7 +16849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>170</v>
       </c>
@@ -16836,7 +16857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>171</v>
       </c>
@@ -16844,7 +16865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>172</v>
       </c>
@@ -16852,7 +16873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>173</v>
       </c>
@@ -16860,7 +16881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>174</v>
       </c>
@@ -16868,7 +16889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>175</v>
       </c>
@@ -16876,7 +16897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>176</v>
       </c>
@@ -16884,7 +16905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>177</v>
       </c>
@@ -16892,7 +16913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>178</v>
       </c>
@@ -16900,7 +16921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>179</v>
       </c>
@@ -16908,7 +16929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>180</v>
       </c>
@@ -16916,7 +16937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>181</v>
       </c>
@@ -16924,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>182</v>
       </c>
@@ -16932,7 +16953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>183</v>
       </c>
@@ -16940,7 +16961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>184</v>
       </c>
@@ -16948,7 +16969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>185</v>
       </c>
@@ -16956,7 +16977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>186</v>
       </c>
@@ -16964,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>187</v>
       </c>
@@ -16972,7 +16993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>188</v>
       </c>
@@ -16980,7 +17001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>38</v>
       </c>
@@ -16988,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>189</v>
       </c>
@@ -16996,7 +17017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>190</v>
       </c>
@@ -17004,7 +17025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>191</v>
       </c>
@@ -17012,7 +17033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>192</v>
       </c>
@@ -17020,7 +17041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>193</v>
       </c>
@@ -17028,7 +17049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>194</v>
       </c>
@@ -17036,7 +17057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>195</v>
       </c>
@@ -17044,7 +17065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>196</v>
       </c>
@@ -17052,7 +17073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>197</v>
       </c>
@@ -17060,7 +17081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>198</v>
       </c>
@@ -17068,7 +17089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>199</v>
       </c>
@@ -17076,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>200</v>
       </c>
@@ -17084,7 +17105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>201</v>
       </c>
@@ -17092,7 +17113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>202</v>
       </c>
@@ -17100,7 +17121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>203</v>
       </c>
@@ -17108,7 +17129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>204</v>
       </c>
@@ -17116,7 +17137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>205</v>
       </c>
@@ -17124,7 +17145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>206</v>
       </c>
@@ -17132,7 +17153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>207</v>
       </c>
@@ -17140,7 +17161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>208</v>
       </c>
@@ -17148,7 +17169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>209</v>
       </c>
@@ -17156,7 +17177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>210</v>
       </c>
@@ -17164,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>211</v>
       </c>
@@ -17172,7 +17193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>212</v>
       </c>
@@ -17180,7 +17201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>213</v>
       </c>
@@ -17188,7 +17209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>214</v>
       </c>
@@ -17196,7 +17217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>32</v>
       </c>
@@ -17204,7 +17225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>215</v>
       </c>
@@ -17212,7 +17233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>216</v>
       </c>
@@ -17220,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>217</v>
       </c>
@@ -17228,7 +17249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>218</v>
       </c>
@@ -17236,7 +17257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>219</v>
       </c>
@@ -17244,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>220</v>
       </c>
@@ -17252,7 +17273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>221</v>
       </c>
@@ -17260,7 +17281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>222</v>
       </c>
@@ -17268,7 +17289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>223</v>
       </c>
@@ -17276,7 +17297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>224</v>
       </c>
@@ -17284,7 +17305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>225</v>
       </c>
@@ -17292,7 +17313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>226</v>
       </c>
@@ -17300,7 +17321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>227</v>
       </c>
@@ -17308,7 +17329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>228</v>
       </c>
@@ -17316,7 +17337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>229</v>
       </c>
@@ -17324,7 +17345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>230</v>
       </c>
@@ -17332,7 +17353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>231</v>
       </c>
@@ -17340,7 +17361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>232</v>
       </c>
@@ -17348,7 +17369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>233</v>
       </c>
@@ -17356,7 +17377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>234</v>
       </c>
@@ -17364,7 +17385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>235</v>
       </c>
@@ -17372,7 +17393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>236</v>
       </c>
@@ -17380,7 +17401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>237</v>
       </c>
@@ -17388,7 +17409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>238</v>
       </c>
@@ -17396,7 +17417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>239</v>
       </c>
@@ -17404,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>240</v>
       </c>
@@ -17412,7 +17433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>241</v>
       </c>
@@ -17420,17 +17441,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>243</v>
       </c>
@@ -17447,16 +17468,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0"/>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>244</v>
       </c>
@@ -17467,7 +17490,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -17478,7 +17501,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -17489,7 +17512,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>248</v>
       </c>
@@ -17500,7 +17523,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -17511,7 +17534,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>251</v>
       </c>
@@ -17522,7 +17545,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>252</v>
       </c>
@@ -17533,7 +17556,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -17544,7 +17567,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -17555,7 +17578,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -17566,7 +17589,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -17577,7 +17600,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -17588,7 +17611,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>259</v>
       </c>
@@ -17599,7 +17622,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -17610,7 +17633,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>261</v>
       </c>
@@ -17621,7 +17644,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -17632,7 +17655,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>263</v>
       </c>
@@ -17643,7 +17666,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>264</v>
       </c>
@@ -17654,7 +17677,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -17665,7 +17688,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -17676,7 +17699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -17687,7 +17710,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>269</v>
       </c>
@@ -17698,7 +17721,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>271</v>
       </c>
@@ -17709,7 +17732,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>272</v>
       </c>
@@ -17720,7 +17743,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -17731,7 +17754,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -17742,7 +17765,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>274</v>
       </c>
@@ -17753,7 +17776,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>275</v>
       </c>
@@ -17764,7 +17787,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -17775,7 +17798,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -17786,7 +17809,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -17797,7 +17820,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>277</v>
       </c>
@@ -17808,7 +17831,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>278</v>
       </c>
@@ -17819,7 +17842,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>279</v>
       </c>
@@ -17830,7 +17853,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -17841,7 +17864,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>281</v>
       </c>
@@ -17852,7 +17875,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -17863,7 +17886,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -17874,7 +17897,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -17885,7 +17908,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>284</v>
       </c>
@@ -17896,7 +17919,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>285</v>
       </c>
@@ -17907,7 +17930,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -17918,7 +17941,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>213</v>
       </c>
@@ -17929,7 +17952,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -17940,7 +17963,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -17951,7 +17974,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -17962,7 +17985,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -17973,7 +17996,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>288</v>
       </c>
@@ -17984,7 +18007,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>290</v>
       </c>
@@ -17995,7 +18018,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>180</v>
       </c>
@@ -18006,7 +18029,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>291</v>
       </c>
@@ -18017,7 +18040,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>340</v>
       </c>
@@ -18028,7 +18051,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>341</v>
       </c>
@@ -18039,7 +18062,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>292</v>
       </c>
@@ -18050,7 +18073,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -18061,7 +18084,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>294</v>
       </c>
@@ -18072,7 +18095,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -18083,7 +18106,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -18094,7 +18117,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>295</v>
       </c>
@@ -18105,7 +18128,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -18116,7 +18139,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -18127,7 +18150,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>192</v>
       </c>
@@ -18138,7 +18161,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -18149,7 +18172,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -18160,7 +18183,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>160</v>
       </c>
@@ -18171,7 +18194,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -18182,7 +18205,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>296</v>
       </c>
@@ -18193,7 +18216,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -18204,7 +18227,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>297</v>
       </c>
@@ -18215,7 +18238,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -18226,7 +18249,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -18237,7 +18260,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -18248,7 +18271,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>89</v>
       </c>
@@ -18259,7 +18282,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>298</v>
       </c>
@@ -18270,7 +18293,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -18281,7 +18304,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -18292,7 +18315,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -18303,7 +18326,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -18314,7 +18337,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -18325,7 +18348,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -18336,7 +18359,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -18347,7 +18370,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -18358,7 +18381,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>200</v>
       </c>
@@ -18369,7 +18392,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -18380,7 +18403,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -18391,7 +18414,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -18402,7 +18425,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -18413,7 +18436,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -18424,7 +18447,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -18435,7 +18458,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -18446,7 +18469,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -18457,7 +18480,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -18468,7 +18491,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>148</v>
       </c>
@@ -18479,7 +18502,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -18490,7 +18513,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -18501,7 +18524,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -18512,7 +18535,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -18523,7 +18546,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -18534,7 +18557,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -18545,7 +18568,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -18556,7 +18579,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>149</v>
       </c>
@@ -18567,7 +18590,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>300</v>
       </c>
@@ -18578,7 +18601,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>110</v>
       </c>
@@ -18589,7 +18612,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>111</v>
       </c>
@@ -18600,7 +18623,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -18611,7 +18634,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -18622,7 +18645,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -18633,7 +18656,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -18644,7 +18667,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -18655,7 +18678,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>201</v>
       </c>
@@ -18666,7 +18689,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>301</v>
       </c>
@@ -18677,7 +18700,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>150</v>
       </c>
@@ -18688,7 +18711,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -18699,7 +18722,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -18710,7 +18733,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -18721,7 +18744,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -18732,7 +18755,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>56</v>
       </c>
@@ -18743,7 +18766,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>302</v>
       </c>
@@ -18754,7 +18777,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>303</v>
       </c>
@@ -18765,7 +18788,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -18776,7 +18799,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -18787,7 +18810,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>304</v>
       </c>
@@ -18798,8 +18821,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="33" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="31" t="s">
         <v>325</v>
       </c>
       <c r="B123" s="30" t="s">
@@ -18809,7 +18832,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>305</v>
       </c>
@@ -18820,7 +18843,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>153</v>
       </c>
@@ -18831,7 +18854,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>306</v>
       </c>
@@ -18842,7 +18865,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -18853,7 +18876,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -18864,7 +18887,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>307</v>
       </c>
@@ -18875,7 +18898,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>167</v>
       </c>
@@ -18886,7 +18909,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>124</v>
       </c>
@@ -18897,7 +18920,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>57</v>
       </c>
@@ -18908,7 +18931,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -18919,7 +18942,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>308</v>
       </c>
@@ -18930,7 +18953,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>127</v>
       </c>
@@ -18941,7 +18964,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -18952,7 +18975,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -18963,7 +18986,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>309</v>
       </c>
@@ -18974,7 +18997,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>130</v>
       </c>
@@ -18985,7 +19008,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>131</v>
       </c>
@@ -18996,7 +19019,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -19007,7 +19030,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>133</v>
       </c>
@@ -19018,7 +19041,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>138</v>
       </c>
@@ -19029,7 +19052,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>139</v>
       </c>
@@ -19040,7 +19063,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -19051,7 +19074,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -19062,7 +19085,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -19073,7 +19096,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>58</v>
       </c>
@@ -19084,7 +19107,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>216</v>
       </c>
@@ -19095,7 +19118,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>217</v>
       </c>
@@ -19106,7 +19129,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -19117,7 +19140,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>218</v>
       </c>
@@ -19128,7 +19151,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -19139,7 +19162,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>219</v>
       </c>
@@ -19150,7 +19173,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>182</v>
       </c>
@@ -19161,7 +19184,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -19172,7 +19195,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>204</v>
       </c>
@@ -19183,7 +19206,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>59</v>
       </c>
@@ -19194,7 +19217,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>65</v>
       </c>
@@ -19205,7 +19228,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>66</v>
       </c>
@@ -19216,7 +19239,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -19227,7 +19250,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>195</v>
       </c>
@@ -19238,7 +19261,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>67</v>
       </c>
@@ -19249,7 +19272,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -19260,7 +19283,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>175</v>
       </c>
@@ -19271,7 +19294,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -19282,7 +19305,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -19293,7 +19316,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>183</v>
       </c>
@@ -19304,7 +19327,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -19315,7 +19338,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>185</v>
       </c>
@@ -19326,18 +19349,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="34" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>342</v>
       </c>
-      <c r="B171" s="35" t="s">
+      <c r="B171" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C171" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>315</v>
       </c>
@@ -19348,7 +19371,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -19359,7 +19382,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -19370,7 +19393,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -19381,7 +19404,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>229</v>
       </c>
@@ -19392,7 +19415,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>230</v>
       </c>
@@ -19403,7 +19426,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>231</v>
       </c>
@@ -19414,7 +19437,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>232</v>
       </c>
@@ -19425,7 +19448,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>157</v>
       </c>
@@ -19436,7 +19459,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>318</v>
       </c>
@@ -19447,13 +19470,13 @@
         <v>293</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="34" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>41</v>
       </c>
-      <c r="B182" s="35"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>143</v>
       </c>
@@ -19464,8 +19487,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="34" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>326</v>
       </c>
       <c r="B184" s="30" t="s">
@@ -19475,7 +19498,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>71</v>
       </c>
@@ -19486,7 +19509,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>72</v>
       </c>
@@ -19497,7 +19520,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>73</v>
       </c>
@@ -19508,7 +19531,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>74</v>
       </c>
@@ -19519,7 +19542,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>75</v>
       </c>
@@ -19530,7 +19553,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>172</v>
       </c>
@@ -19541,7 +19564,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>76</v>
       </c>
@@ -19552,7 +19575,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>77</v>
       </c>
@@ -19563,7 +19586,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>78</v>
       </c>
@@ -19574,7 +19597,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>79</v>
       </c>
@@ -19585,7 +19608,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>80</v>
       </c>
@@ -19596,7 +19619,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>233</v>
       </c>
@@ -19607,7 +19630,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>234</v>
       </c>
@@ -19618,7 +19641,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>321</v>
       </c>
@@ -19629,7 +19652,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>322</v>
       </c>
@@ -19640,7 +19663,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>235</v>
       </c>
@@ -19651,7 +19674,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>236</v>
       </c>
@@ -19662,7 +19685,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>237</v>
       </c>
@@ -19673,7 +19696,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>173</v>
       </c>
@@ -19684,7 +19707,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>323</v>
       </c>
@@ -19695,7 +19718,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>238</v>
       </c>
@@ -19706,7 +19729,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>239</v>
       </c>
@@ -19717,7 +19740,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>240</v>
       </c>
@@ -19728,7 +19751,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>241</v>
       </c>
@@ -19739,7 +19762,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>205</v>
       </c>
@@ -19750,7 +19773,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>206</v>
       </c>
@@ -19761,7 +19784,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -19772,7 +19795,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="24" t="s">
         <v>158</v>
       </c>
@@ -19783,7 +19806,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="24" t="s">
         <v>207</v>
       </c>
@@ -19794,7 +19817,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="24" t="s">
         <v>62</v>
       </c>
@@ -19805,7 +19828,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="24" t="s">
         <v>208</v>
       </c>
@@ -19816,39 +19839,60 @@
         <v>324</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="24"/>
-      <c r="B216" s="25"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="24"/>
-      <c r="B217" s="25"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="24"/>
-      <c r="B218" s="25"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B216" t="s">
+        <v>209</v>
+      </c>
+      <c r="C216" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B217" t="s">
+        <v>209</v>
+      </c>
+      <c r="C217" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B218" t="s">
+        <v>209</v>
+      </c>
+      <c r="C218" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="24"/>
       <c r="B219" s="25"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="24"/>
       <c r="B220" s="25"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="24"/>
       <c r="B221" s="25"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="24"/>
       <c r="B222" s="25"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="24"/>
       <c r="B223" s="25"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="24"/>
       <c r="B224" s="25"/>
     </row>
@@ -19870,12 +19914,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -19883,7 +19927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19891,7 +19935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9</v>
       </c>
@@ -19899,7 +19943,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
@@ -19907,7 +19951,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -19915,7 +19959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16</v>
       </c>
@@ -19923,7 +19967,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>28</v>
       </c>
@@ -19931,7 +19975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>37</v>
       </c>
@@ -19939,7 +19983,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>39</v>
       </c>
@@ -19947,7 +19991,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>51</v>
       </c>
@@ -19955,7 +19999,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>53</v>
       </c>
@@ -19963,7 +20007,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>504</v>
       </c>
@@ -19971,7 +20015,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>672</v>
       </c>
@@ -19979,7 +20023,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>875</v>
       </c>
@@ -19987,7 +20031,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>743</v>
       </c>
@@ -19995,7 +20039,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>730</v>
       </c>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efeno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93704022-AACA-4688-B75B-F19AEE0B9D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA95A4F9-D3C3-4FF6-ABB4-F3747F04862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="81" r:id="rId6"/>
+    <pivotCache cacheId="11821" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="352">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -1057,6 +1057,12 @@
   </si>
   <si>
     <t>F. AHUMADA 943 ÑUÑOA</t>
+  </si>
+  <si>
+    <t>AUTOPLANET CAMILO HENRIQUEZ</t>
+  </si>
+  <si>
+    <t>Gabriel Puebla</t>
   </si>
   <si>
     <t>ID</t>
@@ -4478,7 +4484,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="11821" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -17466,8 +17472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="D220" sqref="D220"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -19893,8 +19899,15 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="24"/>
-      <c r="B221" s="25"/>
+      <c r="A221" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B221" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C221" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="24"/>
@@ -19933,7 +19946,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -19952,7 +19965,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -19960,7 +19973,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -19976,7 +19989,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -19992,7 +20005,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -20000,7 +20013,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -20008,7 +20021,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -20016,7 +20029,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -20024,7 +20037,7 @@
         <v>504</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -20032,7 +20045,7 @@
         <v>672</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20040,7 +20053,7 @@
         <v>875</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -20048,7 +20061,7 @@
         <v>743</v>
       </c>
       <c r="B15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20056,7 +20069,7 @@
         <v>730</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efeno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA95A4F9-D3C3-4FF6-ABB4-F3747F04862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5117A949-486A-4BC2-AB4F-9C4BBE9669C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="11821" r:id="rId6"/>
+    <pivotCache cacheId="5099" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1062,7 +1062,7 @@
     <t>AUTOPLANET CAMILO HENRIQUEZ</t>
   </si>
   <si>
-    <t>Gabriel Puebla</t>
+    <t>F. AHUMADA 365 GRECIA</t>
   </si>
   <si>
     <t>ID</t>
@@ -4484,7 +4484,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="11821" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="5099" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5606,7 +5606,7 @@
   <dimension ref="A1:U302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -15753,13 +15753,13 @@
           <x14:formula1>
             <xm:f>SUCURSALES!$A$2:$A$214</xm:f>
           </x14:formula1>
-          <xm:sqref>C10:C1048576</xm:sqref>
+          <xm:sqref>C303:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B3D9E0C-3B6C-40E5-956A-0FDC914F2EE3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C529A78F-6BBF-4822-8B0B-F03CF7DAB00B}">
           <x14:formula1>
-            <xm:f>SUCURSALES!$A$2:$A$218</xm:f>
+            <xm:f>SUCURSALES!$A$2:$A$222</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C9</xm:sqref>
+          <xm:sqref>C3:C302</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17472,8 +17472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H228" sqref="H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -18671,17 +18671,6 @@
         <v>296</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" t="s">
-        <v>82</v>
-      </c>
-      <c r="C109" t="s">
-        <v>296</v>
-      </c>
-    </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>200</v>
@@ -19903,15 +19892,22 @@
         <v>337</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="C221" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="24"/>
-      <c r="B222" s="25"/>
+    <row r="222" spans="1:3" ht="15">
+      <c r="A222" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B222" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C222" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="24"/>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efeno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5117A949-486A-4BC2-AB4F-9C4BBE9669C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FE2EFE-6CB9-4A8A-8E25-4596316E86D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5099" r:id="rId6"/>
+    <pivotCache cacheId="3449" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="354">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -1102,6 +1102,12 @@
   </si>
   <si>
     <t>TENPO</t>
+  </si>
+  <si>
+    <t>MACH</t>
+  </si>
+  <si>
+    <t>Tapp Caja Los Andes</t>
   </si>
 </sst>
 </file>
@@ -4484,7 +4490,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="5099" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="3449" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5605,8 +5611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4B14FA-1BFE-4EC8-A345-326833D53FAF}">
   <dimension ref="A1:U302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="H296" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -15739,7 +15745,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66657E74-EC18-4C85-84E9-F63B0FD848CF}">
           <x14:formula1>
-            <xm:f>BANCOS!$B$2:$B$16</xm:f>
+            <xm:f>BANCOS!$B$2:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>O3:O302</xm:sqref>
         </x14:dataValidation>
@@ -19929,10 +19935,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61DFC83-2271-4461-B04D-1E1F90CB4035}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -20068,6 +20074,22 @@
         <v>351</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>732</v>
+      </c>
+      <c r="B18" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efeno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FE2EFE-6CB9-4A8A-8E25-4596316E86D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8425C94B-F808-4102-B705-1DC0635C168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Turnos" sheetId="4" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="SUCURSALES" sheetId="1" state="hidden" r:id="rId4"/>
+    <sheet name="SUCURSALES" sheetId="1" r:id="rId4"/>
     <sheet name="BANCOS" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3449" r:id="rId6"/>
+    <pivotCache cacheId="1140" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="371">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -819,18 +819,42 @@
     <t>LUIS MARCELO MOLINA</t>
   </si>
   <si>
+    <t>ADR CUNCO</t>
+  </si>
+  <si>
     <t>ADR ILLAPEL</t>
   </si>
   <si>
     <t>ADR IQUIQUE</t>
   </si>
   <si>
+    <t>ADR LA CALERA</t>
+  </si>
+  <si>
+    <t>ADR LEBU</t>
+  </si>
+  <si>
     <t>ADR LINARES</t>
   </si>
   <si>
+    <t>RAUL ALEXIS BELLO</t>
+  </si>
+  <si>
     <t>ADR OVALLE</t>
   </si>
   <si>
+    <t>ADR PAILLACO</t>
+  </si>
+  <si>
+    <t>ADR PITRUFQUEN</t>
+  </si>
+  <si>
+    <t>ADR PUREN</t>
+  </si>
+  <si>
+    <t>ADR SANTA CRUZ</t>
+  </si>
+  <si>
     <t>ADR TOCOPILLA</t>
   </si>
   <si>
@@ -843,9 +867,6 @@
     <t>ADR VALPARAISO</t>
   </si>
   <si>
-    <t>JUAN ENRIQUE YANEZ</t>
-  </si>
-  <si>
     <t>ADR VIÑA DEL MAR</t>
   </si>
   <si>
@@ -861,9 +882,15 @@
     <t>AUTOPLANET</t>
   </si>
   <si>
+    <t>AUTOPLANET CAMILO HENRIQUEZ</t>
+  </si>
+  <si>
     <t>AUTOPLANET CONCEPCION PRAT</t>
   </si>
   <si>
+    <t>AUTOPLANET COQUIMBO TACTICO</t>
+  </si>
+  <si>
     <t>AUTOPLANET CORONEL</t>
   </si>
   <si>
@@ -897,6 +924,21 @@
     <t>AUTOPLANET VALPARAISO</t>
   </si>
   <si>
+    <t>AUTOPLANET VIÑA DEL MAR</t>
+  </si>
+  <si>
+    <t>CLUB DE POLO COLINA</t>
+  </si>
+  <si>
+    <t>CLUB DE POLO</t>
+  </si>
+  <si>
+    <t>CLUB DE POLO LO RECABARREN</t>
+  </si>
+  <si>
+    <t>CLUB DE POLO VITACURA</t>
+  </si>
+  <si>
     <t>COLLOKY</t>
   </si>
   <si>
@@ -912,16 +954,40 @@
     <t>CONDOMINIO</t>
   </si>
   <si>
-    <t>COPEC ANTOFAGASTA</t>
+    <t>COPEC COSTANERA</t>
   </si>
   <si>
     <t>COPEC</t>
   </si>
   <si>
-    <t>COPEC COSTANERA</t>
-  </si>
-  <si>
-    <t>COPEC SAN FCO MOSTAZAL PONIENTE</t>
+    <t>COPEC ECO 0</t>
+  </si>
+  <si>
+    <t>COPEC ECO 1</t>
+  </si>
+  <si>
+    <t>COPEC ECO 2</t>
+  </si>
+  <si>
+    <t>COPEC HIJUELAS</t>
+  </si>
+  <si>
+    <t>COPEC IQUIQUE</t>
+  </si>
+  <si>
+    <t>COPEC LA SERENA</t>
+  </si>
+  <si>
+    <t>COPEC LOS LIBERTADORES</t>
+  </si>
+  <si>
+    <t>COPEC PEREZ ZUJOVIC</t>
+  </si>
+  <si>
+    <t>COPEC SAN MARTIN ANTOFAGASTA</t>
+  </si>
+  <si>
+    <t>COPEC VALPARAISO</t>
   </si>
   <si>
     <t>DECATHLON LOS TRAPENSES</t>
@@ -960,6 +1026,9 @@
     <t>F.AHUMADA 320 ALEMANIA</t>
   </si>
   <si>
+    <t>F.AHUMADA 365 GRECIA</t>
+  </si>
+  <si>
     <t>F.AHUMADA 367 PTO NATALES</t>
   </si>
   <si>
@@ -990,7 +1059,10 @@
     <t>F.AHUMADA 758, COQUIMBO</t>
   </si>
   <si>
-    <t>IMPERIAL</t>
+    <t>F.AHUMADA 936 VITACURA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 943 ÑUÑOA</t>
   </si>
   <si>
     <t>ITALFRENO</t>
@@ -999,33 +1071,33 @@
     <t>LA POLAR</t>
   </si>
   <si>
+    <t>LAS PAMPAS ANTOFAGASTA</t>
+  </si>
+  <si>
+    <t>TECNOFAST</t>
+  </si>
+  <si>
     <t>LIMONADA</t>
   </si>
   <si>
     <t>LOS CRISTALES CALAMA</t>
   </si>
   <si>
-    <t>TECNOFAST</t>
-  </si>
-  <si>
     <t>LP ARICA</t>
   </si>
   <si>
     <t>MEGAFRIO</t>
   </si>
   <si>
-    <t>PC FACTORY</t>
-  </si>
-  <si>
     <t>RECETARIO MAGISTRAL</t>
   </si>
   <si>
-    <t>SPOT F.AHUMADA 511 LOS ANDES</t>
-  </si>
-  <si>
     <t>STARBUCKS</t>
   </si>
   <si>
+    <t>STARBUCKS VALPARAISO</t>
+  </si>
+  <si>
     <t>SUPER ZOO</t>
   </si>
   <si>
@@ -1035,34 +1107,13 @@
     <t>SUPER ZOO ARAUCO MAIPU</t>
   </si>
   <si>
+    <t>SUPER ZOO COPIAPO</t>
+  </si>
+  <si>
     <t>SUPER ZOO P. FONTOVA</t>
   </si>
   <si>
     <t>TATTERSALL</t>
-  </si>
-  <si>
-    <t>CLUB DE POLO VITACURA</t>
-  </si>
-  <si>
-    <t>CLUB DE POLO</t>
-  </si>
-  <si>
-    <t>CLUB DE POLO LO RECABARREN</t>
-  </si>
-  <si>
-    <t>CLUB DE POLO COLINA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 936 VITACURA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 943 ÑUÑOA</t>
-  </si>
-  <si>
-    <t>AUTOPLANET CAMILO HENRIQUEZ</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 365 GRECIA</t>
   </si>
   <si>
     <t>ID</t>
@@ -1114,7 +1165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,12 +1189,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1356,7 +1401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1399,28 +1444,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,23 +1467,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4490,7 +4504,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="3449" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="1140" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5611,8 +5625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4B14FA-1BFE-4EC8-A345-326833D53FAF}">
   <dimension ref="A1:U302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H296" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -5646,17 +5660,17 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="27"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="26"/>
       <c r="O1" s="21" t="s">
         <v>1</v>
       </c>
@@ -5750,10 +5764,10 @@
       <c r="F3" s="12">
         <v>45691</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>0.40625</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="27">
         <v>0.82291666666666663</v>
       </c>
       <c r="I3" s="11">
@@ -5815,10 +5829,10 @@
       <c r="F4" s="12">
         <v>45694</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>0.40625</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>0.82291666666666663</v>
       </c>
       <c r="I4" s="11">
@@ -5880,10 +5894,10 @@
       <c r="F5" s="12">
         <v>45693</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>0.75</v>
       </c>
       <c r="I5" s="11">
@@ -5926,12 +5940,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="10" t="e">
         <f>VLOOKUP(C6,SUCURSALES!A:C,3,FALSE)</f>
         <v>#N/A</v>
@@ -15763,7 +15777,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C529A78F-6BBF-4822-8B0B-F03CF7DAB00B}">
           <x14:formula1>
-            <xm:f>SUCURSALES!$A$2:$A$222</xm:f>
+            <xm:f>SUCURSALES!$A$2:$A$223</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C302</xm:sqref>
         </x14:dataValidation>
@@ -15787,7 +15801,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -17478,8 +17492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H228" sqref="H228"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="B223" sqref="B2:B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -17490,41 +17504,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" t="s">
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>196</v>
@@ -17533,9 +17547,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>196</v>
@@ -17544,64 +17558,64 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -17610,9 +17624,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
         <v>196</v>
@@ -17621,42 +17635,42 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -17665,2259 +17679,2282 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" t="s">
         <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" t="s">
         <v>272</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
         <v>274</v>
       </c>
-      <c r="B27" t="s">
-        <v>174</v>
-      </c>
       <c r="C27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s">
         <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s">
         <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
       <c r="A32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
         <v>277</v>
       </c>
-      <c r="B32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
-        <v>278</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s">
         <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
         <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s">
         <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>282</v>
-      </c>
-      <c r="B37" t="s">
-        <v>265</v>
-      </c>
-      <c r="C37" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" t="s">
-        <v>208</v>
-      </c>
       <c r="C38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s">
         <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" t="s">
+        <v>296</v>
+      </c>
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="A53" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B58" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15">
+      <c r="A61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" t="s">
         <v>196</v>
       </c>
-      <c r="C48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>290</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C65" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" t="s">
         <v>174</v>
       </c>
-      <c r="C49" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C67" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" t="s">
         <v>174</v>
       </c>
-      <c r="C50" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>291</v>
-      </c>
-      <c r="B51" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>292</v>
-      </c>
-      <c r="B52" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>294</v>
-      </c>
-      <c r="B53" t="s">
-        <v>267</v>
-      </c>
-      <c r="C53" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>295</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" t="s">
+        <v>311</v>
+      </c>
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" t="s">
+        <v>317</v>
+      </c>
+      <c r="B74" t="s">
         <v>82</v>
       </c>
-      <c r="C54" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="C74" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15">
+      <c r="A75" t="s">
         <v>197</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B75" t="s">
         <v>196</v>
       </c>
-      <c r="C55" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>297</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C75" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" t="s">
         <v>61</v>
       </c>
-      <c r="C56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="C76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B77" t="s">
         <v>61</v>
       </c>
-      <c r="C57" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="C77" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" t="s">
         <v>49</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B78" t="s">
         <v>47</v>
       </c>
-      <c r="C58" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>298</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" t="s">
         <v>47</v>
       </c>
-      <c r="C59" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="C79" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80" t="s">
         <v>190</v>
       </c>
-      <c r="B60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="B80" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81" t="s">
         <v>83</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" t="s">
-        <v>265</v>
-      </c>
-      <c r="C65" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>299</v>
-      </c>
-      <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>300</v>
-      </c>
-      <c r="B69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" t="s">
-        <v>265</v>
-      </c>
-      <c r="C71" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" t="s">
-        <v>265</v>
-      </c>
-      <c r="C72" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>301</v>
-      </c>
-      <c r="B74" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>94</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="B82" t="s">
+        <v>263</v>
+      </c>
+      <c r="C82" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
         <v>82</v>
       </c>
-      <c r="C82" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>199</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15">
+      <c r="A86" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15">
+      <c r="A87" t="s">
+        <v>321</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15">
+      <c r="A88" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" t="s">
         <v>196</v>
       </c>
-      <c r="C83" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>161</v>
-      </c>
-      <c r="B84" t="s">
-        <v>265</v>
-      </c>
-      <c r="C84" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" t="s">
-        <v>265</v>
-      </c>
-      <c r="C85" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>163</v>
-      </c>
-      <c r="B87" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>51</v>
-      </c>
-      <c r="B88" t="s">
-        <v>47</v>
-      </c>
       <c r="C88" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s">
         <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
         <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
         <v>82</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
         <v>82</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
         <v>82</v>
       </c>
       <c r="C98" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
         <v>82</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15">
       <c r="A100" t="s">
-        <v>302</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
         <v>82</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="B101" t="s">
         <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15">
       <c r="A102" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B105" t="s">
         <v>82</v>
       </c>
       <c r="C105" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C107" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B108" t="s">
         <v>82</v>
       </c>
       <c r="C108" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15">
+      <c r="A109" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C110" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15">
       <c r="A111" t="s">
-        <v>304</v>
+        <v>164</v>
       </c>
       <c r="B111" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B113" t="s">
         <v>82</v>
       </c>
       <c r="C113" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B114" t="s">
         <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C115" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B116" t="s">
         <v>82</v>
       </c>
       <c r="C116" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B117" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15">
       <c r="A118" t="s">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15">
       <c r="A119" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="B119" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C119" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C120" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15">
       <c r="A122" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="B122" t="s">
         <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="B123" s="30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15">
+      <c r="A123" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" t="s">
         <v>82</v>
       </c>
       <c r="C123" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15">
       <c r="A124" t="s">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="B124" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C124" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B125" t="s">
         <v>82</v>
       </c>
       <c r="C125" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15">
       <c r="A126" t="s">
-        <v>310</v>
+        <v>112</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B127" t="s">
         <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C128" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B129" t="s">
         <v>82</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C130" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15">
       <c r="A131" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15">
+      <c r="A132" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" t="s">
         <v>82</v>
       </c>
-      <c r="C131" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>55</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15">
+      <c r="A133" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15">
+      <c r="A134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15">
+      <c r="A135" t="s">
+        <v>54</v>
+      </c>
+      <c r="B135" t="s">
         <v>47</v>
       </c>
-      <c r="C132" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>124</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="C135" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15">
+      <c r="A136" t="s">
+        <v>328</v>
+      </c>
+      <c r="B136" t="s">
+        <v>208</v>
+      </c>
+      <c r="C136" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15">
+      <c r="A137" t="s">
+        <v>329</v>
+      </c>
+      <c r="B137" t="s">
+        <v>263</v>
+      </c>
+      <c r="C137" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15">
+      <c r="A138" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138" t="s">
         <v>82</v>
       </c>
-      <c r="C133" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>312</v>
-      </c>
-      <c r="B134" t="s">
-        <v>61</v>
-      </c>
-      <c r="C134" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>125</v>
-      </c>
-      <c r="B135" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>126</v>
-      </c>
-      <c r="B136" t="s">
-        <v>82</v>
-      </c>
-      <c r="C136" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137" t="s">
-        <v>82</v>
-      </c>
-      <c r="C137" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>313</v>
-      </c>
-      <c r="B138" t="s">
-        <v>61</v>
-      </c>
       <c r="C138" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15">
       <c r="A139" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B139" t="s">
         <v>82</v>
       </c>
       <c r="C139" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15">
       <c r="A140" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="B141" t="s">
         <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15">
       <c r="A142" t="s">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="B142" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C142" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="B144" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C144" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B145" t="s">
         <v>82</v>
       </c>
       <c r="C145" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15">
       <c r="A146" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B146" t="s">
         <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="B147" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15">
       <c r="A148" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="B148" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15">
+      <c r="A149" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15">
+      <c r="A150" t="s">
+        <v>55</v>
+      </c>
+      <c r="B150" t="s">
         <v>47</v>
       </c>
-      <c r="C148" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>216</v>
-      </c>
-      <c r="B149" t="s">
-        <v>208</v>
-      </c>
-      <c r="C149" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>217</v>
-      </c>
-      <c r="B150" t="s">
-        <v>208</v>
-      </c>
       <c r="C150" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B151" t="s">
         <v>82</v>
       </c>
       <c r="C151" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15">
       <c r="A152" t="s">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="B152" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="C152" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B153" t="s">
         <v>82</v>
       </c>
       <c r="C153" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15">
       <c r="A154" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="B154" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="C154" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15">
       <c r="A155" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="C155" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15">
       <c r="A156" t="s">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="B156" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="C156" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15">
       <c r="A157" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="B157" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C157" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15">
       <c r="A158" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="B158" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15">
       <c r="A159" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B159" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C159" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15">
       <c r="A160" t="s">
-        <v>64</v>
+        <v>337</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C160" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15">
       <c r="A161" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C161" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="B162" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C162" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15">
       <c r="A163" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C163" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15">
       <c r="A164" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B164" t="s">
         <v>82</v>
       </c>
       <c r="C164" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B165" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="C165" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B166" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="C166" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="B167" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="C167" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15">
       <c r="A168" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B168" t="s">
         <v>174</v>
       </c>
       <c r="C168" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15">
       <c r="A169" t="s">
+        <v>202</v>
+      </c>
+      <c r="B169" t="s">
+        <v>196</v>
+      </c>
+      <c r="C169" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15">
+      <c r="A170" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" t="s">
+        <v>196</v>
+      </c>
+      <c r="C170" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15">
+      <c r="A171" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15">
+      <c r="A172" t="s">
+        <v>63</v>
+      </c>
+      <c r="B172" t="s">
+        <v>61</v>
+      </c>
+      <c r="C172" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15">
+      <c r="A173" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173" t="s">
+        <v>61</v>
+      </c>
+      <c r="C173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15">
+      <c r="A175" t="s">
+        <v>194</v>
+      </c>
+      <c r="B175" t="s">
+        <v>263</v>
+      </c>
+      <c r="C175" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15">
+      <c r="A176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B176" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15">
+      <c r="A177" t="s">
+        <v>154</v>
+      </c>
+      <c r="B177" t="s">
+        <v>145</v>
+      </c>
+      <c r="C177" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15">
+      <c r="A178" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178" t="s">
+        <v>256</v>
+      </c>
+      <c r="C178" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15">
+      <c r="A179" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" t="s">
+        <v>157</v>
+      </c>
+      <c r="C179" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15">
+      <c r="A180" t="s">
+        <v>341</v>
+      </c>
+      <c r="B180" t="s">
+        <v>196</v>
+      </c>
+      <c r="C180" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>174</v>
+      </c>
+      <c r="C181" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15">
+      <c r="A182" t="s">
         <v>182</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B182" t="s">
         <v>174</v>
       </c>
-      <c r="C169" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
+      <c r="C182" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15">
+      <c r="A183" t="s">
         <v>183</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B183" t="s">
         <v>174</v>
       </c>
-      <c r="C170" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
+      <c r="C183" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15">
+      <c r="A184" t="s">
+        <v>344</v>
+      </c>
+      <c r="B184" t="s">
+        <v>196</v>
+      </c>
+      <c r="C184" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15">
+      <c r="A185" t="s">
+        <v>345</v>
+      </c>
+      <c r="B185" t="s">
+        <v>196</v>
+      </c>
+      <c r="C185" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>174</v>
+      </c>
+      <c r="C186" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>174</v>
+      </c>
+      <c r="C187" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>174</v>
+      </c>
+      <c r="C188" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15">
+      <c r="A189" t="s">
+        <v>347</v>
+      </c>
+      <c r="B189" t="s">
+        <v>82</v>
+      </c>
+      <c r="C189" t="s">
         <v>318</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C171" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>320</v>
-      </c>
-      <c r="B172" t="s">
-        <v>196</v>
-      </c>
-      <c r="C172" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>184</v>
-      </c>
-      <c r="B173" t="s">
-        <v>174</v>
-      </c>
-      <c r="C173" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>185</v>
-      </c>
-      <c r="B174" t="s">
-        <v>174</v>
-      </c>
-      <c r="C174" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>186</v>
-      </c>
-      <c r="B175" t="s">
-        <v>174</v>
-      </c>
-      <c r="C175" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>229</v>
-      </c>
-      <c r="B176" t="s">
-        <v>208</v>
-      </c>
-      <c r="C176" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>230</v>
-      </c>
-      <c r="B177" t="s">
-        <v>208</v>
-      </c>
-      <c r="C177" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>231</v>
-      </c>
-      <c r="B178" t="s">
-        <v>208</v>
-      </c>
-      <c r="C178" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>232</v>
-      </c>
-      <c r="B179" t="s">
-        <v>208</v>
-      </c>
-      <c r="C179" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>155</v>
-      </c>
-      <c r="B180" t="s">
+    </row>
+    <row r="190" spans="1:3" ht="15">
+      <c r="A190" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" t="s">
         <v>82</v>
       </c>
-      <c r="C180" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>323</v>
-      </c>
-      <c r="B181" t="s">
-        <v>82</v>
-      </c>
-      <c r="C181" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>39</v>
-      </c>
-      <c r="B182" s="2"/>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>141</v>
-      </c>
-      <c r="B183" t="s">
-        <v>82</v>
-      </c>
-      <c r="C183" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>324</v>
-      </c>
-      <c r="B184" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C184" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
+      <c r="C190" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15">
+      <c r="A191" t="s">
         <v>69</v>
-      </c>
-      <c r="B185" t="s">
-        <v>66</v>
-      </c>
-      <c r="C185" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>70</v>
-      </c>
-      <c r="B186" t="s">
-        <v>66</v>
-      </c>
-      <c r="C186" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>71</v>
-      </c>
-      <c r="B187" t="s">
-        <v>66</v>
-      </c>
-      <c r="C187" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>72</v>
-      </c>
-      <c r="B188" t="s">
-        <v>66</v>
-      </c>
-      <c r="C188" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>73</v>
-      </c>
-      <c r="B189" t="s">
-        <v>66</v>
-      </c>
-      <c r="C189" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>170</v>
-      </c>
-      <c r="B190" t="s">
-        <v>265</v>
-      </c>
-      <c r="C190" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>74</v>
       </c>
       <c r="B191" t="s">
         <v>66</v>
       </c>
       <c r="C191" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15">
       <c r="A192" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B192" t="s">
         <v>66</v>
       </c>
       <c r="C192" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15">
       <c r="A193" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B193" t="s">
         <v>66</v>
       </c>
       <c r="C193" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15">
       <c r="A194" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B194" t="s">
         <v>66</v>
       </c>
       <c r="C194" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B195" t="s">
         <v>66</v>
       </c>
       <c r="C195" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15">
       <c r="A196" t="s">
+        <v>170</v>
+      </c>
+      <c r="B196" t="s">
+        <v>157</v>
+      </c>
+      <c r="C196" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15">
+      <c r="A197" t="s">
+        <v>74</v>
+      </c>
+      <c r="B197" t="s">
+        <v>66</v>
+      </c>
+      <c r="C197" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15">
+      <c r="A198" t="s">
+        <v>75</v>
+      </c>
+      <c r="B198" t="s">
+        <v>66</v>
+      </c>
+      <c r="C198" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15">
+      <c r="A199" t="s">
+        <v>76</v>
+      </c>
+      <c r="B199" t="s">
+        <v>66</v>
+      </c>
+      <c r="C199" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15">
+      <c r="A200" t="s">
+        <v>77</v>
+      </c>
+      <c r="B200" t="s">
+        <v>66</v>
+      </c>
+      <c r="C200" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15">
+      <c r="A201" t="s">
+        <v>78</v>
+      </c>
+      <c r="B201" t="s">
+        <v>66</v>
+      </c>
+      <c r="C201" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15">
+      <c r="A202" t="s">
+        <v>349</v>
+      </c>
+      <c r="B202" t="s">
+        <v>157</v>
+      </c>
+      <c r="C202" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15">
+      <c r="A203" t="s">
         <v>233</v>
-      </c>
-      <c r="B196" t="s">
-        <v>208</v>
-      </c>
-      <c r="C196" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>234</v>
-      </c>
-      <c r="B197" t="s">
-        <v>208</v>
-      </c>
-      <c r="C197" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>327</v>
-      </c>
-      <c r="B198" t="s">
-        <v>196</v>
-      </c>
-      <c r="C198" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>328</v>
-      </c>
-      <c r="B199" t="s">
-        <v>208</v>
-      </c>
-      <c r="C199" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>235</v>
-      </c>
-      <c r="B200" t="s">
-        <v>208</v>
-      </c>
-      <c r="C200" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>236</v>
-      </c>
-      <c r="B201" t="s">
-        <v>208</v>
-      </c>
-      <c r="C201" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>237</v>
-      </c>
-      <c r="B202" t="s">
-        <v>208</v>
-      </c>
-      <c r="C202" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>171</v>
       </c>
       <c r="B203" t="s">
         <v>208</v>
       </c>
       <c r="C203" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15">
       <c r="A204" t="s">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="B204" t="s">
         <v>208</v>
       </c>
       <c r="C204" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C205" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15">
       <c r="A206" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="B206" t="s">
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15">
       <c r="A207" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="C207" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15">
       <c r="A208" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B208" t="s">
         <v>208</v>
       </c>
       <c r="C208" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15">
       <c r="A209" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="B209" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15">
       <c r="A210" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="B210" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C210" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15">
       <c r="A211" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B211" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="24" t="s">
-        <v>156</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15">
+      <c r="A212" t="s">
+        <v>354</v>
       </c>
       <c r="B212" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="C212" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="24" t="s">
-        <v>206</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15">
+      <c r="A213" t="s">
+        <v>238</v>
       </c>
       <c r="B213" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C213" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B214" s="26" t="s">
-        <v>47</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15">
+      <c r="A214" t="s">
+        <v>239</v>
+      </c>
+      <c r="B214" t="s">
+        <v>208</v>
       </c>
       <c r="C214" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B215" s="26" t="s">
-        <v>196</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15">
+      <c r="A215" t="s">
+        <v>240</v>
+      </c>
+      <c r="B215" t="s">
+        <v>208</v>
       </c>
       <c r="C215" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="32" t="s">
-        <v>331</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15">
+      <c r="A216" t="s">
+        <v>241</v>
       </c>
       <c r="B216" t="s">
         <v>208</v>
       </c>
       <c r="C216" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="32" t="s">
-        <v>333</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15">
+      <c r="A217" t="s">
+        <v>204</v>
       </c>
       <c r="B217" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C217" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="32" t="s">
-        <v>334</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15">
+      <c r="A218" t="s">
+        <v>205</v>
       </c>
       <c r="B218" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C218" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15">
-      <c r="A219" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="B219" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C219" s="30" t="s">
-        <v>296</v>
+      <c r="A219" t="s">
+        <v>187</v>
+      </c>
+      <c r="B219" t="s">
+        <v>174</v>
+      </c>
+      <c r="C219" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15">
-      <c r="A220" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="B220" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C220" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="B221" s="25" t="s">
-        <v>82</v>
+      <c r="A220" t="s">
+        <v>156</v>
+      </c>
+      <c r="B220" t="s">
+        <v>145</v>
+      </c>
+      <c r="C220" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15">
+      <c r="A221" t="s">
+        <v>206</v>
+      </c>
+      <c r="B221" t="s">
+        <v>196</v>
       </c>
       <c r="C221" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15">
-      <c r="A222" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="B222" s="30" t="s">
-        <v>82</v>
+      <c r="A222" t="s">
+        <v>60</v>
+      </c>
+      <c r="B222" t="s">
+        <v>47</v>
       </c>
       <c r="C222" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="24"/>
-      <c r="B223" s="25"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15">
+      <c r="A223" t="s">
+        <v>207</v>
+      </c>
+      <c r="B223" t="s">
+        <v>196</v>
+      </c>
+      <c r="C223" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="24"/>
@@ -19948,7 +19985,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -19967,7 +20004,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -19975,7 +20012,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -19991,7 +20028,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -20007,7 +20044,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -20015,7 +20052,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -20023,7 +20060,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -20031,7 +20068,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -20039,7 +20076,7 @@
         <v>504</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -20047,7 +20084,7 @@
         <v>672</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20055,7 +20092,7 @@
         <v>875</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -20063,7 +20100,7 @@
         <v>743</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20071,7 +20108,7 @@
         <v>730</v>
       </c>
       <c r="B16" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -20079,7 +20116,7 @@
         <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -20087,7 +20124,7 @@
         <v>732</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efeno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8425C94B-F808-4102-B705-1DC0635C168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97732D3-A6DE-4A5B-B59B-475556D28E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="Turnos" sheetId="4" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="SUCURSALES" sheetId="1" r:id="rId4"/>
+    <sheet name="SUCURSALES" sheetId="1" state="hidden" r:id="rId4"/>
     <sheet name="BANCOS" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SUCURSALES!$A$1:$C$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SUCURSALES!$A$2:$A$224</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1140" r:id="rId6"/>
+    <pivotCache cacheId="3948" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="375">
   <si>
     <t xml:space="preserve">DATOS DE COBERTURA DE LA INSTALACION </t>
   </si>
@@ -789,18 +789,12 @@
     <t>Nombre Centro Costo 1</t>
   </si>
   <si>
-    <t>ADELCO</t>
-  </si>
-  <si>
-    <t>ADR ALTO HOSPICIO</t>
+    <t>ADR ANTOFAGASTA</t>
   </si>
   <si>
     <t>ADR</t>
   </si>
   <si>
-    <t>ADR ANTOFAGASTA</t>
-  </si>
-  <si>
     <t>ADR ARICA</t>
   </si>
   <si>
@@ -831,6 +825,9 @@
     <t>ADR LA CALERA</t>
   </si>
   <si>
+    <t>JUAN ENRIQUE YANEZ</t>
+  </si>
+  <si>
     <t>ADR LEBU</t>
   </si>
   <si>
@@ -939,6 +936,9 @@
     <t>CLUB DE POLO VITACURA</t>
   </si>
   <si>
+    <t>ALICIA MORALES</t>
+  </si>
+  <si>
     <t>COLLOKY</t>
   </si>
   <si>
@@ -990,106 +990,118 @@
     <t>COPEC VALPARAISO</t>
   </si>
   <si>
-    <t>DECATHLON LOS TRAPENSES</t>
+    <t>F. AHUMADA 08, LAS CONDES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 134 CORDOVEZ</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 280 SAN PEDRO</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 572, PEÑALOLEN</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 670</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 734, ANTOFAGASTA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 300 LOS TRAPENSES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 320 ALEMANIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 365 GRECIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 367 PTO NATALES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 470 SAN VICENTE TAGUA TAGUA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 480, LINARES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 492 VICTORIA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 526 MAIPU</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 533 RAMIREZ</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 567, LA SERENA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 622 LOS PABLOS</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 681, COPIAPO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 758, COQUIMBO</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 936 VITACURA</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 943 ÑUÑOA</t>
+  </si>
+  <si>
+    <t>ITALFRENO</t>
+  </si>
+  <si>
+    <t>LA POLAR</t>
+  </si>
+  <si>
+    <t>LAS PAMPAS ANTOFAGASTA</t>
+  </si>
+  <si>
+    <t>TECNOFAST</t>
+  </si>
+  <si>
+    <t>LIMONADA</t>
+  </si>
+  <si>
+    <t>LOS CRISTALES CALAMA</t>
+  </si>
+  <si>
+    <t>LOS TRAPENSES DECATHLON</t>
+  </si>
+  <si>
+    <t>MARIA DEL PLIAR VEGA</t>
   </si>
   <si>
     <t>DECATHLON</t>
   </si>
   <si>
-    <t>DECATHLON PORTAL LA DEHESA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 08, LAS CONDES</t>
-  </si>
-  <si>
-    <t>F.AHUMADA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 134 CORDOVEZ</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 280 SAN PEDRO</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 572, PEÑALOLEN</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 670</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 734, ANTOFAGASTA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 300 LOS TRAPENSES</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 320 ALEMANIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 365 GRECIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 367 PTO NATALES</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 470 SAN VICENTE TAGUA TAGUA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 480, LINARES</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 492 VICTORIA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 526 MAIPU</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 533 RAMIREZ</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 567, LA SERENA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 622 LOS PABLOS</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 681, COPIAPO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 758, COQUIMBO</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 936 VITACURA</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 943 ÑUÑOA</t>
-  </si>
-  <si>
-    <t>ITALFRENO</t>
-  </si>
-  <si>
-    <t>LA POLAR</t>
-  </si>
-  <si>
-    <t>LAS PAMPAS ANTOFAGASTA</t>
-  </si>
-  <si>
-    <t>TECNOFAST</t>
-  </si>
-  <si>
-    <t>LIMONADA</t>
-  </si>
-  <si>
-    <t>LOS CRISTALES CALAMA</t>
-  </si>
-  <si>
     <t>LP ARICA</t>
   </si>
   <si>
     <t>MEGAFRIO</t>
   </si>
   <si>
+    <t>OFICINA SODIMAC RENCA</t>
+  </si>
+  <si>
+    <t>OPERACIONES</t>
+  </si>
+  <si>
+    <t>PORTAL LA DEHESA, DECATHLON</t>
+  </si>
+  <si>
     <t>RECETARIO MAGISTRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICIO TRANSITORIO </t>
   </si>
   <si>
     <t>STARBUCKS</t>
@@ -1229,7 +1241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1373,35 +1385,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1440,18 +1428,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4504,7 +4488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="1140" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="3948" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5626,7 +5610,7 @@
   <dimension ref="A1:U302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -5660,17 +5644,17 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="26"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="21" t="s">
         <v>1</v>
       </c>
@@ -5764,10 +5748,10 @@
       <c r="F3" s="12">
         <v>45691</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <v>0.40625</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>0.82291666666666663</v>
       </c>
       <c r="I3" s="11">
@@ -5829,10 +5813,10 @@
       <c r="F4" s="12">
         <v>45694</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <v>0.40625</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <v>0.82291666666666663</v>
       </c>
       <c r="I4" s="11">
@@ -5894,10 +5878,10 @@
       <c r="F5" s="12">
         <v>45693</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="25">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>0.75</v>
       </c>
       <c r="I5" s="11">
@@ -5945,7 +5929,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="31"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="10" t="e">
         <f>VLOOKUP(C6,SUCURSALES!A:C,3,FALSE)</f>
         <v>#N/A</v>
@@ -15756,7 +15740,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66657E74-EC18-4C85-84E9-F63B0FD848CF}">
           <x14:formula1>
             <xm:f>BANCOS!$B$2:$B$18</xm:f>
@@ -15771,15 +15755,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB3C8CAF-8FCA-4539-8C12-725764C77B5C}">
           <x14:formula1>
-            <xm:f>SUCURSALES!$A$2:$A$214</xm:f>
+            <xm:f>SUCURSALES!$A$2:$A$224</xm:f>
           </x14:formula1>
-          <xm:sqref>C303:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C529A78F-6BBF-4822-8B0B-F03CF7DAB00B}">
-          <x14:formula1>
-            <xm:f>SUCURSALES!$A$2:$A$223</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C302</xm:sqref>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15801,7 +15779,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -17490,10 +17468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C447"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B223" sqref="B2:B223"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -17504,36 +17482,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
@@ -17541,10 +17519,10 @@
         <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
@@ -17552,10 +17530,10 @@
         <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -17566,7 +17544,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -17574,32 +17552,32 @@
         <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -17607,10 +17585,10 @@
         <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
@@ -17618,230 +17596,230 @@
         <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B17" t="s">
         <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
         <v>273</v>
       </c>
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>276</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
@@ -17849,205 +17827,205 @@
         <v>281</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s">
         <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s">
         <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s">
         <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="B37" t="s">
         <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s">
         <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s">
         <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
         <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15">
       <c r="A43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s">
         <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
       <c r="A48" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C48" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
       <c r="A49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" t="s">
         <v>296</v>
       </c>
-      <c r="B49" t="s">
-        <v>208</v>
-      </c>
       <c r="C49" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C50" t="s">
         <v>297</v>
@@ -18055,10 +18033,10 @@
     </row>
     <row r="51" spans="1:3" ht="15">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
         <v>297</v>
@@ -18066,10 +18044,10 @@
     </row>
     <row r="52" spans="1:3" ht="15">
       <c r="A52" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
         <v>297</v>
@@ -18077,10 +18055,10 @@
     </row>
     <row r="53" spans="1:3" ht="15">
       <c r="A53" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C53" t="s">
         <v>297</v>
@@ -18088,10 +18066,10 @@
     </row>
     <row r="54" spans="1:3" ht="15">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="C54" t="s">
         <v>297</v>
@@ -18099,10 +18077,10 @@
     </row>
     <row r="55" spans="1:3" ht="15">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
         <v>297</v>
@@ -18110,10 +18088,10 @@
     </row>
     <row r="56" spans="1:3" ht="15">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
         <v>297</v>
@@ -18121,40 +18099,40 @@
     </row>
     <row r="57" spans="1:3" ht="15">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C57" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s">
         <v>174</v>
@@ -18165,7 +18143,7 @@
     </row>
     <row r="61" spans="1:3" ht="15">
       <c r="A61" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s">
         <v>174</v>
@@ -18176,10 +18154,10 @@
     </row>
     <row r="62" spans="1:3" ht="15">
       <c r="A62" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="C62" t="s">
         <v>303</v>
@@ -18187,10 +18165,10 @@
     </row>
     <row r="63" spans="1:3" ht="15">
       <c r="A63" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
         <v>303</v>
@@ -18198,10 +18176,10 @@
     </row>
     <row r="64" spans="1:3" ht="15">
       <c r="A64" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>303</v>
@@ -18209,10 +18187,10 @@
     </row>
     <row r="65" spans="1:3" ht="15">
       <c r="A65" t="s">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
         <v>303</v>
@@ -18220,10 +18198,10 @@
     </row>
     <row r="66" spans="1:3" ht="15">
       <c r="A66" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
         <v>303</v>
@@ -18231,10 +18209,10 @@
     </row>
     <row r="67" spans="1:3" ht="15">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
         <v>303</v>
@@ -18242,10 +18220,10 @@
     </row>
     <row r="68" spans="1:3" ht="15">
       <c r="A68" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
         <v>303</v>
@@ -18253,10 +18231,10 @@
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="C69" t="s">
         <v>303</v>
@@ -18264,32 +18242,32 @@
     </row>
     <row r="70" spans="1:3" ht="15">
       <c r="A70" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>197</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
       <c r="A72" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
         <v>315</v>
@@ -18297,10 +18275,10 @@
     </row>
     <row r="73" spans="1:3" ht="15">
       <c r="A73" t="s">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
         <v>315</v>
@@ -18308,728 +18286,728 @@
     </row>
     <row r="74" spans="1:3" ht="15">
       <c r="A74" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15">
       <c r="A75" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="B75" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15">
       <c r="A76" t="s">
-        <v>319</v>
+        <v>190</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="C76" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15">
       <c r="A79" t="s">
-        <v>320</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="C81" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" t="s">
-        <v>322</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>320</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15">
       <c r="A94" t="s">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>82</v>
       </c>
       <c r="C95" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>82</v>
       </c>
       <c r="C97" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="C99" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="C100" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
         <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="C102" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="C103" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
         <v>82</v>
       </c>
       <c r="C105" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s">
         <v>82</v>
       </c>
       <c r="C109" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B110" t="s">
         <v>82</v>
       </c>
       <c r="C110" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="C111" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B113" t="s">
         <v>82</v>
       </c>
       <c r="C113" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B114" t="s">
         <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15">
       <c r="A115" t="s">
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C115" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C116" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>322</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15">
       <c r="A118" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B118" t="s">
         <v>82</v>
       </c>
       <c r="C118" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15">
       <c r="A119" t="s">
-        <v>324</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
         <v>82</v>
       </c>
       <c r="C119" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C120" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15">
       <c r="A121" t="s">
-        <v>325</v>
+        <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B122" t="s">
         <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15">
       <c r="A123" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B123" t="s">
         <v>82</v>
       </c>
       <c r="C123" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C124" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15">
       <c r="A125" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="B125" t="s">
         <v>82</v>
       </c>
       <c r="C125" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15">
       <c r="A126" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="B126" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B127" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C128" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15">
       <c r="A129" t="s">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15">
       <c r="A130" t="s">
-        <v>327</v>
+        <v>117</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="C130" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15">
       <c r="A132" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="C132" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="C133" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15">
       <c r="A134" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B134" t="s">
         <v>82</v>
       </c>
       <c r="C134" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15">
       <c r="A135" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="B135" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C135" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15">
       <c r="A136" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15">
       <c r="A137" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B137" t="s">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="C137" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15">
       <c r="A138" t="s">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="B138" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C138" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15">
       <c r="A139" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B139" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C139" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15">
@@ -19037,414 +19015,414 @@
         <v>330</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="C140" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15">
       <c r="A141" t="s">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="B141" t="s">
         <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15">
       <c r="A142" t="s">
-        <v>332</v>
+        <v>121</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C142" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>331</v>
       </c>
       <c r="B143" t="s">
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15">
       <c r="A144" t="s">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="C144" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15">
       <c r="A145" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B145" t="s">
         <v>82</v>
       </c>
       <c r="C145" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15">
       <c r="A146" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C146" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15">
       <c r="A147" t="s">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C147" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15">
       <c r="A148" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="C148" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15">
       <c r="A149" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
         <v>82</v>
       </c>
       <c r="C149" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15">
       <c r="A150" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="B150" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C150" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B151" t="s">
         <v>82</v>
       </c>
       <c r="C151" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15">
       <c r="A152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B152" t="s">
         <v>61</v>
       </c>
       <c r="C152" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B153" t="s">
         <v>82</v>
       </c>
       <c r="C153" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15">
       <c r="A154" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B154" t="s">
         <v>82</v>
       </c>
       <c r="C154" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15">
       <c r="A155" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B155" t="s">
         <v>82</v>
       </c>
       <c r="C155" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15">
       <c r="A156" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C156" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15">
       <c r="A157" t="s">
-        <v>128</v>
+        <v>335</v>
       </c>
       <c r="B157" t="s">
         <v>82</v>
       </c>
       <c r="C157" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15">
       <c r="A158" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B158" t="s">
         <v>82</v>
       </c>
       <c r="C158" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15">
       <c r="A159" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B159" t="s">
         <v>82</v>
       </c>
       <c r="C159" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15">
       <c r="A160" t="s">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="B160" t="s">
         <v>82</v>
       </c>
       <c r="C160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15">
       <c r="A161" t="s">
-        <v>338</v>
+        <v>139</v>
       </c>
       <c r="B161" t="s">
         <v>82</v>
       </c>
       <c r="C161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15">
       <c r="A162" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B162" t="s">
         <v>82</v>
       </c>
       <c r="C162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15">
       <c r="A163" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B163" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C163" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15">
       <c r="A164" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="B164" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="C164" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15">
       <c r="A165" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="B165" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C165" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15">
       <c r="A166" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C166" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15">
       <c r="A167" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="B167" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="C167" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15">
       <c r="A168" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="C168" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15">
       <c r="A169" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="C169" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="C170" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15">
       <c r="A171" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="B171" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="C171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15">
       <c r="A172" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B172" t="s">
         <v>61</v>
       </c>
       <c r="C172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15">
       <c r="A173" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="B173" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C173" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15">
       <c r="A174" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="C174" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15">
       <c r="A176" t="s">
-        <v>65</v>
+        <v>338</v>
       </c>
       <c r="B176" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="C176" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15">
       <c r="A177" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>145</v>
+        <v>273</v>
       </c>
       <c r="C177" t="s">
         <v>340</v>
@@ -19452,10 +19430,10 @@
     </row>
     <row r="178" spans="1:3" ht="15">
       <c r="A178" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B178" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C178" t="s">
         <v>340</v>
@@ -19463,10 +19441,10 @@
     </row>
     <row r="179" spans="1:3" ht="15">
       <c r="A179" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B179" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="C179" t="s">
         <v>340</v>
@@ -19480,492 +19458,709 @@
         <v>196</v>
       </c>
       <c r="C180" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>342</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>343</v>
       </c>
       <c r="C181" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="B182" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C182" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
         <v>174</v>
       </c>
       <c r="C183" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15">
       <c r="A184" t="s">
-        <v>344</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C184" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15">
       <c r="A185" t="s">
-        <v>345</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C185" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>347</v>
       </c>
       <c r="B186" t="s">
-        <v>174</v>
-      </c>
-      <c r="C186" t="s">
-        <v>346</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>348</v>
       </c>
       <c r="B187" t="s">
-        <v>174</v>
-      </c>
-      <c r="C187" t="s">
-        <v>346</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>349</v>
       </c>
       <c r="B188" t="s">
-        <v>174</v>
+        <v>343</v>
       </c>
       <c r="C188" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15">
       <c r="A189" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B189" t="s">
         <v>82</v>
       </c>
       <c r="C189" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15">
       <c r="A190" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>82</v>
-      </c>
-      <c r="C190" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15">
       <c r="A191" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="B191" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C191" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15">
       <c r="A192" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B192" t="s">
         <v>66</v>
       </c>
       <c r="C192" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15">
       <c r="A193" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B193" t="s">
         <v>66</v>
       </c>
       <c r="C193" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15">
       <c r="A194" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B194" t="s">
         <v>66</v>
       </c>
       <c r="C194" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15">
       <c r="A195" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B195" t="s">
         <v>66</v>
       </c>
       <c r="C195" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15">
       <c r="A196" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="B196" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="C196" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15">
       <c r="A197" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="B197" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="C197" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15">
       <c r="A198" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B198" t="s">
         <v>66</v>
       </c>
       <c r="C198" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15">
       <c r="A199" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B199" t="s">
         <v>66</v>
       </c>
       <c r="C199" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15">
       <c r="A200" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B200" t="s">
         <v>66</v>
       </c>
       <c r="C200" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15">
       <c r="A201" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B201" t="s">
         <v>66</v>
       </c>
       <c r="C201" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15">
       <c r="A202" t="s">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="B202" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="C202" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15">
       <c r="A203" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="C203" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15">
       <c r="A204" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C204" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15">
       <c r="A205" t="s">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="B205" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="C205" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15">
       <c r="A206" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C206" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15">
       <c r="A207" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B207" t="s">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="C207" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15">
       <c r="A208" t="s">
-        <v>235</v>
+        <v>357</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="C208" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15">
       <c r="A209" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C209" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15">
       <c r="A210" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C210" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15">
       <c r="A211" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="B211" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C211" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15">
       <c r="A212" t="s">
+        <v>171</v>
+      </c>
+      <c r="B212" t="s">
+        <v>296</v>
+      </c>
+      <c r="C212" t="s">
         <v>354</v>
-      </c>
-      <c r="B212" t="s">
-        <v>208</v>
-      </c>
-      <c r="C212" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15">
       <c r="A213" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C213" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B214" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C214" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15">
       <c r="A215" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B215" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15">
       <c r="A216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B216" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="C216" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15">
       <c r="A217" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B217" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="C217" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15">
       <c r="A218" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B218" t="s">
         <v>196</v>
       </c>
       <c r="C218" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15">
       <c r="A219" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B219" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C219" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15">
       <c r="A220" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="B220" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C220" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15">
       <c r="A221" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B221" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="C221" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15">
       <c r="A222" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="B222" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="C222" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15">
       <c r="A223" t="s">
+        <v>60</v>
+      </c>
+      <c r="B223" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15">
+      <c r="A224" t="s">
         <v>207</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>196</v>
       </c>
-      <c r="C223" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="24"/>
-      <c r="B224" s="25"/>
-    </row>
+      <c r="C224" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="225" ht="15"/>
+    <row r="226" ht="15"/>
+    <row r="227" ht="15"/>
+    <row r="228" ht="15"/>
+    <row r="229" ht="15"/>
+    <row r="230" ht="15"/>
+    <row r="231" ht="15"/>
+    <row r="232" ht="15"/>
+    <row r="233" ht="15"/>
+    <row r="234" ht="15"/>
+    <row r="235" ht="15"/>
+    <row r="236" ht="15"/>
+    <row r="237" ht="15"/>
+    <row r="238" ht="15"/>
+    <row r="239" ht="15"/>
+    <row r="240" ht="15"/>
+    <row r="241" ht="15"/>
+    <row r="242" ht="15"/>
+    <row r="243" ht="15"/>
+    <row r="244" ht="15"/>
+    <row r="245" ht="15"/>
+    <row r="246" ht="15"/>
+    <row r="247" ht="15"/>
+    <row r="248" ht="15"/>
+    <row r="249" ht="15"/>
+    <row r="250" ht="15"/>
+    <row r="251" ht="15"/>
+    <row r="252" ht="15"/>
+    <row r="253" ht="15"/>
+    <row r="254" ht="15"/>
+    <row r="255" ht="15"/>
+    <row r="256" ht="15"/>
+    <row r="257" ht="15"/>
+    <row r="258" ht="15"/>
+    <row r="259" ht="15"/>
+    <row r="260" ht="15"/>
+    <row r="261" ht="15"/>
+    <row r="262" ht="15"/>
+    <row r="263" ht="15"/>
+    <row r="264" ht="15"/>
+    <row r="265" ht="15"/>
+    <row r="266" ht="15"/>
+    <row r="267" ht="15"/>
+    <row r="268" ht="15"/>
+    <row r="269" ht="15"/>
+    <row r="270" ht="15"/>
+    <row r="271" ht="15"/>
+    <row r="272" ht="15"/>
+    <row r="273" ht="15"/>
+    <row r="274" ht="15"/>
+    <row r="275" ht="15"/>
+    <row r="276" ht="15"/>
+    <row r="277" ht="15"/>
+    <row r="278" ht="15"/>
+    <row r="279" ht="15"/>
+    <row r="280" ht="15"/>
+    <row r="281" ht="15"/>
+    <row r="282" ht="15"/>
+    <row r="283" ht="15"/>
+    <row r="284" ht="15"/>
+    <row r="285" ht="15"/>
+    <row r="286" ht="15"/>
+    <row r="287" ht="15"/>
+    <row r="288" ht="15"/>
+    <row r="289" ht="15"/>
+    <row r="290" ht="15"/>
+    <row r="291" ht="15"/>
+    <row r="292" ht="15"/>
+    <row r="293" ht="15"/>
+    <row r="294" ht="15"/>
+    <row r="295" ht="15"/>
+    <row r="296" ht="15"/>
+    <row r="297" ht="15"/>
+    <row r="298" ht="15"/>
+    <row r="299" ht="15"/>
+    <row r="300" ht="15"/>
+    <row r="301" ht="15"/>
+    <row r="302" ht="15"/>
+    <row r="303" ht="15"/>
+    <row r="304" ht="15"/>
+    <row r="305" ht="15"/>
+    <row r="306" ht="15"/>
+    <row r="307" ht="15"/>
+    <row r="308" ht="15"/>
+    <row r="309" ht="15"/>
+    <row r="310" ht="15"/>
+    <row r="311" ht="15"/>
+    <row r="312" ht="15"/>
+    <row r="313" ht="15"/>
+    <row r="314" ht="15"/>
+    <row r="315" ht="15"/>
+    <row r="316" ht="15"/>
+    <row r="317" ht="15"/>
+    <row r="318" ht="15"/>
+    <row r="319" ht="15"/>
+    <row r="320" ht="15"/>
+    <row r="321" ht="15"/>
+    <row r="322" ht="15"/>
+    <row r="323" ht="15"/>
+    <row r="324" ht="15"/>
+    <row r="325" ht="15"/>
+    <row r="326" ht="15"/>
+    <row r="327" ht="15"/>
+    <row r="328" ht="15"/>
+    <row r="329" ht="15"/>
+    <row r="330" ht="15"/>
+    <row r="331" ht="15"/>
+    <row r="332" ht="15"/>
+    <row r="333" ht="15"/>
+    <row r="334" ht="15"/>
+    <row r="335" ht="15"/>
+    <row r="336" ht="15"/>
+    <row r="337" ht="15"/>
+    <row r="338" ht="15"/>
+    <row r="339" ht="15"/>
+    <row r="340" ht="15"/>
+    <row r="341" ht="15"/>
+    <row r="342" ht="15"/>
+    <row r="343" ht="15"/>
+    <row r="344" ht="15"/>
+    <row r="345" ht="15"/>
+    <row r="346" ht="15"/>
+    <row r="347" ht="15"/>
+    <row r="348" ht="15"/>
+    <row r="349" ht="15"/>
+    <row r="350" ht="15"/>
+    <row r="351" ht="15"/>
+    <row r="352" ht="15"/>
+    <row r="353" ht="15"/>
+    <row r="354" ht="15"/>
+    <row r="355" ht="15"/>
+    <row r="356" ht="15"/>
+    <row r="357" ht="15"/>
+    <row r="358" ht="15"/>
+    <row r="359" ht="15"/>
+    <row r="360" ht="15"/>
+    <row r="361" ht="15"/>
+    <row r="362" ht="15"/>
+    <row r="363" ht="15"/>
+    <row r="364" ht="15"/>
+    <row r="365" ht="15"/>
+    <row r="366" ht="15"/>
+    <row r="367" ht="15"/>
+    <row r="368" ht="15"/>
+    <row r="369" ht="15"/>
+    <row r="370" ht="15"/>
+    <row r="371" ht="15"/>
+    <row r="372" ht="15"/>
+    <row r="373" ht="15"/>
+    <row r="374" ht="15"/>
+    <row r="375" ht="15"/>
+    <row r="376" ht="15"/>
+    <row r="377" ht="15"/>
+    <row r="378" ht="15"/>
+    <row r="379" ht="15"/>
+    <row r="380" ht="15"/>
+    <row r="381" ht="15"/>
+    <row r="382" ht="15"/>
+    <row r="383" ht="15"/>
+    <row r="384" ht="15"/>
+    <row r="385" ht="15"/>
+    <row r="386" ht="15"/>
+    <row r="387" ht="15"/>
+    <row r="388" ht="15"/>
+    <row r="389" ht="15"/>
+    <row r="390" ht="15"/>
+    <row r="391" ht="15"/>
+    <row r="392" ht="15"/>
+    <row r="393" ht="15"/>
+    <row r="394" ht="15"/>
+    <row r="395" ht="15"/>
+    <row r="396" ht="15"/>
+    <row r="397" ht="15"/>
+    <row r="398" ht="15"/>
+    <row r="399" ht="15"/>
+    <row r="400" ht="15"/>
+    <row r="401" ht="15"/>
+    <row r="402" ht="15"/>
+    <row r="403" ht="15"/>
+    <row r="404" ht="15"/>
+    <row r="405" ht="15"/>
+    <row r="406" ht="15"/>
+    <row r="407" ht="15"/>
+    <row r="408" ht="15"/>
+    <row r="409" ht="15"/>
+    <row r="410" ht="15"/>
+    <row r="411" ht="15"/>
+    <row r="412" ht="15"/>
+    <row r="413" ht="15"/>
+    <row r="414" ht="15"/>
+    <row r="415" ht="15"/>
+    <row r="416" ht="15"/>
+    <row r="417" ht="15"/>
+    <row r="418" ht="15"/>
+    <row r="419" ht="15"/>
+    <row r="420" ht="15"/>
+    <row r="421" ht="15"/>
+    <row r="422" ht="15"/>
+    <row r="423" ht="15"/>
+    <row r="424" ht="15"/>
+    <row r="425" ht="15"/>
+    <row r="426" ht="15"/>
+    <row r="427" ht="15"/>
+    <row r="428" ht="15"/>
+    <row r="429" ht="15"/>
+    <row r="430" ht="15"/>
+    <row r="431" ht="15"/>
+    <row r="432" ht="15"/>
+    <row r="433" ht="15"/>
+    <row r="434" ht="15"/>
+    <row r="435" ht="15"/>
+    <row r="436" ht="15"/>
+    <row r="437" ht="15"/>
+    <row r="438" ht="15"/>
+    <row r="439" ht="15"/>
+    <row r="440" ht="15"/>
+    <row r="441" ht="15"/>
+    <row r="442" ht="15"/>
+    <row r="443" ht="15"/>
+    <row r="444" ht="15"/>
+    <row r="445" ht="15"/>
+    <row r="446" ht="15"/>
+    <row r="447" ht="15"/>
   </sheetData>
-  <autoFilter ref="A1:C224" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C224">
-      <sortCondition ref="A1:A224"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A2:A447" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19985,7 +20180,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -20004,7 +20199,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -20012,7 +20207,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -20028,7 +20223,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -20044,7 +20239,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -20052,7 +20247,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -20060,7 +20255,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -20068,7 +20263,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -20076,7 +20271,7 @@
         <v>504</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -20084,7 +20279,7 @@
         <v>672</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20092,7 +20287,7 @@
         <v>875</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -20100,7 +20295,7 @@
         <v>743</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -20108,7 +20303,7 @@
         <v>730</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -20116,7 +20311,7 @@
         <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -20124,7 +20319,7 @@
         <v>732</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/gestion/assets/excel-ejemplos/turnos.xlsx
+++ b/gestion/assets/excel-ejemplos/turnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efeno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97732D3-A6DE-4A5B-B59B-475556D28E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89438D5-D38A-4B1C-90A2-4E7E9183C241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3948" r:id="rId6"/>
+    <pivotCache cacheId="7905" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -114,135 +114,138 @@
     <t>CONTRATADO</t>
   </si>
   <si>
+    <t>SUPER ZOO ARAUCO MAIPÚ</t>
+  </si>
+  <si>
+    <t>$30.000</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>CHILENO</t>
+  </si>
+  <si>
+    <t>BANCO DE CHILE</t>
+  </si>
+  <si>
+    <t>DEFICIT PARTE DE FUERZA</t>
+  </si>
+  <si>
+    <t>MATIAS VILLARROEL</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SCOTIABANK</t>
+  </si>
+  <si>
+    <t>REEMPLAZO VACACIONES</t>
+  </si>
+  <si>
+    <t>$25.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre </t>
+  </si>
+  <si>
+    <t>EXTRANJERO</t>
+  </si>
+  <si>
+    <t>BANCO BICE</t>
+  </si>
+  <si>
+    <t>REEMPLAZO LICENCIA MEDICA</t>
+  </si>
+  <si>
+    <t>MOTIVOS</t>
+  </si>
+  <si>
+    <t>REACCIÓN</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>REEMPLAZO DIA LIBRE</t>
+  </si>
+  <si>
+    <t>REEMPLAZO AUSENCIA</t>
+  </si>
+  <si>
+    <t>REEMPLAZO CURSO OS10</t>
+  </si>
+  <si>
+    <t>REEMPLAZO PERMISO SIN GOCE</t>
+  </si>
+  <si>
+    <t>REEMPLAZO PERMISO CON GOCE</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Cuenta de Rut Jefe</t>
+  </si>
+  <si>
+    <t>AMADOR GUILLERMO RUIZ</t>
+  </si>
+  <si>
+    <t>AUTOPLANET PAICAVI</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 195 CONCEPCION</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 527, LAS MONJAS</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 191 COLON / NUEVA IMPERIAL</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 276 J. ALESSANDRI</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 289 BARRO ARANAS</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 466 LOS ANGELES</t>
+  </si>
+  <si>
+    <t>F.AHUMADA 643 CONCEPCION</t>
+  </si>
+  <si>
+    <t>IMPERIAL CONCEPCION</t>
+  </si>
+  <si>
+    <t>LA POLAR CONCEPCION</t>
+  </si>
+  <si>
+    <t>LA POLAR CORONEL</t>
+  </si>
+  <si>
+    <t>LA POLAR LOS ANGELES</t>
+  </si>
+  <si>
+    <t>TATTERSALL TALCAHUANO</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO ARAYA</t>
+  </si>
+  <si>
+    <t>F. AHUMADA 136 OVALLE</t>
+  </si>
+  <si>
+    <t>LA POLAR COPIAPO</t>
+  </si>
+  <si>
+    <t>LA POLAR COQUIMBO</t>
+  </si>
+  <si>
     <t>LA POLAR LA SERENA</t>
   </si>
   <si>
-    <t>$30.000</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>CHILENO</t>
-  </si>
-  <si>
-    <t>BANCO DE CHILE</t>
-  </si>
-  <si>
-    <t>DEFICIT PARTE DE FUERZA</t>
-  </si>
-  <si>
-    <t>MATIAS VILLARROEL</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>SCOTIABANK</t>
-  </si>
-  <si>
-    <t>REEMPLAZO VACACIONES</t>
-  </si>
-  <si>
-    <t>$25.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre </t>
-  </si>
-  <si>
-    <t>EXTRANJERO</t>
-  </si>
-  <si>
-    <t>BANCO BICE</t>
-  </si>
-  <si>
-    <t>REEMPLAZO LICENCIA MEDICA</t>
-  </si>
-  <si>
-    <t>MOTIVOS</t>
-  </si>
-  <si>
-    <t>REACCIÓN</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>REEMPLAZO DIA LIBRE</t>
-  </si>
-  <si>
-    <t>REEMPLAZO AUSENCIA</t>
-  </si>
-  <si>
-    <t>REEMPLAZO CURSO OS10</t>
-  </si>
-  <si>
-    <t>REEMPLAZO PERMISO SIN GOCE</t>
-  </si>
-  <si>
-    <t>REEMPLAZO PERMISO CON GOCE</t>
-  </si>
-  <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>Cuenta de Rut Jefe</t>
-  </si>
-  <si>
-    <t>AMADOR GUILLERMO RUIZ</t>
-  </si>
-  <si>
-    <t>AUTOPLANET PAICAVI</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 195 CONCEPCION</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 527, LAS MONJAS</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 191 COLON / NUEVA IMPERIAL</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 276 J. ALESSANDRI</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 289 BARRO ARANAS</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 466 LOS ANGELES</t>
-  </si>
-  <si>
-    <t>F.AHUMADA 643 CONCEPCION</t>
-  </si>
-  <si>
-    <t>IMPERIAL CONCEPCION</t>
-  </si>
-  <si>
-    <t>LA POLAR CONCEPCION</t>
-  </si>
-  <si>
-    <t>LA POLAR CORONEL</t>
-  </si>
-  <si>
-    <t>LA POLAR LOS ANGELES</t>
-  </si>
-  <si>
-    <t>TATTERSALL TALCAHUANO</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO ARAYA</t>
-  </si>
-  <si>
-    <t>F. AHUMADA 136 OVALLE</t>
-  </si>
-  <si>
-    <t>LA POLAR COPIAPO</t>
-  </si>
-  <si>
-    <t>LA POLAR COQUIMBO</t>
-  </si>
-  <si>
     <t>LA POLAR OVALLE</t>
   </si>
   <si>
@@ -1114,9 +1117,6 @@
   </si>
   <si>
     <t>SUPER ZOO ANTOFAGASTA</t>
-  </si>
-  <si>
-    <t>SUPER ZOO ARAUCO MAIPU</t>
   </si>
   <si>
     <t>SUPER ZOO COPIAPO</t>
@@ -4488,7 +4488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="3948" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24779AEC-82FB-428B-AA38-0F556D0A43F6}" name="TablaDinámica1" cacheId="7905" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="A3:B202" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -5610,7 +5610,7 @@
   <dimension ref="A1:U302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -5729,24 +5729,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" ht="30.75">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>VLOOKUP(C3,SUCURSALES!A:C,3,FALSE)</f>
-        <v>LA POLAR</v>
+        <v>SUPER ZOO</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>VLOOKUP(C3,SUCURSALES!A:B,2,FALSE)</f>
-        <v>CARLOS ALBERTO ARAYA</v>
+        <v>ALICIA MORALES</v>
       </c>
       <c r="F3" s="12">
-        <v>45691</v>
+        <v>45905</v>
       </c>
       <c r="G3" s="25">
         <v>0.40625</v>
@@ -5794,24 +5794,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="30.75">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>VLOOKUP(C4,SUCURSALES!A:C,3,FALSE)</f>
-        <v>LA POLAR</v>
+        <v>SUPER ZOO</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>VLOOKUP(C4,SUCURSALES!A:B,2,FALSE)</f>
-        <v>CARLOS ALBERTO ARAYA</v>
+        <v>ALICIA MORALES</v>
       </c>
       <c r="F4" s="12">
-        <v>45694</v>
+        <v>45905</v>
       </c>
       <c r="G4" s="25">
         <v>0.40625</v>
@@ -5859,24 +5859,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" ht="30.75">
       <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="10" t="str">
         <f>VLOOKUP(C5,SUCURSALES!A:C,3,FALSE)</f>
-        <v>LA POLAR</v>
+        <v>SUPER ZOO</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>VLOOKUP(C5,SUCURSALES!A:B,2,FALSE)</f>
-        <v>CARLOS ALBERTO ARAYA</v>
+        <v>ALICIA MORALES</v>
       </c>
       <c r="F5" s="12">
-        <v>45693</v>
+        <v>45905</v>
       </c>
       <c r="G5" s="25">
         <v>0.35416666666666669</v>
@@ -16021,7 +16021,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -16037,7 +16037,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -16045,7 +16045,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -16053,7 +16053,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -16069,7 +16069,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -16077,7 +16077,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -16093,7 +16093,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -16101,7 +16101,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -16117,7 +16117,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -16125,7 +16125,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -16133,7 +16133,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -16141,7 +16141,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -16149,7 +16149,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -16157,7 +16157,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -16165,7 +16165,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40">
         <v>59</v>
@@ -16173,7 +16173,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -16181,7 +16181,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -16189,7 +16189,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -16197,7 +16197,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -16205,7 +16205,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -16213,7 +16213,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -16221,7 +16221,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -16229,7 +16229,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -16237,7 +16237,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -16245,7 +16245,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -16261,7 +16261,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -16269,7 +16269,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -16285,7 +16285,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -16293,7 +16293,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -16301,7 +16301,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -16309,7 +16309,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -16317,7 +16317,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -16333,7 +16333,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -16341,7 +16341,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -16357,7 +16357,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -16381,7 +16381,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -16389,7 +16389,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -16397,7 +16397,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -16405,7 +16405,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -16413,7 +16413,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -16445,7 +16445,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -16453,7 +16453,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -16469,7 +16469,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -16477,7 +16477,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -16485,7 +16485,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -16493,7 +16493,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -16501,7 +16501,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -16517,7 +16517,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -16533,7 +16533,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -16541,7 +16541,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -16557,7 +16557,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -16565,7 +16565,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -16573,7 +16573,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -16581,7 +16581,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -16589,7 +16589,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -16597,7 +16597,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -16605,7 +16605,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -16613,7 +16613,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -16621,7 +16621,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -16629,7 +16629,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -16637,7 +16637,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -16645,7 +16645,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -16653,7 +16653,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -16661,7 +16661,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B103">
         <v>11</v>
@@ -16677,7 +16677,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -16685,7 +16685,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -16693,7 +16693,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -16701,7 +16701,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -16717,7 +16717,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -16725,7 +16725,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -16733,7 +16733,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -16741,7 +16741,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -16749,7 +16749,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -16757,7 +16757,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -16765,7 +16765,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B115">
         <v>14</v>
@@ -16773,7 +16773,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -16781,7 +16781,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -16797,7 +16797,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -16805,7 +16805,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -16813,7 +16813,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -16821,7 +16821,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -16829,7 +16829,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -16837,7 +16837,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -16845,7 +16845,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -16853,7 +16853,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -16861,7 +16861,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -16869,7 +16869,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -16877,7 +16877,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -16885,7 +16885,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -16893,7 +16893,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -16901,7 +16901,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B132">
         <v>13</v>
@@ -16909,7 +16909,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -16917,7 +16917,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -16925,7 +16925,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -16933,7 +16933,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -16941,7 +16941,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -16949,7 +16949,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -16957,7 +16957,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -16973,7 +16973,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -16981,7 +16981,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -16989,7 +16989,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -16997,7 +16997,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -17005,7 +17005,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -17013,7 +17013,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -17021,7 +17021,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -17029,7 +17029,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -17037,7 +17037,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -17045,7 +17045,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -17061,7 +17061,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -17077,7 +17077,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B154">
         <v>11</v>
@@ -17085,7 +17085,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -17093,7 +17093,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -17101,7 +17101,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -17109,7 +17109,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -17117,7 +17117,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -17133,7 +17133,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -17149,7 +17149,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -17157,7 +17157,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -17173,7 +17173,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B166">
         <v>33</v>
@@ -17181,7 +17181,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -17189,7 +17189,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -17197,7 +17197,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -17205,7 +17205,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -17221,7 +17221,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -17229,7 +17229,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -17237,7 +17237,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -17245,7 +17245,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -17253,7 +17253,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -17261,7 +17261,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -17269,7 +17269,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -17277,7 +17277,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -17285,7 +17285,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -17293,7 +17293,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -17301,7 +17301,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -17309,7 +17309,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -17317,7 +17317,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -17325,7 +17325,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -17341,7 +17341,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -17349,7 +17349,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -17357,7 +17357,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -17365,7 +17365,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -17373,7 +17373,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -17381,7 +17381,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -17389,7 +17389,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -17397,7 +17397,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -17413,7 +17413,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -17421,7 +17421,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -17437,7 +17437,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -17445,17 +17445,17 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B202">
         <v>183</v>
@@ -17468,10 +17468,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F458" sqref="F458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -17483,390 +17484,390 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" hidden="1">
       <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
         <v>249</v>
       </c>
-      <c r="B3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
+    </row>
+    <row r="4" spans="1:3" ht="15" hidden="1">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" hidden="1">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" hidden="1">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" hidden="1">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" hidden="1">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" hidden="1">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" hidden="1">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" hidden="1">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" hidden="1">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" hidden="1">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" hidden="1">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" hidden="1">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" hidden="1">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" hidden="1">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" hidden="1">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" hidden="1">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" hidden="1">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" hidden="1">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" hidden="1">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" hidden="1">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" hidden="1">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" hidden="1">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>273</v>
-      </c>
       <c r="C25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" hidden="1">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" hidden="1">
       <c r="A27" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
         <v>277</v>
       </c>
-      <c r="B27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15">
+    </row>
+    <row r="28" spans="1:3" ht="15" hidden="1">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" hidden="1">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" hidden="1">
       <c r="A30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" hidden="1">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" hidden="1">
       <c r="A32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" hidden="1">
       <c r="A33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" hidden="1">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" hidden="1">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" hidden="1">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -17874,406 +17875,406 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" hidden="1">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" hidden="1">
       <c r="A38" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" hidden="1">
       <c r="A39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" hidden="1">
       <c r="A40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" hidden="1">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" hidden="1">
       <c r="A42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" hidden="1">
       <c r="A43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" hidden="1">
       <c r="A44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" hidden="1">
       <c r="A45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" hidden="1">
       <c r="A46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
         <v>294</v>
       </c>
-      <c r="B46" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15">
+    </row>
+    <row r="47" spans="1:3" ht="15" hidden="1">
       <c r="A47" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" hidden="1">
       <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" hidden="1">
+      <c r="A49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" hidden="1">
+      <c r="A50" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50" t="s">
+        <v>297</v>
+      </c>
+      <c r="C50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" hidden="1">
+      <c r="A51" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" hidden="1">
+      <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" hidden="1">
+      <c r="A53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" t="s">
+        <v>297</v>
+      </c>
+      <c r="C53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" hidden="1">
+      <c r="A54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C54" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" hidden="1">
+      <c r="A55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" hidden="1">
+      <c r="A56" t="s">
+        <v>301</v>
+      </c>
+      <c r="B56" t="s">
+        <v>297</v>
+      </c>
+      <c r="C56" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" hidden="1">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" t="s">
         <v>209</v>
       </c>
-      <c r="B48" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B49" t="s">
-        <v>296</v>
-      </c>
-      <c r="C49" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15">
-      <c r="A50" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C50" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15">
-      <c r="A51" t="s">
-        <v>299</v>
-      </c>
-      <c r="B51" t="s">
-        <v>296</v>
-      </c>
-      <c r="C51" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15">
-      <c r="A52" t="s">
-        <v>211</v>
-      </c>
-      <c r="B52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15">
-      <c r="A53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" t="s">
-        <v>296</v>
-      </c>
-      <c r="C53" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15">
-      <c r="A54" t="s">
-        <v>213</v>
-      </c>
-      <c r="B54" t="s">
-        <v>296</v>
-      </c>
-      <c r="C54" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
-      <c r="A55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B55" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15">
-      <c r="A56" t="s">
-        <v>300</v>
-      </c>
-      <c r="B56" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15">
-      <c r="A57" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" t="s">
-        <v>208</v>
-      </c>
       <c r="C57" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" hidden="1">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" hidden="1">
       <c r="A59" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
         <v>304</v>
       </c>
-      <c r="B59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15">
+    </row>
+    <row r="60" spans="1:3" ht="15" hidden="1">
       <c r="A60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" hidden="1">
       <c r="A61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" hidden="1">
       <c r="A62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" hidden="1">
       <c r="A63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" hidden="1">
       <c r="A64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B64" t="s">
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" hidden="1">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" hidden="1">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" hidden="1">
       <c r="A67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" hidden="1">
       <c r="A68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" hidden="1">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" hidden="1">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" hidden="1">
       <c r="A71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" t="s">
         <v>197</v>
       </c>
-      <c r="B71" t="s">
-        <v>196</v>
-      </c>
       <c r="C71" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" hidden="1">
       <c r="A72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B72" t="s">
         <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" hidden="1">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -18281,10 +18282,10 @@
         <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" hidden="1">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -18292,87 +18293,87 @@
         <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" hidden="1">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" hidden="1">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" hidden="1">
       <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
       <c r="C77" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" hidden="1">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" hidden="1">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" hidden="1">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" hidden="1">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" hidden="1">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -18380,230 +18381,230 @@
         <v>47</v>
       </c>
       <c r="C82" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" hidden="1">
       <c r="A83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" hidden="1">
       <c r="A84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" hidden="1">
       <c r="A85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" hidden="1">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" hidden="1">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C87" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" hidden="1">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" hidden="1">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" hidden="1">
       <c r="A90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" hidden="1">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" hidden="1">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" hidden="1">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" hidden="1">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" hidden="1">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" hidden="1">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C96" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" hidden="1">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" hidden="1">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" hidden="1">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C99" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" hidden="1">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C100" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" hidden="1">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C101" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" hidden="1">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" hidden="1">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -18611,87 +18612,87 @@
         <v>47</v>
       </c>
       <c r="C103" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" hidden="1">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" hidden="1">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" hidden="1">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C106" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" hidden="1">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C107" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" hidden="1">
       <c r="A108" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" t="s">
         <v>146</v>
       </c>
-      <c r="B108" t="s">
-        <v>145</v>
-      </c>
       <c r="C108" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" hidden="1">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C109" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" hidden="1">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" hidden="1">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -18699,219 +18700,219 @@
         <v>47</v>
       </c>
       <c r="C111" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" hidden="1">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" hidden="1">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" hidden="1">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" hidden="1">
       <c r="A115" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" hidden="1">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" hidden="1">
       <c r="A117" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" hidden="1">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" hidden="1">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" hidden="1">
       <c r="A120" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C120" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" hidden="1">
       <c r="A121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C121" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" hidden="1">
       <c r="A122" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B122" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C122" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" hidden="1">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" hidden="1">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B124" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C124" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" hidden="1">
       <c r="A125" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C125" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" hidden="1">
       <c r="A126" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C126" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" hidden="1">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C127" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" hidden="1">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C128" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" hidden="1">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" hidden="1">
       <c r="A130" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C130" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" hidden="1">
       <c r="A131" t="s">
         <v>54</v>
       </c>
@@ -18919,164 +18920,164 @@
         <v>47</v>
       </c>
       <c r="C131" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" hidden="1">
       <c r="A132" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C132" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" hidden="1">
       <c r="A133" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" hidden="1">
       <c r="A134" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" hidden="1">
       <c r="A135" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C135" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" hidden="1">
       <c r="A136" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C136" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" hidden="1">
       <c r="A137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B137" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C137" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" hidden="1">
       <c r="A138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B138" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C138" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" hidden="1">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" hidden="1">
       <c r="A140" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B140" t="s">
         <v>61</v>
       </c>
       <c r="C140" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" hidden="1">
       <c r="A141" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B141" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C141" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" hidden="1">
       <c r="A142" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B142" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" hidden="1">
       <c r="A143" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" hidden="1">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C144" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" hidden="1">
       <c r="A145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B145" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C145" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" hidden="1">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -19084,230 +19085,230 @@
         <v>47</v>
       </c>
       <c r="C146" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" hidden="1">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B147" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C147" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" hidden="1">
       <c r="A148" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B148" t="s">
         <v>61</v>
       </c>
       <c r="C148" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" hidden="1">
       <c r="A149" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C149" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" hidden="1">
       <c r="A150" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C150" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" hidden="1">
       <c r="A151" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B151" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C151" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" hidden="1">
       <c r="A152" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B152" t="s">
         <v>61</v>
       </c>
       <c r="C152" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" hidden="1">
       <c r="A153" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B153" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C153" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" hidden="1">
       <c r="A154" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B154" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" hidden="1">
       <c r="A155" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B155" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C155" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" hidden="1">
       <c r="A156" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C156" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" hidden="1">
       <c r="A157" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C157" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" hidden="1">
       <c r="A158" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C158" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" hidden="1">
       <c r="A159" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" hidden="1">
       <c r="A160" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C160" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" hidden="1">
       <c r="A161" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C161" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" hidden="1">
       <c r="A162" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B162" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C162" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" hidden="1">
       <c r="A163" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C163" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" hidden="1">
       <c r="A164" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C164" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="15">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" hidden="1">
       <c r="A165" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C165" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" hidden="1">
       <c r="A166" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B166" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C166" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" hidden="1">
       <c r="A167" t="s">
         <v>57</v>
       </c>
@@ -19315,10 +19316,10 @@
         <v>47</v>
       </c>
       <c r="C167" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" hidden="1">
       <c r="A168" t="s">
         <v>63</v>
       </c>
@@ -19326,10 +19327,10 @@
         <v>61</v>
       </c>
       <c r="C168" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" hidden="1">
       <c r="A169" t="s">
         <v>64</v>
       </c>
@@ -19337,419 +19338,419 @@
         <v>61</v>
       </c>
       <c r="C169" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" hidden="1">
       <c r="A170" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B170" t="s">
         <v>61</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" hidden="1">
       <c r="A171" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B171" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C171" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" hidden="1">
       <c r="A172" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B172" t="s">
         <v>61</v>
       </c>
       <c r="C172" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" hidden="1">
       <c r="A173" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B173" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C173" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" hidden="1">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C174" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" hidden="1">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B175" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C175" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" hidden="1">
       <c r="A176" t="s">
+        <v>339</v>
+      </c>
+      <c r="B176" t="s">
+        <v>197</v>
+      </c>
+      <c r="C176" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" hidden="1">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s">
+        <v>274</v>
+      </c>
+      <c r="C177" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" hidden="1">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" t="s">
+        <v>274</v>
+      </c>
+      <c r="C178" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" hidden="1">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" t="s">
+        <v>274</v>
+      </c>
+      <c r="C179" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" hidden="1">
+      <c r="A180" t="s">
+        <v>342</v>
+      </c>
+      <c r="B180" t="s">
+        <v>197</v>
+      </c>
+      <c r="C180" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" hidden="1">
+      <c r="A181" t="s">
+        <v>343</v>
+      </c>
+      <c r="B181" t="s">
+        <v>344</v>
+      </c>
+      <c r="C181" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" hidden="1">
+      <c r="A182" t="s">
+        <v>346</v>
+      </c>
+      <c r="B182" t="s">
+        <v>197</v>
+      </c>
+      <c r="C182" t="s">
         <v>338</v>
       </c>
-      <c r="B176" t="s">
-        <v>196</v>
-      </c>
-      <c r="C176" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15">
-      <c r="A177" t="s">
-        <v>181</v>
-      </c>
-      <c r="B177" t="s">
-        <v>273</v>
-      </c>
-      <c r="C177" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15">
-      <c r="A178" t="s">
-        <v>182</v>
-      </c>
-      <c r="B178" t="s">
-        <v>273</v>
-      </c>
-      <c r="C178" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15">
-      <c r="A179" t="s">
-        <v>183</v>
-      </c>
-      <c r="B179" t="s">
-        <v>273</v>
-      </c>
-      <c r="C179" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15">
-      <c r="A180" t="s">
-        <v>341</v>
-      </c>
-      <c r="B180" t="s">
-        <v>196</v>
-      </c>
-      <c r="C180" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15">
-      <c r="A181" t="s">
-        <v>342</v>
-      </c>
-      <c r="B181" t="s">
-        <v>343</v>
-      </c>
-      <c r="C181" t="s">
+    </row>
+    <row r="183" spans="1:3" ht="15" hidden="1">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>175</v>
+      </c>
+      <c r="C183" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" hidden="1">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>175</v>
+      </c>
+      <c r="C184" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" hidden="1">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>175</v>
+      </c>
+      <c r="C185" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" hidden="1">
+      <c r="A186" t="s">
+        <v>348</v>
+      </c>
+      <c r="B186" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" hidden="1">
+      <c r="A187" t="s">
+        <v>349</v>
+      </c>
+      <c r="B187" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" hidden="1">
+      <c r="A188" t="s">
+        <v>350</v>
+      </c>
+      <c r="B188" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="15">
-      <c r="A182" t="s">
+      <c r="C188" t="s">
         <v>345</v>
       </c>
-      <c r="B182" t="s">
-        <v>196</v>
-      </c>
-      <c r="C182" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15">
-      <c r="A183" t="s">
-        <v>184</v>
-      </c>
-      <c r="B183" t="s">
-        <v>174</v>
-      </c>
-      <c r="C183" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15">
-      <c r="A184" t="s">
-        <v>185</v>
-      </c>
-      <c r="B184" t="s">
-        <v>174</v>
-      </c>
-      <c r="C184" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="15">
-      <c r="A185" t="s">
-        <v>186</v>
-      </c>
-      <c r="B185" t="s">
-        <v>174</v>
-      </c>
-      <c r="C185" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15">
-      <c r="A186" t="s">
-        <v>347</v>
-      </c>
-      <c r="B186" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15">
-      <c r="A187" t="s">
-        <v>348</v>
-      </c>
-      <c r="B187" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15">
-      <c r="A188" t="s">
-        <v>349</v>
-      </c>
-      <c r="B188" t="s">
-        <v>343</v>
-      </c>
-      <c r="C188" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15">
+    </row>
+    <row r="189" spans="1:3" ht="15" hidden="1">
       <c r="A189" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C189" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" hidden="1">
       <c r="A190" t="s">
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" hidden="1">
       <c r="A191" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B191" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C191" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" hidden="1">
       <c r="A192" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B192" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C192" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" hidden="1">
       <c r="A193" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B193" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C193" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" hidden="1">
       <c r="A194" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B194" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C194" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" hidden="1">
       <c r="A195" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B195" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C195" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" hidden="1">
       <c r="A196" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B196" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C196" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" hidden="1">
       <c r="A197" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B197" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C197" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" hidden="1">
       <c r="A198" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B198" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C198" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" hidden="1">
       <c r="A199" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B199" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C199" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" hidden="1">
       <c r="A200" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B200" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C200" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" hidden="1">
       <c r="A201" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B201" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C201" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" hidden="1">
       <c r="A202" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B202" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C202" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" hidden="1">
       <c r="A203" t="s">
+        <v>354</v>
+      </c>
+      <c r="B203" t="s">
+        <v>260</v>
+      </c>
+      <c r="C203" t="s">
         <v>353</v>
       </c>
-      <c r="B203" t="s">
-        <v>259</v>
-      </c>
-      <c r="C203" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="15">
+    </row>
+    <row r="204" spans="1:3" ht="15" hidden="1">
       <c r="A204" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C204" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" hidden="1">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B205" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C205" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" hidden="1">
       <c r="A206" t="s">
+        <v>356</v>
+      </c>
+      <c r="B206" t="s">
+        <v>197</v>
+      </c>
+      <c r="C206" t="s">
         <v>355</v>
-      </c>
-      <c r="B206" t="s">
-        <v>196</v>
-      </c>
-      <c r="C206" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15">
       <c r="A207" t="s">
-        <v>356</v>
+        <v>22</v>
       </c>
       <c r="B207" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C207" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" hidden="1">
       <c r="A208" t="s">
         <v>357</v>
       </c>
@@ -19757,164 +19758,164 @@
         <v>61</v>
       </c>
       <c r="C208" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" hidden="1">
       <c r="A209" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B209" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" hidden="1">
       <c r="A210" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C210" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" hidden="1">
       <c r="A211" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C211" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" hidden="1">
       <c r="A212" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B212" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C212" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15" hidden="1">
       <c r="A213" t="s">
         <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C213" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" hidden="1">
       <c r="A214" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C214" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" hidden="1">
       <c r="A215" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C215" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" hidden="1">
       <c r="A216" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B216" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C216" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" hidden="1">
       <c r="A217" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C217" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" hidden="1">
       <c r="A218" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B218" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C218" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15">
+    <row r="219" spans="1:3" ht="15" hidden="1">
       <c r="A219" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B219" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C219" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15">
+    <row r="220" spans="1:3" ht="15" hidden="1">
       <c r="A220" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B220" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C220" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15">
+    <row r="221" spans="1:3" ht="15" hidden="1">
       <c r="A221" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B221" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C221" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15">
+    <row r="222" spans="1:3" ht="15" hidden="1">
       <c r="A222" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B222" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C222" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15">
+    <row r="223" spans="1:3" ht="15" hidden="1">
       <c r="A223" t="s">
         <v>60</v>
       </c>
@@ -19925,242 +19926,248 @@
         <v>359</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15">
+    <row r="224" spans="1:3" ht="15" hidden="1">
       <c r="A224" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B224" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C224" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="225" ht="15"/>
-    <row r="226" ht="15"/>
-    <row r="227" ht="15"/>
-    <row r="228" ht="15"/>
-    <row r="229" ht="15"/>
-    <row r="230" ht="15"/>
-    <row r="231" ht="15"/>
-    <row r="232" ht="15"/>
-    <row r="233" ht="15"/>
-    <row r="234" ht="15"/>
-    <row r="235" ht="15"/>
-    <row r="236" ht="15"/>
-    <row r="237" ht="15"/>
-    <row r="238" ht="15"/>
-    <row r="239" ht="15"/>
-    <row r="240" ht="15"/>
-    <row r="241" ht="15"/>
-    <row r="242" ht="15"/>
-    <row r="243" ht="15"/>
-    <row r="244" ht="15"/>
-    <row r="245" ht="15"/>
-    <row r="246" ht="15"/>
-    <row r="247" ht="15"/>
-    <row r="248" ht="15"/>
-    <row r="249" ht="15"/>
-    <row r="250" ht="15"/>
-    <row r="251" ht="15"/>
-    <row r="252" ht="15"/>
-    <row r="253" ht="15"/>
-    <row r="254" ht="15"/>
-    <row r="255" ht="15"/>
-    <row r="256" ht="15"/>
-    <row r="257" ht="15"/>
-    <row r="258" ht="15"/>
-    <row r="259" ht="15"/>
-    <row r="260" ht="15"/>
-    <row r="261" ht="15"/>
-    <row r="262" ht="15"/>
-    <row r="263" ht="15"/>
-    <row r="264" ht="15"/>
-    <row r="265" ht="15"/>
-    <row r="266" ht="15"/>
-    <row r="267" ht="15"/>
-    <row r="268" ht="15"/>
-    <row r="269" ht="15"/>
-    <row r="270" ht="15"/>
-    <row r="271" ht="15"/>
-    <row r="272" ht="15"/>
-    <row r="273" ht="15"/>
-    <row r="274" ht="15"/>
-    <row r="275" ht="15"/>
-    <row r="276" ht="15"/>
-    <row r="277" ht="15"/>
-    <row r="278" ht="15"/>
-    <row r="279" ht="15"/>
-    <row r="280" ht="15"/>
-    <row r="281" ht="15"/>
-    <row r="282" ht="15"/>
-    <row r="283" ht="15"/>
-    <row r="284" ht="15"/>
-    <row r="285" ht="15"/>
-    <row r="286" ht="15"/>
-    <row r="287" ht="15"/>
-    <row r="288" ht="15"/>
-    <row r="289" ht="15"/>
-    <row r="290" ht="15"/>
-    <row r="291" ht="15"/>
-    <row r="292" ht="15"/>
-    <row r="293" ht="15"/>
-    <row r="294" ht="15"/>
-    <row r="295" ht="15"/>
-    <row r="296" ht="15"/>
-    <row r="297" ht="15"/>
-    <row r="298" ht="15"/>
-    <row r="299" ht="15"/>
-    <row r="300" ht="15"/>
-    <row r="301" ht="15"/>
-    <row r="302" ht="15"/>
-    <row r="303" ht="15"/>
-    <row r="304" ht="15"/>
-    <row r="305" ht="15"/>
-    <row r="306" ht="15"/>
-    <row r="307" ht="15"/>
-    <row r="308" ht="15"/>
-    <row r="309" ht="15"/>
-    <row r="310" ht="15"/>
-    <row r="311" ht="15"/>
-    <row r="312" ht="15"/>
-    <row r="313" ht="15"/>
-    <row r="314" ht="15"/>
-    <row r="315" ht="15"/>
-    <row r="316" ht="15"/>
-    <row r="317" ht="15"/>
-    <row r="318" ht="15"/>
-    <row r="319" ht="15"/>
-    <row r="320" ht="15"/>
-    <row r="321" ht="15"/>
-    <row r="322" ht="15"/>
-    <row r="323" ht="15"/>
-    <row r="324" ht="15"/>
-    <row r="325" ht="15"/>
-    <row r="326" ht="15"/>
-    <row r="327" ht="15"/>
-    <row r="328" ht="15"/>
-    <row r="329" ht="15"/>
-    <row r="330" ht="15"/>
-    <row r="331" ht="15"/>
-    <row r="332" ht="15"/>
-    <row r="333" ht="15"/>
-    <row r="334" ht="15"/>
-    <row r="335" ht="15"/>
-    <row r="336" ht="15"/>
-    <row r="337" ht="15"/>
-    <row r="338" ht="15"/>
-    <row r="339" ht="15"/>
-    <row r="340" ht="15"/>
-    <row r="341" ht="15"/>
-    <row r="342" ht="15"/>
-    <row r="343" ht="15"/>
-    <row r="344" ht="15"/>
-    <row r="345" ht="15"/>
-    <row r="346" ht="15"/>
-    <row r="347" ht="15"/>
-    <row r="348" ht="15"/>
-    <row r="349" ht="15"/>
-    <row r="350" ht="15"/>
-    <row r="351" ht="15"/>
-    <row r="352" ht="15"/>
-    <row r="353" ht="15"/>
-    <row r="354" ht="15"/>
-    <row r="355" ht="15"/>
-    <row r="356" ht="15"/>
-    <row r="357" ht="15"/>
-    <row r="358" ht="15"/>
-    <row r="359" ht="15"/>
-    <row r="360" ht="15"/>
-    <row r="361" ht="15"/>
-    <row r="362" ht="15"/>
-    <row r="363" ht="15"/>
-    <row r="364" ht="15"/>
-    <row r="365" ht="15"/>
-    <row r="366" ht="15"/>
-    <row r="367" ht="15"/>
-    <row r="368" ht="15"/>
-    <row r="369" ht="15"/>
-    <row r="370" ht="15"/>
-    <row r="371" ht="15"/>
-    <row r="372" ht="15"/>
-    <row r="373" ht="15"/>
-    <row r="374" ht="15"/>
-    <row r="375" ht="15"/>
-    <row r="376" ht="15"/>
-    <row r="377" ht="15"/>
-    <row r="378" ht="15"/>
-    <row r="379" ht="15"/>
-    <row r="380" ht="15"/>
-    <row r="381" ht="15"/>
-    <row r="382" ht="15"/>
-    <row r="383" ht="15"/>
-    <row r="384" ht="15"/>
-    <row r="385" ht="15"/>
-    <row r="386" ht="15"/>
-    <row r="387" ht="15"/>
-    <row r="388" ht="15"/>
-    <row r="389" ht="15"/>
-    <row r="390" ht="15"/>
-    <row r="391" ht="15"/>
-    <row r="392" ht="15"/>
-    <row r="393" ht="15"/>
-    <row r="394" ht="15"/>
-    <row r="395" ht="15"/>
-    <row r="396" ht="15"/>
-    <row r="397" ht="15"/>
-    <row r="398" ht="15"/>
-    <row r="399" ht="15"/>
-    <row r="400" ht="15"/>
-    <row r="401" ht="15"/>
-    <row r="402" ht="15"/>
-    <row r="403" ht="15"/>
-    <row r="404" ht="15"/>
-    <row r="405" ht="15"/>
-    <row r="406" ht="15"/>
-    <row r="407" ht="15"/>
-    <row r="408" ht="15"/>
-    <row r="409" ht="15"/>
-    <row r="410" ht="15"/>
-    <row r="411" ht="15"/>
-    <row r="412" ht="15"/>
-    <row r="413" ht="15"/>
-    <row r="414" ht="15"/>
-    <row r="415" ht="15"/>
-    <row r="416" ht="15"/>
-    <row r="417" ht="15"/>
-    <row r="418" ht="15"/>
-    <row r="419" ht="15"/>
-    <row r="420" ht="15"/>
-    <row r="421" ht="15"/>
-    <row r="422" ht="15"/>
-    <row r="423" ht="15"/>
-    <row r="424" ht="15"/>
-    <row r="425" ht="15"/>
-    <row r="426" ht="15"/>
-    <row r="427" ht="15"/>
-    <row r="428" ht="15"/>
-    <row r="429" ht="15"/>
-    <row r="430" ht="15"/>
-    <row r="431" ht="15"/>
-    <row r="432" ht="15"/>
-    <row r="433" ht="15"/>
-    <row r="434" ht="15"/>
-    <row r="435" ht="15"/>
-    <row r="436" ht="15"/>
-    <row r="437" ht="15"/>
-    <row r="438" ht="15"/>
-    <row r="439" ht="15"/>
-    <row r="440" ht="15"/>
-    <row r="441" ht="15"/>
-    <row r="442" ht="15"/>
-    <row r="443" ht="15"/>
-    <row r="444" ht="15"/>
-    <row r="445" ht="15"/>
-    <row r="446" ht="15"/>
-    <row r="447" ht="15"/>
+    <row r="225" ht="15" hidden="1"/>
+    <row r="226" ht="15" hidden="1"/>
+    <row r="227" ht="15" hidden="1"/>
+    <row r="228" ht="15" hidden="1"/>
+    <row r="229" ht="15" hidden="1"/>
+    <row r="230" ht="15" hidden="1"/>
+    <row r="231" ht="15" hidden="1"/>
+    <row r="232" ht="15" hidden="1"/>
+    <row r="233" ht="15" hidden="1"/>
+    <row r="234" ht="15" hidden="1"/>
+    <row r="235" ht="15" hidden="1"/>
+    <row r="236" ht="15" hidden="1"/>
+    <row r="237" ht="15" hidden="1"/>
+    <row r="238" ht="15" hidden="1"/>
+    <row r="239" ht="15" hidden="1"/>
+    <row r="240" ht="15" hidden="1"/>
+    <row r="241" ht="15" hidden="1"/>
+    <row r="242" ht="15" hidden="1"/>
+    <row r="243" ht="15" hidden="1"/>
+    <row r="244" ht="15" hidden="1"/>
+    <row r="245" ht="15" hidden="1"/>
+    <row r="246" ht="15" hidden="1"/>
+    <row r="247" ht="15" hidden="1"/>
+    <row r="248" ht="15" hidden="1"/>
+    <row r="249" ht="15" hidden="1"/>
+    <row r="250" ht="15" hidden="1"/>
+    <row r="251" ht="15" hidden="1"/>
+    <row r="252" ht="15" hidden="1"/>
+    <row r="253" ht="15" hidden="1"/>
+    <row r="254" ht="15" hidden="1"/>
+    <row r="255" ht="15" hidden="1"/>
+    <row r="256" ht="15" hidden="1"/>
+    <row r="257" ht="15" hidden="1"/>
+    <row r="258" ht="15" hidden="1"/>
+    <row r="259" ht="15" hidden="1"/>
+    <row r="260" ht="15" hidden="1"/>
+    <row r="261" ht="15" hidden="1"/>
+    <row r="262" ht="15" hidden="1"/>
+    <row r="263" ht="15" hidden="1"/>
+    <row r="264" ht="15" hidden="1"/>
+    <row r="265" ht="15" hidden="1"/>
+    <row r="266" ht="15" hidden="1"/>
+    <row r="267" ht="15" hidden="1"/>
+    <row r="268" ht="15" hidden="1"/>
+    <row r="269" ht="15" hidden="1"/>
+    <row r="270" ht="15" hidden="1"/>
+    <row r="271" ht="15" hidden="1"/>
+    <row r="272" ht="15" hidden="1"/>
+    <row r="273" ht="15" hidden="1"/>
+    <row r="274" ht="15" hidden="1"/>
+    <row r="275" ht="15" hidden="1"/>
+    <row r="276" ht="15" hidden="1"/>
+    <row r="277" ht="15" hidden="1"/>
+    <row r="278" ht="15" hidden="1"/>
+    <row r="279" ht="15" hidden="1"/>
+    <row r="280" ht="15" hidden="1"/>
+    <row r="281" ht="15" hidden="1"/>
+    <row r="282" ht="15" hidden="1"/>
+    <row r="283" ht="15" hidden="1"/>
+    <row r="284" ht="15" hidden="1"/>
+    <row r="285" ht="15" hidden="1"/>
+    <row r="286" ht="15" hidden="1"/>
+    <row r="287" ht="15" hidden="1"/>
+    <row r="288" ht="15" hidden="1"/>
+    <row r="289" ht="15" hidden="1"/>
+    <row r="290" ht="15" hidden="1"/>
+    <row r="291" ht="15" hidden="1"/>
+    <row r="292" ht="15" hidden="1"/>
+    <row r="293" ht="15" hidden="1"/>
+    <row r="294" ht="15" hidden="1"/>
+    <row r="295" ht="15" hidden="1"/>
+    <row r="296" ht="15" hidden="1"/>
+    <row r="297" ht="15" hidden="1"/>
+    <row r="298" ht="15" hidden="1"/>
+    <row r="299" ht="15" hidden="1"/>
+    <row r="300" ht="15" hidden="1"/>
+    <row r="301" ht="15" hidden="1"/>
+    <row r="302" ht="15" hidden="1"/>
+    <row r="303" ht="15" hidden="1"/>
+    <row r="304" ht="15" hidden="1"/>
+    <row r="305" ht="15" hidden="1"/>
+    <row r="306" ht="15" hidden="1"/>
+    <row r="307" ht="15" hidden="1"/>
+    <row r="308" ht="15" hidden="1"/>
+    <row r="309" ht="15" hidden="1"/>
+    <row r="310" ht="15" hidden="1"/>
+    <row r="311" ht="15" hidden="1"/>
+    <row r="312" ht="15" hidden="1"/>
+    <row r="313" ht="15" hidden="1"/>
+    <row r="314" ht="15" hidden="1"/>
+    <row r="315" ht="15" hidden="1"/>
+    <row r="316" ht="15" hidden="1"/>
+    <row r="317" ht="15" hidden="1"/>
+    <row r="318" ht="15" hidden="1"/>
+    <row r="319" ht="15" hidden="1"/>
+    <row r="320" ht="15" hidden="1"/>
+    <row r="321" ht="15" hidden="1"/>
+    <row r="322" ht="15" hidden="1"/>
+    <row r="323" ht="15" hidden="1"/>
+    <row r="324" ht="15" hidden="1"/>
+    <row r="325" ht="15" hidden="1"/>
+    <row r="326" ht="15" hidden="1"/>
+    <row r="327" ht="15" hidden="1"/>
+    <row r="328" ht="15" hidden="1"/>
+    <row r="329" ht="15" hidden="1"/>
+    <row r="330" ht="15" hidden="1"/>
+    <row r="331" ht="15" hidden="1"/>
+    <row r="332" ht="15" hidden="1"/>
+    <row r="333" ht="15" hidden="1"/>
+    <row r="334" ht="15" hidden="1"/>
+    <row r="335" ht="15" hidden="1"/>
+    <row r="336" ht="15" hidden="1"/>
+    <row r="337" ht="15" hidden="1"/>
+    <row r="338" ht="15" hidden="1"/>
+    <row r="339" ht="15" hidden="1"/>
+    <row r="340" ht="15" hidden="1"/>
+    <row r="341" ht="15" hidden="1"/>
+    <row r="342" ht="15" hidden="1"/>
+    <row r="343" ht="15" hidden="1"/>
+    <row r="344" ht="15" hidden="1"/>
+    <row r="345" ht="15" hidden="1"/>
+    <row r="346" ht="15" hidden="1"/>
+    <row r="347" ht="15" hidden="1"/>
+    <row r="348" ht="15" hidden="1"/>
+    <row r="349" ht="15" hidden="1"/>
+    <row r="350" ht="15" hidden="1"/>
+    <row r="351" ht="15" hidden="1"/>
+    <row r="352" ht="15" hidden="1"/>
+    <row r="353" ht="15" hidden="1"/>
+    <row r="354" ht="15" hidden="1"/>
+    <row r="355" ht="15" hidden="1"/>
+    <row r="356" ht="15" hidden="1"/>
+    <row r="357" ht="15" hidden="1"/>
+    <row r="358" ht="15" hidden="1"/>
+    <row r="359" ht="15" hidden="1"/>
+    <row r="360" ht="15" hidden="1"/>
+    <row r="361" ht="15" hidden="1"/>
+    <row r="362" ht="15" hidden="1"/>
+    <row r="363" ht="15" hidden="1"/>
+    <row r="364" ht="15" hidden="1"/>
+    <row r="365" ht="15" hidden="1"/>
+    <row r="366" ht="15" hidden="1"/>
+    <row r="367" ht="15" hidden="1"/>
+    <row r="368" ht="15" hidden="1"/>
+    <row r="369" ht="15" hidden="1"/>
+    <row r="370" ht="15" hidden="1"/>
+    <row r="371" ht="15" hidden="1"/>
+    <row r="372" ht="15" hidden="1"/>
+    <row r="373" ht="15" hidden="1"/>
+    <row r="374" ht="15" hidden="1"/>
+    <row r="375" ht="15" hidden="1"/>
+    <row r="376" ht="15" hidden="1"/>
+    <row r="377" ht="15" hidden="1"/>
+    <row r="378" ht="15" hidden="1"/>
+    <row r="379" ht="15" hidden="1"/>
+    <row r="380" ht="15" hidden="1"/>
+    <row r="381" ht="15" hidden="1"/>
+    <row r="382" ht="15" hidden="1"/>
+    <row r="383" ht="15" hidden="1"/>
+    <row r="384" ht="15" hidden="1"/>
+    <row r="385" ht="15" hidden="1"/>
+    <row r="386" ht="15" hidden="1"/>
+    <row r="387" ht="15" hidden="1"/>
+    <row r="388" ht="15" hidden="1"/>
+    <row r="389" ht="15" hidden="1"/>
+    <row r="390" ht="15" hidden="1"/>
+    <row r="391" ht="15" hidden="1"/>
+    <row r="392" ht="15" hidden="1"/>
+    <row r="393" ht="15" hidden="1"/>
+    <row r="394" ht="15" hidden="1"/>
+    <row r="395" ht="15" hidden="1"/>
+    <row r="396" ht="15" hidden="1"/>
+    <row r="397" ht="15" hidden="1"/>
+    <row r="398" ht="15" hidden="1"/>
+    <row r="399" ht="15" hidden="1"/>
+    <row r="400" ht="15" hidden="1"/>
+    <row r="401" ht="15" hidden="1"/>
+    <row r="402" ht="15" hidden="1"/>
+    <row r="403" ht="15" hidden="1"/>
+    <row r="404" ht="15" hidden="1"/>
+    <row r="405" ht="15" hidden="1"/>
+    <row r="406" ht="15" hidden="1"/>
+    <row r="407" ht="15" hidden="1"/>
+    <row r="408" ht="15" hidden="1"/>
+    <row r="409" ht="15" hidden="1"/>
+    <row r="410" ht="15" hidden="1"/>
+    <row r="411" ht="15" hidden="1"/>
+    <row r="412" ht="15" hidden="1"/>
+    <row r="413" ht="15" hidden="1"/>
+    <row r="414" ht="15" hidden="1"/>
+    <row r="415" ht="15" hidden="1"/>
+    <row r="416" ht="15" hidden="1"/>
+    <row r="417" ht="15" hidden="1"/>
+    <row r="418" ht="15" hidden="1"/>
+    <row r="419" ht="15" hidden="1"/>
+    <row r="420" ht="15" hidden="1"/>
+    <row r="421" ht="15" hidden="1"/>
+    <row r="422" ht="15" hidden="1"/>
+    <row r="423" ht="15" hidden="1"/>
+    <row r="424" ht="15" hidden="1"/>
+    <row r="425" ht="15" hidden="1"/>
+    <row r="426" ht="15" hidden="1"/>
+    <row r="427" ht="15" hidden="1"/>
+    <row r="428" ht="15" hidden="1"/>
+    <row r="429" ht="15" hidden="1"/>
+    <row r="430" ht="15" hidden="1"/>
+    <row r="431" ht="15" hidden="1"/>
+    <row r="432" ht="15" hidden="1"/>
+    <row r="433" ht="15" hidden="1"/>
+    <row r="434" ht="15" hidden="1"/>
+    <row r="435" ht="15" hidden="1"/>
+    <row r="436" ht="15" hidden="1"/>
+    <row r="437" ht="15" hidden="1"/>
+    <row r="438" ht="15" hidden="1"/>
+    <row r="439" ht="15" hidden="1"/>
+    <row r="440" ht="15" hidden="1"/>
+    <row r="441" ht="15" hidden="1"/>
+    <row r="442" ht="15" hidden="1"/>
+    <row r="443" ht="15" hidden="1"/>
+    <row r="444" ht="15" hidden="1"/>
+    <row r="445" ht="15" hidden="1"/>
+    <row r="446" ht="15" hidden="1"/>
+    <row r="447" ht="15" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A2:A447" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:A447" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="SUPER ZOO ARAUCO MAIPU"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
